--- a/radon/data.xlsx
+++ b/radon/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,25 +471,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LEE TEX</t>
+          <t>Ask4Fashion</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Women Regular Fit Black Cotton Blend Trousers</t>
+          <t>Women Regular Fit Black Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/i/4/e/m-bell-bottom-trouser-lee-tex-original-imaggz42x9dyptqf.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shopsy-trouser/j/l/0/l-rk-blk-bc-0001-bootcut-trousers-aditi-fashion-original-imaga5hwmghzgdgr-bb.jpeg?q=70</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/lee-tex-regular-fit-women-black-trousers/p/itme90a343a00c8c?pid=TROGFRT7CWZXXWRM&amp;lid=LSTTROGFRT7CWZXXWRMMTAVAK&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_14&amp;otracker=search&amp;iid=9cbac44c-a98e-4ba7-99f7-0ea5f1a35555.TROGFRT7CWZXXWRM.SEARCH&amp;ssid=253ln9kzc00000001681754807541&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/ask4fashion-regular-fit-women-black-trousers/p/itm2f44d75654893?pid=TROGB62BH9AFZC5G&amp;lid=LSTTROGB62BH9AFZC5GIIOJU8&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_21&amp;otracker=search&amp;iid=en_%2Fzb5cccG%2BNAxlFWnIlFWqxO1CRT0kxF2BuEAjuCcv%2FsTVghTXAmBH378AgDL3JRr08%2BQwHLe9cKNqXWG%2F8%2B3%2Bw%3D%3D&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/KOTTY-Womens-Solid-Polyester-Trousers/dp/B0B49SCGMY/ref=sr_1_3?keywords=pants&amp;qid=1681754814&amp;sr=8-3</t>
+          <t>https://www.amazon.com/KOTTY-Womens-Solid-Polyester-Trousers/dp/B0B49SCGMY/ref=sr_1_7?keywords=pants&amp;qid=1681876994&amp;sr=8-7</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -537,12 +537,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AVOLT</t>
+          <t>LEE TEX</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Dry Fit Track Pants Combo I Slim Fit Sports Track Pants</t>
+          <t>Women Regular Fit Green Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -550,17 +550,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61iSZEH6PJL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/t/g/f/28-trouser-50-lee-tex-original-imaghkgd7ajsvxzm.jpeg?q=70</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/AVOLT-Track-Athleisure-Running-Stretchable/dp/B09VPK6WZC/ref=sr_1_19?keywords=pants&amp;qid=1681754814&amp;sr=8-19</t>
+          <t>https://www.flipkart.com/lee-tex-regular-fit-women-green-trousers/p/itmf8460dfc9b939?pid=TROGHKK5FGHFYX5T&amp;lid=LSTTROGHKK5FGHFYX5TQTBZL8&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_17&amp;otracker=search&amp;iid=en_%2Fzb5cccG%2BNAxlFWnIlFWqxO1CRT0kxF2BuEAjuCcv%2FtO6vU0U9PysF2ER794tiuXxj%2BLaaOAIixZ1hXypPlG9A%3D%3D&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>flipkart</t>
         </is>
       </c>
     </row>
@@ -570,12 +570,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Foxter</t>
+          <t>VIMAL JONNEY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Women Regular Fit Beige Cotton Blend Trousers</t>
+          <t>Vimal Men's Trackpantss</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -583,17 +583,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/x/w/9/30-women-trouser-lupi-foxter-original-imagm99d33kn48rh.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/513AablIIfL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/foxter-regular-fit-women-beige-trousers/p/itmcf14947090753?pid=TROGM99DXXYC7GSH&amp;lid=LSTTROGM99DXXYC7GSH67DICT&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_31&amp;otracker=search&amp;iid=en_GFUWZMIHtXxYnN7%2FWMASHkOF8iIadlWEXqDvZpHr6XwXiZpi4ETsSybEe%2BzLjP6BX6nwlyuV4XSlEMu4fmZg5w%3D%3D&amp;ssid=253ln9kzc00000001681754807541&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/VIMAL-Mens-Track-Pants-D10NAVY-M_Navy/dp/B01AAWUYJO/ref=sr_1_50?keywords=pants&amp;qid=1681876994&amp;sr=8-50</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -603,12 +603,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Foxter</t>
+          <t>AVOLT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Women Regular Fit Black Cotton Blend Trousers</t>
+          <t>Dry Fit Track Pants Combo I Slim Fit Sports Track Pants</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -616,17 +616,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/y/v/e/32-women-trouser-lupi-foxter-original-imagm99dzsz3fnqy.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/61iSZEH6PJL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/foxter-regular-fit-women-black-trousers/p/itmda18cb8e68aa7?pid=TROGM99DRXGSA7MN&amp;lid=LSTTROGM99DRXGSA7MNASGNHK&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_32&amp;otracker=search&amp;iid=en_GFUWZMIHtXxYnN7%2FWMASHkOF8iIadlWEXqDvZpHr6Xy21StV6hGmYgpS4UCLpUUBERnY3%2F5m8EoI8%2B2RoVn4oQ%3D%3D&amp;ssid=253ln9kzc00000001681754807541&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/AVOLT-Track-Athleisure-Running-Stretchable/dp/B09VPK6WZC/ref=sr_1_19?keywords=pants&amp;qid=1681876994&amp;sr=8-19</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -636,25 +636,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Foxter</t>
+          <t>ADDYVERO</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Women Regular Fit Dark Green Cotton Blend Trousers</t>
+          <t>Women Regular Fit Black Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/s/o/k/36-women-trouser-lupi-foxter-original-imagm99dsrzgkfvh.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/k80iqa80/trouser/8/e/r/32-cl-wm-l0729-addyvero-original-imafq4j9byegfugj.jpeg?q=70</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/foxter-regular-fit-women-dark-green-trousers/p/itm514264970db18?pid=TROGM99DG5FQP9KM&amp;lid=LSTTROGM99DG5FQP9KMDLOSSF&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_37&amp;otracker=search&amp;iid=en_GFUWZMIHtXxYnN7%2FWMASHkOF8iIadlWEXqDvZpHr6XxNuIfTS0GzMGbReDAth2UAgm%2FafJ6FHnunIbpIDH%2FaTg%3D%3D&amp;ssid=253ln9kzc00000001681754807541&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/addyvero-regular-fit-women-black-trousers/p/itmdfe8b3d718721?pid=TROFPJ8BTSFFGGYH&amp;lid=LSTTROFPJ8BTSFFGGYH0M8BA7&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_19&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROFPJ8BTSFFGGYH.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -669,25 +669,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>COMBRAIDED</t>
+          <t>KOTTY</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Men Slim Fit Maroon Lycra Blend Trousers</t>
+          <t>Women Regular Fit Black Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/g/r/d/34-vb-maroon-combraided-original-imagmm79wxhna48s.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/8/n/5/28-kttwomenspant261-kotty-original-imagnrr9xcy9zgru.jpeg?q=70</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/combraided-slim-fit-men-maroon-trousers/p/itmf86e0bc2c2f7b?pid=TROGMM7ADSCPASAQ&amp;lid=LSTTROGMM7ADSCPASAQYVQXOA&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_8&amp;otracker=search&amp;iid=en_GFUWZMIHtXxYnN7%2FWMASHkOF8iIadlWEXqDvZpHr6XwccpU%2BrgNMnsve5IhGWMgnwU9wyksVtLKMSoywuUkcrA%3D%3D&amp;ssid=253ln9kzc00000001681754807541&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/kotty-regular-fit-women-black-trousers/p/itm126ac29fac269?pid=TROGHF9CQCPGXPXM&amp;lid=LSTTROGHF9CQCPGXPXMGBCIM6&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;spotlightTagId=BestsellerId_clo%2Fvua&amp;srno=s_1_10&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROGHF9CQCPGXPXM.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -702,30 +702,30 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SWADESI STUFF</t>
+          <t>KOTTY</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Dry Fit Track Pant for Men | Slim Fit Running Gym Stretchable Jogger</t>
+          <t>Women Flared Black Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61B56ZjWatL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/q/e/h/26-kttwomenspant323-kotty-original-imagn2z6h6g4qunz.jpeg?q=70</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/SWADESI-STUFF-Running-Stretchable-Jogger/dp/B0BDWN5LDK/ref=sr_1_26?keywords=pants&amp;qid=1681754814&amp;sr=8-26</t>
+          <t>https://www.flipkart.com/kotty-flared-women-black-trousers/p/itm518c3cae464ad?pid=TROGMYCSD82PUBZN&amp;lid=LSTTROGMYCSD82PUBZNYXWLAS&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_12&amp;otracker=search&amp;iid=en_%2Fzb5cccG%2BNAxlFWnIlFWqxO1CRT0kxF2BuEAjuCcv%2FvlwLkzqp2Tw%2Bjpza%2F0meVVGHQ%2FhAUJzyDo%2BI3jQ7UW9w%3D%3D&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>flipkart</t>
         </is>
       </c>
     </row>
@@ -740,7 +740,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Women Regular Fit Black Viscose Rayon Trousers</t>
+          <t>Women Regular Fit Green Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -748,12 +748,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/f/q/p/28-kottywomenspant261-kotty-original-imaghe3gmpq6yrty.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/o/h/s/28-kottywomenspant151-kotty-original-imagnz56ubjgwuzu.jpeg?q=70</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-regular-fit-women-black-trousers/p/itm52402672f82b6?pid=TROGHE3MYRFN8RGN&amp;lid=LSTTROGHE3MYRFN8RGNWSVYE9&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;spotlightTagId=BestsellerId_clo%2Fvua&amp;srno=s_1_35&amp;otracker=search&amp;iid=9cbac44c-a98e-4ba7-99f7-0ea5f1a35555.TROGHE3MYRFN8RGN.SEARCH&amp;ssid=253ln9kzc00000001681754807541&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/kotty-regular-fit-women-green-trousers/p/itmf8cd900a09a26?pid=TROGF3FZZN4JCHYY&amp;lid=LSTTROGF3FZZN4JCHYY8JJ4BV&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_16&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROGF3FZZN4JCHYY.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Women Regular Fit Multicolor Viscose Rayon Trousers</t>
+          <t>Women Regular Fit Dark Green Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -781,12 +781,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/l3xcr680/trouser/6/4/8/34-kttwomenspant193-kotty-original-imagexzyukt6z2s4.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/l3hmwsw0/trouser/n/u/d/34-kttwomenspant154-kotty-original-imagehhkqnqkwt9e.jpeg?q=70</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-regular-fit-women-multicolor-trousers/p/itm0751085d21a56?pid=TROGEYF7EVGM44YZ&amp;lid=LSTTROGEYF7EVGM44YZXMYKRI&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_22&amp;otracker=search&amp;iid=en_GFUWZMIHtXxYnN7%2FWMASHkOF8iIadlWEXqDvZpHr6Xw0jum28gOkLEEDf0uokNju4zwoT7lQLOH970kdHDVVxQ%3D%3D&amp;ssid=253ln9kzc00000001681754807541&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/kotty-regular-fit-women-dark-green-trousers/p/itmc6ae5bea4da08?pid=TROGEHHK8HJ5VP73&amp;lid=LSTTROGEHHK8HJ5VP73LJBNSF&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;spotlightTagId=FkPickId_clo%2Fvua&amp;srno=s_1_40&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROGEHHK8HJ5VP73.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Women Regular Fit Green Viscose Rayon Trousers</t>
+          <t>Women Flared Multicolor Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -814,12 +814,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/o/h/s/28-kottywomenspant151-kotty-original-imagnz56ubjgwuzu.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/l3xcr680/trouser/w/i/7/34-kttwomenspant186-kotty-original-imagexz8pgcgf7wz.jpeg?q=70</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-regular-fit-women-green-trousers/p/itmf8cd900a09a26?pid=TROGF3FZZN4JCHYY&amp;lid=LSTTROGF3FZZN4JCHYY8JJ4BV&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_19&amp;otracker=search&amp;iid=9cbac44c-a98e-4ba7-99f7-0ea5f1a35555.TROGF3FZZN4JCHYY.SEARCH&amp;ssid=253ln9kzc00000001681754807541&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/kotty-flared-women-multicolor-trousers/p/itm6b26c2c2cf148?pid=TROGEYF7BDYFZ2JZ&amp;lid=LSTTROGEYF7BDYFZ2JZGVMXTO&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_39&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROGEYF7BDYFZ2JZ.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Women Regular Fit Dark Green Viscose Rayon Trousers</t>
+          <t>Women Regular Fit Black Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -847,12 +847,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/l47cu4w0/trouser/i/k/v/30-kottywomenspant154-kotty-original-imagf5nctpcjxabc.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/f/q/p/28-kottywomenspant261-kotty-original-imaghe3gmpq6yrty.jpeg?q=70</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-regular-fit-women-dark-green-trousers/p/itmc5df26954a566?pid=TROGF5NDQ8VDF4HH&amp;lid=LSTTROGF5NDQ8VDF4HHRHBTWQ&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_13&amp;otracker=search&amp;iid=9cbac44c-a98e-4ba7-99f7-0ea5f1a35555.TROGF5NDQ8VDF4HH.SEARCH&amp;ssid=253ln9kzc00000001681754807541&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/kotty-regular-fit-women-black-trousers/p/itm52402672f82b6?pid=TROGHE3MYRFN8RGN&amp;lid=LSTTROGHE3MYRFN8RGNWSVYE9&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;spotlightTagId=BestsellerId_clo%2Fvua&amp;srno=s_1_34&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROGHE3MYRFN8RGN.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Women Regular Fit Black Viscose Rayon Trousers</t>
+          <t>Women Regular Fit Dark Green Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -880,12 +880,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/8/n/5/28-kttwomenspant261-kotty-original-imagnrr9xcy9zgru.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/l47cu4w0/trouser/i/k/v/30-kottywomenspant154-kotty-original-imagf5nctpcjxabc.jpeg?q=70</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-regular-fit-women-black-trousers/p/itm126ac29fac269?pid=TROGHF9CQCPGXPXM&amp;lid=LSTTROGHF9CQCPGXPXMGBCIM6&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;spotlightTagId=BestsellerId_clo%2Fvua&amp;srno=s_1_10&amp;otracker=search&amp;iid=9cbac44c-a98e-4ba7-99f7-0ea5f1a35555.TROGHF9CQCPGXPXM.SEARCH&amp;ssid=253ln9kzc00000001681754807541&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/kotty-regular-fit-women-dark-green-trousers/p/itmc5df26954a566?pid=TROGF5NDQ8VDF4HH&amp;lid=LSTTROGF5NDQ8VDF4HHRHBTWQ&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_13&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROGF5NDQ8VDF4HH.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -900,30 +900,30 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>KOTTY</t>
+          <t>JUGULAR</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Women Regular Fit Dark Green Viscose Rayon Trousers</t>
+          <t>Men's Slim Fit Cotton Track Pant</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/l3hmwsw0/trouser/n/u/d/34-kttwomenspant154-kotty-original-imagehhkqnqkwt9e.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/61SJTcmtp-L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-regular-fit-women-dark-green-trousers/p/itmc6ae5bea4da08?pid=TROGEHHK8HJ5VP73&amp;lid=LSTTROGEHHK8HJ5VP73LJBNSF&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;spotlightTagId=FkPickId_clo%2Fvua&amp;srno=s_1_40&amp;otracker=search&amp;iid=9cbac44c-a98e-4ba7-99f7-0ea5f1a35555.TROGEHHK8HJ5VP73.SEARCH&amp;ssid=253ln9kzc00000001681754807541&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/JUGULAR-Cotton-Style-Joggers-Medium/dp/B091YJ78JK/ref=sr_1_32?keywords=pants&amp;qid=1681876994&amp;sr=8-32</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -933,25 +933,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>KOTTY</t>
+          <t>VURSO</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Women Flared Black Viscose Rayon Trousers</t>
+          <t>Men Slim Fit Silver Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/l4ssfww0/trouser/z/w/z/30-kottywomenspant172-kotty-original-imagfm3ytnbtweyw.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/z/g/d/30-fkvt-11-og-vurso-original-imafxufhhqzbjdfr.jpeg?q=70</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-flared-women-black-trousers/p/itm049c30e1702e4?pid=TROGFM3YRZEGQJA8&amp;lid=LSTTROGFM3YRZEGQJA8KL9I5K&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_27&amp;otracker=search&amp;iid=en_GFUWZMIHtXxYnN7%2FWMASHkOF8iIadlWEXqDvZpHr6XxDNAPBvutqbH2MLetepUqzRqMyAHq0%2FHkRYtlpzTxLHg%3D%3D&amp;ssid=253ln9kzc00000001681754807541&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/vurso-slim-fit-men-silver-trousers/p/itm6c04e4eb51c53?pid=TROGHHTGCRUXJX5T&amp;lid=LSTTROGHHTGCRUXJX5TKSUA3I&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_2&amp;otracker=search&amp;iid=en_%2Fzb5cccG%2BNAxlFWnIlFWqxO1CRT0kxF2BuEAjuCcv%2FtuZbOT1GAPPRaU%2Bnt7gbViGbEz3M5kx%2FRZ5sqt1dhtcQ%3D%3D&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -966,30 +966,30 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>JUGULAR</t>
+          <t>KOTTY</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Men's Slim Fit Cotton Track Pant</t>
+          <t>Women Regular Fit Yellow Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61SJTcmtp-L._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/t/c/l/30-kottywomenspant205-kotty-original-imaggjhvyvhkpssb.jpeg?q=70</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/JUGULAR-Cotton-Style-Joggers-Medium/dp/B091YJ78JK/ref=sr_1_36?keywords=pants&amp;qid=1681754814&amp;sr=8-36</t>
+          <t>https://www.flipkart.com/kotty-regular-fit-women-yellow-trousers/p/itm5a919c54e492b?pid=TROGGJHWTVQUWG55&amp;lid=LSTTROGGJHWTVQUWG55UALJGW&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_36&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROGGJHWTVQUWG55.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>flipkart</t>
         </is>
       </c>
     </row>
@@ -999,30 +999,30 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>VURSO</t>
+          <t>ADDYVERO</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Men Slim Fit Silver Viscose Rayon Trousers</t>
+          <t>Women's Slim Fit Casual Trousers</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/z/g/d/30-fkvt-11-og-vurso-original-imafxufhhqzbjdfr.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/61r+ZK+jPtL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/vurso-slim-fit-men-silver-trousers/p/itm6c04e4eb51c53?pid=TROGHHTGCRUXJX5T&amp;lid=LSTTROGHHTGCRUXJX5TKSUA3I&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_17&amp;otracker=search&amp;iid=en_GFUWZMIHtXxYnN7%2FWMASHkOF8iIadlWEXqDvZpHr6Xwni2wdPPlR6gxMJOfYn6fI763l2MG424jmiwTTkyIUkg%3D%3D&amp;ssid=253ln9kzc00000001681754807541&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/ADDYVERO-Flared-Ankle-Length-Trousers/dp/B085MCKV8F/ref=sr_1_11?keywords=pants&amp;qid=1681876994&amp;sr=8-11</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/ENDEAVOUR-WEAR-Regular-Track-EWTS_CTNBLACKTRACK_M_Black_M/dp/B09B3YC8XM/ref=sr_1_29?keywords=pants&amp;qid=1681754814&amp;sr=8-29</t>
+          <t>https://www.amazon.com/ENDEAVOUR-WEAR-Regular-Track-EWTS_CTNBLACKTRACK_M_Black_M/dp/B09B3YC8XM/ref=sr_1_33?keywords=pants&amp;qid=1681876994&amp;sr=8-33</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Women Regular Fit Yellow Viscose Rayon Trousers</t>
+          <t>Women Regular Fit Black Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1078,12 +1078,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/l5bd5zk0/trouser/b/1/t/26-kttwomenspant205-kotty-original-imaggyhnxn2paafy.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/p/x/u/32-kttwomenspant320-kotty-original-imagmycp9ehhrusk.jpeg?q=70</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-regular-fit-women-yellow-trousers/p/itma756388cfcb9e?pid=TROGGYHNZ7YNMJNC&amp;lid=LSTTROGGYHNZ7YNMJNCGWYSQT&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_15&amp;otracker=search&amp;iid=9cbac44c-a98e-4ba7-99f7-0ea5f1a35555.TROGGYHNZ7YNMJNC.SEARCH&amp;ssid=253ln9kzc00000001681754807541&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/kotty-regular-fit-women-black-trousers/p/itmdc4fa491469e5?pid=TROGMYCR7XGFHA5R&amp;lid=LSTTROGMYCR7XGFHA5RZLJPRD&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_11&amp;otracker=search&amp;iid=en_%2Fzb5cccG%2BNAxlFWnIlFWqxO1CRT0kxF2BuEAjuCcv%2FuBQLayOMaEpKSXCPU7b3SHRmKsq1aM30UYOIujJ1OaWg%3D%3D&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ADDYVERO</t>
+          <t>Shasmi</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Women Regular Fit Black Cotton Blend Trousers</t>
+          <t>Women's Dress Pants Stretchy Work Slacks Business Casual Office Bootcut Leg Elastic Waist Regular Fit Plazzo Trouser Pant (Pant 65)</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1111,17 +1111,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/k80iqa80/trouser/8/e/r/32-cl-wm-l0729-addyvero-original-imafq4j9byegfugj.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/51ylFhZJI2L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/addyvero-regular-fit-women-black-trousers/p/itmdfe8b3d718721?pid=TROFPJ8BTSFFGGYH&amp;lid=LSTTROFPJ8BTSFFGGYH0M8BA7&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_33&amp;otracker=search&amp;iid=9cbac44c-a98e-4ba7-99f7-0ea5f1a35555.TROFPJ8BTSFFGGYH.SEARCH&amp;ssid=253ln9kzc00000001681754807541&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/Shasmi-Fit-Plazzo-Trouser-Pant/dp/B0BPT47WX8/ref=sr_1_35?keywords=pants&amp;qid=1681876994&amp;sr=8-35</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -1131,12 +1131,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ADDYVERO</t>
+          <t>KOTTY</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Women's Slim Fit Casual Trousers</t>
+          <t>Women Regular Fit Brown Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61r+ZK+jPtL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/l5bd5zk0/trouser/w/e/k/34-kttwomenspant204-kotty-original-imaggyhngpnnkgcp.jpeg?q=70</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/ADDYVERO-Flared-Ankle-Length-Trousers/dp/B085MCKV8F/ref=sr_1_4?keywords=pants&amp;qid=1681754814&amp;sr=8-4</t>
+          <t>https://www.flipkart.com/kotty-regular-fit-women-brown-trousers/p/itm1a3305a09bc95?pid=TROGGYHNRR3Q6RMG&amp;lid=LSTTROGGYHNRR3Q6RMG1GCJEL&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_35&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROGGYHNRR3Q6RMG.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>flipkart</t>
         </is>
       </c>
     </row>
@@ -1164,12 +1164,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Lyra</t>
+          <t>KOTTY</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Women's Pants</t>
+          <t>Women Regular Fit Yellow Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1177,17 +1177,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71GBsZngAKL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/l5bd5zk0/trouser/b/1/t/26-kttwomenspant205-kotty-original-imaggyhnxn2paafy.jpeg?q=70</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/LUX-LYRA-Womens-Tapered-LYRA_KURTIPANT_13_FS_1PC_Maroon_One/dp/B07HZB1D4T/ref=sr_1_47?keywords=pants&amp;qid=1681754814&amp;sr=8-47</t>
+          <t>https://www.flipkart.com/kotty-regular-fit-women-yellow-trousers/p/itma756388cfcb9e?pid=TROGGYHNZ7YNMJNC&amp;lid=LSTTROGGYHNZ7YNMJNCGWYSQT&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_15&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROGGYHNZ7YNMJNC.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>flipkart</t>
         </is>
       </c>
     </row>
@@ -1197,25 +1197,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ELANHOOD</t>
+          <t>CYPHUS</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Men Regular Fit Grey Cotton Blend Trousers</t>
+          <t>Men Regular Fit Cream Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/p/v/r/30-elan-single-elanhood-original-imag3ebkwtzjdkry-bb.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/d/v/4/30-cyfor-d-cyphus-original-imag6yzdegs7d3ut-bb.jpeg?q=70</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/elanhood-regular-fit-men-grey-trousers/p/itm55a5037f10efe?pid=TROG3EBHUZWT2MBC&amp;lid=LSTTROG3EBHUZWT2MBCPTLZYL&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_24&amp;otracker=search&amp;iid=9cbac44c-a98e-4ba7-99f7-0ea5f1a35555.TROG3EBHUZWT2MBC.SEARCH&amp;ssid=253ln9kzc00000001681754807541&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/cyphus-regular-fit-men-cream-trousers/p/itm14b821e1cd2ab?pid=TROGFFXYUKYJZDGX&amp;lid=LSTTROGFFXYUKYJZDGXZPZOL8&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_6&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROGFFXYUKYJZDGX.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/cyphus-regular-fit-men-grey-trousers/p/itm40e4db39b1570?pid=TROGF9CB4ESVPYPW&amp;lid=LSTTROGF9CB4ESVPYPWJ8JKYE&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_26&amp;otracker=search&amp;iid=9cbac44c-a98e-4ba7-99f7-0ea5f1a35555.TROGF9CB4ESVPYPW.SEARCH&amp;ssid=253ln9kzc00000001681754807541&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/cyphus-regular-fit-men-grey-trousers/p/itm40e4db39b1570?pid=TROGF9CB4ESVPYPW&amp;lid=LSTTROGF9CB4ESVPYPWJ8JKYE&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_23&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROGF9CB4ESVPYPW.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1263,30 +1263,30 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CYPHUS</t>
+          <t>Amazon Brand - Symbol</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Men Regular Fit Cream Cotton Blend Trousers</t>
+          <t>Men's Regular Casual Trousers</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/d/v/4/30-cyfor-d-cyphus-original-imag6yzdegs7d3ut-bb.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/61UhkAmRVyL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/cyphus-regular-fit-men-cream-trousers/p/itm14b821e1cd2ab?pid=TROGFFXYUKYJZDGX&amp;lid=LSTTROGFFXYUKYJZDGXZPZOL8&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_23&amp;otracker=search&amp;iid=9cbac44c-a98e-4ba7-99f7-0ea5f1a35555.TROGFFXYUKYJZDGX.SEARCH&amp;ssid=253ln9kzc00000001681754807541&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NDQ5Mzk5MDkwMTUyODg3OjE2ODE4NzY5OTQ6c3BfYXRmOjIwMTAzOTQ2MDAwNjk4OjowOjo&amp;url=%2FAmazon-Brand-Symbol-Trousers-AW-SY-MCT-1153_Navy_30W%2Fdp%2FB07KVXCR6G%2Fref%3Dsr_1_4_sspa%3Fkeywords%3Dpants%26qid%3D1681876994%26sr%3D8-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -1296,30 +1296,30 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CYPHUS</t>
+          <t>JPM brothers</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Men Regular Fit Black Cotton Blend Trousers</t>
+          <t>Mens Regular Fit Lycra Pant</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/ksgehzk0/trouser/k/2/q/32-cyfor-a-cyphus-original-imag6yyyedypgvke.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/71dZDoqZEfL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/cyphus-regular-fit-men-black-trousers/p/itmcc7fe4e00b2c2?pid=TROFZVRWWTM8VEWT&amp;lid=LSTTROFZVRWWTM8VEWTQBEJLA&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;spotlightTagId=BestsellerId_clo%2Fvua&amp;srno=s_1_5&amp;otracker=search&amp;iid=9cbac44c-a98e-4ba7-99f7-0ea5f1a35555.TROFZVRWWTM8VEWT.SEARCH&amp;ssid=253ln9kzc00000001681754807541&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/JPM-brothers-Polyester-BUTTON-LIGHTGREY-XL_Light-Grey_XL/dp/B0BGXZJC6S/ref=sr_1_27?keywords=pants&amp;qid=1681876994&amp;sr=8-27</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -1329,30 +1329,30 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>JPM brothers</t>
+          <t>LEE TEX</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Mens Regular Fit Lycra Pant</t>
+          <t>Pack of 2 Women Regular Fit Multicolor Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71dZDoqZEfL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/m/o/v/32-bell-bottom-trouser-lee-tex-original-imaggxthwevffc7b.jpeg?q=70</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/JPM-brothers-Polyester-BUTTON-LIGHTGREY-XL_Light-Grey_XL/dp/B0BGXZJC6S/ref=sr_1_18?keywords=pants&amp;qid=1681754814&amp;sr=8-18</t>
+          <t>https://www.flipkart.com/lee-tex-regular-fit-women-multicolor-trousers/p/itmc711bcd8076cb?pid=TROGGXTMHGGMFGEA&amp;lid=LSTTROGGXTMHGGMFGEARR4BU7&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_18&amp;otracker=search&amp;iid=en_%2Fzb5cccG%2BNAxlFWnIlFWqxO1CRT0kxF2BuEAjuCcv%2FvBcLf1WUPkVRhzOqPV3x7nhLLnPk2ayHpn8AGNohP%2FOw%3D%3D&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>flipkart</t>
         </is>
       </c>
     </row>
@@ -1362,30 +1362,30 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>LEE TEX</t>
+          <t>JUGULAR</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Pack of 2 Women Regular Fit Purple, Blue Cotton Blend Trousers</t>
+          <t>Men's Regular Fit Cotton Pant And Joggers</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/p/c/v/34-bell-bottom-trouser-lee-tex-original-imagkhahbnchn2wn.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/51e3d6L6EDL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/lee-tex-regular-fit-women-purple-blue-trousers/p/itm23060ade90f6a?pid=TROGKHAMFPGPHKQ6&amp;lid=LSTTROGKHAMFPGPHKQ6BGSUBZ&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_21&amp;otracker=search&amp;iid=en_GFUWZMIHtXxYnN7%2FWMASHkOF8iIadlWEXqDvZpHr6XyR3KEhynCweQKqWcsnh%2FEdgPLEUhc5ZxpEXvjYrvx%2BUw%3D%3D&amp;ssid=253ln9kzc00000001681754807541&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/JUGULAR-Cotton-Track-Joggers-X-Large/dp/B09W9X6LG6/ref=sr_1_38?keywords=pants&amp;qid=1681876994&amp;sr=8-38</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -1395,30 +1395,30 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Pivl</t>
+          <t>Aahwan</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Pack of 2 Men Striped Black, Dark Green Track Pants</t>
+          <t>Women's &amp; Girls' Solid Split Hem Flare Leg Pants Trouser</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>449</v>
+        <v>474</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/l5e81ow0/track-pant/f/y/q/m-pv-5201-combo4-pivl-original-imagg2ub2gzsf9fk.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/51tzz6Ib+PL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/pivl-striped-men-black-dark-green-track-pants/p/itm3a58a5571567f?pid=TKPGFEBG3FF4JGH8&amp;lid=LSTTKPGFEBG3FF4JGH8W1EIK7&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_20&amp;otracker=search&amp;iid=9cbac44c-a98e-4ba7-99f7-0ea5f1a35555.TKPGFEBG3FF4JGH8.SEARCH&amp;ssid=253ln9kzc00000001681754807541&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/Aahwan-Solid-Trouser-Womens-212-Black-S/dp/B0BTDCLR6D/ref=sr_1_5?keywords=pants&amp;qid=1681876994&amp;sr=8-5</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -1428,25 +1428,25 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>VIMAL JONNEY</t>
+          <t>BLUE STAR SHARK</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Vimal Men's Trackpantss</t>
+          <t>Men's Lycra Stretchable Regular Fit Joggers Navy Track Pant Lower</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/513AablIIfL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51d74502ZVL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/VIMAL-Mens-Track-Pants-D10NAVY-M_Navy/dp/B01AAWUYJO/ref=sr_1_46?keywords=pants&amp;qid=1681754814&amp;sr=8-46</t>
+          <t>https://www.amazon.com/BLUE-STAR-SHARK-Stretchable-Regular/dp/B0BJBHNQHQ/ref=sr_1_56?keywords=pants&amp;qid=1681876994&amp;sr=8-56</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1461,25 +1461,25 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Aahwan</t>
+          <t>JUGULAR</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Women's &amp; Girls' Solid Split Hem Flare Leg Pants Trouser</t>
+          <t>Men's Slim Fit Track pants</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51tzz6Ib+PL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71r3RWbLWAL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Aahwan-Solid-Trouser-Womens-212-Black-S/dp/B0BTDCLR6D/ref=sr_1_1?keywords=pants&amp;qid=1681754814&amp;sr=8-1</t>
+          <t>https://www.amazon.com/JUGULAR-Solid-Regular-Cargo-X-Large/dp/B0855KB2HM/ref=sr_1_6?keywords=pants&amp;qid=1681876994&amp;sr=8-6</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1494,30 +1494,30 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>JUGULAR</t>
+          <t>Laabha</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Men's Slim Fit Track pants</t>
+          <t>Solid Track Pants</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71r3RWbLWAL._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/JUGULAR-Solid-Regular-Cargo-X-Large/dp/B0855KB2HM/ref=sr_1_6?keywords=pants&amp;qid=1681754814&amp;sr=8-6</t>
+          <t>https://www.myntra.com/track-pants/laabha/laabha-solid-track-pants/21975656/buy</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -1527,30 +1527,30 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>El Cielo</t>
+          <t>Laabha</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Men Regular Fit Grey Cotton Blend Trousers</t>
+          <t>Solid Track Pants</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/l51d30w0/trouser/1/h/t/34-el-p-cot-el-cielo-original-imagfszgzyjxqy8y.jpeg?q=70</t>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21975652/2023/2/21/65fb8b94-d83d-4354-bca2-395279f286041676959772591-Laabha-Women-Track-Pants-6261676959771524-1.jpg</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/el-cielo-regular-fit-men-grey-trousers/p/itmb3e2ffae91653?pid=TROGEJJ6HPNP7XJK&amp;lid=LSTTROGEJJ6HPNP7XJK6RSKQG&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_38&amp;otracker=search&amp;iid=en_GFUWZMIHtXxYnN7%2FWMASHkOF8iIadlWEXqDvZpHr6XxRiQWqNfkJ7JOCfRtWcyOp4SOcOt04TA7NXXtVgqj7sQ%3D%3D&amp;ssid=253ln9kzc00000001681754807541&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.myntra.com/track-pants/laabha/laabha-solid-track-pants/21975652/buy</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -1560,30 +1560,30 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CHARLIE CARLOS</t>
+          <t>Hubberholme</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Men Regular Fit Light Blue Viscose Rayon Trousers</t>
+          <t>Men Track Pants</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/w/p/o/34-ft-9dssb-charlie-carlos-original-imagh86zbqqtbvvx.jpeg?q=70</t>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/1088888/2016/5/11/11462961543084-Hubberholme-Navy-Tailored-Fit-Track-Pants-921462961542776-1.jpg</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/charlie-carlos-regular-fit-men-light-blue-trousers/p/itm5f37a1f1f380f?pid=TROGGKXXRYCUEFJD&amp;lid=LSTTROGGKXXRYCUEFJDBWK3FI&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_18&amp;otracker=search&amp;iid=en_GFUWZMIHtXxYnN7%2FWMASHkOF8iIadlWEXqDvZpHr6XyPpzLJ0MgUTvw%2FD0Md37rYN%2FPBuVHBGdq%2FQqIAtRi1Hw%3D%3D&amp;ssid=253ln9kzc00000001681754807541&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.myntra.com/track-pants/hubberholme/hubberholme-navy-track-pants/1088888/buy</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -1593,30 +1593,30 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>king kong</t>
+          <t>Hubberholme</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Luxury PV Lycra Stretchable Formal Pants for Men | Stylish Slim Fit Men's Wear Trousers for Office or Party | Mens Fashion Dress Trouser Pant</t>
+          <t>Men Track Pants</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51PtZkm7ZWL._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/king-kong-Stretchable-Trouser-Pant/dp/B0BYJV2Q98/ref=sr_1_25?keywords=pants&amp;qid=1681754814&amp;sr=8-25</t>
+          <t>https://www.myntra.com/track-pants/hubberholme/hubberholme-navy-track-pants/1189633/buy</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -1626,30 +1626,30 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Majestic Man</t>
+          <t>king kong</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Men Slim Fit Grey Cotton Blend Trousers</t>
+          <t>Luxury PV Lycra Stretchable Formal Pants for Men | Stylish Slim Fit Men's Wear Trousers for Office or Party | Mens Fashion Dress Trouser Pant</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/l1pc3gw0/trouser/7/5/5/32-trsd401bk-majestic-man-original-imagd7pgghbjjaue.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/51PtZkm7ZWL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/majestic-man-slim-fit-men-grey-trousers/p/itm5111ee2191d74?pid=TROGD7PMPFUBDCUH&amp;lid=LSTTROGD7PMPFUBDCUHODBTRH&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_9&amp;otracker=search&amp;iid=9cbac44c-a98e-4ba7-99f7-0ea5f1a35555.TROGD7PMPFUBDCUH.SEARCH&amp;ssid=253ln9kzc00000001681754807541&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/king-kong-Stretchable-Trouser-Pant/dp/B0BYJV2Q98/ref=sr_1_45?keywords=pants&amp;qid=1681876994&amp;sr=8-45</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Majestic-Man-Slim-Formal-Trousers/dp/B0B1LNCQRN/ref=sr_1_39?keywords=pants&amp;qid=1681754814&amp;sr=8-39</t>
+          <t>https://www.amazon.com/Majestic-Man-Slim-Formal-Trousers/dp/B0B1LNCQRN/ref=sr_1_42?keywords=pants&amp;qid=1681876994&amp;sr=8-42</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/majestic-man-slim-fit-men-grey-trousers/p/itm5111ee2191d74?pid=TROGD7PM5HFSUQJU&amp;lid=LSTTROGD7PM5HFSUQJUKIHLU3&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_28&amp;otracker=search&amp;iid=en_GFUWZMIHtXxYnN7%2FWMASHkOF8iIadlWEXqDvZpHr6XxZI8gkhdMVH5zyTFJ%2BjdIAdWjGLpiD59kExwc7THrd7w%3D%3D&amp;ssid=253ln9kzc00000001681754807541&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/majestic-man-slim-fit-men-grey-trousers/p/itm5111ee2191d74?pid=TROGD7PMPFUBDCUH&amp;lid=LSTTROGD7PMPFUBDCUHODBTRH&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_7&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROGD7PMPFUBDCUH.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1725,12 +1725,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>METRONAUT By Flipkart</t>
+          <t>Chromozome</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Slim Fit Men Polycotton Grey Polycotton Trousers</t>
+          <t>Men Slim Fit Polyester, Cotton Track Pant</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1738,17 +1738,17 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/l02r1jk0/trouser/m/y/s/38-p-st-gr-playerz-original-imagbxg5gqc7vfgb.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/71zvD34MDgL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/metronaut-slim-fit-men-polycotton-grey-trousers/p/itm2dae80a4f5d39?pid=TROGG68CDGRZQAGH&amp;lid=LSTTROGG68CDGRZQAGHY7DGCT&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_11&amp;otracker=search&amp;iid=en_GFUWZMIHtXxYnN7%2FWMASHkOF8iIadlWEXqDvZpHr6XxW7YskyrEPfrp2ZOQJj1mEdirtvhiG%2F2oHbPYOy0GrsQ%3D%3D&amp;ssid=253ln9kzc00000001681754807541&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/Chromozome-Cotton-Track-Pants-8902733355278_S6762-Starnavy-L/dp/B06WD5BZWC/ref=sr_1_52?keywords=pants&amp;qid=1681876994&amp;sr=8-52</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Men Slim Fit Polyester, Cotton Track Pant</t>
+          <t>Men's Regular Fit Cotton Track Pants</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1771,12 +1771,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71zvD34MDgL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61HwCsXHbzL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Chromozome-Cotton-Track-Pants-8902733355278_S6762-Starnavy-L/dp/B06WD5BZWC/ref=sr_1_43?keywords=pants&amp;qid=1681754814&amp;sr=8-43</t>
+          <t>https://www.amazon.com/Chromozome-Cotton-Track-Pants-8902733390194_S8925-Black_Large/dp/B0741CVJL8/ref=sr_1_46?keywords=pants&amp;qid=1681876994&amp;sr=8-46</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Chromozome</t>
+          <t>ENDEAVOUR WEAR</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Men's Regular Fit Cotton Track Pants</t>
+          <t>Men's Regular Fit Trackpants</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1804,12 +1804,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61HwCsXHbzL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61R11o1DC+S._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Chromozome-Cotton-Track-Pants-8902733390194_S8925-Black_Large/dp/B0741CVJL8/ref=sr_1_38?keywords=pants&amp;qid=1681754814&amp;sr=8-38</t>
+          <t>https://www.amazon.com/ENDEAVOUR-WEAR-Stretchable-Regular-Joggers/dp/B08Z3LWZ8K/ref=sr_1_17?keywords=pants&amp;qid=1681876994&amp;sr=8-17</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -1824,25 +1824,25 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ENDEAVOUR WEAR</t>
+          <t>Amazon Brand - Symbol</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Men's Regular Fit Trackpants</t>
+          <t>Men's Slim Casual Trousers</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>499</v>
+        <v>541</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51o-SBNPLUS._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71eeiY8CF4L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/ENDEAVOUR-WEAR-Stretchable-Regular-Joggers/dp/B096KVR981/ref=sr_1_11?keywords=pants&amp;qid=1681754814&amp;sr=8-11</t>
+          <t>https://www.amazon.com/Amazon-Brand-Stretchable-AW19TRS-ESS-4_Light-Grey_32/dp/B07SK1X4H9/ref=sr_1_13?keywords=pants&amp;qid=1681876994&amp;sr=8-13</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -1857,25 +1857,25 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>Enamor</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Men's Slim Casual Trousers</t>
+          <t>Essentials Women's Mid Rise Crop Length Soft &amp; Drapey Stretch Viscose Culottes with Smart Side Slits - E064</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71eeiY8CF4L._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/31KJk3HjVlL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Stretchable-AW19TRS-ESS-4_Light-Grey_32/dp/B07SK1X4H9/ref=sr_1_9?keywords=pants&amp;qid=1681754814&amp;sr=8-9</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NDQ5Mzk5MDkwMTUyODg3OjE2ODE4NzY5OTQ6c3BfYnRmOjIwMDg0MjQ5NzQ5ODAxOjowOjo&amp;url=%2FEnamor-Sweatpants-Relaxed-E064_Blue-Night_L%2Fdp%2FB08ZLVKBWH%2Fref%3Dsr_1_59_sspa%3Fkeywords%3Dpants%26qid%3D1681876994%26sr%3D8-59-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/sassafras-relaxed-women-light-green-trousers/p/itm3ac7f52e9f2ad?pid=TROFVB5HQVARSG7G&amp;lid=LSTTROFVB5HQVARSG7GBIBDBS&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_34&amp;otracker=search&amp;iid=9cbac44c-a98e-4ba7-99f7-0ea5f1a35555.TROFVB5HQVARSG7G.SEARCH&amp;ssid=253ln9kzc00000001681754807541&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/sassafras-relaxed-women-light-green-trousers/p/itm3ac7f52e9f2ad?pid=TROFVB5HQVARSG7G&amp;lid=LSTTROFVB5HQVARSG7GBIBDBS&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_33&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROFVB5HQVARSG7G.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/sassafras-relaxed-women-pink-trousers/p/itm50ef3bd840444?pid=TROFVB5HAWSZWJ3T&amp;lid=LSTTROFVB5HAWSZWJ3TJZXPBD&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_16&amp;otracker=search&amp;iid=9cbac44c-a98e-4ba7-99f7-0ea5f1a35555.TROFVB5HAWSZWJ3T.SEARCH&amp;ssid=253ln9kzc00000001681754807541&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/sassafras-relaxed-women-pink-trousers/p/itm50ef3bd840444?pid=TROFVB5HCZZRSEA6&amp;lid=LSTTROFVB5HCZZRSEA6IYSABY&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_14&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROFVB5HCZZRSEA6.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -1956,30 +1956,30 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SASSAFRAS</t>
+          <t>MANCREW</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Women Relaxed Green Pure Cotton Trousers</t>
+          <t>Formal Pants for Men | Men's Slim fit Formal Pant Combo | Non Stretchable Trouser | Office wear Trousers</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/h/z/d/xl-sfpant5416-sassafras-original-imag36hdtwucgdjp-bb.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/61NVKNGCxGL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/sassafras-relaxed-women-green-trousers/p/itmef6e28ed41e72?pid=TROG36HDPVGD5ZZU&amp;lid=LSTTROG36HDPVGD5ZZUQZ1JOK&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_39&amp;otracker=search&amp;iid=9cbac44c-a98e-4ba7-99f7-0ea5f1a35555.TROG36HDPVGD5ZZU.SEARCH&amp;ssid=253ln9kzc00000001681754807541&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/MANCREW-Formal-Stretchable-Trouser-Trousers/dp/B0B9SCCPLL/ref=sr_1_53?keywords=pants&amp;qid=1681876994&amp;sr=8-53</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Alan-Jones-Solid-Joggers-JOG18-D95-MIL-L_Large_Melange/dp/B07C9T8LL1/ref=sr_1_15?keywords=pants&amp;qid=1681754814&amp;sr=8-15</t>
+          <t>https://www.amazon.com/Alan-Jones-Solid-Joggers-JOG18-D95-MIL-L_Large_Melange/dp/B07C9T8LL1/ref=sr_1_15?keywords=pants&amp;qid=1681876994&amp;sr=8-15</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2022,12 +2022,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>HIGHLANDER</t>
+          <t>Okane</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Men Slim Fit Blue Cotton Blend Trousers</t>
+          <t>Men Lounge Pants</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -2035,17 +2035,17 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/4/2/n/32-hltr003970-highlander-original-imafw2jtdqqhvk3d-bb.jpeg?q=70</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/highlander-slim-fit-men-blue-trousers/p/itmfd282nqbwhfqp?pid=TROF4E3BNHVMYGYZ&amp;lid=LSTTROF4E3BNHVMYGYZG0DB9P&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_4&amp;otracker=search&amp;iid=9cbac44c-a98e-4ba7-99f7-0ea5f1a35555.TROF4E3BNHVMYGYZ.SEARCH&amp;ssid=253ln9kzc00000001681754807541&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.myntra.com/lounge-pants/okane/-okane-men-lounge-pants/22144694/buy</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -2055,30 +2055,30 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>Okane</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Men Dress Pants</t>
+          <t>Men Lounge Pants</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/717-WaIUi9L._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Stretchable-Trousers-SY-AW19-MFT-049_Light/dp/B07YT1PVNJ/ref=sr_1_2?keywords=pants&amp;qid=1681754814&amp;sr=8-2</t>
+          <t>https://www.myntra.com/lounge-pants/okane/-okane-men-lounge-pants/22281166/buy</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -2088,25 +2088,25 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Peppyzone</t>
+          <t>Amazon Brand - Symbol</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Men's Camouflage Regular Fit Track Pant</t>
+          <t>Men Dress Pants</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/610BjJqZ67L._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/717-WaIUi9L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/LionRoar-Camouflage-Track-Pants-Large/dp/B079WM2V1H/ref=sr_1_23?keywords=pants&amp;qid=1681754814&amp;sr=8-23</t>
+          <t>https://www.amazon.com/Amazon-Brand-Stretchable-Trousers-SY-AW19-MFT-049_Light/dp/B07YT1PVNJ/ref=sr_1_9?keywords=pants&amp;qid=1681876994&amp;sr=8-9</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2121,30 +2121,30 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>LEE TEX</t>
+          <t>plusS</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Women Regular Fit Black, Light Green Cotton Blend Trousers</t>
+          <t>Women Track Pants</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/f/j/a/28-trouser-01-09-lee-tex-original-imagmgbgafhgzamw.jpeg?q=70</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/lee-tex-regular-fit-women-black-light-green-trousers/p/itm4bca21fbee6ee?pid=TROGMGBJHZHWYM8C&amp;lid=LSTTROGMGBJHZHWYM8CX0YUU4&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_2&amp;otracker=search&amp;iid=en_GFUWZMIHtXxYnN7%2FWMASHkOF8iIadlWEXqDvZpHr6XyuJ5p7W3Pw3%2B%2B1Ggt6s0fivRSBgxucdNxKZtJETawEAg%3D%3D&amp;ssid=253ln9kzc00000001681754807541&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.myntra.com/track-pants/pluss/pluss-navy-track-pants/1875899/buy</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -2154,30 +2154,30 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SASSAFRAS</t>
+          <t>plusS</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Women Relaxed Black Cotton Blend Trousers</t>
+          <t>Women Track Pants</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/n/w/j/l-sfpant5303-sassafras-original-imafvb5hhcmesthk-bb.jpeg?q=70</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/sassafras-relaxed-women-black-trousers/p/itmdf31fe89be36d?pid=TROFVB5HTZP7B2DP&amp;lid=LSTTROFVB5HTZP7B2DPPLTLFQ&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_36&amp;otracker=search&amp;iid=9cbac44c-a98e-4ba7-99f7-0ea5f1a35555.TROFVB5HTZP7B2DP.SEARCH&amp;ssid=253ln9kzc00000001681754807541&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.myntra.com/track-pants/pluss/pluss-orange-track-pants/1873525/buy</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -2187,12 +2187,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>LEE TEX</t>
+          <t>Peppyzone</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Women Regular Fit Black, White Cotton Blend Trousers</t>
+          <t>Men's Camouflage Regular Fit Track Pant</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -2200,17 +2200,17 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/m/w/d/26-trouser-01-09-lee-tex-original-imagmgbgpqbgfvej.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/610BjJqZ67L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/lee-tex-regular-fit-women-black-white-trousers/p/itme2cdd90fa9387?pid=TROGMGBJKFHJHS2R&amp;lid=LSTTROGMGBJKFHJHS2RYH5D3V&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_12&amp;otracker=search&amp;iid=en_GFUWZMIHtXxYnN7%2FWMASHkOF8iIadlWEXqDvZpHr6XyL0FCOIBhOguJesxYQvYnO5WDKKmB%2BlRXwFuehroV%2BbQ%3D%3D&amp;ssid=253ln9kzc00000001681754807541&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/LionRoar-Camouflage-Track-Pants-Large/dp/B079WM2V1H/ref=sr_1_30?keywords=pants&amp;qid=1681876994&amp;sr=8-30</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -2220,30 +2220,30 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>HIGHLANDER</t>
+          <t>VIMAL JONNEY</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Men Slim Fit Beige Cotton Blend Trousers</t>
+          <t>Men's Regular Fit Track pants(Pack of 2)</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/4/k/l/34-hltr003916-highlander-original-imafw2jvpnjx4a6g-bb.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/71MwNdwIc1L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/highlander-slim-fit-men-beige-trousers/p/itmfd7m67xkgxdwz?pid=TROF34N4CQXTZ5NK&amp;lid=LSTTROF34N4CQXTZ5NKDRA5CC&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_7&amp;otracker=search&amp;iid=9cbac44c-a98e-4ba7-99f7-0ea5f1a35555.TROF34N4CQXTZ5NK.SEARCH&amp;ssid=253ln9kzc00000001681754807541&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/VIMAL-Cotton-Trackpants-Multicolour-D10ND10A-S/dp/B01BJZ2N8G/ref=sr_1_28?keywords=pants&amp;qid=1681876994&amp;sr=8-28</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -2253,30 +2253,30 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>HIGHLANDER</t>
+          <t>MARK LOUIIS</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Men Slim Fit Grey Cotton Blend Trousers</t>
+          <t>Men's Regular Fit Track pants</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>655</v>
+        <v>616</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/h/i/e/36-hltr004407-highlander-original-imafzys5rscqzt7v-bb.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/71oVcFzJacL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/highlander-slim-fit-men-grey-trousers/p/itma9a656f1534c8?pid=TROFZYS5A2R65VMJ&amp;lid=LSTTROFZYS5A2R65VMJTHTJES&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_30&amp;otracker=search&amp;iid=9cbac44c-a98e-4ba7-99f7-0ea5f1a35555.TROFZYS5A2R65VMJ.SEARCH&amp;ssid=253ln9kzc00000001681754807541&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/MARK-LOUIIS-Regular-Running-Pocket/dp/B07HLBH6Y4/ref=sr_1_51?keywords=pants&amp;qid=1681876994&amp;sr=8-51</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -2286,30 +2286,30 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>FRANKO ROGER</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Men's Regular Casual Pants</t>
+          <t>Men Slim Fit White Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>679</v>
+        <v>629</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61xJvbhaq6L._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/h/8/9/28-newfw-white-franko-roger-original-imagj6z4wxmfdmb7.jpeg?q=70</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Symbol-Regular-AW17TRS-01-12_Blue/dp/B0B3PT87NL/ref=sr_1_28?keywords=pants&amp;qid=1681754814&amp;sr=8-28</t>
+          <t>https://www.flipkart.com/franko-roger-slim-fit-men-white-trousers/p/itmf7b62dd0bd919?pid=TROGJ6Z4KKDYNNGW&amp;lid=LSTTROGJ6Z4KKDYNNGWSRR14A&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_28&amp;otracker=search&amp;iid=en_%2Fzb5cccG%2BNAxlFWnIlFWqxO1CRT0kxF2BuEAjuCcv%2FtZ%2FDwV%2BJYBFW809%2FM8THF2Z%2FG6ABPIx%2BO2r4TU%2BQ76ww%3D%3D&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>flipkart</t>
         </is>
       </c>
     </row>
@@ -2319,30 +2319,30 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Neostreak</t>
+          <t>Smarty Pants</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Men's Slim Fit Jeans</t>
+          <t>Women Floral Printed Lounge Pants</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>689</v>
+        <v>636</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81RuOi+8grL._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Neostreak-Jeans-neoepsjean-lgrey-Light-Grey_38/dp/B07L6YWLQX/ref=sr_1_17?keywords=pants&amp;qid=1681754814&amp;sr=8-17</t>
+          <t>https://www.myntra.com/lounge-pants/smarty-pants/smarty-pants-women-blue--white-floral-printed-lounge-pants/18034886/buy</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -2352,25 +2352,25 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>T2F</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Men's Slim Casual Pants</t>
+          <t>Boys Printed Track Pants (Pack of 5)</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>689</v>
+        <v>646</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71woFPwao4L._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71qEbCkqtRL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Symbol-AW17TRS-02-12_Black-Coffee_28/dp/B0B3PLK922/ref=sr_1_32?keywords=pants&amp;qid=1681754814&amp;sr=8-32</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NDQ5Mzk5MDkwMTUyODg3OjE2ODE4NzY5OTQ6c3BfYnRmOjIwMDUwMjUwNzU2MzA1OjowOjo&amp;url=%2FT2F-Track-Black-Violet-Yellow%2Fdp%2FB01NCORE74%2Fref%3Dsr_1_57_sspa%3Fkeywords%3Dpants%26qid%3D1681876994%26sr%3D8-57-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2385,30 +2385,30 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CUPID</t>
+          <t>Smarty Pants</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Women Regular Fit Cotton Blend Plain Comfortable Night Track Pant, Lower, Sports Trouser, Joggers, Lounge Wear and Daily Gym Wear for Ladies, M to 7XL</t>
+          <t>Women Cotton Lounge Pants</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>699</v>
+        <v>649</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51BADzjD4nL._AC_UL400_.jpg</t>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21450340/2023/1/6/f7b41e5a-6a82-4a68-9c92-e1ce64857e901673020847261SmartyPantswomenscottonrosepinkcoloraztecprintloungewearpaja1.jpg</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/CUPID-Regular-Womens-Track-Pants/dp/B01CA941PS/ref=sr_1_16?keywords=pants&amp;qid=1681754814&amp;sr=8-16</t>
+          <t>https://www.myntra.com/lounge-pants/smarty-pants/smarty-pants-women-printed-cotton-lounge-pants/21450340/buy</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -2418,30 +2418,30 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Ezee Sleeves</t>
+          <t>Urbano Fashion</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Men's Casual Lycra Pants Stretchable Less Weight Lycra Pants for Men</t>
+          <t>Men Slim Fit Light Green Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>699</v>
+        <v>649</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51-QbRvRhxL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/g/0/3/40-chino-tealgrn-urbano-fashion-original-imagjzqfvkednkfn.jpeg?q=70</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Ezee-Sleeves-Casual-Stretchable-Weight/dp/B08PF93YT9/ref=sr_1_42?keywords=pants&amp;qid=1681754814&amp;sr=8-42</t>
+          <t>https://www.flipkart.com/urbano-fashion-slim-fit-men-light-green-trousers/p/itm56a849b0eca5b?pid=TROFP9DSEGRSCHCS&amp;lid=LSTTROFP9DSEGRSCHCSAKAWYH&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_27&amp;otracker=search&amp;iid=en_%2Fzb5cccG%2BNAxlFWnIlFWqxO1CRT0kxF2BuEAjuCcv%2FuGiFvLue%2F%2BVHH%2F0%2BInuprpetVznUYkl24NH2KPlJ4tqg%3D%3D&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>flipkart</t>
         </is>
       </c>
     </row>
@@ -2451,30 +2451,30 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Amazon Brand - Inkast Denim Co.</t>
+          <t>Smarty Pants</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Men's Regular Casual Trousers</t>
+          <t>Women Cotton Lounge Pants</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>713</v>
+        <v>649</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71o4-mxo2bL._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Straight-INKCT-001_Lt/dp/B08FJNZDW3/ref=sr_1_41?keywords=pants&amp;qid=1681754814&amp;sr=8-41</t>
+          <t>https://www.myntra.com/lounge-pants/smarty-pants/smarty-pants-women-printed-cotton-lounge-pants/21450338/buy</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -2484,25 +2484,25 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>Neostreak</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Men's Regular Casual Trousers</t>
+          <t>Men's Slim Fit Jeans</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>739</v>
+        <v>669</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61YHtYYabpL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81RuOi+8grL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Straight-AW-SY-MCT-1151_Lt-Grey_32W/dp/B07TMNTV31/ref=sr_1_20?keywords=pants&amp;qid=1681754814&amp;sr=8-20</t>
+          <t>https://www.amazon.com/Neostreak-Jeans-neoepsjean-lgrey-Light-Grey_38/dp/B07L6YWLQX/ref=sr_1_29?keywords=pants&amp;qid=1681876994&amp;sr=8-29</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2522,20 +2522,20 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Men's Straight Casual Trousers</t>
+          <t>Men's Regular Casual Pants</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>749</v>
+        <v>679</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/718kU7VISWL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61xJvbhaq6L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Symbol-Chinos-AW-SY-MCT-1145_Grey_32W/dp/B07CYVB7L8/ref=sr_1_7?keywords=pants&amp;qid=1681754814&amp;sr=8-7</t>
+          <t>https://www.amazon.com/Amazon-Brand-Symbol-Regular-AW17TRS-01-12_Blue/dp/B0B3PT87NL/ref=sr_1_34?keywords=pants&amp;qid=1681876994&amp;sr=8-34</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2550,25 +2550,25 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Van Heusen</t>
+          <t>Amazon Brand - Inkast Denim Co.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Athleisure Stretch Lounge Pants With Pockets</t>
+          <t>Men's Regular Casual Trousers</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>759</v>
+        <v>685</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/41n5ru9w0yL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71o4-mxo2bL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Van-Heusen-Stretch-Pockets-55303_BLACK_L/dp/B07J5924ZT/ref=sr_1_40?keywords=pants&amp;qid=1681754814&amp;sr=8-40</t>
+          <t>https://www.amazon.com/Amazon-Brand-Straight-INKCT-001_Lt/dp/B08FJNZDW3/ref=sr_1_48?keywords=pants&amp;qid=1681876994&amp;sr=8-48</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2583,25 +2583,25 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Van Heusen</t>
+          <t>Amazon Brand - Symbol</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Men's Track Pants</t>
+          <t>Men's Slim Casual Pants</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>776</v>
+        <v>689</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81eQleWjVoL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71woFPwao4L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Van-Heusen-Track-50056_Grey-Melange_L/dp/B083C2SWKL/ref=sr_1_34?keywords=pants&amp;qid=1681754814&amp;sr=8-34</t>
+          <t>https://www.amazon.com/Amazon-Brand-Symbol-AW17TRS-02-12_Black-Coffee_28/dp/B0B3PLK922/ref=sr_1_40?keywords=pants&amp;qid=1681876994&amp;sr=8-40</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -2616,25 +2616,25 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ADBUCKS</t>
+          <t>CUPID</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Men's Regular Fit Cargo Style Casual Trousers Pants</t>
+          <t>Women Regular Fit Cotton Blend Plain Comfortable Night Track Pant, Lower, Sports Trouser, Joggers, Lounge Wear and Daily Gym Wear for Ladies, M to 7XL</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>783</v>
+        <v>699</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/41EUTEtrdcL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51BADzjD4nL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/ADBUCKS-Regular-Cargo-Casual-Trousers/dp/B09VPY9R8V/ref=sr_1_37?keywords=pants&amp;qid=1681754814&amp;sr=8-37</t>
+          <t>https://www.amazon.com/CUPID-Regular-Womens-Track-Pants/dp/B01CA941PS/ref=sr_1_25?keywords=pants&amp;qid=1681876994&amp;sr=8-25</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2649,30 +2649,30 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>max</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Men Stretch Casual Trouser</t>
+          <t>Women Track Pants</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>799</v>
+        <v>699</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/610VwfVfxeL._AC_UL400_.jpg</t>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21366480/2022/12/31/d310c9d4-84ce-4584-9f74-4b9b5898eb921672470031607WomenPrintedJoggers1.jpg</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Symbol-Trousers-AW-SY-MCT-1171_White_34/dp/B07XF752FV/ref=sr_1_30?keywords=pants&amp;qid=1681754814&amp;sr=8-30</t>
+          <t>https://www.myntra.com/track-pants/max/max-women-track-pants/21366480/buy</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -2682,30 +2682,30 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TriPole</t>
+          <t>Smarty Pants</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Men's Regular Fit Polyester Trekking And Hiking Pants And Trousers</t>
+          <t>Women Solid Track Pants</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>799</v>
+        <v>704</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71E0860E-mL._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Tripole-Trekking-Hiking-Pants-Trousers/dp/B09YHZHV8K/ref=sr_1_48?keywords=pants&amp;qid=1681754814&amp;sr=8-48</t>
+          <t>https://www.myntra.com/track-pants/smarty-pants/smarty-pants-women-rose-solid-track-pants/17165186/buy</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -2715,25 +2715,25 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Whitewhale</t>
+          <t>Amazon Brand - Symbol</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Men's Loose Fit Cotton Trousers</t>
+          <t>Men's Regular Casual Trousers</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>799</v>
+        <v>749</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71liwRRHS5L._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61YHtYYabpL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Whitewhale-Cotton-Printed-Pockets-Trousers/dp/B08LVWFK2J/ref=sr_1_14?keywords=pants&amp;qid=1681754814&amp;sr=8-14</t>
+          <t>https://www.amazon.com/Amazon-Brand-Straight-AW-SY-MCT-1151_Lt-Grey_32W/dp/B07TMNTV31/ref=sr_1_26?keywords=pants&amp;qid=1681876994&amp;sr=8-26</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -2748,25 +2748,25 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>VIMAL JONNEY</t>
+          <t>Amazon Brand - Symbol</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Men's Regular Fit Track pants(Pack of 2)</t>
+          <t>Men's Straight Casual Trousers</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>803</v>
+        <v>749</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71MwNdwIc1L._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/718kU7VISWL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/VIMAL-Cotton-Trackpants-Multicolour-D10ND10A-S/dp/B01BJZ2N8G/ref=sr_1_22?keywords=pants&amp;qid=1681754814&amp;sr=8-22</t>
+          <t>https://www.amazon.com/Amazon-Brand-Symbol-Chinos-AW-SY-MCT-1145_Grey_32W/dp/B07CYVB7L8/ref=sr_1_10?keywords=pants&amp;qid=1681876994&amp;sr=8-10</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -2781,25 +2781,25 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>Van Heusen</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Men Dress Pants</t>
+          <t>Athleisure Stretch Lounge Pants With Pockets</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>829</v>
+        <v>759</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81d37fLAwUL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/41n5ru9w0yL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Stretchable-Trousers-SY-AW19-MFT-059_Grey_30W/dp/B07YT19M11/ref=sr_1_10?keywords=pants&amp;qid=1681754814&amp;sr=8-10</t>
+          <t>https://www.amazon.com/Van-Heusen-Stretch-Pockets-55303_BLACK_L/dp/B07J5924ZT/ref=sr_1_49?keywords=pants&amp;qid=1681876994&amp;sr=8-49</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -2814,25 +2814,25 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>ADBUCKS</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Men Dress Pants</t>
+          <t>Men's Regular Fit Cargo Style Casual Trousers Pants</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>829</v>
+        <v>783</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71p+y8xHJFL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/41EUTEtrdcL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Stretchable-Trousers-SY-AW19-MFT-052_Navy_32W/dp/B07YT18X6Y/ref=sr_1_27?keywords=pants&amp;qid=1681754814&amp;sr=8-27</t>
+          <t>https://www.amazon.com/ADBUCKS-Regular-Cargo-Casual-Trousers/dp/B09VPY9R8V/ref=sr_1_47?keywords=pants&amp;qid=1681876994&amp;sr=8-47</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -2847,30 +2847,30 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>Smarty Pants</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Men Dress Pants</t>
+          <t>Women 2-Pcs Printed Night suit</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>829</v>
+        <v>783</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61e0ta9X9zL._AC_UL400_.jpg</t>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21615980/2023/1/19/1828f3af-f448-42b8-8a12-d326bc81053c1674124705304SmartyPantswomenssilksatinmarooncolorpowerpuffgirlcartoonpri1.jpg</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Stretchable-Trousers-SY-AW19-MFT-050_Black_32W/dp/B07YT1821J/ref=sr_1_12?keywords=pants&amp;qid=1681754814&amp;sr=8-12</t>
+          <t>https://www.myntra.com/night-suits/smarty-pants/smarty-pants-women-2-pieces-printed-shirt-with-lounge-pants/21615980/buy</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -2880,30 +2880,30 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>Smarty Pants</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Men's Slim Casual Trousers</t>
+          <t>Women 2-Pcs Printed Night suit</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>849</v>
+        <v>783</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/8177eP3pKmL._AC_UL400_.jpg</t>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21615984/2023/1/19/7c9861ac-b1ef-4fb4-afba-4b1c3b5036b31674124520928SmartyPantswomenssilksatinlilaccolorbabyelephantprintnightsu1.jpg</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-SYMJG-01_Lt-Olive_32W/dp/B08FJQ1T3V/ref=sr_1_45?keywords=pants&amp;qid=1681754814&amp;sr=8-45</t>
+          <t>https://www.myntra.com/night-suits/smarty-pants/smarty-pants-women-2-pieces-printed-shirt-with-lounge-pants/21615984/buy</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -2913,30 +2913,30 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>PETER ENGLAND</t>
+          <t>TriPole</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Men Slim Fit Grey Viscose Rayon Trousers</t>
+          <t>Men's Regular Fit Polyester Trekking And Hiking Pants And Trousers</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>881</v>
+        <v>799</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/8/r/c/-original-imaggvptktxaztrw.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/71E0860E-mL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/peter-england-slim-fit-men-grey-trousers/p/itm9e1faf5488e7d?pid=TROGDTN4KGYXQXTS&amp;lid=LSTTROGDTN4KGYXQXTSZUOCV8&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_3&amp;otracker=search&amp;iid=9cbac44c-a98e-4ba7-99f7-0ea5f1a35555.TROGDTN4KGYXQXTS.SEARCH&amp;ssid=253ln9kzc00000001681754807541&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/Tripole-Trekking-Hiking-Pants-Trousers/dp/B09YHZHV8K/ref=sr_1_55?keywords=pants&amp;qid=1681876994&amp;sr=8-55</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -2946,30 +2946,30 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>PETER ENGLAND</t>
+          <t>MAYSIXTY</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Men Slim Fit Black Viscose Rayon Trousers</t>
+          <t>Printed Lounge Pants</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>881</v>
+        <v>799</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/kyrlifk0/trouser/o/n/c/34-petfoslbs43658-peter-england-original-imagax8aqm7hfdnh.jpeg?q=70</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/peter-england-slim-fit-men-black-trousers/p/itmaaedd9c824027?pid=TROG9MVKZUAA23Z2&amp;lid=LSTTROG9MVKZUAA23Z2XUUOJR&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_29&amp;otracker=search&amp;iid=9cbac44c-a98e-4ba7-99f7-0ea5f1a35555.TROG9MVKZUAA23Z2.SEARCH&amp;ssid=253ln9kzc00000001681754807541&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.myntra.com/lounge-pants/maysixty/maysixty-printed-lounge-pants/21895116/buy</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -2979,30 +2979,30 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Amazon Brand - Inkast Denim Co.</t>
+          <t>MAYSIXTY</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Men's Slim Fit Casual Pants</t>
+          <t>Printed Lounge Pants</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>899</v>
+        <v>799</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61nk1PgrstL._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Inkast-Casual-TR-Ink-RDP-D3_Blue_32/dp/B0991WQYB7/ref=sr_1_24?keywords=pants&amp;qid=1681754814&amp;sr=8-24</t>
+          <t>https://www.myntra.com/lounge-pants/maysixty/maysixty-printed-lounge-pants/21895118/buy</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -3012,30 +3012,30 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PARK AVENUE</t>
+          <t>MAYSIXTY</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Men Regular Fit Maroon Viscose Rayon Trousers</t>
+          <t>Printed Lounge Pants</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>945</v>
+        <v>799</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/ktlu9ow0/trouser/o/6/0/32-pmtx06573-m7-park-avenue-original-imag6wyfggjffzuk.jpeg?q=70</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/park-avenue-regular-fit-men-maroon-trousers/p/itm49098f544224a?pid=TROG4QFPWHZHXE9U&amp;lid=LSTTROG4QFPWHZHXE9UBULMHU&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_6&amp;otracker=search&amp;iid=9cbac44c-a98e-4ba7-99f7-0ea5f1a35555.TROG4QFPWHZHXE9U.SEARCH&amp;ssid=253ln9kzc00000001681754807541&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.myntra.com/lounge-pants/maysixty/maysixty-printed-lounge-pants/21894996/buy</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -3045,30 +3045,30 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>McHenry</t>
+          <t>MAYSIXTY</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Men's Solid Formal Regular Fit Wrinkle Free PolyViscose Trousers</t>
+          <t>Printed Lounge Pants</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>999</v>
+        <v>799</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81wqp2ohC9L._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/McHenry-Regular-PolyViscose-Trousers-Cream4006-40_Cream_Size/dp/B01LCXH98Y/ref=sr_1_8?keywords=pants&amp;qid=1681754814&amp;sr=8-8</t>
+          <t>https://www.myntra.com/lounge-pants/maysixty/maysixty-printed-lounge-pants/21894988/buy</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -3078,30 +3078,30 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Jockey</t>
+          <t>9rasa</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Men's Cotton Track Pants</t>
+          <t>Cotton Dhoti Pants</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>999</v>
+        <v>799</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61qoz5T51VL._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Jockey-Cotton-Track-9500-0103-NAVY-Navy/dp/B00W05MDC6/ref=sr_1_21?keywords=pants&amp;qid=1681754814&amp;sr=8-21</t>
+          <t>https://www.myntra.com/dhotis/9rasa/9rasa-cotton-dhoti-pants/22442836/buy</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -3116,20 +3116,20 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Men's Flexi Waist Slim Casual Pants</t>
+          <t>Men Stretch Casual Trouser</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>999</v>
+        <v>799</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61oRzu8XRtL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/610VwfVfxeL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Symbol-Casual-A22-SYM-SL-CT-101_Black_32/dp/B0B3989Q12/ref=sr_1_5?keywords=pants&amp;qid=1681754814&amp;sr=8-5</t>
+          <t>https://www.amazon.com/Amazon-Brand-Symbol-Trousers-AW-SY-MCT-1171_White_34/dp/B07XF752FV/ref=sr_1_41?keywords=pants&amp;qid=1681876994&amp;sr=8-41</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3144,25 +3144,25 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>blackberrys</t>
+          <t>Whitewhale</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Men Pants</t>
+          <t>Men's Loose Fit Cotton Trousers</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1195</v>
+        <v>799</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71jnGNM-WwL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71liwRRHS5L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/blackberrys-Mens-Pants-BP-S-DO-Punto-Beige/dp/B0BGSVXLQW/ref=sr_1_13?keywords=pants&amp;qid=1681754814&amp;sr=8-13</t>
+          <t>https://www.amazon.com/Whitewhale-Cotton-Printed-Pockets-Trousers/dp/B08LVWFK2J/ref=sr_1_16?keywords=pants&amp;qid=1681876994&amp;sr=8-16</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3177,30 +3177,30 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Allen Solly</t>
+          <t>Amazon Brand - Symbol</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Men Slim Fit Blue Cotton Blend Trousers</t>
+          <t>Men's Straight Casual Trousers</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1225</v>
+        <v>799</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/n/x/l/-original-imagg9kuftbzzjx6.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/61QmabcrTHL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/allen-solly-slim-fit-men-blue-trousers/p/itmbc7d76e040425?pid=TROGHNJBVXPYGFSV&amp;lid=LSTTROGHNJBVXPYGFSVHIOKWA&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_25&amp;otracker=search&amp;iid=9cbac44c-a98e-4ba7-99f7-0ea5f1a35555.TROGHNJBVXPYGFSV.SEARCH&amp;ssid=253ln9kzc00000001681754807541&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NDQ5Mzk5MDkwMTUyODg3OjE2ODE4NzY5OTQ6c3BfYXRmOjIwMTAzOTYyODQ1MDk4OjowOjo&amp;url=%2FAmazon-Brand-Straight-SYMCT-02_Black_36W%2Fdp%2FB08FJQXJFW%2Fref%3Dsr_1_3_sspa%3Fkeywords%3Dpants%26qid%3D1681876994%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -3210,30 +3210,30 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>BEEVEE</t>
+          <t>Urbano Plus</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Men's Cargos</t>
+          <t>Men Regular Fit Grey Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1376</v>
+        <v>809</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/610crFA7BJL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/ke353m80-0/trouser/2/a/t/40-pluschinop-grey-urbano-plus-original-imafuuscfk8xqvty.jpeg?q=70</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/BEEVEE-Mens-Cargo-Pants-FMCR1602BLACK_34_Black_34/dp/B0169WWO56/ref=sr_1_33?keywords=pants&amp;qid=1681754814&amp;sr=8-33</t>
+          <t>https://www.flipkart.com/urbano-plus-regular-fit-men-grey-trousers/p/itm40f8061ac4147?pid=TROFUUTHPMCG3RHW&amp;lid=LSTTROFUUTHPMCG3RHWOR3BUS&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_31&amp;otracker=search&amp;iid=en_%2Fzb5cccG%2BNAxlFWnIlFWqxO1CRT0kxF2BuEAjuCcv%2FvwSUnVr3LTEhPVxUQO3cZIs5bBtksrP0ZBoQaAGEnmSA%3D%3D&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>flipkart</t>
         </is>
       </c>
     </row>
@@ -3243,30 +3243,30 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>SAPPER</t>
+          <t>Urbano Plus</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Men's Cotton Regular Fit Cargo Pants</t>
+          <t>Men Regular Fit Maroon Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1395</v>
+        <v>809</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61ZqLjxdCjL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/ke353m80-0/trouser/q/4/d/38-pluschinop-drmaroon-urbano-plus-original-imafuuqmmq8prrqm.jpeg?q=70</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/SAPPER-Olive-Cotton-Solid-MLW205DARKOLIVEXXXL/dp/B09NBPBQH3/ref=sr_1_44?keywords=pants&amp;qid=1681754814&amp;sr=8-44</t>
+          <t>https://www.flipkart.com/urbano-plus-regular-fit-men-maroon-trousers/p/itm8696ef230c0da?pid=TROFUUTHGEWGRKXA&amp;lid=LSTTROFUUTHGEWGRKXAERW2GY&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_32&amp;otracker=search&amp;iid=en_%2Fzb5cccG%2BNAxlFWnIlFWqxO1CRT0kxF2BuEAjuCcv%2FsDpFlp4MRJzutlV4oX2k57LDJsGTNpHYF6ZZBvlvTFfg%3D%3D&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>flipkart</t>
         </is>
       </c>
     </row>
@@ -3276,30 +3276,30 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>The Pant Project</t>
+          <t>Urbano Plus</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Luxury PV Lycra Stretchable Formal Pants for Men | Stylish Slim Fit Men's Wear Trousers for Office or Party | Mens Fashion Dress Trouser Pant</t>
+          <t>Men Regular Fit Brown Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1990</v>
+        <v>809</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/617Zg6QsgDL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/ke353m80-0/trouser/0/z/f/44-pluschinop-brown-urbano-plus-original-imafuurrhbzjdbyw.jpeg?q=70</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Pant-Project-Polyester-Formal-Pant_01-Olive-40_Black_34/dp/B0B46P1CN8/ref=sr_1_35?keywords=pants&amp;qid=1681754814&amp;sr=8-35</t>
+          <t>https://www.flipkart.com/urbano-plus-regular-fit-men-brown-trousers/p/itmc87d8ba73839a?pid=TROFUUTHCCTGKH5E&amp;lid=LSTTROFUUTHCCTGKH5EITA5XI&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_37&amp;otracker=search&amp;iid=en_%2Fzb5cccG%2BNAxlFWnIlFWqxO1CRT0kxF2BuEAjuCcv%2FszCZU7uh7IgaDMbz9wemkNIS2%2F0YwDewBpzmTcLgdZ%2BA%3D%3D&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>flipkart</t>
         </is>
       </c>
     </row>
@@ -3309,30 +3309,2076 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
+          <t>HIGHLANDER</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Men Slim Fit Green Cotton Blend Trousers</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>813</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>https://rukminim1.flixcart.com/image/612/612/kflftzk0-0/trouser/w/5/j/32-hltr003958-highlander-original-imafwyf6xvxcefq2.jpeg?q=70</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>https://www.flipkart.com/highlander-slim-fit-men-green-trousers/p/itmfdfd8ajve9af8?pid=TROF4E3BYXYVERUE&amp;lid=LSTTROF4E3BYXYVERUE2GPGXB&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_26&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROF4E3BYXYVERUE.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>flipkart</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>HIGHLANDER</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Men Slim Fit Beige Cotton Blend Trousers</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>821</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/4/k/l/34-hltr003916-highlander-original-imafw2jvpnjx4a6g-bb.jpeg?q=70</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>https://www.flipkart.com/highlander-slim-fit-men-beige-trousers/p/itmfd7m67xkgxdwz?pid=TROF34N4CQXTZ5NK&amp;lid=LSTTROF34N4CQXTZ5NKDRA5CC&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_24&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROF34N4CQXTZ5NK.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>flipkart</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Amazon Brand - Symbol</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Men Dress Pants</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>829</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71p+y8xHJFL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Amazon-Brand-Stretchable-Trousers-SY-AW19-MFT-052_Navy_32W/dp/B07YT18X6Y/ref=sr_1_37?keywords=pants&amp;qid=1681876994&amp;sr=8-37</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Amazon Brand - Symbol</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Men Dress Pants</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>829</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/81d37fLAwUL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Amazon-Brand-Stretchable-Trousers-SY-AW19-MFT-059_Grey_32W/dp/B07YT19SKC/ref=sr_1_18?keywords=pants&amp;qid=1681876994&amp;sr=8-18</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Amazon Brand - Symbol</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Men Dress Pants</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>829</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61e0ta9X9zL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Amazon-Brand-Stretchable-Trousers-SY-AW19-MFT-050_Black_32W/dp/B07YT1821J/ref=sr_1_14?keywords=pants&amp;qid=1681876994&amp;sr=8-14</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>plusS</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Women Track Pants</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>841</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/track-pants/pluss/pluss-black-track-pants/1875898/buy</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>myntra</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Amazon Brand - Symbol</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Men's Slim Casual Trousers</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>849</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/8177eP3pKmL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Amazon-Brand-SYMJG-01_Lt-Olive_32W/dp/B08FJQ1T3V/ref=sr_1_54?keywords=pants&amp;qid=1681876994&amp;sr=8-54</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Hancock</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Checked Lounge Pants</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>892</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21584536/2023/2/6/7e0da1c6-e837-44ef-b3a1-30fd862a8a761675676567177-Hancock-Men-Lounge-Pants-4561675676566549-1.jpg</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/lounge-pants/hancock/hancock-checked-lounge-pants/21584536/buy</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>myntra</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Hancock</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Checked Lounge Pants</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>892</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21584534/2023/3/6/6bcc7ad0-0a9b-43f0-a23d-32896f47e3881678080124295-Hancock-Checked-Lounge-Pants-2751678080123561-1.jpg</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/lounge-pants/hancock/hancock-checked-lounge-pants/21584534/buy</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>myntra</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Hancock</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Checked Lounge Pants</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>892</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/lounge-pants/hancock/hancock-checked-lounge-pants/21584538/buy</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>myntra</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Hancock</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Checked Lounge Pants</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>892</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/lounge-pants/hancock/hancock-checked-lounge-pants/21584532/buy</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>myntra</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Van Heusen</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Men's Track Pants</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>899</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/81eQleWjVoL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Van-Heusen-Track-50056_Grey-Melange_L/dp/B083C2SWKL/ref=sr_1_44?keywords=pants&amp;qid=1681876994&amp;sr=8-44</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Gallus</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Men Track Pants</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>899</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/track-pants/gallus/gallus-men-track-pants/21370424/buy</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>myntra</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>PowerSutra</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Women Lounge Pants</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>910</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/lounge-pants/powersutra/powersutra-women-lounge-pants/21735830/buy</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>myntra</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Enamor</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Women Lounge Pants</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>939</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71puErUR6bL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NDQ5Mzk5MDkwMTUyODg3OjE2ODE4NzY5OTQ6c3BfbXRmOjIwMDg0MjQ5NzY3MjAxOjowOjo&amp;url=%2FEnamor-Womens-Slim-Pants-EE000E014NVYXL_Navy1_XL%2Fdp%2FB08M6NFZJY%2Fref%3Dsr_1_24_sspa%3Fkeywords%3Dpants%26qid%3D1681876994%26sr%3D8-24-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Raymond</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Men Slim Fit Dark Blue Polycotton Trousers</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>940</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/q/n/a/32-rmts03853-b8-raymond-original-imagg392vngyq9nh.jpeg?q=70</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>https://www.flipkart.com/raymond-slim-fit-men-dark-blue-trousers/p/itma8f309f47b35d?pid=TROFYHXBBZPHRVXW&amp;lid=LSTTROFYHXBBZPHRVXW3RXPP6&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_30&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROFYHXBBZPHRVXW.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>flipkart</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>SIAPA</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Men Track Pants</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>959</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/track-pants/siapa/siapa-men-track-pants/21168126/buy</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>myntra</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>SOJANYA</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Men Dhoti Pants</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>965</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/dhotis/sojanya/sojanya-yellow-dhoti-pants/2034912/buy</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>myntra</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>SOJANYA</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Men Dhoti Pants</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>965</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/dhotis/sojanya/sojanya-black-dhoti-pants/1846812/buy</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>myntra</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>SOJANYA</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Men Dhoti Pants</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>965</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/dhotis/sojanya/sojanya-red-dhoti-pants/1846811/buy</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>myntra</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>SOJANYA</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Men Dhoti Pants</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>965</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/1846813/2017/4/11/11491902048835-SOJANYA-Men-Dhotis-2321491902048618-1.jpg</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/dhotis/sojanya/sojanya-yellow-dhoti-pants/1846813/buy</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>myntra</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>SOJANYA</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Men Dhoti Pants</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>965</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/dhotis/sojanya/sojanya-maroon-dhoti-pants/2034928/buy</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>myntra</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>SOJANYA</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Men Dhoti Pants</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>965</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/dhotis/sojanya/sojanya-orange-dhoti-pants/1780205/buy</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>myntra</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>SOJANYA</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Men Dhoti Pants</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>965</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/dhotis/sojanya/sojanya-white-dhoti-pants/1846810/buy</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>myntra</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>PARK AVENUE</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Men Regular Fit Black Viscose Rayon Trousers</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>981</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/5/c/r/-original-imagzkerqd9s6wgt.jpeg?q=70</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>https://www.flipkart.com/park-avenue-regular-fit-men-black-trousers/p/itmdd7e67c2bc51c?pid=TROGMS8QYZGAG5Z5&amp;lid=LSTTROGMS8QYZGAG5Z5PHTA01&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_25&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROGMS8QYZGAG5Z5.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>flipkart</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Raymond</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Men Slim Fit Black Viscose Rayon Trousers</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>986</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/e/f/n/-original-imaggcydd7jewpcg.jpeg?q=70</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>https://www.flipkart.com/raymond-slim-fit-men-black-trousers/p/itm8d9ca09ca3450?pid=TROFYHXBZYVEUJVH&amp;lid=LSTTROFYHXBZYVEUJVHJC7JSA&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_4&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROFYHXBZYVEUJVH.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>flipkart</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>McHenry</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Men's Solid Formal Regular Fit Wrinkle Free PolyViscose Trousers</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>999</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/81wqp2ohC9L._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/McHenry-Regular-PolyViscose-Trousers-Cream4006-40_Cream_Size/dp/B01LCXH98Y/ref=sr_1_12?keywords=pants&amp;qid=1681876994&amp;sr=8-12</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Amazon Brand - Symbol</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Men's Flexi Waist Slim Casual Pants</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>999</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71H4lmB7dtL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NDQ5Mzk5MDkwMTUyODg3OjE2ODE4NzY5OTQ6c3BfYXRmOjIwMTE5NjYxOTI0NTk4OjowOjo&amp;url=%2FAmazon-Brand-Symbol-A22-SYM-SL-CT-101_Lt-Olive_32%2Fdp%2FB0B395NQC5%2Fref%3Dsr_1_1_sspa%3Fkeywords%3Dpants%26qid%3D1681876994%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Amazon Brand - Symbol</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Men's Flexi Waist Regular Casual Pants</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>999</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71hEW2vmqML._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NDQ5Mzk5MDkwMTUyODg3OjE2ODE4NzY5OTQ6c3BfYXRmOjIwMTE5NjYxOTE2Nzk4OjowOjo&amp;url=%2FAmazon-Brand-Symbol-Regular-A22-SYM-RG-CT-100_Black_34%2Fdp%2FB0B399HCVH%2Fref%3Dsr_1_2_sspa%3Fkeywords%3Dpants%26qid%3D1681876994%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Amazon Brand - Symbol</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Men's Flexi Waist Slim Casual Pants</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>999</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61oRzu8XRtL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Amazon-Brand-Symbol-Casual-A22-SYM-SL-CT-101_Black_32/dp/B0B3989Q12/ref=sr_1_8?keywords=pants&amp;qid=1681876994&amp;sr=8-8</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Jockey</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Men's Cotton Track Pants</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>999</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61qoz5T51VL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Jockey-Cotton-Track-9500-0103-NAVY-Navy/dp/B00W05MDC6/ref=sr_1_20?keywords=pants&amp;qid=1681876994&amp;sr=8-20</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>toothless</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Solid Pure Cotton Track Pant</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>999</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/track-pants/toothless/toothless-girls-pink-pants/20403982/buy</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>myntra</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Amazon Brand - Inkast Denim Co.</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Men's Slim Fit Casual Pants</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>999</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61nk1PgrstL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Amazon-Brand-Inkast-Casual-TR-Ink-RDP-D3_Blue_32/dp/B0991WQYB7/ref=sr_1_31?keywords=pants&amp;qid=1681876994&amp;sr=8-31</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>PARK AVENUE</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Men Regular Fit Maroon Viscose Rayon Trousers</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>1021</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>https://rukminim1.flixcart.com/image/612/612/ktlu9ow0/trouser/o/6/0/32-pmtx06573-m7-park-avenue-original-imag6wyfggjffzuk.jpeg?q=70</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>https://www.flipkart.com/park-avenue-regular-fit-men-maroon-trousers/p/itm49098f544224a?pid=TROG4QFPWHZHXE9U&amp;lid=LSTTROG4QFPWHZHXE9UBULMHU&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_3&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROG4QFPWHZHXE9U.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>flipkart</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Enamor</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Essentials Women's Mid Rise Slim Fit Straight Leg Breathable Stretch Cotton Lounge Pants with Drawstring and Invisible Zipper Pockets- E014</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>1039</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/516fTca53yL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NDQ5Mzk5MDkwMTUyODg3OjE2ODE4NzY5OTQ6c3BfYnRmOjIwMDg0MjQ5NzQyNjAxOjowOjo&amp;url=%2FEnamor-Essentials-E014-Womens-Cotton%2Fdp%2FB08495JB4V%2Fref%3Dsr_1_60_sspa%3Fkeywords%3Dpants%26qid%3D1681876994%26sr%3D8-60-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>PETER ENGLAND</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Men Slim Fit Grey Viscose Rayon Trousers</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>1049</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/8/r/c/-original-imaggvptktxaztrw.jpeg?q=70</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>https://www.flipkart.com/peter-england-slim-fit-men-grey-trousers/p/itm9e1faf5488e7d?pid=TROGDTN4KGYXQXTS&amp;lid=LSTTROGDTN4KGYXQXTSZUOCV8&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_5&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROGDTN4KGYXQXTS.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>flipkart</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Enamor</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Essentials Womens Mid Rise 7/8th Relaxed Fit Soft &amp; Drapey 4 Way Stretch Viscose Spandex Lounge Pants with 2 Side Pockets- E048</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>1049</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/51UJAxDKpyL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NDQ5Mzk5MDkwMTUyODg3OjE2ODE4NzY5OTQ6c3BfbXRmOjIwMDg0MjQ5NzQ2MzAxOjowOjo&amp;url=%2FEnamor-Womens-Relaxed-Pants-E048_Navy_M%2Fdp%2FB07XFTR37P%2Fref%3Dsr_1_23_sspa%3Fkeywords%3Dpants%26qid%3D1681876994%26sr%3D8-23-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Enamor</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Women Pants</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>1099</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71oyIH-Fz7L._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NDQ5Mzk5MDkwMTUyODg3OjE2ODE4NzY5OTQ6c3BfYnRmOjIwMDcxMjA4MTc2ODk4OjowOjo&amp;url=%2FEnamor-Womens-Relaxed-Pants-E064_Navy_S%2Fdp%2FB086TF27LB%2Fref%3Dsr_1_58_sspa%3Fkeywords%3Dpants%26qid%3D1681876994%26sr%3D8-58-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Roadster</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Men Slim Fit Green Cotton Blend Trousers</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>1121</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>https://rukminim1.flixcart.com/image/612/612/jvtujrk0/trouser/t/h/w/32-2145329-roadster-original-imafgmqzkgpzmcwp.jpeg?q=70</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>https://www.flipkart.com/roadster-slim-fit-men-green-trousers/p/itmcb6bde0f97391?pid=TROFGH9A2E5WGESR&amp;lid=LSTTROFGH9A2E5WGESRI3YSIJ&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_22&amp;otracker=search&amp;iid=en_%2Fzb5cccG%2BNAxlFWnIlFWqxO1CRT0kxF2BuEAjuCcv%2FsXvneI%2BjichbYs%2Fze5SmZZ%2FF1ucJ9bBGaDQaW%2BaAcF4w%3D%3D&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>flipkart</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Roadster</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Men Slim Fit Green Cotton Blend Trousers</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>1121</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>https://rukminim1.flixcart.com/image/612/612/jvtujrk0/trouser/t/h/w/32-2145329-roadster-original-imafgmqzkgpzmcwp.jpeg?q=70</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>https://www.flipkart.com/roadster-slim-fit-men-green-trousers/p/itmfgmqzhz4twghb?pid=TROFGH9AMHVXU74H&amp;lid=LSTTROFGH9AMHVXU74HNZDRUJ&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_38&amp;otracker=search&amp;iid=en_%2Fzb5cccG%2BNAxlFWnIlFWqxO1CRT0kxF2BuEAjuCcv%2FtoDZmGyd%2BfUnEfttk51FDGvG5nd1ddpjqmy8AXl90UiQ%3D%3D&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>flipkart</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Enamor</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Women Pants</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>1139</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/81rKcRlWz5L._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NDQ5Mzk5MDkwMTUyODg3OjE2ODE4NzY5OTQ6c3BfbXRmOjIwMDg0MjQ5NzQ5NDAxOjowOjo&amp;url=%2FEnamor-Womens-Pants-E060_Navy-Melange_S%2Fdp%2FB07X8MGDJH%2Fref%3Dsr_1_21_sspa%3Fkeywords%3Dpants%26qid%3D1681876994%26sr%3D8-21-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>hummel</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Men Track Pants</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>1159</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/track-pants/hummel/hummel-men-track-pants/21064880/buy</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>myntra</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Mr Bowerbird</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Men Regular Fit Brown Wool Trousers</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>1179</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>https://rukminim1.flixcart.com/image/612/612/l1ch4sw0/trouser/a/k/h/34-14737440-mr-bowerbird-original-imagcxfpb5gx9kwe.jpeg?q=70</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>https://www.flipkart.com/mr-bowerbird-regular-fit-men-brown-trousers/p/itm1ae60b2c559ee?pid=TROGCXFQYNEZFMFR&amp;lid=LSTTROGCXFQYNEZFMFRNQ6Z2I&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_8&amp;otracker=search&amp;iid=en_%2Fzb5cccG%2BNAxlFWnIlFWqxO1CRT0kxF2BuEAjuCcv%2FsGb%2FlWt%2BbVfU4llvJjZhjuK4X%2F988eAGhku8%2BcRvtACQ%3D%3D&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>flipkart</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Enamor</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Essentials Women's Relaxed Fit Regular Length Mid Rise Modal Woven Printed Lounge Pant with Pockets and Adjustable Drawstring- E4A3</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>1249</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/81yQA2E24mL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NDQ5Mzk5MDkwMTUyODg3OjE2ODE4NzY5OTQ6c3BfbXRmOjIwMDcxMjA4MTY1NDk4OjowOjo&amp;url=%2FEnamor-Essentials-Adjustable-Drawstring-E4A3%2Fdp%2FB09T3K54VR%2Fref%3Dsr_1_22_sspa%3Fkeywords%3Dpants%26qid%3D1681876994%26sr%3D8-22-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>PETER ENGLAND</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Men Slim Fit Brown Pure Cotton Trousers</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>1349</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/k/t/y/-original-imagh3jmnzm3farb.jpeg?q=70</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>https://www.flipkart.com/peter-england-slim-fit-men-brown-trousers/p/itm27bcbe13c4be4?pid=TROG9JGU4AV3ZAZM&amp;lid=LSTTROG9JGU4AV3ZAZMZQPWLN&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_29&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROG9JGU4AV3ZAZM.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>flipkart</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>BEEVEE</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Men's Cargos</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>1376</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/610crFA7BJL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/BEEVEE-Mens-Cargo-Pants-FMCR1602BLACK_34_Black_34/dp/B0169WWO56/ref=sr_1_36?keywords=pants&amp;qid=1681876994&amp;sr=8-36</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>rock.it</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Men Track Pants</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>1466</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/track-pants/rockit/rockit-men-track-pants/21073786/buy</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>myntra</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Speedo</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Contrast Swim Pants</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>1499</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/swim-bottoms/speedo/speedo-contrast-swim-pants/22595686/buy</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>myntra</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>rock.it</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Men Track Pants</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>1536</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/track-pants/rockit/rockit-men-track-pants/21073790/buy</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>myntra</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Cantabil</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Men Track Pants</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>1539</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/track-pants/cantabil/cantabil-men-track-pants/21159322/buy</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>myntra</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>REEBOK</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Men Printed Blue Track Pants</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>1623</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/track-pant/y/v/f/-original-imagh6nxwyhcaezq.jpeg?q=70</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>https://www.flipkart.com/reebok-printed-men-blue-track-pants/p/itmbbeeeecc980db?pid=TKPG4BGDJGKEJ6FX&amp;lid=LSTTKPG4BGDJGKEJ6FX0HWB8Z&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_20&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TKPG4BGDJGKEJ6FX.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>flipkart</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>ONLY</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Women Track Pants</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>1664</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/20196582/2022/9/28/9be6644b-6329-4c02-88db-a7c0ca8c64a51664357173934ONLYWomenGreenTrackPants1.jpg</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/track-pants/only/only-women-track-pants/20196582/buy</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>myntra</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Jockey</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Men Track Pants</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>1749</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/track-pants/jockey/jockey-men-track-pants/21081480/buy</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>myntra</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Jockey</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Men Track Pants</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>1769</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/track-pants/jockey/jockey-men-track-pants/21081482/buy</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>myntra</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Puma</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Woven Men'S Training Pants</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>1799</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/track-pants/puma/puma-men-navy-blue-woven-training-pants-slip-on-solid-sports-pants/20673410/buy</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>myntra</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>boohooMAN</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Men Tapered Track Pants</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>1799</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/track-pants/boohooman/boohooman-tapered-track-pants/22167526/buy</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>myntra</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>VAN HEUSEN</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Men Slim Fit Black Polycotton Trousers</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>1799</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/j/w/p/30-vhtffslbm92948-van-heusen-original-imagkgzvj5amwc7f.jpeg?q=70</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>https://www.flipkart.com/van-heusen-slim-fit-men-black-trousers/p/itmb309a5c73a9a0?pid=TROGKGZVZUYXZNZS&amp;lid=LSTTROGKGZVZUYXZNZSFM7Z3A&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_9&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROGKGZVZUYXZNZS.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>flipkart</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
           <t>The Pant Project</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Luxury PV Lycra Stretchable Formal Pants for Men | Stylish Slim Fit Men's Wear Trousers for Office or Party | Mens Fashion Dress Trouser Pant</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>1990</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/617Zg6QsgDL._AC_UL400_.jpg</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Pant-Project-Polyester-Formal-Pant_01-Olive-40_Black_34/dp/B0B46P1CN8/ref=sr_1_43?keywords=pants&amp;qid=1681876994&amp;sr=8-43</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>The Pant Project</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
         <is>
           <t>Luxury PV Stretchable Casual Pants for Men | Stylish Slim Fit Men's Wear Trousers for Office or Party | Mens Fashion Dress Trouser with Expandable Waist &amp; 4 Way Stretch</t>
         </is>
       </c>
-      <c r="D88" t="n">
+      <c r="D146" t="n">
         <v>1990</v>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>https://m.media-amazon.com/images/I/817rJ9f5IxL._AC_UL400_.jpg</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>https://www.amazon.com/Pant-Project-Stretchable-Trousers-Expandable/dp/B0BSWP8PVQ/ref=sr_1_31?keywords=pants&amp;qid=1681754814&amp;sr=8-31</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>amazon</t>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Pant-Project-Stretchable-Trousers-Expandable/dp/B0BSWP8PVQ/ref=sr_1_39?keywords=pants&amp;qid=1681876994&amp;sr=8-39</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>amazon</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>boohooMAN</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Men Solid Track Pants</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>2069</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/track-pants/boohooman/boohooman-solid-track-pants/22167484/buy</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>myntra</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>boohooMAN</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Men Textured Track Pants</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>2309</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/track-pants/boohooman/boohooman-textured-track-pants/22167422/buy</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>myntra</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Puma</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Men Track Pants</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>2799</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/track-pants/puma/puma-men-track-pants/21532512/buy</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>myntra</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Puma</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Men Track Pants</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>3399</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21532552/2023/3/23/38410e7a-53c4-4c2d-bf86-750fa70e70031679562484963PUMAPOWERMensPants1.jpg</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/track-pants/puma/puma-power-men-pants/21532552/buy</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>myntra</t>
         </is>
       </c>
     </row>

--- a/radon/data.xlsx
+++ b/radon/data.xlsx
@@ -471,25 +471,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ask4Fashion</t>
+          <t>LEE TEX</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Women Regular Fit Black Viscose Rayon Trousers</t>
+          <t>Women Regular Fit Blue Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>246</v>
+        <v>291</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shopsy-trouser/j/l/0/l-rk-blk-bc-0001-bootcut-trousers-aditi-fashion-original-imaga5hwmghzgdgr-bb.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/l5h2xe80/trouser/j/p/c/m-bell-bottom-trouser-lee-tex-original-imagg57pfzkzdswk.jpeg?q=70</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/ask4fashion-regular-fit-women-black-trousers/p/itm2f44d75654893?pid=TROGB62BH9AFZC5G&amp;lid=LSTTROGB62BH9AFZC5GIIOJU8&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_21&amp;otracker=search&amp;iid=en_%2Fzb5cccG%2BNAxlFWnIlFWqxO1CRT0kxF2BuEAjuCcv%2FsTVghTXAmBH378AgDL3JRr08%2BQwHLe9cKNqXWG%2F8%2B3%2Bw%3D%3D&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/lee-tex-regular-fit-women-blue-trousers/p/itm0b3439cb1fb70?pid=TROGG7JKUSYMCZVN&amp;lid=LSTTROGG7JKUSYMCZVNMKDYBZ&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_40&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROGG7JKUSYMCZVN.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -504,25 +504,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>KOTTY</t>
+          <t>Amazon Brand - Inkast Denim Co.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Women Polyester Blend Green Solid Trousers</t>
+          <t>Regular T-shirt</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51jXgsSM6SL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71W+cEy3tGL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/KOTTY-Womens-Solid-Polyester-Trousers/dp/B0B49SCGMY/ref=sr_1_7?keywords=pants&amp;qid=1681876994&amp;sr=8-7</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0NzM5MzEyMTY3MTQzNDEyOjE2ODIwOTQ4MTg6c3BfYnRmOjIwMTAzOTIyODg2ODk4OjowOjo&amp;url=%2FAmazon-Brand-Regular-T-Shirt-SS20INKTEE17_Terrain%2Fdp%2FB099ZY7NKC%2Fref%3Dsr_1_59_sspa%3Fkeywords%3Dpants%26qid%3D1682094818%26sr%3D8-59-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -537,30 +537,30 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LEE TEX</t>
+          <t>KOTTY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Women Regular Fit Green Cotton Blend Trousers</t>
+          <t>Women Solid Trousers</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/t/g/f/28-trouser-50-lee-tex-original-imaghkgd7ajsvxzm.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/51jXgsSM6SL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/lee-tex-regular-fit-women-green-trousers/p/itmf8460dfc9b939?pid=TROGHKK5FGHFYX5T&amp;lid=LSTTROGHKK5FGHFYX5TQTBZL8&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_17&amp;otracker=search&amp;iid=en_%2Fzb5cccG%2BNAxlFWnIlFWqxO1CRT0kxF2BuEAjuCcv%2FtO6vU0U9PysF2ER794tiuXxj%2BLaaOAIixZ1hXypPlG9A%3D%3D&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/KOTTY-Womens-Solid-Polyester-Trousers/dp/B0B49SCGMY/ref=sr_1_5?keywords=pants&amp;qid=1682094818&amp;sr=8-5</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -570,12 +570,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>VIMAL JONNEY</t>
+          <t>LEE TEX</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vimal Men's Trackpantss</t>
+          <t>Women Regular Fit Maroon Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -583,17 +583,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/513AablIIfL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/l/9/o/26-trouser-50-lee-tex-original-imaghkgdhxh6cdpz.jpeg?q=70</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/VIMAL-Mens-Track-Pants-D10NAVY-M_Navy/dp/B01AAWUYJO/ref=sr_1_50?keywords=pants&amp;qid=1681876994&amp;sr=8-50</t>
+          <t>https://www.flipkart.com/lee-tex-regular-fit-women-maroon-trousers/p/itmce79e01587568?pid=TROGHKK5ZUTPZHYX&amp;lid=LSTTROGHKK5ZUTPZHYXVTTEDV&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_21&amp;otracker=search&amp;iid=en_bdhPJXo3RcktD3Cx9%2BQTE4WCFYCniBOjAtt4CRNGXwMzJNG6r9BFRrMSUEBpKb2p1UP0%2BKvGuHBfMaG4s4ngCA%3D%3D&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>flipkart</t>
         </is>
       </c>
     </row>
@@ -603,12 +603,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AVOLT</t>
+          <t>VIMAL JONNEY</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Dry Fit Track Pants Combo I Slim Fit Sports Track Pants</t>
+          <t>Men's Trackpants</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -616,12 +616,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61iSZEH6PJL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/513AablIIfL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/AVOLT-Track-Athleisure-Running-Stretchable/dp/B09VPK6WZC/ref=sr_1_19?keywords=pants&amp;qid=1681876994&amp;sr=8-19</t>
+          <t>https://www.amazon.com/VIMAL-Mens-Track-Pants-D10NAVY-M_Navy/dp/B01AAWUYJO/ref=sr_1_52?keywords=pants&amp;qid=1682094818&amp;sr=8-52</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -636,7 +636,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ADDYVERO</t>
+          <t>Foxter</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/k80iqa80/trouser/8/e/r/32-cl-wm-l0729-addyvero-original-imafq4j9byegfugj.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/y/v/e/32-women-trouser-lupi-foxter-original-imagm99dzsz3fnqy.jpeg?q=70</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/addyvero-regular-fit-women-black-trousers/p/itmdfe8b3d718721?pid=TROFPJ8BTSFFGGYH&amp;lid=LSTTROFPJ8BTSFFGGYH0M8BA7&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_19&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROFPJ8BTSFFGGYH.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/foxter-regular-fit-women-black-trousers/p/itmda18cb8e68aa7?pid=TROGM99D7HQYJYUR&amp;lid=LSTTROGM99D7HQYJYURGGTRIC&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;spotlightTagId=BestsellerId_clo%2Fvua&amp;srno=s_1_33&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROGM99D7HQYJYUR.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -674,20 +674,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Women Regular Fit Black Viscose Rayon Trousers</t>
+          <t>Women Regular Fit Dark Green Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/8/n/5/28-kttwomenspant261-kotty-original-imagnrr9xcy9zgru.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/l47cu4w0/trouser/i/k/v/30-kottywomenspant154-kotty-original-imagf5nctpcjxabc.jpeg?q=70</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-regular-fit-women-black-trousers/p/itm126ac29fac269?pid=TROGHF9CQCPGXPXM&amp;lid=LSTTROGHF9CQCPGXPXMGBCIM6&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;spotlightTagId=BestsellerId_clo%2Fvua&amp;srno=s_1_10&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROGHF9CQCPGXPXM.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/kotty-regular-fit-women-dark-green-trousers/p/itmc5df26954a566?pid=TROGF5NDQ8VDF4HH&amp;lid=LSTTROGF5NDQ8VDF4HHRHBTWQ&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_13&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROGF5NDQ8VDF4HH.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -707,20 +707,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Women Flared Black Viscose Rayon Trousers</t>
+          <t>Women Regular Fit Orange Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/q/e/h/26-kttwomenspant323-kotty-original-imagn2z6h6g4qunz.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/l3hmwsw0/trouser/9/9/r/28-kttwomenspant155-kotty-original-imagehhkdh6s8q8x.jpeg?q=70</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-flared-women-black-trousers/p/itm518c3cae464ad?pid=TROGMYCSD82PUBZN&amp;lid=LSTTROGMYCSD82PUBZNYXWLAS&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_12&amp;otracker=search&amp;iid=en_%2Fzb5cccG%2BNAxlFWnIlFWqxO1CRT0kxF2BuEAjuCcv%2FvlwLkzqp2Tw%2Bjpza%2F0meVVGHQ%2FhAUJzyDo%2BI3jQ7UW9w%3D%3D&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/kotty-regular-fit-women-orange-trousers/p/itmaef81361b939c?pid=TROGEHHKDQ2SHUHG&amp;lid=LSTTROGEHHKDQ2SHUHG4LWMWC&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_22&amp;otracker=search&amp;iid=en_bdhPJXo3RcktD3Cx9%2BQTE4WCFYCniBOjAtt4CRNGXwMLQSLwPQTYk3pB67HeDmw6Fu3F6g%2FtyEzP%2BKLh2Gj32A%3D%3D&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -740,20 +740,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Women Regular Fit Green Viscose Rayon Trousers</t>
+          <t>Women Regular Fit Black Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/o/h/s/28-kottywomenspant151-kotty-original-imagnz56ubjgwuzu.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/8/n/5/28-kttwomenspant261-kotty-original-imagnrr9xcy9zgru.jpeg?q=70</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-regular-fit-women-green-trousers/p/itmf8cd900a09a26?pid=TROGF3FZZN4JCHYY&amp;lid=LSTTROGF3FZZN4JCHYY8JJ4BV&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_16&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROGF3FZZN4JCHYY.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/kotty-regular-fit-women-black-trousers/p/itm126ac29fac269?pid=TROGHF9CQCPGXPXM&amp;lid=LSTTROGHF9CQCPGXPXMGBCIM6&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;spotlightTagId=BestsellerId_clo%2Fvua&amp;srno=s_1_10&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROGHF9CQCPGXPXM.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -773,20 +773,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Women Regular Fit Dark Green Viscose Rayon Trousers</t>
+          <t>Women Regular Fit Black Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/l3hmwsw0/trouser/n/u/d/34-kttwomenspant154-kotty-original-imagehhkqnqkwt9e.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/f/q/p/28-kottywomenspant261-kotty-original-imaghe3gmpq6yrty.jpeg?q=70</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-regular-fit-women-dark-green-trousers/p/itmc6ae5bea4da08?pid=TROGEHHK8HJ5VP73&amp;lid=LSTTROGEHHK8HJ5VP73LJBNSF&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;spotlightTagId=FkPickId_clo%2Fvua&amp;srno=s_1_40&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROGEHHK8HJ5VP73.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/kotty-regular-fit-women-black-trousers/p/itm52402672f82b6?pid=TROGHE3MDHTYWFHJ&amp;lid=LSTTROGHE3MDHTYWFHJ26HHKC&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_19&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROGHE3MDHTYWFHJ.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -806,20 +806,20 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Women Flared Multicolor Viscose Rayon Trousers</t>
+          <t>Women Regular Fit Pink Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/l3xcr680/trouser/w/i/7/34-kttwomenspant186-kotty-original-imagexz8pgcgf7wz.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/0/f/w/30-kttwomenspant268-kotty-original-imaghehc5xdhhxc9.jpeg?q=70</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-flared-women-multicolor-trousers/p/itm6b26c2c2cf148?pid=TROGEYF7BDYFZ2JZ&amp;lid=LSTTROGEYF7BDYFZ2JZGVMXTO&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_39&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROGEYF7BDYFZ2JZ.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/kotty-regular-fit-women-pink-trousers/p/itm49a94239850a6?pid=TROGHEHDVYAQHWBV&amp;lid=LSTTROGHEHDVYAQHWBVVB8WVQ&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_18&amp;otracker=search&amp;iid=en_bdhPJXo3RcktD3Cx9%2BQTE4WCFYCniBOjAtt4CRNGXwMjceHRq%2F2XjQgNkrClFG51Zn8dPGpn64Htr8F7iHXR%2BA%3D%3D&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -839,20 +839,20 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Women Regular Fit Black Viscose Rayon Trousers</t>
+          <t>Women Flared Black Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/f/q/p/28-kottywomenspant261-kotty-original-imaghe3gmpq6yrty.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/w/d/g/28-kttwomenspant321-kotty-original-imagmycptzhgv6mk.jpeg?q=70</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-regular-fit-women-black-trousers/p/itm52402672f82b6?pid=TROGHE3MYRFN8RGN&amp;lid=LSTTROGHE3MYRFN8RGNWSVYE9&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;spotlightTagId=BestsellerId_clo%2Fvua&amp;srno=s_1_34&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROGHE3MYRFN8RGN.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/kotty-flared-women-black-trousers/p/itm8aa941ff754c1?pid=TROGMYCSEDMATHHT&amp;lid=LSTTROGMYCSEDMATHHTU30PGE&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_17&amp;otracker=search&amp;iid=en_bdhPJXo3RcktD3Cx9%2BQTE4WCFYCniBOjAtt4CRNGXwNax2InxkgXnY9werOco%2B03PMDNPlC%2BgM9rAHi7sY3aGQ%3D%3D&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -872,20 +872,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Women Regular Fit Dark Green Viscose Rayon Trousers</t>
+          <t>Women Regular Fit Green Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/l47cu4w0/trouser/i/k/v/30-kottywomenspant154-kotty-original-imagf5nctpcjxabc.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/o/h/s/28-kottywomenspant151-kotty-original-imagnz56ubjgwuzu.jpeg?q=70</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-regular-fit-women-dark-green-trousers/p/itmc5df26954a566?pid=TROGF5NDQ8VDF4HH&amp;lid=LSTTROGF5NDQ8VDF4HHRHBTWQ&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_13&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROGF5NDQ8VDF4HH.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/kotty-regular-fit-women-green-trousers/p/itmf8cd900a09a26?pid=TROGF3FZZN4JCHYY&amp;lid=LSTTROGF3FZZN4JCHYY8JJ4BV&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_16&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROGF3FZZN4JCHYY.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -900,30 +900,30 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>JUGULAR</t>
+          <t>KOTTY</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Men's Slim Fit Cotton Track Pant</t>
+          <t>Women Regular Fit Purple Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>389</v>
+        <v>352</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61SJTcmtp-L._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/h/1/r/28-kttwomenspant307-kotty-original-imagnyeghk4hqvzr.jpeg?q=70</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/JUGULAR-Cotton-Style-Joggers-Medium/dp/B091YJ78JK/ref=sr_1_32?keywords=pants&amp;qid=1681876994&amp;sr=8-32</t>
+          <t>https://www.flipkart.com/kotty-regular-fit-women-purple-trousers/p/itm2faf429628e53?pid=TROGKGTZHGYMHQCF&amp;lid=LSTTROGKGTZHGYMHQCFX8L2IO&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_28&amp;otracker=search&amp;iid=en_bdhPJXo3RcktD3Cx9%2BQTE4WCFYCniBOjAtt4CRNGXwO6yj5WWWdAGdE5YrQJifKj6OfcRu0jPL7PuLsCrMwJwQ%3D%3D&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>flipkart</t>
         </is>
       </c>
     </row>
@@ -933,25 +933,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>VURSO</t>
+          <t>ADDYVERO</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Men Slim Fit Silver Viscose Rayon Trousers</t>
+          <t>Women Flared Maroon Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/z/g/d/30-fkvt-11-og-vurso-original-imafxufhhqzbjdfr.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/kfoapow0-0/trouser/x/p/l/34-cl-wm-l0737-addyvero-original-imafw2jwudmcrfbq.jpeg?q=70</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/vurso-slim-fit-men-silver-trousers/p/itm6c04e4eb51c53?pid=TROGHHTGCRUXJX5T&amp;lid=LSTTROGHHTGCRUXJX5TKSUA3I&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_2&amp;otracker=search&amp;iid=en_%2Fzb5cccG%2BNAxlFWnIlFWqxO1CRT0kxF2BuEAjuCcv%2FtuZbOT1GAPPRaU%2Bnt7gbViGbEz3M5kx%2FRZ5sqt1dhtcQ%3D%3D&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/addyvero-flared-women-maroon-trousers/p/itm9dfc4c9f2f73d?pid=TROFPWPZZHG5CNH7&amp;lid=LSTTROFPWPZZHG5CNH7BWH7WX&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_39&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROFPWPZZHG5CNH7.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -966,30 +966,30 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>KOTTY</t>
+          <t>ADDYVERO</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Women Regular Fit Yellow Cotton Blend Trousers</t>
+          <t>Slim Fit Casual Trousers</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/t/c/l/30-kottywomenspant205-kotty-original-imaggjhvyvhkpssb.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/61r+ZK+jPtL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-regular-fit-women-yellow-trousers/p/itm5a919c54e492b?pid=TROGGJHWTVQUWG55&amp;lid=LSTTROGGJHWTVQUWG55UALJGW&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_36&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROGGJHWTVQUWG55.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/ADDYVERO-Flared-Ankle-Length-Trousers/dp/B085MCKV8F/ref=sr_1_10?keywords=pants&amp;qid=1682094818&amp;sr=8-10</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -999,25 +999,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ADDYVERO</t>
+          <t>SWADESI STUFF</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Women's Slim Fit Casual Trousers</t>
+          <t>Dry Fit Track Pant for Men | Slim Fit Running Gym Stretchable Jogger</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61r+ZK+jPtL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61B56ZjWatL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/ADDYVERO-Flared-Ankle-Length-Trousers/dp/B085MCKV8F/ref=sr_1_11?keywords=pants&amp;qid=1681876994&amp;sr=8-11</t>
+          <t>https://www.amazon.com/SWADESI-STUFF-Running-Stretchable-Jogger/dp/B0BDWN5LDK/ref=sr_1_32?keywords=pants&amp;qid=1682094818&amp;sr=8-32</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1032,30 +1032,30 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ENDEAVOUR WEAR</t>
+          <t>KOTTY</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Men's Regular Fit Trackpants</t>
+          <t>Women Regular Fit Brown Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/5137SFdCROL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/3/k/e/28-kottywomenspant204-kotty-original-imaggjhvxzwcfggh.jpeg?q=70</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/ENDEAVOUR-WEAR-Regular-Track-EWTS_CTNBLACKTRACK_M_Black_M/dp/B09B3YC8XM/ref=sr_1_33?keywords=pants&amp;qid=1681876994&amp;sr=8-33</t>
+          <t>https://www.flipkart.com/kotty-regular-fit-women-brown-trousers/p/itmefde201429474?pid=TROGGJHWF7N35UT4&amp;lid=LSTTROGGJHWF7N35UT4VPCAFC&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_15&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROGGJHWF7N35UT4.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>flipkart</t>
         </is>
       </c>
     </row>
@@ -1070,20 +1070,20 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Women Regular Fit Black Viscose Rayon Trousers</t>
+          <t>Women Regular Fit Pink Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/p/x/u/32-kttwomenspant320-kotty-original-imagmycp9ehhrusk.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/l5bd5zk0/trouser/d/i/d/26-kttwomenspant174-kotty-original-imaggyhncztfsbst.jpeg?q=70</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-regular-fit-women-black-trousers/p/itmdc4fa491469e5?pid=TROGMYCR7XGFHA5R&amp;lid=LSTTROGMYCR7XGFHA5RZLJPRD&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_11&amp;otracker=search&amp;iid=en_%2Fzb5cccG%2BNAxlFWnIlFWqxO1CRT0kxF2BuEAjuCcv%2FuBQLayOMaEpKSXCPU7b3SHRmKsq1aM30UYOIujJ1OaWg%3D%3D&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/kotty-regular-fit-women-pink-trousers/p/itm26ebc424e1985?pid=TROGGYHN4ZGPTXTW&amp;lid=LSTTROGGYHN4ZGPTXTWEJXO1Y&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_36&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROGGYHN4ZGPTXTW.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1098,25 +1098,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Shasmi</t>
+          <t>JUGULAR</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Women's Dress Pants Stretchy Work Slacks Business Casual Office Bootcut Leg Elastic Waist Regular Fit Plazzo Trouser Pant (Pant 65)</t>
+          <t>Cotton Zip Style Track Pant</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51ylFhZJI2L._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61SJTcmtp-L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Shasmi-Fit-Plazzo-Trouser-Pant/dp/B0BPT47WX8/ref=sr_1_35?keywords=pants&amp;qid=1681876994&amp;sr=8-35</t>
+          <t>https://www.amazon.com/JUGULAR-Cotton-Style-Joggers-Medium/dp/B091YJ78JK/ref=sr_1_28?keywords=pants&amp;qid=1682094818&amp;sr=8-28</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1131,30 +1131,30 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>KOTTY</t>
+          <t>Amazon Brand - Inkast Denim Co.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Women Regular Fit Brown Viscose Rayon Trousers</t>
+          <t>Regular Polo Shirt</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/l5bd5zk0/trouser/w/e/k/34-kttwomenspant204-kotty-original-imaggyhngpnnkgcp.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/91Vq-HLPJrL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-regular-fit-women-brown-trousers/p/itm1a3305a09bc95?pid=TROGGYHNRR3Q6RMG&amp;lid=LSTTROGGYHNRR3Q6RMG1GCJEL&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_35&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROGGYHNRR3Q6RMG.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0NzM5MzEyMTY3MTQzNDEyOjE2ODIwOTQ4MTg6c3BfYnRmOjIwMTAzOTYzNDI2OTk4OjowOjo&amp;url=%2FAmazon-Brand-Inkast-Regular-P-PE-D5-A_Provincial%2Fdp%2FB098NVNBWD%2Fref%3Dsr_1_57_sspa%3Fkeywords%3Dpants%26qid%3D1682094818%26sr%3D8-57-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -1164,12 +1164,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>KOTTY</t>
+          <t>Shasmi</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Women Regular Fit Yellow Viscose Rayon Trousers</t>
+          <t>Women's Dress Pants Stretchy Work Slacks Business Casual Office Bootcut Leg Elastic Waist Regular Fit Plazzo Trouser Pant (Pant 65)</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1177,17 +1177,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/l5bd5zk0/trouser/b/1/t/26-kttwomenspant205-kotty-original-imaggyhnxn2paafy.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/51ylFhZJI2L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-regular-fit-women-yellow-trousers/p/itma756388cfcb9e?pid=TROGGYHNZ7YNMJNC&amp;lid=LSTTROGGYHNZ7YNMJNCGWYSQT&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_15&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROGGYHNZ7YNMJNC.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/Shasmi-Fit-Plazzo-Trouser-Pant/dp/B0BPT47WX8/ref=sr_1_30?keywords=pants&amp;qid=1682094818&amp;sr=8-30</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -1197,30 +1197,30 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CYPHUS</t>
+          <t>ENDEAVOUR WEAR</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Men Regular Fit Cream Cotton Blend Trousers</t>
+          <t>Men's Regular Fit Trackpants</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/d/v/4/30-cyfor-d-cyphus-original-imag6yzdegs7d3ut-bb.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/5137SFdCROL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/cyphus-regular-fit-men-cream-trousers/p/itm14b821e1cd2ab?pid=TROGFFXYUKYJZDGX&amp;lid=LSTTROGFFXYUKYJZDGXZPZOL8&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_6&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROGFFXYUKYJZDGX.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/ENDEAVOUR-WEAR-Regular-Track-EWTS_CTNBLACKTRACK_M_Black_M/dp/B09B3YC8XM/ref=sr_1_31?keywords=pants&amp;qid=1682094818&amp;sr=8-31</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -1230,30 +1230,30 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CYPHUS</t>
+          <t>Chromozome</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Men Regular Fit Grey Cotton Blend Trousers</t>
+          <t>Men's Regular Shorts</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/y/o/i/32-cyfor-f-cyphus-original-imag6yzhz8kfsfpr-bb.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/71TNBRetNwL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/cyphus-regular-fit-men-grey-trousers/p/itm40e4db39b1570?pid=TROGF9CB4ESVPYPW&amp;lid=LSTTROGF9CB4ESVPYPWJ8JKYE&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_23&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROGF9CB4ESVPYPW.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0NzM5MzEyMTY3MTQzNDEyOjE2ODIwOTQ4MTg6c3BfbXRmOjIwMTA4NDMyMjkwNjk4OjowOjo&amp;url=%2FChromozome-Track-N-170-Gym-Shorts_Charcoal_Medium%2Fdp%2FB07NBYYZWD%2Fref%3Dsr_1_24_sspa%3Fkeywords%3Dpants%26qid%3D1682094818%26sr%3D8-24-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -1263,25 +1263,25 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>JPM brothers</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Men's Regular Casual Trousers</t>
+          <t>Men's Lycra Pant</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61UhkAmRVyL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71dZDoqZEfL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NDQ5Mzk5MDkwMTUyODg3OjE2ODE4NzY5OTQ6c3BfYXRmOjIwMTAzOTQ2MDAwNjk4OjowOjo&amp;url=%2FAmazon-Brand-Symbol-Trousers-AW-SY-MCT-1153_Navy_30W%2Fdp%2FB07KVXCR6G%2Fref%3Dsr_1_4_sspa%3Fkeywords%3Dpants%26qid%3D1681876994%26sr%3D8-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/JPM-brothers-Polyester-BUTTON-LIGHTGREY-XL_Light-Grey_XL/dp/B0BGXZJC6S/ref=sr_1_20?keywords=pants&amp;qid=1682094818&amp;sr=8-20</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1296,25 +1296,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>JPM brothers</t>
+          <t>Amazon Brand - Symbol</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Mens Regular Fit Lycra Pant</t>
+          <t>Regular Track Pants</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71dZDoqZEfL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61fu5vVqNwL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/JPM-brothers-Polyester-BUTTON-LIGHTGREY-XL_Light-Grey_XL/dp/B0BGXZJC6S/ref=sr_1_27?keywords=pants&amp;qid=1681876994&amp;sr=8-27</t>
+          <t>https://www.amazon.com/Amazon-Brand-Symbol-Lounge-KTRK-02_Navy_Medium/dp/B079VT539Q/ref=sr_1_45?keywords=pants&amp;qid=1682094818&amp;sr=8-45</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1329,30 +1329,30 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>LEE TEX</t>
+          <t>Laabha</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Pack of 2 Women Regular Fit Multicolor Cotton Blend Trousers</t>
+          <t>Solid Track Pants</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/m/o/v/32-bell-bottom-trouser-lee-tex-original-imaggxthwevffc7b.jpeg?q=70</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/lee-tex-regular-fit-women-multicolor-trousers/p/itmc711bcd8076cb?pid=TROGGXTMHGGMFGEA&amp;lid=LSTTROGGXTMHGGMFGEARR4BU7&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_18&amp;otracker=search&amp;iid=en_%2Fzb5cccG%2BNAxlFWnIlFWqxO1CRT0kxF2BuEAjuCcv%2FvBcLf1WUPkVRhzOqPV3x7nhLLnPk2ayHpn8AGNohP%2FOw%3D%3D&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.myntra.com/track-pants/laabha/laabha-solid-track-pants/21975656/buy</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -1362,25 +1362,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>JUGULAR</t>
+          <t>AVOLT</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Men's Regular Fit Cotton Pant And Joggers</t>
+          <t>I Slim Fit Track Pant</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51e3d6L6EDL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61iSZEH6PJL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/JUGULAR-Cotton-Track-Joggers-X-Large/dp/B09W9X6LG6/ref=sr_1_38?keywords=pants&amp;qid=1681876994&amp;sr=8-38</t>
+          <t>https://www.amazon.com/AVOLT-Track-Athleisure-Running-Stretchable/dp/B09VPK6WZC/ref=sr_1_33?keywords=pants&amp;qid=1682094818&amp;sr=8-33</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1395,30 +1395,30 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Aahwan</t>
+          <t>LEE TEX</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Women's &amp; Girls' Solid Split Hem Flare Leg Pants Trouser</t>
+          <t>Pack of 2 Women Regular Fit Purple, Blue Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51tzz6Ib+PL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/p/c/v/34-bell-bottom-trouser-lee-tex-original-imagkhahbnchn2wn.jpeg?q=70</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Aahwan-Solid-Trouser-Womens-212-Black-S/dp/B0BTDCLR6D/ref=sr_1_5?keywords=pants&amp;qid=1681876994&amp;sr=8-5</t>
+          <t>https://www.flipkart.com/lee-tex-regular-fit-women-purple-blue-trousers/p/itm23060ade90f6a?pid=TROGKHAMFPGPHKQ6&amp;lid=LSTTROGKHAMFPGPHKQ6BGSUBZ&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_2&amp;otracker=search&amp;iid=en_bdhPJXo3RcktD3Cx9%2BQTE4WCFYCniBOjAtt4CRNGXwOwTDzr%2FnFEiNN%2FUJ3%2FBQXvQNkv5g48%2BeyJxxqQmbIAQg%3D%3D&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>flipkart</t>
         </is>
       </c>
     </row>
@@ -1428,25 +1428,25 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BLUE STAR SHARK</t>
+          <t>Shasmi</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Men's Lycra Stretchable Regular Fit Joggers Navy Track Pant Lower</t>
+          <t>Women's Yoga Dress Pants Stretchy Work Slacks Business Casual Office Flare Bell-Bottom/Boot-Cut Elastic Waist Regular Fit Trouser Pant (Pant 57)</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51d74502ZVL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61nCTPDIp7L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/BLUE-STAR-SHARK-Stretchable-Regular/dp/B0BJBHNQHQ/ref=sr_1_56?keywords=pants&amp;qid=1681876994&amp;sr=8-56</t>
+          <t>https://www.amazon.com/Shasmi-Boot-Cut-Fit-Trouser-Pant/dp/B0BGTFH7X4/ref=sr_1_41?keywords=pants&amp;qid=1682094818&amp;sr=8-41</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1466,20 +1466,20 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Men's Slim Fit Track pants</t>
+          <t>Men's Cotton Track Pants</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71r3RWbLWAL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51e3d6L6EDL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/JUGULAR-Solid-Regular-Cargo-X-Large/dp/B0855KB2HM/ref=sr_1_6?keywords=pants&amp;qid=1681876994&amp;sr=8-6</t>
+          <t>https://www.amazon.com/JUGULAR-Cotton-Track-Joggers-X-Large/dp/B09W9X6LG6/ref=sr_1_38?keywords=pants&amp;qid=1682094818&amp;sr=8-38</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1494,30 +1494,30 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Laabha</t>
+          <t>Aahwan</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Solid Track Pants</t>
+          <t>Women's &amp; Girls' Solid Split Hem Flare Leg Pants Trouser</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/51tzz6Ib+PL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/laabha/laabha-solid-track-pants/21975656/buy</t>
+          <t>https://www.amazon.com/Aahwan-Solid-Trouser-Womens-212-Black-S/dp/B0BTDCLR6D/ref=sr_1_6?keywords=pants&amp;qid=1682094818&amp;sr=8-6</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -1527,30 +1527,30 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Laabha</t>
+          <t>BLUE STAR SHARK</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Solid Track Pants</t>
+          <t>Men's Cargo Style Jogger</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21975652/2023/2/21/65fb8b94-d83d-4354-bca2-395279f286041676959772591-Laabha-Women-Track-Pants-6261676959771524-1.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51d74502ZVL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/laabha/laabha-solid-track-pants/21975652/buy</t>
+          <t>https://www.amazon.com/BLUE-STAR-SHARK-Stretchable-Regular/dp/B0BJBHNQHQ/ref=sr_1_55?keywords=pants&amp;qid=1682094818&amp;sr=8-55</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -1560,30 +1560,30 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Hubberholme</t>
+          <t>JUGULAR</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Men Track Pants</t>
+          <t>Slim Fit Track Pants</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/1088888/2016/5/11/11462961543084-Hubberholme-Navy-Tailored-Fit-Track-Pants-921462961542776-1.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71r3RWbLWAL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/hubberholme/hubberholme-navy-track-pants/1088888/buy</t>
+          <t>https://www.amazon.com/JUGULAR-Solid-Regular-Cargo-X-Large/dp/B0855KB2HM/ref=sr_1_7?keywords=pants&amp;qid=1682094818&amp;sr=8-7</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -1593,30 +1593,30 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Hubberholme</t>
+          <t>Amazon Brand - Inkast Denim Co.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Men Track Pants</t>
+          <t>Men Polo</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/91xNPItUNNL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/hubberholme/hubberholme-navy-track-pants/1189633/buy</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0NzM5MzEyMTY3MTQzNDEyOjE2ODIwOTQ4MTg6c3BfbXRmOjIwMTAzOTI5ODEwMTk4OjowOjo&amp;url=%2FAmazon-Brand-Inkast-Regular-16_Black%2Fdp%2FB08FS4T5NL%2Fref%3Dsr_1_23_sspa%3Fkeywords%3Dpants%26qid%3D1682094818%26sr%3D8-23-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -1626,30 +1626,30 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>king kong</t>
+          <t>Laabha</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Luxury PV Lycra Stretchable Formal Pants for Men | Stylish Slim Fit Men's Wear Trousers for Office or Party | Mens Fashion Dress Trouser Pant</t>
+          <t>Solid Track Pants</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51PtZkm7ZWL._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/king-kong-Stretchable-Trouser-Pant/dp/B0BYJV2Q98/ref=sr_1_45?keywords=pants&amp;qid=1681876994&amp;sr=8-45</t>
+          <t>https://www.myntra.com/track-pants/laabha/laabha-solid-track-pants/21975652/buy</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -1659,30 +1659,30 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Majestic Man</t>
+          <t>Hubberholme</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Slim Fit Formal Trousers for Men</t>
+          <t>Men Track Pants</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61cncOh6ZbL._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Majestic-Man-Slim-Formal-Trousers/dp/B0B1LNCQRN/ref=sr_1_42?keywords=pants&amp;qid=1681876994&amp;sr=8-42</t>
+          <t>https://www.myntra.com/track-pants/hubberholme/hubberholme-navy-track-pants/1189633/buy</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -1692,30 +1692,30 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Majestic Man</t>
+          <t>Hubberholme</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Men Slim Fit Grey Cotton Blend Trousers</t>
+          <t>Men Track Pants</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/l1pc3gw0/trouser/7/5/5/32-trsd401bk-majestic-man-original-imagd7pgghbjjaue.jpeg?q=70</t>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/1088888/2016/5/11/11462961543084-Hubberholme-Navy-Tailored-Fit-Track-Pants-921462961542776-1.jpg</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/majestic-man-slim-fit-men-grey-trousers/p/itm5111ee2191d74?pid=TROGD7PMPFUBDCUH&amp;lid=LSTTROGD7PMPFUBDCUHODBTRH&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_7&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROGD7PMPFUBDCUH.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.myntra.com/track-pants/hubberholme/hubberholme-navy-track-pants/1088888/buy</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -1725,30 +1725,30 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Chromozome</t>
+          <t>Majestic Man</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Men Slim Fit Polyester, Cotton Track Pant</t>
+          <t>Men Slim Fit Light Blue Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71zvD34MDgL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/l1pc3gw0/trouser/7/5/5/32-trsd401bk-majestic-man-original-imagd7pgghbjjaue.jpeg?q=70</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Chromozome-Cotton-Track-Pants-8902733355278_S6762-Starnavy-L/dp/B06WD5BZWC/ref=sr_1_52?keywords=pants&amp;qid=1681876994&amp;sr=8-52</t>
+          <t>https://www.flipkart.com/majestic-man-slim-fit-men-light-blue-trousers/p/itm5111ee2191d74?pid=TROGD7PMJUX6GEKT&amp;lid=LSTTROGD7PMJUX6GEKTNHUZUO&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_9&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROGD7PMJUX6GEKT.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>flipkart</t>
         </is>
       </c>
     </row>
@@ -1758,25 +1758,25 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Chromozome</t>
+          <t>Majestic Man</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Men's Regular Fit Cotton Track Pants</t>
+          <t>Slim Fit Formal Trousers</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61HwCsXHbzL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61cncOh6ZbL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Chromozome-Cotton-Track-Pants-8902733390194_S8925-Black_Large/dp/B0741CVJL8/ref=sr_1_46?keywords=pants&amp;qid=1681876994&amp;sr=8-46</t>
+          <t>https://www.amazon.com/Majestic-Man-Slim-Formal-Trousers/dp/B0B1LNCQRN/ref=sr_1_46?keywords=pants&amp;qid=1682094818&amp;sr=8-46</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1809,7 +1809,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/ENDEAVOUR-WEAR-Stretchable-Regular-Joggers/dp/B08Z3LWZ8K/ref=sr_1_17?keywords=pants&amp;qid=1681876994&amp;sr=8-17</t>
+          <t>https://www.amazon.com/ENDEAVOUR-WEAR-Stretchable-Regular-Joggers/dp/B08Z3LWZ8K/ref=sr_1_13?keywords=pants&amp;qid=1682094818&amp;sr=8-13</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -1824,25 +1824,25 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>Chromozome</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Men's Slim Casual Trousers</t>
+          <t>Men's Regular Fit Cotton Track Pants</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>541</v>
+        <v>499</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71eeiY8CF4L._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61HwCsXHbzL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Stretchable-AW19TRS-ESS-4_Light-Grey_32/dp/B07SK1X4H9/ref=sr_1_13?keywords=pants&amp;qid=1681876994&amp;sr=8-13</t>
+          <t>https://www.amazon.com/Chromozome-Cotton-Track-Pants-8902733390194_S8925-Black_Large/dp/B0741CVJL8/ref=sr_1_53?keywords=pants&amp;qid=1682094818&amp;sr=8-53</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -1857,25 +1857,25 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Enamor</t>
+          <t>Urbano Juniors</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Essentials Women's Mid Rise Crop Length Soft &amp; Drapey Stretch Viscose Culottes with Smart Side Slits - E064</t>
+          <t>Boy's Slim Fit Jeans</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>549</v>
+        <v>499</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/31KJk3HjVlL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51rRhR1yzaL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NDQ5Mzk5MDkwMTUyODg3OjE2ODE4NzY5OTQ6c3BfYnRmOjIwMDg0MjQ5NzQ5ODAxOjowOjo&amp;url=%2FEnamor-Sweatpants-Relaxed-E064_Blue-Night_L%2Fdp%2FB08ZLVKBWH%2Fref%3Dsr_1_59_sspa%3Fkeywords%3Dpants%26qid%3D1681876994%26sr%3D8-59-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0NzM5MzEyMTY3MTQzNDEyOjE2ODIwOTQ4MTg6c3BfYXRmOjIwMDc2OTE2ODI5OTk4OjowOjo&amp;url=%2FUrbano-Juniors-Black-Stretch-junepsboy-black-9-10%2Fdp%2FB085R9FXF4%2Fref%3Dsr_1_1_sspa%3Fkeywords%3Dpants%26qid%3D1682094818%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1%26smid%3DA3FAUFPGLEWDFF</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -1890,30 +1890,30 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SASSAFRAS</t>
+          <t>Amazon Brand - Symbol</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Women Relaxed Light Green Cotton Blend Trousers</t>
+          <t>Slim Casual Trousers</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>554</v>
+        <v>537</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/g/f/n/m-sfpant5301-sassafras-original-imafvb5hmwn4ghkz-bb.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/71eeiY8CF4L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/sassafras-relaxed-women-light-green-trousers/p/itm3ac7f52e9f2ad?pid=TROFVB5HQVARSG7G&amp;lid=LSTTROFVB5HQVARSG7GBIBDBS&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_33&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROFVB5HQVARSG7G.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/Amazon-Brand-Stretchable-AW19TRS-ESS-4_Light-Grey_32/dp/B07SK1X4H9/ref=sr_1_15?keywords=pants&amp;qid=1682094818&amp;sr=8-15</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -1923,25 +1923,25 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SASSAFRAS</t>
+          <t>FUBAR</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Women Relaxed Pink Cotton Blend Trousers</t>
+          <t>Men Slim Fit Cream Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/l/n/7/xxl-sfpant5302-sassafras-original-imafvb5h3ufh9hry-bb.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/a/f/z/32-kctr-2121-crm-fubar-original-imafzy38ewvc3zzw-bb.jpeg?q=70</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/sassafras-relaxed-women-pink-trousers/p/itm50ef3bd840444?pid=TROFVB5HCZZRSEA6&amp;lid=LSTTROFVB5HCZZRSEA6IYSABY&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_14&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROFVB5HCZZRSEA6.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/fubar-slim-fit-men-cream-trousers/p/itm1c780fa978946?pid=TROFZYPZEZHNZFAT&amp;lid=LSTTROFZYPZEZHNZFATGWUU5R&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_30&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROFZYPZEZHNZFAT.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -1956,30 +1956,30 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MANCREW</t>
+          <t>SASSAFRAS</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Formal Pants for Men | Men's Slim fit Formal Pant Combo | Non Stretchable Trouser | Office wear Trousers</t>
+          <t>Women Relaxed Light Green Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61NVKNGCxGL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/g/f/n/m-sfpant5301-sassafras-original-imafvb5hmwn4ghkz-bb.jpeg?q=70</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/MANCREW-Formal-Stretchable-Trouser-Trousers/dp/B0B9SCCPLL/ref=sr_1_53?keywords=pants&amp;qid=1681876994&amp;sr=8-53</t>
+          <t>https://www.flipkart.com/sassafras-relaxed-women-light-green-trousers/p/itm3ac7f52e9f2ad?pid=TROFVB5HQVARSG7G&amp;lid=LSTTROFVB5HQVARSG7GBIBDBS&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_34&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROFVB5HQVARSG7G.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>flipkart</t>
         </is>
       </c>
     </row>
@@ -1989,30 +1989,30 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Alan Jones Clothing</t>
+          <t>SASSAFRAS</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Men's Slim Fit Track pants</t>
+          <t>Women Relaxed Pink Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>579</v>
+        <v>554</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81t3XS8UciL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/l/n/7/xxl-sfpant5302-sassafras-original-imafvb5h3ufh9hry-bb.jpeg?q=70</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Alan-Jones-Solid-Joggers-JOG18-D95-MIL-L_Large_Melange/dp/B07C9T8LL1/ref=sr_1_15?keywords=pants&amp;qid=1681876994&amp;sr=8-15</t>
+          <t>https://www.flipkart.com/sassafras-relaxed-women-pink-trousers/p/itm50ef3bd840444?pid=TROFVB5HCZZRSEA6&amp;lid=LSTTROFVB5HCZZRSEA6IYSABY&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_14&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROFVB5HCZZRSEA6.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>flipkart</t>
         </is>
       </c>
     </row>
@@ -2022,16 +2022,16 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Okane</t>
+          <t>Technosport</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Men Lounge Pants</t>
+          <t>Men Track Pants</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/okane/-okane-men-lounge-pants/22144694/buy</t>
+          <t>https://www.myntra.com/track-pants/technosport/-technosport-men-track-pants-/21753700/buy</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2055,25 +2055,25 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Okane</t>
+          <t>Technosport</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Men Lounge Pants</t>
+          <t>Men Track Pants</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21753698/2023/1/30/b884fb52-56d9-4a71-af85-4762246f78671675070215773TechnosportDenimMenTrackPant1.jpg</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/okane/-okane-men-lounge-pants/22281166/buy</t>
+          <t>https://www.myntra.com/track-pants/technosport/-technosport-men-track-pants/21753698/buy</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2088,25 +2088,25 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>Alan Jones Clothing</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Men Dress Pants</t>
+          <t>Men's Slim Fit Track Pants</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/717-WaIUi9L._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81t3XS8UciL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Stretchable-Trousers-SY-AW19-MFT-049_Light/dp/B07YT1PVNJ/ref=sr_1_9?keywords=pants&amp;qid=1681876994&amp;sr=8-9</t>
+          <t>https://www.amazon.com/Alan-Jones-Solid-Joggers-JOG18-D95-MIL-L_Large_Melange/dp/B07C9T8LL1/ref=sr_1_17?keywords=pants&amp;qid=1682094818&amp;sr=8-17</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2121,30 +2121,30 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>plusS</t>
+          <t>Amazon Brand - Symbol</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Women Track Pants</t>
+          <t>Men Dress Pants</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/717-WaIUi9L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/pluss/pluss-navy-track-pants/1875899/buy</t>
+          <t>https://www.amazon.com/Amazon-Brand-Stretchable-Trousers-SY-AW19-MFT-049_Light/dp/B07YT1PVNJ/ref=sr_1_8?keywords=pants&amp;qid=1682094818&amp;sr=8-8</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -2154,16 +2154,16 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>plusS</t>
+          <t>Okane</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Women Track Pants</t>
+          <t>Men Lounge Pants</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/pluss/pluss-orange-track-pants/1873525/buy</t>
+          <t>https://www.myntra.com/lounge-pants/okane/-okane-men-lounge-pants/22144694/buy</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2187,30 +2187,30 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Peppyzone</t>
+          <t>Okane</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Men's Camouflage Regular Fit Track Pant</t>
+          <t>Men Lounge Pants</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/610BjJqZ67L._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/LionRoar-Camouflage-Track-Pants-Large/dp/B079WM2V1H/ref=sr_1_30?keywords=pants&amp;qid=1681876994&amp;sr=8-30</t>
+          <t>https://www.myntra.com/lounge-pants/okane/-okane-men-lounge-pants/22281166/buy</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -2220,30 +2220,30 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>VIMAL JONNEY</t>
+          <t>plusS</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Men's Regular Fit Track pants(Pack of 2)</t>
+          <t>Women Track Pants</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71MwNdwIc1L._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/VIMAL-Cotton-Trackpants-Multicolour-D10ND10A-S/dp/B01BJZ2N8G/ref=sr_1_28?keywords=pants&amp;qid=1681876994&amp;sr=8-28</t>
+          <t>https://www.myntra.com/track-pants/pluss/pluss-orange-track-pants/1873525/buy</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -2253,30 +2253,30 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MARK LOUIIS</t>
+          <t>plusS</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Men's Regular Fit Track pants</t>
+          <t>Women Track Pants</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>616</v>
+        <v>595</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71oVcFzJacL._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/MARK-LOUIIS-Regular-Running-Pocket/dp/B07HLBH6Y4/ref=sr_1_51?keywords=pants&amp;qid=1681876994&amp;sr=8-51</t>
+          <t>https://www.myntra.com/track-pants/pluss/pluss-navy-track-pants/1875899/buy</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -2286,30 +2286,30 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>FRANKO ROGER</t>
+          <t>Peppyzone</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Men Slim Fit White Cotton Blend Trousers</t>
+          <t>Camouflage Track Pant</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>629</v>
+        <v>599</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/h/8/9/28-newfw-white-franko-roger-original-imagj6z4wxmfdmb7.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/610BjJqZ67L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/franko-roger-slim-fit-men-white-trousers/p/itmf7b62dd0bd919?pid=TROGJ6Z4KKDYNNGW&amp;lid=LSTTROGJ6Z4KKDYNNGWSRR14A&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_28&amp;otracker=search&amp;iid=en_%2Fzb5cccG%2BNAxlFWnIlFWqxO1CRT0kxF2BuEAjuCcv%2FtZ%2FDwV%2BJYBFW809%2FM8THF2Z%2FG6ABPIx%2BO2r4TU%2BQ76ww%3D%3D&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/LionRoar-Camouflage-Track-Pants-Large/dp/B079WM2V1H/ref=sr_1_27?keywords=pants&amp;qid=1682094818&amp;sr=8-27</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -2319,30 +2319,30 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Smarty Pants</t>
+          <t>VIMAL JONNEY</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Women Floral Printed Lounge Pants</t>
+          <t>Pack Of 2 Track Pants</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>636</v>
+        <v>599</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/71MwNdwIc1L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/smarty-pants/smarty-pants-women-blue--white-floral-printed-lounge-pants/18034886/buy</t>
+          <t>https://www.amazon.com/VIMAL-Cotton-Trackpants-Multicolour-D10ND10A-S/dp/B01BJZ2N8G/ref=sr_1_26?keywords=pants&amp;qid=1682094818&amp;sr=8-26</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -2352,25 +2352,25 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>T2F</t>
+          <t>Generic</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Boys Printed Track Pants (Pack of 5)</t>
+          <t>RR Fashion Men's Regular Formal Trouser</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>646</v>
+        <v>599</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71qEbCkqtRL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51TaUVGTOxL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NDQ5Mzk5MDkwMTUyODg3OjE2ODE4NzY5OTQ6c3BfYnRmOjIwMDUwMjUwNzU2MzA1OjowOjo&amp;url=%2FT2F-Track-Black-Violet-Yellow%2Fdp%2FB01NCORE74%2Fref%3Dsr_1_57_sspa%3Fkeywords%3Dpants%26qid%3D1681876994%26sr%3D8-57-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/Fashion-Regular-Formal-Trouser-Black/dp/B0BRZT69HF/ref=sr_1_29?keywords=pants&amp;qid=1682094818&amp;sr=8-29</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2385,30 +2385,30 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Smarty Pants</t>
+          <t>SASSAFRAS</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Women Cotton Lounge Pants</t>
+          <t>Women Relaxed Black Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>649</v>
+        <v>599</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21450340/2023/1/6/f7b41e5a-6a82-4a68-9c92-e1ce64857e901673020847261SmartyPantswomenscottonrosepinkcoloraztecprintloungewearpaja1.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/n/w/j/l-sfpant5303-sassafras-original-imafvb5hhcmesthk-bb.jpeg?q=70</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/smarty-pants/smarty-pants-women-printed-cotton-lounge-pants/21450340/buy</t>
+          <t>https://www.flipkart.com/sassafras-relaxed-women-black-trousers/p/itmdf31fe89be36d?pid=TROFVB5HTZP7B2DP&amp;lid=LSTTROFVB5HTZP7B2DPPLTLFQ&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_35&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROFVB5HTZP7B2DP.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>flipkart</t>
         </is>
       </c>
     </row>
@@ -2418,30 +2418,30 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Urbano Fashion</t>
+          <t>Chromozome</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Men Slim Fit Light Green Cotton Blend Trousers</t>
+          <t>Slim Fit Cotton Track Pant</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>649</v>
+        <v>599</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/g/0/3/40-chino-tealgrn-urbano-fashion-original-imagjzqfvkednkfn.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/71WygQ83NVL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/urbano-fashion-slim-fit-men-light-green-trousers/p/itm56a849b0eca5b?pid=TROFP9DSEGRSCHCS&amp;lid=LSTTROFP9DSEGRSCHCSAKAWYH&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_27&amp;otracker=search&amp;iid=en_%2Fzb5cccG%2BNAxlFWnIlFWqxO1CRT0kxF2BuEAjuCcv%2FuGiFvLue%2F%2BVHH%2F0%2BInuprpetVznUYkl24NH2KPlJ4tqg%3D%3D&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0NzM5MzEyMTY3MTQzNDEyOjE2ODIwOTQ4MTg6c3BfYXRmOjIwMDQ1NDk4NDgyOTk4OjowOjo&amp;url=%2FChromozome-Cotton-Track-Pants-8902733355223_S6762-Black-M%2Fdp%2FB06WD5BYWV%2Fref%3Dsr_1_4_sspa%3Fkeywords%3Dpants%26qid%3D1682094818%26sr%3D8-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -2456,11 +2456,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Women Cotton Lounge Pants</t>
+          <t>Women Floral Printed Lounge Pants</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/smarty-pants/smarty-pants-women-printed-cotton-lounge-pants/21450338/buy</t>
+          <t>https://www.myntra.com/lounge-pants/smarty-pants/smarty-pants-women-blue--white-floral-printed-lounge-pants/18034886/buy</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2484,25 +2484,25 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Neostreak</t>
+          <t>T2F</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Men's Slim Fit Jeans</t>
+          <t>Pack Of 5 Printed Track Pants</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>669</v>
+        <v>646</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81RuOi+8grL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71qEbCkqtRL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Neostreak-Jeans-neoepsjean-lgrey-Light-Grey_38/dp/B07L6YWLQX/ref=sr_1_29?keywords=pants&amp;qid=1681876994&amp;sr=8-29</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0NzM5MzEyMTY3MTQzNDEyOjE2ODIwOTQ4MTg6c3BfbXRmOjIwMDUwMjUwNzU2MzA1OjowOjo&amp;url=%2FT2F-Track-Black-Violet-Yellow%2Fdp%2FB01NCORE74%2Fref%3Dsr_1_21_sspa%3Fkeywords%3Dpants%26qid%3D1682094818%26sr%3D8-21-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2517,30 +2517,30 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>Smarty Pants</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Men's Regular Casual Pants</t>
+          <t>Women Cotton Lounge Pants</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>679</v>
+        <v>649</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61xJvbhaq6L._AC_UL400_.jpg</t>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21450340/2023/1/6/f7b41e5a-6a82-4a68-9c92-e1ce64857e901673020847261SmartyPantswomenscottonrosepinkcoloraztecprintloungewearpaja1.jpg</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Symbol-Regular-AW17TRS-01-12_Blue/dp/B0B3PT87NL/ref=sr_1_34?keywords=pants&amp;qid=1681876994&amp;sr=8-34</t>
+          <t>https://www.myntra.com/lounge-pants/smarty-pants/smarty-pants-women-printed-cotton-lounge-pants/21450340/buy</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -2550,30 +2550,30 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Amazon Brand - Inkast Denim Co.</t>
+          <t>Smarty Pants</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Men's Regular Casual Trousers</t>
+          <t>Women Cotton Lounge Pants</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>685</v>
+        <v>649</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71o4-mxo2bL._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Straight-INKCT-001_Lt/dp/B08FJNZDW3/ref=sr_1_48?keywords=pants&amp;qid=1681876994&amp;sr=8-48</t>
+          <t>https://www.myntra.com/lounge-pants/smarty-pants/smarty-pants-women-printed-cotton-lounge-pants/21450338/buy</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -2583,30 +2583,30 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>Okane</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Men's Slim Casual Pants</t>
+          <t>Men Lounge Pants</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>689</v>
+        <v>656</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71woFPwao4L._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Symbol-AW17TRS-02-12_Black-Coffee_28/dp/B0B3PLK922/ref=sr_1_40?keywords=pants&amp;qid=1681876994&amp;sr=8-40</t>
+          <t>https://www.myntra.com/lounge-pants/okane/-okane-men-lounge-pants/22144700/buy</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -2616,30 +2616,30 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>CUPID</t>
+          <t>Zivame</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Women Regular Fit Cotton Blend Plain Comfortable Night Track Pant, Lower, Sports Trouser, Joggers, Lounge Wear and Daily Gym Wear for Ladies, M to 7XL</t>
+          <t>Lounge Pants</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>699</v>
+        <v>669</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51BADzjD4nL._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/CUPID-Regular-Womens-Track-Pants/dp/B01CA941PS/ref=sr_1_25?keywords=pants&amp;qid=1681876994&amp;sr=8-25</t>
+          <t>https://www.myntra.com/lounge-pants/zivame/zivame-green-lounge-pants-/18706378/buy</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -2649,30 +2649,30 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>Neostreak</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Women Track Pants</t>
+          <t>Men's Slim Fit Jeans</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>699</v>
+        <v>669</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21366480/2022/12/31/d310c9d4-84ce-4584-9f74-4b9b5898eb921672470031607WomenPrintedJoggers1.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71hDf7v4fzL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/max/max-women-track-pants/21366480/buy</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0NzM5MzEyMTY3MTQzNDEyOjE2ODIwOTQ4MTg6c3BfYnRmOjIwMDQxMDI1NDg2NzA0OjowOjo&amp;url=%2FNeostreak-Mens-Jeans-neoepsjean-bla-Black_38%2Fdp%2FB07L6YRFYT%2Fref%3Dsr_1_58_sspa%3Fkeywords%3Dpants%26qid%3D1682094818%26sr%3D8-58-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -2682,30 +2682,30 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Smarty Pants</t>
+          <t>Amazon Brand - Inkast Denim Co.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Women Solid Track Pants</t>
+          <t>Men's Regular Casual Trousers</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>704</v>
+        <v>680</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/71o4-mxo2bL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/smarty-pants/smarty-pants-women-rose-solid-track-pants/17165186/buy</t>
+          <t>https://www.amazon.com/Amazon-Brand-Straight-INKCT-001_Lt/dp/B08FJNZDW3/ref=sr_1_43?keywords=pants&amp;qid=1682094818&amp;sr=8-43</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -2715,25 +2715,25 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>Neostreak</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Men's Regular Casual Trousers</t>
+          <t>Men's Slim Fit Jeans</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>749</v>
+        <v>689</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61YHtYYabpL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81RuOi+8grL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Straight-AW-SY-MCT-1151_Lt-Grey_32W/dp/B07TMNTV31/ref=sr_1_26?keywords=pants&amp;qid=1681876994&amp;sr=8-26</t>
+          <t>https://www.amazon.com/Neostreak-Jeans-neoepsjean-lgrey-Light-Grey_38/dp/B07L6YWLQX/ref=sr_1_44?keywords=pants&amp;qid=1682094818&amp;sr=8-44</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -2753,20 +2753,20 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Men's Straight Casual Trousers</t>
+          <t>Slim Casual Pants</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>749</v>
+        <v>689</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/718kU7VISWL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71woFPwao4L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Symbol-Chinos-AW-SY-MCT-1145_Grey_32W/dp/B07CYVB7L8/ref=sr_1_10?keywords=pants&amp;qid=1681876994&amp;sr=8-10</t>
+          <t>https://www.amazon.com/Amazon-Brand-Symbol-AW17TRS-02-12_Black-Coffee_28/dp/B0B3PLK922/ref=sr_1_40?keywords=pants&amp;qid=1682094818&amp;sr=8-40</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -2781,30 +2781,30 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Van Heusen</t>
+          <t>max</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Athleisure Stretch Lounge Pants With Pockets</t>
+          <t>Women Track Pants</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>759</v>
+        <v>699</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/41n5ru9w0yL._AC_UL400_.jpg</t>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21366480/2022/12/31/d310c9d4-84ce-4584-9f74-4b9b5898eb921672470031607WomenPrintedJoggers1.jpg</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Van-Heusen-Stretch-Pockets-55303_BLACK_L/dp/B07J5924ZT/ref=sr_1_49?keywords=pants&amp;qid=1681876994&amp;sr=8-49</t>
+          <t>https://www.myntra.com/track-pants/max/max-women-track-pants/21366480/buy</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -2814,25 +2814,25 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ADBUCKS</t>
+          <t>CUPID</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Men's Regular Fit Cargo Style Casual Trousers Pants</t>
+          <t>Plus Size Cotton Night Wear</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>783</v>
+        <v>699</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/41EUTEtrdcL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51BADzjD4nL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/ADBUCKS-Regular-Cargo-Casual-Trousers/dp/B09VPY9R8V/ref=sr_1_47?keywords=pants&amp;qid=1681876994&amp;sr=8-47</t>
+          <t>https://www.amazon.com/CUPID-Regular-Womens-Track-Pants/dp/B01CA941PS/ref=sr_1_42?keywords=pants&amp;qid=1682094818&amp;sr=8-42</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -2847,30 +2847,30 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Smarty Pants</t>
+          <t>Amazon Brand - Symbol</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Women 2-Pcs Printed Night suit</t>
+          <t>Men's Regular Casual Pants</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>783</v>
+        <v>719</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21615980/2023/1/19/1828f3af-f448-42b8-8a12-d326bc81053c1674124705304SmartyPantswomenssilksatinmarooncolorpowerpuffgirlcartoonpri1.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61xJvbhaq6L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/night-suits/smarty-pants/smarty-pants-women-2-pieces-printed-shirt-with-lounge-pants/21615980/buy</t>
+          <t>https://www.amazon.com/Amazon-Brand-Symbol-Regular-AW17TRS-01-12_Blue/dp/B0B3PT87NL/ref=sr_1_37?keywords=pants&amp;qid=1682094818&amp;sr=8-37</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -2880,30 +2880,30 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Smarty Pants</t>
+          <t>Amazon Brand - Symbol</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Women 2-Pcs Printed Night suit</t>
+          <t>Men Dress Pants</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>783</v>
+        <v>722</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21615984/2023/1/19/7c9861ac-b1ef-4fb4-afba-4b1c3b5036b31674124520928SmartyPantswomenssilksatinlilaccolorbabyelephantprintnightsu1.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61e0ta9X9zL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/night-suits/smarty-pants/smarty-pants-women-2-pieces-printed-shirt-with-lounge-pants/21615984/buy</t>
+          <t>https://www.amazon.com/Amazon-Brand-Stretchable-Trousers-SY-AW19-MFT-050_Black_34W/dp/B07YT1GKKH/ref=sr_1_11?keywords=pants&amp;qid=1682094818&amp;sr=8-11</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -2913,30 +2913,30 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TriPole</t>
+          <t>HIGHLANDER</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Men's Regular Fit Polyester Trekking And Hiking Pants And Trousers</t>
+          <t>Men Slim Fit Beige Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>799</v>
+        <v>743</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71E0860E-mL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/4/k/l/34-hltr003916-highlander-original-imafw2jvpnjx4a6g-bb.jpeg?q=70</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Tripole-Trekking-Hiking-Pants-Trousers/dp/B09YHZHV8K/ref=sr_1_55?keywords=pants&amp;qid=1681876994&amp;sr=8-55</t>
+          <t>https://www.flipkart.com/highlander-slim-fit-men-beige-trousers/p/itmfd7m67xkgxdwz?pid=TROF34N4YVEDG8DV&amp;lid=LSTTROF34N4YVEDG8DVKECPT6&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_24&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROF34N4YVEDG8DV.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>flipkart</t>
         </is>
       </c>
     </row>
@@ -2946,30 +2946,30 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MAYSIXTY</t>
+          <t>Amazon Brand - Symbol</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Printed Lounge Pants</t>
+          <t>Men's Regular Casual Trousers</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>799</v>
+        <v>749</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/61YHtYYabpL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/maysixty/maysixty-printed-lounge-pants/21895116/buy</t>
+          <t>https://www.amazon.com/Amazon-Brand-Straight-AW-SY-MCT-1151_Lt-Grey_32W/dp/B07TMNTV31/ref=sr_1_35?keywords=pants&amp;qid=1682094818&amp;sr=8-35</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -2979,30 +2979,30 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MAYSIXTY</t>
+          <t>BEING HUMAN</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Printed Lounge Pants</t>
+          <t>Men Slim Fit Blue Pure Cotton Trousers</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>799</v>
+        <v>749</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/w/c/c/36-bhndclv22501-lt-blue-being-human-original-imagn5hpkgv6ny3s.jpeg?q=70</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/maysixty/maysixty-printed-lounge-pants/21895118/buy</t>
+          <t>https://www.flipkart.com/being-human-slim-fit-men-blue-trousers/p/itmc564b6d0268e2?pid=TROGN5HPUWYMUVPC&amp;lid=LSTTROGN5HPUWYMUVPC5CAC7Y&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_11&amp;otracker=search&amp;iid=en_bdhPJXo3RcktD3Cx9%2BQTE4WCFYCniBOjAtt4CRNGXwNdcoFQ28Euq4M7ZWs3iPCUZCXea%2B97PX75IEV%2FfDnvKg%3D%3D&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>flipkart</t>
         </is>
       </c>
     </row>
@@ -3012,30 +3012,30 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MAYSIXTY</t>
+          <t>Amazon Brand - Symbol</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Printed Lounge Pants</t>
+          <t>Men Casual Trousers</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>799</v>
+        <v>749</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/718kU7VISWL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/maysixty/maysixty-printed-lounge-pants/21894996/buy</t>
+          <t>https://www.amazon.com/Amazon-Brand-Symbol-Chinos-AW-SY-MCT-1145_Grey_32W/dp/B07CYVB7L8/ref=sr_1_9?keywords=pants&amp;qid=1682094818&amp;sr=8-9</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -3045,30 +3045,30 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MAYSIXTY</t>
+          <t>GO COLORS</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Printed Lounge Pants</t>
+          <t>Women Casual Pants</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>799</v>
+        <v>749</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/51AGIfah5+L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/maysixty/maysixty-printed-lounge-pants/21894988/buy</t>
+          <t>https://www.amazon.com/GO-COLORS-Women-Viscose-Casual/dp/B098FNJZP7/ref=sr_1_18?keywords=pants&amp;qid=1682094818&amp;sr=8-18</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -3078,30 +3078,30 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>9rasa</t>
+          <t>Van Heusen</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Cotton Dhoti Pants</t>
+          <t>Lounge Pants</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>799</v>
+        <v>759</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/41n5ru9w0yL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/dhotis/9rasa/9rasa-cotton-dhoti-pants/22442836/buy</t>
+          <t>https://www.amazon.com/Van-Heusen-Stretch-Pockets-55303_BLACK_L/dp/B07J5924ZT/ref=sr_1_48?keywords=pants&amp;qid=1682094818&amp;sr=8-48</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -3111,30 +3111,30 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>Smarty Pants</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Men Stretch Casual Trouser</t>
+          <t>Women 2-Pcs Printed Night suit</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/610VwfVfxeL._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Symbol-Trousers-AW-SY-MCT-1171_White_34/dp/B07XF752FV/ref=sr_1_41?keywords=pants&amp;qid=1681876994&amp;sr=8-41</t>
+          <t>https://www.myntra.com/night-suits/smarty-pants/smarty-pants-women-2-pieces-printed-shirt-with-lounge-pants/21615980/buy</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -3144,30 +3144,30 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Whitewhale</t>
+          <t>Smarty Pants</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Men's Loose Fit Cotton Trousers</t>
+          <t>Women 2-Pcs Printed Night suit</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71liwRRHS5L._AC_UL400_.jpg</t>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21615984/2023/1/19/7c9861ac-b1ef-4fb4-afba-4b1c3b5036b31674124520928SmartyPantswomenssilksatinlilaccolorbabyelephantprintnightsu1.jpg</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Whitewhale-Cotton-Printed-Pockets-Trousers/dp/B08LVWFK2J/ref=sr_1_16?keywords=pants&amp;qid=1681876994&amp;sr=8-16</t>
+          <t>https://www.myntra.com/night-suits/smarty-pants/smarty-pants-women-2-pieces-printed-shirt-with-lounge-pants/21615984/buy</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -3177,12 +3177,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>MAYSIXTY</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Men's Straight Casual Trousers</t>
+          <t>Printed Lounge Pants</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -3190,17 +3190,17 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61QmabcrTHL._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NDQ5Mzk5MDkwMTUyODg3OjE2ODE4NzY5OTQ6c3BfYXRmOjIwMTAzOTYyODQ1MDk4OjowOjo&amp;url=%2FAmazon-Brand-Straight-SYMCT-02_Black_36W%2Fdp%2FB08FJQXJFW%2Fref%3Dsr_1_3_sspa%3Fkeywords%3Dpants%26qid%3D1681876994%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.myntra.com/lounge-pants/maysixty/maysixty-printed-lounge-pants/21895116/buy</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -3210,30 +3210,30 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Urbano Plus</t>
+          <t>Whitewhale</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Men Regular Fit Grey Cotton Blend Trousers</t>
+          <t>Cotton Printed Harem Pants</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/ke353m80-0/trouser/2/a/t/40-pluschinop-grey-urbano-plus-original-imafuuscfk8xqvty.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/71liwRRHS5L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/urbano-plus-regular-fit-men-grey-trousers/p/itm40f8061ac4147?pid=TROFUUTHPMCG3RHW&amp;lid=LSTTROFUUTHPMCG3RHWOR3BUS&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_31&amp;otracker=search&amp;iid=en_%2Fzb5cccG%2BNAxlFWnIlFWqxO1CRT0kxF2BuEAjuCcv%2FvwSUnVr3LTEhPVxUQO3cZIs5bBtksrP0ZBoQaAGEnmSA%3D%3D&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/Whitewhale-Cotton-Printed-Pockets-Trousers/dp/B08LVWFK2J/ref=sr_1_16?keywords=pants&amp;qid=1682094818&amp;sr=8-16</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -3243,30 +3243,30 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Urbano Plus</t>
+          <t>MAYSIXTY</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Men Regular Fit Maroon Cotton Blend Trousers</t>
+          <t>Printed Lounge Pants</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/ke353m80-0/trouser/q/4/d/38-pluschinop-drmaroon-urbano-plus-original-imafuuqmmq8prrqm.jpeg?q=70</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/urbano-plus-regular-fit-men-maroon-trousers/p/itm8696ef230c0da?pid=TROFUUTHGEWGRKXA&amp;lid=LSTTROFUUTHGEWGRKXAERW2GY&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_32&amp;otracker=search&amp;iid=en_%2Fzb5cccG%2BNAxlFWnIlFWqxO1CRT0kxF2BuEAjuCcv%2FsDpFlp4MRJzutlV4oX2k57LDJsGTNpHYF6ZZBvlvTFfg%3D%3D&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.myntra.com/lounge-pants/maysixty/maysixty-printed-lounge-pants/21894996/buy</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -3276,30 +3276,30 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Urbano Plus</t>
+          <t>MAYSIXTY</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Men Regular Fit Brown Cotton Blend Trousers</t>
+          <t>Printed Lounge Pants</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/ke353m80-0/trouser/0/z/f/44-pluschinop-brown-urbano-plus-original-imafuurrhbzjdbyw.jpeg?q=70</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/urbano-plus-regular-fit-men-brown-trousers/p/itmc87d8ba73839a?pid=TROFUUTHCCTGKH5E&amp;lid=LSTTROFUUTHCCTGKH5EITA5XI&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_37&amp;otracker=search&amp;iid=en_%2Fzb5cccG%2BNAxlFWnIlFWqxO1CRT0kxF2BuEAjuCcv%2FszCZU7uh7IgaDMbz9wemkNIS2%2F0YwDewBpzmTcLgdZ%2BA%3D%3D&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.myntra.com/lounge-pants/maysixty/maysixty-printed-lounge-pants/21895118/buy</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -3309,30 +3309,30 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>HIGHLANDER</t>
+          <t>MAYSIXTY</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Men Slim Fit Green Cotton Blend Trousers</t>
+          <t>Printed Lounge Pants</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/kflftzk0-0/trouser/w/5/j/32-hltr003958-highlander-original-imafwyf6xvxcefq2.jpeg?q=70</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/highlander-slim-fit-men-green-trousers/p/itmfdfd8ajve9af8?pid=TROF4E3BYXYVERUE&amp;lid=LSTTROF4E3BYXYVERUE2GPGXB&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_26&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROF4E3BYXYVERUE.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.myntra.com/lounge-pants/maysixty/maysixty-printed-lounge-pants/21894988/buy</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -3342,30 +3342,30 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>HIGHLANDER</t>
+          <t>Amazon Brand - Symbol</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Men Slim Fit Beige Cotton Blend Trousers</t>
+          <t>Men Stretch Casual Trouser</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>821</v>
+        <v>799</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/4/k/l/34-hltr003916-highlander-original-imafw2jvpnjx4a6g-bb.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/610VwfVfxeL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/highlander-slim-fit-men-beige-trousers/p/itmfd7m67xkgxdwz?pid=TROF34N4CQXTZ5NK&amp;lid=LSTTROF34N4CQXTZ5NKDRA5CC&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_24&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROF34N4CQXTZ5NK.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/Amazon-Brand-Symbol-Trousers-AW-SY-MCT-1171_White_34/dp/B07XF752FV/ref=sr_1_50?keywords=pants&amp;qid=1682094818&amp;sr=8-50</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -3375,30 +3375,30 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>9rasa</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Men Dress Pants</t>
+          <t>Cotton Dhoti Pants</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>829</v>
+        <v>799</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71p+y8xHJFL._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Stretchable-Trousers-SY-AW19-MFT-052_Navy_32W/dp/B07YT18X6Y/ref=sr_1_37?keywords=pants&amp;qid=1681876994&amp;sr=8-37</t>
+          <t>https://www.myntra.com/dhotis/9rasa/9rasa-cotton-dhoti-pants/22442836/buy</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -3408,25 +3408,25 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>TriPole</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Men Dress Pants</t>
+          <t>Men's Trekking And Hiking Pants</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>829</v>
+        <v>799</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81d37fLAwUL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71E0860E-mL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Stretchable-Trousers-SY-AW19-MFT-059_Grey_32W/dp/B07YT19SKC/ref=sr_1_18?keywords=pants&amp;qid=1681876994&amp;sr=8-18</t>
+          <t>https://www.amazon.com/Tripole-Trekking-Hiking-Pants-Trousers/dp/B09YHZHV8K/ref=sr_1_34?keywords=pants&amp;qid=1682094818&amp;sr=8-34</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -3441,30 +3441,30 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>plusS</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Men Dress Pants</t>
+          <t>Women Track Pants</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>829</v>
+        <v>841</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61e0ta9X9zL._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Stretchable-Trousers-SY-AW19-MFT-050_Black_32W/dp/B07YT1821J/ref=sr_1_14?keywords=pants&amp;qid=1681876994&amp;sr=8-14</t>
+          <t>https://www.myntra.com/track-pants/pluss/pluss-black-track-pants/1875898/buy</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -3474,30 +3474,30 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>plusS</t>
+          <t>BEWAKOOF</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Women Track Pants</t>
+          <t>Men Regular Fit Blue Pure Cotton Trousers</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>841</v>
+        <v>849</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/i/b/2/30-330846-bewakoof-original-imaghdykfmpathjf.jpeg?q=70</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/pluss/pluss-black-track-pants/1875898/buy</t>
+          <t>https://www.flipkart.com/bewakoof-regular-fit-men-blue-trousers/p/itm1d9b0b29a7ba0?pid=TROG6P9FZBGUTZNG&amp;lid=LSTTROG6P9FZBGUTZNGK87B3C&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_32&amp;otracker=search&amp;iid=en_bdhPJXo3RcktD3Cx9%2BQTE4WCFYCniBOjAtt4CRNGXwNmuohdAElBQov1jaN%2Bt92GXj8%2FobtTWn3nhtc%2Fkj0TOg%3D%3D&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>flipkart</t>
         </is>
       </c>
     </row>
@@ -3507,30 +3507,30 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>Hancock</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Men's Slim Casual Trousers</t>
+          <t>Checked Lounge Pants</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>849</v>
+        <v>892</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/8177eP3pKmL._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-SYMJG-01_Lt-Olive_32W/dp/B08FJQ1T3V/ref=sr_1_54?keywords=pants&amp;qid=1681876994&amp;sr=8-54</t>
+          <t>https://www.myntra.com/lounge-pants/hancock/hancock-checked-lounge-pants/21584532/buy</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -3639,30 +3639,30 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Hancock</t>
+          <t>GO COLORS</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Checked Lounge Pants</t>
+          <t>Women Mid-rise Pants</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>892</v>
+        <v>899</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/51OT-1KFrAS._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/hancock/hancock-checked-lounge-pants/21584532/buy</t>
+          <t>https://www.amazon.com/GO-COLORS-LT09-YG-FUXIA29-2X_Young-Fuchsia_2XL/dp/B08DLQJCFH/ref=sr_1_56?keywords=pants&amp;qid=1682094818&amp;sr=8-56</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -3672,12 +3672,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Van Heusen</t>
+          <t>PETER ENGLAND</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Men's Track Pants</t>
+          <t>Men Slim Fit Dark Blue Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -3685,17 +3685,17 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81eQleWjVoL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/o/m/i/32-petfonspe63157-peter-england-original-imagha3kzdgh28u2.jpeg?q=70</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Van-Heusen-Track-50056_Grey-Melange_L/dp/B083C2SWKL/ref=sr_1_44?keywords=pants&amp;qid=1681876994&amp;sr=8-44</t>
+          <t>https://www.flipkart.com/peter-england-slim-fit-men-dark-blue-trousers/p/itmc373c2ee198c1?pid=TROGDTN2DKHUXGYZ&amp;lid=LSTTROGDTN2DKHUXGYZZLIKFJ&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_29&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROGDTN2DKHUXGYZ.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>flipkart</t>
         </is>
       </c>
     </row>
@@ -3705,12 +3705,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Gallus</t>
+          <t>Van Heusen</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Men Track Pants</t>
+          <t>Men's Track Pants</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -3718,17 +3718,17 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/81eQleWjVoL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/gallus/gallus-men-track-pants/21370424/buy</t>
+          <t>https://www.amazon.com/Van-Heusen-Track-50056_Grey-Melange_L/dp/B083C2SWKL/ref=sr_1_54?keywords=pants&amp;qid=1682094818&amp;sr=8-54</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -3738,16 +3738,16 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>PowerSutra</t>
+          <t>Gallus</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Women Lounge Pants</t>
+          <t>Men Track Pants</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>910</v>
+        <v>899</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/powersutra/powersutra-women-lounge-pants/21735830/buy</t>
+          <t>https://www.myntra.com/track-pants/gallus/gallus-men-track-pants/21370424/buy</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -3771,30 +3771,30 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Enamor</t>
+          <t>SIAPA</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Women Lounge Pants</t>
+          <t>Men Track Pants</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>939</v>
+        <v>959</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71puErUR6bL._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NDQ5Mzk5MDkwMTUyODg3OjE2ODE4NzY5OTQ6c3BfbXRmOjIwMDg0MjQ5NzY3MjAxOjowOjo&amp;url=%2FEnamor-Womens-Slim-Pants-EE000E014NVYXL_Navy1_XL%2Fdp%2FB08M6NFZJY%2Fref%3Dsr_1_24_sspa%3Fkeywords%3Dpants%26qid%3D1681876994%26sr%3D8-24-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.myntra.com/track-pants/siapa/siapa-men-track-pants/21168126/buy</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -3804,30 +3804,30 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Raymond</t>
+          <t>SOJANYA</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Men Slim Fit Dark Blue Polycotton Trousers</t>
+          <t>Men Dhoti Pants</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>940</v>
+        <v>965</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/q/n/a/32-rmts03853-b8-raymond-original-imagg392vngyq9nh.jpeg?q=70</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/raymond-slim-fit-men-dark-blue-trousers/p/itma8f309f47b35d?pid=TROFYHXBBZPHRVXW&amp;lid=LSTTROFYHXBBZPHRVXW3RXPP6&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_30&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROFYHXBBZPHRVXW.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.myntra.com/dhotis/sojanya/sojanya-orange-dhoti-pants/1780205/buy</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -3837,16 +3837,16 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>SIAPA</t>
+          <t>SOJANYA</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Men Track Pants</t>
+          <t>Men Dhoti Pants</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>959</v>
+        <v>965</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/siapa/siapa-men-track-pants/21168126/buy</t>
+          <t>https://www.myntra.com/dhotis/sojanya/sojanya-black-dhoti-pants/1846812/buy</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -3916,12 +3916,12 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/1846813/2017/4/11/11491902048835-SOJANYA-Men-Dhotis-2321491902048618-1.jpg</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/dhotis/sojanya/sojanya-black-dhoti-pants/1846812/buy</t>
+          <t>https://www.myntra.com/dhotis/sojanya/sojanya-yellow-dhoti-pants/1846813/buy</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -3954,7 +3954,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/dhotis/sojanya/sojanya-red-dhoti-pants/1846811/buy</t>
+          <t>https://www.myntra.com/dhotis/sojanya/sojanya-maroon-dhoti-pants/2034928/buy</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -3982,12 +3982,12 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/1846813/2017/4/11/11491902048835-SOJANYA-Men-Dhotis-2321491902048618-1.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/dhotis/sojanya/sojanya-yellow-dhoti-pants/1846813/buy</t>
+          <t>https://www.myntra.com/dhotis/sojanya/sojanya-red-dhoti-pants/1846811/buy</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -4002,30 +4002,30 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>SOJANYA</t>
+          <t>Amazon Brand - Inkast Denim Co.</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Men Dhoti Pants</t>
+          <t>Men's Slim Casual Pants</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>965</v>
+        <v>999</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/61nk1PgrstL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/dhotis/sojanya/sojanya-maroon-dhoti-pants/2034928/buy</t>
+          <t>https://www.amazon.com/Amazon-Brand-Inkast-Casual-TR-Ink-RDP-D3_Blue_32/dp/B0991WQYB7/ref=sr_1_25?keywords=pants&amp;qid=1682094818&amp;sr=8-25</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -4035,30 +4035,30 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>SOJANYA</t>
+          <t>Amazon Brand - Inkast Denim Co.</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Men Dhoti Pants</t>
+          <t>Men's Slim Casual Pants</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>965</v>
+        <v>999</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/61nk1PgrstL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/dhotis/sojanya/sojanya-orange-dhoti-pants/1780205/buy</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0NzM5MzEyMTY3MTQzNDEyOjE2ODIwOTQ4MTg6c3BfYnRmOjIwMTAwNzg1NTYzNDk4OjowOjo&amp;url=%2FAmazon-Brand-Inkast-Casual-TR-Ink-RDP-D3_Blue_36%2Fdp%2FB0991SQC1T%2Fref%3Dsr_1_60_sspa%3Fkeywords%3Dpants%26qid%3D1682094818%26sr%3D8-60-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -4068,30 +4068,30 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>SOJANYA</t>
+          <t>Amazon Brand - Symbol</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Men Dhoti Pants</t>
+          <t>Men's Flexi Waist Slim Casual Pants</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>965</v>
+        <v>999</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/61oRzu8XRtL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/dhotis/sojanya/sojanya-white-dhoti-pants/1846810/buy</t>
+          <t>https://www.amazon.com/Amazon-Brand-Symbol-Casual-A22-SYM-SL-CT-101_Black_32/dp/B0B3989Q12/ref=sr_1_14?keywords=pants&amp;qid=1682094818&amp;sr=8-14</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -4101,30 +4101,30 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>PARK AVENUE</t>
+          <t>McHenry</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Men Regular Fit Black Viscose Rayon Trousers</t>
+          <t>Men's Regular Fit Trousers</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>981</v>
+        <v>999</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/5/c/r/-original-imagzkerqd9s6wgt.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/81wqp2ohC9L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/park-avenue-regular-fit-men-black-trousers/p/itmdd7e67c2bc51c?pid=TROGMS8QYZGAG5Z5&amp;lid=LSTTROGMS8QYZGAG5Z5PHTA01&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_25&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROGMS8QYZGAG5Z5.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/McHenry-Regular-PolyViscose-Trousers-Cream4006-40_Cream_Size/dp/B01LCXH98Y/ref=sr_1_12?keywords=pants&amp;qid=1682094818&amp;sr=8-12</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -4134,30 +4134,30 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Raymond</t>
+          <t>Jockey</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Men Slim Fit Black Viscose Rayon Trousers</t>
+          <t>Men Casual Trousers</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>986</v>
+        <v>999</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/e/f/n/-original-imaggcydd7jewpcg.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/61qoz5T51VL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/raymond-slim-fit-men-black-trousers/p/itm8d9ca09ca3450?pid=TROFYHXBZYVEUJVH&amp;lid=LSTTROFYHXBZYVEUJVHJC7JSA&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_4&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROFYHXBZYVEUJVH.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/Jockey-Cotton-Track-9500-0103-NAVY-Navy/dp/B00W05MDC6/ref=sr_1_19?keywords=pants&amp;qid=1682094818&amp;sr=8-19</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -4167,30 +4167,30 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>McHenry</t>
+          <t>PARK AVENUE</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Men's Solid Formal Regular Fit Wrinkle Free PolyViscose Trousers</t>
+          <t>Men Regular Fit Maroon Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>999</v>
+        <v>1034</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81wqp2ohC9L._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/ktlu9ow0/trouser/o/6/0/32-pmtx06573-m7-park-avenue-original-imag6wyfggjffzuk.jpeg?q=70</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/McHenry-Regular-PolyViscose-Trousers-Cream4006-40_Cream_Size/dp/B01LCXH98Y/ref=sr_1_12?keywords=pants&amp;qid=1681876994&amp;sr=8-12</t>
+          <t>https://www.flipkart.com/park-avenue-regular-fit-men-maroon-trousers/p/itm49098f544224a?pid=TROG4QFPWHZHXE9U&amp;lid=LSTTROG4QFPWHZHXE9UBULMHU&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_3&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROG4QFPWHZHXE9U.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>flipkart</t>
         </is>
       </c>
     </row>
@@ -4200,30 +4200,30 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>Zivame</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Men's Flexi Waist Slim Casual Pants</t>
+          <t>Women Lounge Pants</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>999</v>
+        <v>1042</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71H4lmB7dtL._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NDQ5Mzk5MDkwMTUyODg3OjE2ODE4NzY5OTQ6c3BfYXRmOjIwMTE5NjYxOTI0NTk4OjowOjo&amp;url=%2FAmazon-Brand-Symbol-A22-SYM-SL-CT-101_Lt-Olive_32%2Fdp%2FB0B395NQC5%2Fref%3Dsr_1_1_sspa%3Fkeywords%3Dpants%26qid%3D1681876994%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.myntra.com/lounge-pants/zivame/zivame-women-lounge-pants/21240904/buy</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -4233,25 +4233,25 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>Van Heusen</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Men's Flexi Waist Regular Casual Pants</t>
+          <t>Men Pants</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>999</v>
+        <v>1129</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71hEW2vmqML._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61GfyqlINnL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NDQ5Mzk5MDkwMTUyODg3OjE2ODE4NzY5OTQ6c3BfYXRmOjIwMTE5NjYxOTE2Nzk4OjowOjo&amp;url=%2FAmazon-Brand-Symbol-Regular-A22-SYM-RG-CT-100_Black_34%2Fdp%2FB0B399HCVH%2Fref%3Dsr_1_2_sspa%3Fkeywords%3Dpants%26qid%3D1681876994%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/Van-Heusen-Pants-VHTFFSLBE07068_Light-Grey_36/dp/B0B4K7ZJHG/ref=sr_1_49?keywords=pants&amp;qid=1682094818&amp;sr=8-49</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -4266,25 +4266,25 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>Wearilio</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Men's Flexi Waist Slim Casual Pants</t>
+          <t>Track Pants Joggers</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>999</v>
+        <v>1163</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61oRzu8XRtL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51lFBxiK8qL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Symbol-Casual-A22-SYM-SL-CT-101_Black_32/dp/B0B3989Q12/ref=sr_1_8?keywords=pants&amp;qid=1681876994&amp;sr=8-8</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0NzM5MzEyMTY3MTQzNDEyOjE2ODIwOTQ4MTg6c3BfbXRmOjIwMDQzNDMyMTU2NTk4OjowOjo&amp;url=%2FWearilio-Regular-Trackpants-910_911_912-Joggers_Grey_5XL%2Fdp%2FB09VLKGC94%2Fref%3Dsr_1_22_sspa%3Fkeywords%3Dpants%26qid%3D1682094818%26sr%3D8-22-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -4299,30 +4299,30 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Jockey</t>
+          <t>MARKS &amp; SPENCER</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Men's Cotton Track Pants</t>
+          <t>Men Slim Fit Brown Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>999</v>
+        <v>1190</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61qoz5T51VL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/3/o/v/36-t176601sdark-khaki-marks-spencer-original-imaghdscmtzxunkq.jpeg?q=70</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Jockey-Cotton-Track-9500-0103-NAVY-Navy/dp/B00W05MDC6/ref=sr_1_20?keywords=pants&amp;qid=1681876994&amp;sr=8-20</t>
+          <t>https://www.flipkart.com/marks-spencer-slim-fit-men-brown-trousers/p/itm530bee5c7a5e5?pid=TROGHDSDDEWV6SBZ&amp;lid=LSTTROGHDSDDEWV6SBZRXSKWI&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_37&amp;otracker=search&amp;iid=en_bdhPJXo3RcktD3Cx9%2BQTE4WCFYCniBOjAtt4CRNGXwPD9mByhd3vrIQN1c%2B6n%2B4C5Imov4EEYWbLlAisBkfZ2A%3D%3D&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>flipkart</t>
         </is>
       </c>
     </row>
@@ -4332,30 +4332,30 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>toothless</t>
+          <t>PETER ENGLAND</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Solid Pure Cotton Track Pant</t>
+          <t>Men Slim Fit Black Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>999</v>
+        <v>1245</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/kyrlifk0/trouser/o/n/c/34-petfoslbs43658-peter-england-original-imagax8aqm7hfdnh.jpeg?q=70</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/toothless/toothless-girls-pink-pants/20403982/buy</t>
+          <t>https://www.flipkart.com/peter-england-slim-fit-men-black-trousers/p/itmaaedd9c824027?pid=TROG9MVKWQ8TEZFF&amp;lid=LSTTROG9MVKWQ8TEZFFKKUC7R&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_23&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROG9MVKWQ8TEZFF.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>flipkart</t>
         </is>
       </c>
     </row>
@@ -4365,30 +4365,30 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Amazon Brand - Inkast Denim Co.</t>
+          <t>ARROW</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Men's Slim Fit Casual Pants</t>
+          <t>Smart Flex Men Regular Fit Blue Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>999</v>
+        <v>1253</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61nk1PgrstL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/t/s/j/-original-imagm9z22r5gmzcm.jpeg?q=70</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Inkast-Casual-TR-Ink-RDP-D3_Blue_32/dp/B0991WQYB7/ref=sr_1_31?keywords=pants&amp;qid=1681876994&amp;sr=8-31</t>
+          <t>https://www.flipkart.com/arrow-smart-flex-regular-fit-men-blue-trousers/p/itmc21e483c5d003?pid=TROGHRC62BYNMC4M&amp;lid=LSTTROGHRC62BYNMC4MCAC0BA&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_7&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROGHRC62BYNMC4M.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>flipkart</t>
         </is>
       </c>
     </row>
@@ -4398,25 +4398,25 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>PARK AVENUE</t>
+          <t>ARROW</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Men Regular Fit Maroon Viscose Rayon Trousers</t>
+          <t>Men Regular Fit Grey Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1021</v>
+        <v>1253</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/ktlu9ow0/trouser/o/6/0/32-pmtx06573-m7-park-avenue-original-imag6wyfggjffzuk.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/5/u/v/-original-imagm6mf7f4gpc6r.jpeg?q=70</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/park-avenue-regular-fit-men-maroon-trousers/p/itm49098f544224a?pid=TROG4QFPWHZHXE9U&amp;lid=LSTTROG4QFPWHZHXE9UBULMHU&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_3&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROG4QFPWHZHXE9U.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/arrow-regular-fit-men-grey-trousers/p/itm91cd7d2fe2cf6?pid=TROGHRC6WQMFGCJK&amp;lid=LSTTROGHRC6WQMFGCJKDJQ4UA&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_25&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROGHRC6WQMFGCJK.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -4431,30 +4431,30 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Enamor</t>
+          <t>PETER ENGLAND</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Essentials Women's Mid Rise Slim Fit Straight Leg Breathable Stretch Cotton Lounge Pants with Drawstring and Invisible Zipper Pockets- E014</t>
+          <t>Men Slim Fit Brown Pure Cotton Trousers</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1039</v>
+        <v>1259</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/516fTca53yL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/k/t/y/-original-imagh3jmnzm3farb.jpeg?q=70</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NDQ5Mzk5MDkwMTUyODg3OjE2ODE4NzY5OTQ6c3BfYnRmOjIwMDg0MjQ5NzQyNjAxOjowOjo&amp;url=%2FEnamor-Essentials-E014-Womens-Cotton%2Fdp%2FB08495JB4V%2Fref%3Dsr_1_60_sspa%3Fkeywords%3Dpants%26qid%3D1681876994%26sr%3D8-60-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.flipkart.com/peter-england-slim-fit-men-brown-trousers/p/itm27bcbe13c4be4?pid=TROG9JGU4AV3ZAZM&amp;lid=LSTTROG9JGU4AV3ZAZMZQPWLN&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_6&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROG9JGU4AV3ZAZM.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>flipkart</t>
         </is>
       </c>
     </row>
@@ -4464,25 +4464,25 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>PETER ENGLAND</t>
+          <t>MARKS &amp; SPENCER</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Men Slim Fit Grey Viscose Rayon Trousers</t>
+          <t>Men Regular Fit Brown Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1049</v>
+        <v>1290</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/8/r/c/-original-imaggvptktxaztrw.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/n/b/2/34-t281590mdark-khaki-marks-spencer-original-imaghds48wnxhsyx.jpeg?q=70</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/peter-england-slim-fit-men-grey-trousers/p/itm9e1faf5488e7d?pid=TROGDTN4KGYXQXTS&amp;lid=LSTTROGDTN4KGYXQXTSZUOCV8&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_5&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROGDTN4KGYXQXTS.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/marks-spencer-regular-fit-men-brown-trousers/p/itm07c561fdd47e9?pid=TROGHDSCEED5M66E&amp;lid=LSTTROGHDSCEED5M66EQUMCI0&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_12&amp;otracker=search&amp;iid=en_bdhPJXo3RcktD3Cx9%2BQTE4WCFYCniBOjAtt4CRNGXwNXu5PAVDtPJybx7dbkUWE9SaA5TtJgRLz1oseANAqljg%3D%3D&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -4497,30 +4497,30 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Enamor</t>
+          <t>VAN HEUSEN SPORT</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Essentials Womens Mid Rise 7/8th Relaxed Fit Soft &amp; Drapey 4 Way Stretch Viscose Spandex Lounge Pants with 2 Side Pockets- E048</t>
+          <t>Men Tapered Black Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1049</v>
+        <v>1299</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51UJAxDKpyL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/g/b/h/-original-imaggg3zhzdcxzxx.jpeg?q=70</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NDQ5Mzk5MDkwMTUyODg3OjE2ODE4NzY5OTQ6c3BfbXRmOjIwMDg0MjQ5NzQ2MzAxOjowOjo&amp;url=%2FEnamor-Womens-Relaxed-Pants-E048_Navy_M%2Fdp%2FB07XFTR37P%2Fref%3Dsr_1_23_sspa%3Fkeywords%3Dpants%26qid%3D1681876994%26sr%3D8-23-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.flipkart.com/van-heusen-sport-tapered-men-black-trousers/p/itmee1df969c5045?pid=TROGF5GSZDMFZFVM&amp;lid=LSTTROGF5GSZDMFZFVM6ZNO5X&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_5&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROGF5GSZDMFZFVM.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>flipkart</t>
         </is>
       </c>
     </row>
@@ -4530,25 +4530,25 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Enamor</t>
+          <t>CULTSPORT</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Women Pants</t>
+          <t>Performance Tights</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1099</v>
+        <v>1315</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71oyIH-Fz7L._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51oOqDsi5jL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NDQ5Mzk5MDkwMTUyODg3OjE2ODE4NzY5OTQ6c3BfYnRmOjIwMDcxMjA4MTc2ODk4OjowOjo&amp;url=%2FEnamor-Womens-Relaxed-Pants-E064_Navy_S%2Fdp%2FB086TF27LB%2Fref%3Dsr_1_58_sspa%3Fkeywords%3Dpants%26qid%3D1681876994%26sr%3D8-58-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0NzM5MzEyMTY3MTQzNDEyOjE2ODIwOTQ4MTg6c3BfYXRmOjIwMTMyMDA5NDY0OTk4OjowOjo&amp;url=%2FCultsport-Polyester-Leggings-Abstract-CS600720S%2Fdp%2FB08SLZ26BX%2Fref%3Dsr_1_3_sspa%3Fkeywords%3Dpants%26qid%3D1682094818%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -4563,30 +4563,30 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Roadster</t>
+          <t>SAPPER</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Men Slim Fit Green Cotton Blend Trousers</t>
+          <t>Solid Cargo Pants</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1121</v>
+        <v>1396</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/jvtujrk0/trouser/t/h/w/32-2145329-roadster-original-imafgmqzkgpzmcwp.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/61ZqLjxdCjL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/roadster-slim-fit-men-green-trousers/p/itmcb6bde0f97391?pid=TROFGH9A2E5WGESR&amp;lid=LSTTROFGH9A2E5WGESRI3YSIJ&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_22&amp;otracker=search&amp;iid=en_%2Fzb5cccG%2BNAxlFWnIlFWqxO1CRT0kxF2BuEAjuCcv%2FsXvneI%2BjichbYs%2Fze5SmZZ%2FF1ucJ9bBGaDQaW%2BaAcF4w%3D%3D&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/SAPPER-Olive-Cotton-Solid-MLW205DARKOLIVEXXXL/dp/B09NBPBQH3/ref=sr_1_47?keywords=pants&amp;qid=1682094818&amp;sr=8-47</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -4596,25 +4596,25 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Roadster</t>
+          <t>PETER ENGLAND</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Men Slim Fit Green Cotton Blend Trousers</t>
+          <t>Men Slim Fit Blue Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1121</v>
+        <v>1399</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/jvtujrk0/trouser/t/h/w/32-2145329-roadster-original-imafgmqzkgpzmcwp.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/l3khsi80/trouser/8/i/i/32-pitfonsf601387-peter-england-original-imagenvsszpaavwz.jpeg?q=70</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/roadster-slim-fit-men-green-trousers/p/itmfgmqzhz4twghb?pid=TROFGH9AMHVXU74H&amp;lid=LSTTROFGH9AMHVXU74HNZDRUJ&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_38&amp;otracker=search&amp;iid=en_%2Fzb5cccG%2BNAxlFWnIlFWqxO1CRT0kxF2BuEAjuCcv%2FtoDZmGyd%2BfUnEfttk51FDGvG5nd1ddpjqmy8AXl90UiQ%3D%3D&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/peter-england-slim-fit-men-blue-trousers/p/itm2f86256faafcc?pid=TROGDHZ6S7AHJSWZ&amp;lid=LSTTROGDHZ6S7AHJSWZ4WVSUU&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_26&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROGDHZ6S7AHJSWZ.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -4629,30 +4629,30 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Enamor</t>
+          <t>PETER ENGLAND</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Women Pants</t>
+          <t>Men Regular Fit Blue Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1139</v>
+        <v>1399</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81rKcRlWz5L._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/5/x/c/-original-imagzkd5tczyhc2n.jpeg?q=70</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NDQ5Mzk5MDkwMTUyODg3OjE2ODE4NzY5OTQ6c3BfbXRmOjIwMDg0MjQ5NzQ5NDAxOjowOjo&amp;url=%2FEnamor-Womens-Pants-E060_Navy-Melange_S%2Fdp%2FB07X8MGDJH%2Fref%3Dsr_1_21_sspa%3Fkeywords%3Dpants%26qid%3D1681876994%26sr%3D8-21-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.flipkart.com/peter-england-regular-fit-men-blue-trousers/p/itmb68b6dc0fbb2b?pid=TROGHQ8ZPHURZHWB&amp;lid=LSTTROGHQ8ZPHURZHWBGXPSE6&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_4&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROGHQ8ZPHURZHWB.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>flipkart</t>
         </is>
       </c>
     </row>
@@ -4662,7 +4662,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>hummel</t>
+          <t>rock.it</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1159</v>
+        <v>1466</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/hummel/hummel-men-track-pants/21064880/buy</t>
+          <t>https://www.myntra.com/track-pants/rockit/rockit-men-track-pants/21073786/buy</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -4695,25 +4695,25 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Mr Bowerbird</t>
+          <t>PUMA</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Men Regular Fit Brown Wool Trousers</t>
+          <t>Women Solid Grey Track Pants</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1179</v>
+        <v>1499</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/l1ch4sw0/trouser/a/k/h/34-14737440-mr-bowerbird-original-imagcxfpb5gx9kwe.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/track-pant/d/b/p/s-58684454-puma-original-imaghzqaw4yhg3gh.jpeg?q=70</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/mr-bowerbird-regular-fit-men-brown-trousers/p/itm1ae60b2c559ee?pid=TROGCXFQYNEZFMFR&amp;lid=LSTTROGCXFQYNEZFMFRNQ6Z2I&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_8&amp;otracker=search&amp;iid=en_%2Fzb5cccG%2BNAxlFWnIlFWqxO1CRT0kxF2BuEAjuCcv%2FsGb%2FlWt%2BbVfU4llvJjZhjuK4X%2F988eAGhku8%2BcRvtACQ%3D%3D&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/puma-solid-women-grey-track-pants/p/itm3cc53e69f904c?pid=TKPGG67GPSYZMJGC&amp;lid=LSTTKPGG67GPSYZMJGCRUYDP0&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_20&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TKPGG67GPSYZMJGC.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -4728,30 +4728,30 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Enamor</t>
+          <t>Speedo</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Essentials Women's Relaxed Fit Regular Length Mid Rise Modal Woven Printed Lounge Pant with Pockets and Adjustable Drawstring- E4A3</t>
+          <t>Contrast Swim Pants</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1249</v>
+        <v>1499</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81yQA2E24mL._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo2NDQ5Mzk5MDkwMTUyODg3OjE2ODE4NzY5OTQ6c3BfbXRmOjIwMDcxMjA4MTY1NDk4OjowOjo&amp;url=%2FEnamor-Essentials-Adjustable-Drawstring-E4A3%2Fdp%2FB09T3K54VR%2Fref%3Dsr_1_22_sspa%3Fkeywords%3Dpants%26qid%3D1681876994%26sr%3D8-22-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.myntra.com/swim-bottoms/speedo/speedo-contrast-swim-pants/22595686/buy</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -4761,30 +4761,30 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PETER ENGLAND</t>
+          <t>rock.it</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Men Slim Fit Brown Pure Cotton Trousers</t>
+          <t>Men Track Pants</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1349</v>
+        <v>1536</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/k/t/y/-original-imagh3jmnzm3farb.jpeg?q=70</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/peter-england-slim-fit-men-brown-trousers/p/itm27bcbe13c4be4?pid=TROG9JGU4AV3ZAZM&amp;lid=LSTTROG9JGU4AV3ZAZMZQPWLN&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_29&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROG9JGU4AV3ZAZM.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.myntra.com/track-pants/rockit/rockit-men-track-pants/21073790/buy</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -4794,30 +4794,30 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>BEEVEE</t>
+          <t>Cantabil</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Men's Cargos</t>
+          <t>Men Track Pants</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1376</v>
+        <v>1539</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/610crFA7BJL._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/BEEVEE-Mens-Cargo-Pants-FMCR1602BLACK_34_Black_34/dp/B0169WWO56/ref=sr_1_36?keywords=pants&amp;qid=1681876994&amp;sr=8-36</t>
+          <t>https://www.myntra.com/track-pants/cantabil/cantabil-men-track-pants/21159322/buy</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -4827,25 +4827,25 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>rock.it</t>
+          <t>ONLY</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Men Track Pants</t>
+          <t>Women Track Pants</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1466</v>
+        <v>1664</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/20196582/2022/9/28/9be6644b-6329-4c02-88db-a7c0ca8c64a51664357173934ONLYWomenGreenTrackPants1.jpg</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/rockit/rockit-men-track-pants/21073786/buy</t>
+          <t>https://www.myntra.com/track-pants/only/only-women-track-pants/20196582/buy</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -4860,30 +4860,30 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Speedo</t>
+          <t>United Colors of Benetton</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Contrast Swim Pants</t>
+          <t>Men Slim Fit Light Blue Pure Cotton Trousers</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1499</v>
+        <v>1689</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/c/u/c/-original-imafz4xzvsmubejz.jpeg?q=70</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/swim-bottoms/speedo/speedo-contrast-swim-pants/22595686/buy</t>
+          <t>https://www.flipkart.com/united-colors-benetton-slim-fit-men-light-blue-trousers/p/itmf73d4a822a43c?pid=TROFX7ZYRPVP4VDJ&amp;lid=LSTTROFX7ZYRPVP4VDJXOHDR0&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_8&amp;otracker=search&amp;iid=en_bdhPJXo3RcktD3Cx9%2BQTE4WCFYCniBOjAtt4CRNGXwMmJTfzYvFM6SGCmsQfOMtrotmG11VqR%2FC1kvYmgKKk5w%3D%3D&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>flipkart</t>
         </is>
       </c>
     </row>
@@ -4893,30 +4893,30 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>rock.it</t>
+          <t>TREKMONK</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Men Track Pants</t>
+          <t>Convertible Cargo Pants</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1536</v>
+        <v>1699</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/61vJzbXr5iL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/rockit/rockit-men-track-pants/21073790/buy</t>
+          <t>https://www.amazon.com/Trekmonk-Convertible-Cargo-Charcoal-Medium/dp/B07RYF8GP8/ref=sr_1_36?keywords=pants&amp;qid=1682094818&amp;sr=8-36</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -4926,16 +4926,16 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Cantabil</t>
+          <t>Puma</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Men Track Pants</t>
+          <t>Woven Men'S Training Pants</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1539</v>
+        <v>1719</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/cantabil/cantabil-men-track-pants/21159322/buy</t>
+          <t>https://www.myntra.com/track-pants/puma/puma-men-navy-blue-woven-training-pants-slip-on-solid-sports-pants/20673410/buy</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -4959,30 +4959,30 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>REEBOK</t>
+          <t>Jockey</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Men Printed Blue Track Pants</t>
+          <t>Men Track Pants</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1623</v>
+        <v>1749</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/track-pant/y/v/f/-original-imagh6nxwyhcaezq.jpeg?q=70</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/reebok-printed-men-blue-track-pants/p/itmbbeeeecc980db?pid=TKPG4BGDJGKEJ6FX&amp;lid=LSTTKPG4BGDJGKEJ6FX0HWB8Z&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_20&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TKPG4BGDJGKEJ6FX.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.myntra.com/track-pants/jockey/jockey-men-track-pants/21081480/buy</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -4992,25 +4992,25 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ONLY</t>
+          <t>Jockey</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Women Track Pants</t>
+          <t>Men Track Pants</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1664</v>
+        <v>1769</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/20196582/2022/9/28/9be6644b-6329-4c02-88db-a7c0ca8c64a51664357173934ONLYWomenGreenTrackPants1.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/only/only-women-track-pants/20196582/buy</t>
+          <t>https://www.myntra.com/track-pants/jockey/jockey-men-track-pants/21081482/buy</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -5025,30 +5025,30 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Jockey</t>
+          <t>CULTSPORT</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Men Track Pants</t>
+          <t>Women's Regular Fit Pants</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1749</v>
+        <v>1959</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/314C5Bc1cgL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/jockey/jockey-men-track-pants/21081480/buy</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0NzM5MzEyMTY3MTQzNDEyOjE2ODIwOTQ4MTg6c3BfYXRmOjIwMTMyMDA5NDY3MDk4OjowOjo&amp;url=%2FCultsport-Womens-Solid-Workout-Leggings%2Fdp%2FB08SLYVKGZ%2Fref%3Dsr_1_2_sspa%3Fkeywords%3Dpants%26qid%3D1682094818%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -5058,30 +5058,30 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Jockey</t>
+          <t>The Pant Project</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Men Track Pants</t>
+          <t>Slim Fit Formal Trousers</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1769</v>
+        <v>1990</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/617Zg6QsgDL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/jockey/jockey-men-track-pants/21081482/buy</t>
+          <t>https://www.amazon.com/Pant-Project-Polyester-Formal-Pant_01-Olive-40_Black_34/dp/B0B46P1CN8/ref=sr_1_51?keywords=pants&amp;qid=1682094818&amp;sr=8-51</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -5091,30 +5091,30 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Puma</t>
+          <t>The Pant Project</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Woven Men'S Training Pants</t>
+          <t>Luxury PV Stretchable Casual Pants for Men | Stylish Slim Fit Men's Wear Trousers for Office or Party | Mens Fashion Dress Trouser with Expandable Waist &amp; 4 Way Stretch</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1799</v>
+        <v>1990</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/817rJ9f5IxL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/puma/puma-men-navy-blue-woven-training-pants-slip-on-solid-sports-pants/20673410/buy</t>
+          <t>https://www.amazon.com/Pant-Project-Stretchable-Trousers-Expandable/dp/B0BSWP8PVQ/ref=sr_1_39?keywords=pants&amp;qid=1682094818&amp;sr=8-39</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>amazon</t>
         </is>
       </c>
     </row>
@@ -5124,30 +5124,30 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>boohooMAN</t>
+          <t>MARKS &amp; SPENCER</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Men Tapered Track Pants</t>
+          <t>Men Slim Fit Blue Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1799</v>
+        <v>1999</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/n/g/d/36-t176601slight-blue-marks-spencer-original-imagn42theewzzug.jpeg?q=70</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/boohooman/boohooman-tapered-track-pants/22167526/buy</t>
+          <t>https://www.flipkart.com/marks-spencer-slim-fit-men-blue-trousers/p/itmedc1ac5635a85?pid=TROGN42TKKZHPGR3&amp;lid=LSTTROGN42TKKZHPGR32HCWI5&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_27&amp;otracker=search&amp;iid=en_bdhPJXo3RcktD3Cx9%2BQTE4WCFYCniBOjAtt4CRNGXwPwSCMIbXRkrgL56npShLRH0b1lzFomPP18qsczx29BDQ%3D%3D&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>flipkart</t>
         </is>
       </c>
     </row>
@@ -5157,25 +5157,25 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>VAN HEUSEN</t>
+          <t>LEVI'S</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Men Slim Fit Black Polycotton Trousers</t>
+          <t>501 Men Slim Fit Blue Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1799</v>
+        <v>1999</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/j/w/p/30-vhtffslbm92948-van-heusen-original-imagkgzvj5amwc7f.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/l/i/e/-original-imag6hwkdjxszf6f.jpeg?q=70</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/van-heusen-slim-fit-men-black-trousers/p/itmb309a5c73a9a0?pid=TROGKGZVZUYXZNZS&amp;lid=LSTTROGKGZVZUYXZNZSFM7Z3A&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_9&amp;otracker=search&amp;iid=6ca879c9-5ae0-4a7a-9675-8048a1675a86.TROGKGZVZUYXZNZS.SEARCH&amp;ssid=ypt3l3uolc0000001681876988916&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/levi-s-501-slim-fit-men-blue-trousers/p/itm59615a95a026b?pid=JEAG3BFFNK6RTPF3&amp;lid=LSTJEAG3BFFNK6RTPF3UCC6OW&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_31&amp;otracker=search&amp;iid=en_bdhPJXo3RcktD3Cx9%2BQTE4WCFYCniBOjAtt4CRNGXwP6UFd9q0pBNzJBFS7AjWvLHGJSIkLVrgomDk6vNI2IfA%3D%3D&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -5190,30 +5190,30 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>The Pant Project</t>
+          <t>boohooMAN</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Luxury PV Lycra Stretchable Formal Pants for Men | Stylish Slim Fit Men's Wear Trousers for Office or Party | Mens Fashion Dress Trouser Pant</t>
+          <t>Men Tapered Track Pants</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1990</v>
+        <v>2249</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/617Zg6QsgDL._AC_UL400_.jpg</t>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/22167526/2023/3/22/94b0d693-9da9-45e7-8329-2edb2bcc386c1679463001145-boohooMAN-Tapered-Track-Pants-5621679463000878-1.jpg</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Pant-Project-Polyester-Formal-Pant_01-Olive-40_Black_34/dp/B0B46P1CN8/ref=sr_1_43?keywords=pants&amp;qid=1681876994&amp;sr=8-43</t>
+          <t>https://www.myntra.com/track-pants/boohooman/boohooman-tapered-track-pants/22167526/buy</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -5223,30 +5223,30 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>The Pant Project</t>
+          <t>boohooMAN</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Luxury PV Stretchable Casual Pants for Men | Stylish Slim Fit Men's Wear Trousers for Office or Party | Mens Fashion Dress Trouser with Expandable Waist &amp; 4 Way Stretch</t>
+          <t>Men Solid Track Pants</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>1990</v>
+        <v>2586</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/817rJ9f5IxL._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Pant-Project-Stretchable-Trousers-Expandable/dp/B0BSWP8PVQ/ref=sr_1_39?keywords=pants&amp;qid=1681876994&amp;sr=8-39</t>
+          <t>https://www.myntra.com/track-pants/boohooman/boohooman-solid-track-pants/22167484/buy</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>myntra</t>
         </is>
       </c>
     </row>
@@ -5256,16 +5256,16 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>boohooMAN</t>
+          <t>Puma</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Men Solid Track Pants</t>
+          <t>Men Track Pants</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>2069</v>
+        <v>2624</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/boohooman/boohooman-solid-track-pants/22167484/buy</t>
+          <t>https://www.myntra.com/track-pants/puma/puma-men-track-pants/21532512/buy</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -5298,7 +5298,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>2309</v>
+        <v>2886</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -5322,30 +5322,30 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Puma</t>
+          <t>MARKS &amp; SPENCER</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Men Track Pants</t>
+          <t>Men Regular Fit Grey Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>2799</v>
+        <v>2999</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/8/u/k/36-t704281ygrey-marks-spencer-original-imagmndvqjfrhezs.jpeg?q=70</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/puma/puma-men-track-pants/21532512/buy</t>
+          <t>https://www.flipkart.com/marks-spencer-regular-fit-men-grey-trousers/p/itm51e0b497e81ec?pid=TROGMNDWHGTKKGZX&amp;lid=LSTTROGMNDWHGTKKGZXL2IQED&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_38&amp;otracker=search&amp;iid=en_bdhPJXo3RcktD3Cx9%2BQTE4WCFYCniBOjAtt4CRNGXwOkUeJBOzyMWSuyYkw7WGyv6rTywnxET%2FQEByT5fOiGPg%3D%3D&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>flipkart</t>
         </is>
       </c>
     </row>

--- a/radon/data.xlsx
+++ b/radon/data.xlsx
@@ -471,30 +471,30 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LEE TEX</t>
+          <t>Amazon Brand - Inkast Denim Co.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Women Regular Fit Blue Cotton Blend Trousers</t>
+          <t>Men's Regular T-Shirt</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/l5h2xe80/trouser/j/p/c/m-bell-bottom-trouser-lee-tex-original-imagg57pfzkzdswk.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/71W+cEy3tGL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/lee-tex-regular-fit-women-blue-trousers/p/itm0b3439cb1fb70?pid=TROGG7JKUSYMCZVN&amp;lid=LSTTROGG7JKUSYMCZVNMKDYBZ&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_40&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROGG7JKUSYMCZVN.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTc4MDk5NjIzNzQ0OTU2OjE2ODIwOTY3NjI6c3BfYnRmOjIwMTAzOTIyODg2ODk4OjowOjo&amp;url=%2FAmazon-Brand-Regular-T-Shirt-SS20INKTEE17_Terrain%2Fdp%2FB099ZY7NKC%2Fref%3Dsr_1_59_sspa%3Fkeywords%3Dpants%26qid%3D1682096762%26sr%3D8-59-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -504,30 +504,30 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amazon Brand - Inkast Denim Co.</t>
+          <t>KOTTY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Regular T-shirt</t>
+          <t>Women Polyester Blend Green Solid Trousers</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71W+cEy3tGL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51jXgsSM6SL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0NzM5MzEyMTY3MTQzNDEyOjE2ODIwOTQ4MTg6c3BfYnRmOjIwMTAzOTIyODg2ODk4OjowOjo&amp;url=%2FAmazon-Brand-Regular-T-Shirt-SS20INKTEE17_Terrain%2Fdp%2FB099ZY7NKC%2Fref%3Dsr_1_59_sspa%3Fkeywords%3Dpants%26qid%3D1682094818%26sr%3D8-59-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/KOTTY-Womens-Solid-Polyester-Trousers/dp/B0B49SCGMY/ref=sr_1_5?keywords=pants&amp;qid=1682096762&amp;sr=8-5</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -537,30 +537,30 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>KOTTY</t>
+          <t>LEE TEX</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Women Solid Trousers</t>
+          <t>Women Regular Fit Maroon Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51jXgsSM6SL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/l/9/o/26-trouser-50-lee-tex-original-imaghkgdhxh6cdpz.jpeg?q=70</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/KOTTY-Womens-Solid-Polyester-Trousers/dp/B0B49SCGMY/ref=sr_1_5?keywords=pants&amp;qid=1682094818&amp;sr=8-5</t>
+          <t>https://www.flipkart.com/lee-tex-regular-fit-women-maroon-trousers/p/itmce79e01587568?pid=TROGHKK5ZUTPZHYX&amp;lid=LSTTROGHKK5ZUTPZHYXVTTEDV&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_2&amp;otracker=search&amp;iid=en_6V8fkS15lz92LDFMwstCZPqw3Xym6iC27gDJNqyq%2FResATfkmq2QvQnYOLCqzE1p1UP0%2BKvGuHBfMaG4s4ngCA%3D%3D&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -570,12 +570,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LEE TEX</t>
+          <t>VIMAL JONNEY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Women Regular Fit Maroon Cotton Blend Trousers</t>
+          <t>Vimal Men's Trackpantss</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -583,17 +583,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/l/9/o/26-trouser-50-lee-tex-original-imaghkgdhxh6cdpz.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/513AablIIfL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/lee-tex-regular-fit-women-maroon-trousers/p/itmce79e01587568?pid=TROGHKK5ZUTPZHYX&amp;lid=LSTTROGHKK5ZUTPZHYXVTTEDV&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_21&amp;otracker=search&amp;iid=en_bdhPJXo3RcktD3Cx9%2BQTE4WCFYCniBOjAtt4CRNGXwMzJNG6r9BFRrMSUEBpKb2p1UP0%2BKvGuHBfMaG4s4ngCA%3D%3D&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/VIMAL-Mens-Track-Pants-D10NAVY-M_Navy/dp/B01AAWUYJO/ref=sr_1_52?keywords=pants&amp;qid=1682096762&amp;sr=8-52</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -603,12 +603,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>VIMAL JONNEY</t>
+          <t>Foxter</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Men's Trackpants</t>
+          <t>Women Regular Fit Black Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -616,17 +616,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/513AablIIfL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/y/v/e/32-women-trouser-lupi-foxter-original-imagm99dzsz3fnqy.jpeg?q=70</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/VIMAL-Mens-Track-Pants-D10NAVY-M_Navy/dp/B01AAWUYJO/ref=sr_1_52?keywords=pants&amp;qid=1682094818&amp;sr=8-52</t>
+          <t>https://www.flipkart.com/foxter-regular-fit-women-black-trousers/p/itmda18cb8e68aa7?pid=TROGM99D7HQYJYUR&amp;lid=LSTTROGM99D7HQYJYURGGTRIC&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;spotlightTagId=BestsellerId_clo%2Fvua&amp;srno=s_1_35&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROGM99D7HQYJYUR.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -636,30 +636,30 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Foxter</t>
+          <t>KOTTY</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Women Regular Fit Black Cotton Blend Trousers</t>
+          <t>Women Regular Fit Orange Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/y/v/e/32-women-trouser-lupi-foxter-original-imagm99dzsz3fnqy.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/d/y/g/26-kottywomenspant155-kotty-original-imagnp6wx35fn2fg.jpeg?q=70</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/foxter-regular-fit-women-black-trousers/p/itmda18cb8e68aa7?pid=TROGM99D7HQYJYUR&amp;lid=LSTTROGM99D7HQYJYURGGTRIC&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;spotlightTagId=BestsellerId_clo%2Fvua&amp;srno=s_1_33&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROGM99D7HQYJYUR.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/kotty-regular-fit-women-orange-trousers/p/itm48a056a54a5d1?pid=TROGF3FNNPQMY4CJ&amp;lid=LSTTROGF3FNNPQMY4CJWEOPZZ&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_8&amp;otracker=search&amp;iid=en_6V8fkS15lz92LDFMwstCZPqw3Xym6iC27gDJNqyq%2FRdc%2FFYfeET12rn6i2W5d4ADQ%2BW0DzoAi5%2Fq6o9Majtw%2BA%3D%3D&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Women Regular Fit Dark Green Viscose Rayon Trousers</t>
+          <t>Women Regular Fit Black Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -682,17 +682,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/l47cu4w0/trouser/i/k/v/30-kottywomenspant154-kotty-original-imagf5nctpcjxabc.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/8/n/5/28-kttwomenspant261-kotty-original-imagnrr9xcy9zgru.jpeg?q=70</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-regular-fit-women-dark-green-trousers/p/itmc5df26954a566?pid=TROGF5NDQ8VDF4HH&amp;lid=LSTTROGF5NDQ8VDF4HHRHBTWQ&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_13&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROGF5NDQ8VDF4HH.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/kotty-regular-fit-women-black-trousers/p/itm126ac29fac269?pid=TROGHF9CQCPGXPXM&amp;lid=LSTTROGHF9CQCPGXPXMGBCIM6&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;spotlightTagId=BestsellerId_clo%2Fvua&amp;srno=s_1_10&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROGHF9CQCPGXPXM.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -715,17 +715,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/l3hmwsw0/trouser/9/9/r/28-kttwomenspant155-kotty-original-imagehhkdh6s8q8x.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/v/q/6/30-kttwomenspant299-kotty-original-imagkhzhn7dfemxp.jpeg?q=70</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-regular-fit-women-orange-trousers/p/itmaef81361b939c?pid=TROGEHHKDQ2SHUHG&amp;lid=LSTTROGEHHKDQ2SHUHG4LWMWC&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_22&amp;otracker=search&amp;iid=en_bdhPJXo3RcktD3Cx9%2BQTE4WCFYCniBOjAtt4CRNGXwMLQSLwPQTYk3pB67HeDmw6Fu3F6g%2FtyEzP%2BKLh2Gj32A%3D%3D&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/kotty-regular-fit-women-orange-trousers/p/itm7c6107a7fd45b?pid=TROGKGYBXV3BHZHV&amp;lid=LSTTROGKGYBXV3BHZHV4WN53Q&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_11&amp;otracker=search&amp;iid=en_6V8fkS15lz92LDFMwstCZPqw3Xym6iC27gDJNqyq%2FRc8z%2BE437WveH4vXI8z8Hmp3QAmmtAy9Zq%2FKaHdoSmRdw%3D%3D&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -740,7 +740,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Women Regular Fit Black Viscose Rayon Trousers</t>
+          <t>Women Regular Fit Dark Green Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -748,17 +748,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/8/n/5/28-kttwomenspant261-kotty-original-imagnrr9xcy9zgru.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/l47cu4w0/trouser/i/k/v/30-kottywomenspant154-kotty-original-imagf5nctpcjxabc.jpeg?q=70</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-regular-fit-women-black-trousers/p/itm126ac29fac269?pid=TROGHF9CQCPGXPXM&amp;lid=LSTTROGHF9CQCPGXPXMGBCIM6&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;spotlightTagId=BestsellerId_clo%2Fvua&amp;srno=s_1_10&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROGHF9CQCPGXPXM.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/kotty-regular-fit-women-dark-green-trousers/p/itmc5df26954a566?pid=TROGF5NDQ8VDF4HH&amp;lid=LSTTROGF5NDQ8VDF4HHRHBTWQ&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_14&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROGF5NDQ8VDF4HH.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Women Regular Fit Black Viscose Rayon Trousers</t>
+          <t>Women Regular Fit Green Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -781,17 +781,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/f/q/p/28-kottywomenspant261-kotty-original-imaghe3gmpq6yrty.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/o/h/s/28-kottywomenspant151-kotty-original-imagnz56ubjgwuzu.jpeg?q=70</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-regular-fit-women-black-trousers/p/itm52402672f82b6?pid=TROGHE3MDHTYWFHJ&amp;lid=LSTTROGHE3MDHTYWFHJ26HHKC&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_19&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROGHE3MDHTYWFHJ.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/kotty-regular-fit-women-green-trousers/p/itmf8cd900a09a26?pid=TROGF3FZZN4JCHYY&amp;lid=LSTTROGF3FZZN4JCHYY8JJ4BV&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_15&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROGF3FZZN4JCHYY.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Women Regular Fit Pink Viscose Rayon Trousers</t>
+          <t>Women Regular Fit Black Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -814,17 +814,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/0/f/w/30-kttwomenspant268-kotty-original-imaghehc5xdhhxc9.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/f/q/p/28-kottywomenspant261-kotty-original-imaghe3gmpq6yrty.jpeg?q=70</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-regular-fit-women-pink-trousers/p/itm49a94239850a6?pid=TROGHEHDVYAQHWBV&amp;lid=LSTTROGHEHDVYAQHWBVVB8WVQ&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_18&amp;otracker=search&amp;iid=en_bdhPJXo3RcktD3Cx9%2BQTE4WCFYCniBOjAtt4CRNGXwMjceHRq%2F2XjQgNkrClFG51Zn8dPGpn64Htr8F7iHXR%2BA%3D%3D&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/kotty-regular-fit-women-black-trousers/p/itm52402672f82b6?pid=TROGHE3MDHTYWFHJ&amp;lid=LSTTROGHE3MDHTYWFHJ26HHKC&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_33&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROGHE3MDHTYWFHJ.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Women Flared Black Viscose Rayon Trousers</t>
+          <t>Women Regular Fit Purple Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -847,17 +847,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/w/d/g/28-kttwomenspant321-kotty-original-imagmycptzhgv6mk.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/h/1/r/28-kttwomenspant307-kotty-original-imagnyeghk4hqvzr.jpeg?q=70</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-flared-women-black-trousers/p/itm8aa941ff754c1?pid=TROGMYCSEDMATHHT&amp;lid=LSTTROGMYCSEDMATHHTU30PGE&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_17&amp;otracker=search&amp;iid=en_bdhPJXo3RcktD3Cx9%2BQTE4WCFYCniBOjAtt4CRNGXwNax2InxkgXnY9werOco%2B03PMDNPlC%2BgM9rAHi7sY3aGQ%3D%3D&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/kotty-regular-fit-women-purple-trousers/p/itm2faf429628e53?pid=TROGKGTZHGYMHQCF&amp;lid=LSTTROGKGTZHGYMHQCFX8L2IO&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_17&amp;otracker=search&amp;iid=en_6V8fkS15lz92LDFMwstCZPqw3Xym6iC27gDJNqyq%2FResKOlC8v5Jn9uYTfCxjaZN6OfcRu0jPL7PuLsCrMwJwQ%3D%3D&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -872,7 +872,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Women Regular Fit Green Viscose Rayon Trousers</t>
+          <t>Women Regular Fit Light Green Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -880,17 +880,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/o/h/s/28-kottywomenspant151-kotty-original-imagnz56ubjgwuzu.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/8/f/4/26-kttwomenspant269-kotty-original-imaghehccgqvn9bs.jpeg?q=70</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-regular-fit-women-green-trousers/p/itmf8cd900a09a26?pid=TROGF3FZZN4JCHYY&amp;lid=LSTTROGF3FZZN4JCHYY8JJ4BV&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_16&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROGF3FZZN4JCHYY.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/kotty-regular-fit-women-light-green-trousers/p/itm707810be90f02?pid=TROGHEHDCPEAMEGC&amp;lid=LSTTROGHEHDCPEAMEGCVSDI2B&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_18&amp;otracker=search&amp;iid=en_6V8fkS15lz92LDFMwstCZPqw3Xym6iC27gDJNqyq%2FRczftvi0%2FNPym3dn%2FZRLRypHGnP38XHxnzH6hhYJPgg3g%3D%3D&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Women Regular Fit Purple Viscose Rayon Trousers</t>
+          <t>Women Regular Fit Multicolor Polycotton Trousers</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -913,17 +913,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/h/1/r/28-kttwomenspant307-kotty-original-imagnyeghk4hqvzr.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/7/j/i/34-kttwomenspant291-kotty-original-imagge5fh9tgy9sr.jpeg?q=70</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-regular-fit-women-purple-trousers/p/itm2faf429628e53?pid=TROGKGTZHGYMHQCF&amp;lid=LSTTROGKGTZHGYMHQCFX8L2IO&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_28&amp;otracker=search&amp;iid=en_bdhPJXo3RcktD3Cx9%2BQTE4WCFYCniBOjAtt4CRNGXwO6yj5WWWdAGdE5YrQJifKj6OfcRu0jPL7PuLsCrMwJwQ%3D%3D&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/kotty-regular-fit-women-multicolor-trousers/p/itm7cecd134d1f25?pid=TROGGE5KZXWQHFRK&amp;lid=LSTTROGGE5KZXWQHFRKYOXANV&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_21&amp;otracker=search&amp;iid=en_6V8fkS15lz92LDFMwstCZPqw3Xym6iC27gDJNqyq%2FRdjYD2KieQwC%2BuhNJqFyG5vQuYOqIZCjylEvXSUtGgjxA%3D%3D&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -933,30 +933,30 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ADDYVERO</t>
+          <t>GLEAMRUSH</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Women Flared Maroon Cotton Blend Trousers</t>
+          <t>Women Regular Fit Green Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/kfoapow0-0/trouser/x/p/l/34-cl-wm-l0737-addyvero-original-imafw2jwudmcrfbq.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/y/5/l/m-trousers-for-women-bridon-original-imaghcwyryjpxzjx.jpeg?q=70</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/addyvero-flared-women-maroon-trousers/p/itm9dfc4c9f2f73d?pid=TROFPWPZZHG5CNH7&amp;lid=LSTTROFPWPZZHG5CNH7BWH7WX&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_39&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROFPWPZZHG5CNH7.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/gleamrush-regular-fit-women-green-trousers/p/itma7411a997e63d?pid=TROGZZKSDG2YWVMH&amp;lid=LSTTROGZZKSDG2YWVMHMG7UQX&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_31&amp;otracker=search&amp;iid=en_6V8fkS15lz92LDFMwstCZPqw3Xym6iC27gDJNqyq%2FRfwzx7tfi9aXePI9E054MQPj5PQkTUulkuRbR66cfi5wA%3D%3D&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -966,30 +966,30 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ADDYVERO</t>
+          <t>GLEAMRUSH</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Slim Fit Casual Trousers</t>
+          <t>Women Regular Fit Dark Blue Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61r+ZK+jPtL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/c/c/w/32-33-223-we-agarwalenter-original-imagz84yxrahg889.jpeg?q=70</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/ADDYVERO-Flared-Ankle-Length-Trousers/dp/B085MCKV8F/ref=sr_1_10?keywords=pants&amp;qid=1682094818&amp;sr=8-10</t>
+          <t>https://www.flipkart.com/gleamrush-regular-fit-women-dark-blue-trousers/p/itm975444023c32c?pid=TROGZZZZNZHYG8K2&amp;lid=LSTTROGZZZZNZHYG8K23UHCLG&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_28&amp;otracker=search&amp;iid=en_6V8fkS15lz92LDFMwstCZPqw3Xym6iC27gDJNqyq%2FRc7GqhrMF3AbMfWUE%2BpjPc8sX4po50gTzR6SFVIvsYZDA%3D%3D&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -999,30 +999,30 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SWADESI STUFF</t>
+          <t>GLEAMRUSH</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Dry Fit Track Pant for Men | Slim Fit Running Gym Stretchable Jogger</t>
+          <t>Women Regular Fit Red Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61B56ZjWatL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/4/d/3/xxl-trousers-for-women-bridon-original-imaghcwyzzsfyj3j.jpeg?q=70</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/SWADESI-STUFF-Running-Stretchable-Jogger/dp/B0BDWN5LDK/ref=sr_1_32?keywords=pants&amp;qid=1682094818&amp;sr=8-32</t>
+          <t>https://www.flipkart.com/gleamrush-regular-fit-women-red-trousers/p/itm3d76b05a0fbb3?pid=TROGZZKSCGQMXGS5&amp;lid=LSTTROGZZKSCGQMXGS5PO65G0&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_32&amp;otracker=search&amp;iid=en_6V8fkS15lz92LDFMwstCZPqw3Xym6iC27gDJNqyq%2FRc%2Bq%2BKelXLPSbsFIzuJgrmvLWNLWp9sHXM4dUrJAIawXw%3D%3D&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -1032,30 +1032,30 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>KOTTY</t>
+          <t>GLEAMRUSH</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Women Regular Fit Brown Cotton Blend Trousers</t>
+          <t>Women Regular Fit Maroon Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/3/k/e/28-kottywomenspant204-kotty-original-imaggjhvxzwcfggh.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/l/e/q/xxl-trousers-for-women-bridon-original-imaghexrz9p94he3.jpeg?q=70</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-regular-fit-women-brown-trousers/p/itmefde201429474?pid=TROGGJHWF7N35UT4&amp;lid=LSTTROGGJHWF7N35UT4VPCAFC&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_15&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROGGJHWF7N35UT4.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/gleamrush-regular-fit-women-maroon-trousers/p/itm0fd0ca35f8d56?pid=TROGZZKSHYGMGHYS&amp;lid=LSTTROGZZKSHYGMGHYSLL1UBH&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_27&amp;otracker=search&amp;iid=en_6V8fkS15lz92LDFMwstCZPqw3Xym6iC27gDJNqyq%2FRe531vwg06%2F9nm8JqnL3jFhlju9UywHEh6mpoR3F%2FIINQ%3D%3D&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -1065,30 +1065,30 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>KOTTY</t>
+          <t>ADDYVERO</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Women Regular Fit Pink Viscose Rayon Trousers</t>
+          <t>Women Flared Maroon Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/l5bd5zk0/trouser/d/i/d/26-kttwomenspant174-kotty-original-imaggyhncztfsbst.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/kfoapow0-0/trouser/x/p/l/34-cl-wm-l0737-addyvero-original-imafw2jwudmcrfbq.jpeg?q=70</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-regular-fit-women-pink-trousers/p/itm26ebc424e1985?pid=TROGGYHN4ZGPTXTW&amp;lid=LSTTROGGYHN4ZGPTXTWEJXO1Y&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_36&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROGGYHN4ZGPTXTW.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/addyvero-flared-women-maroon-trousers/p/itm9dfc4c9f2f73d?pid=TROFPWPZZHG5CNH7&amp;lid=LSTTROFPWPZZHG5CNH7BWH7WX&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_40&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROFPWPZZHG5CNH7.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -1098,30 +1098,30 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>JUGULAR</t>
+          <t>ADDYVERO</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Cotton Zip Style Track Pant</t>
+          <t>Women's Slim Fit Casual Trousers</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61SJTcmtp-L._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61r+ZK+jPtL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/JUGULAR-Cotton-Style-Joggers-Medium/dp/B091YJ78JK/ref=sr_1_28?keywords=pants&amp;qid=1682094818&amp;sr=8-28</t>
+          <t>https://www.amazon.com/ADDYVERO-Flared-Ankle-Length-Trousers/dp/B085MCKV8F/ref=sr_1_10?keywords=pants&amp;qid=1682096762&amp;sr=8-10</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -1131,30 +1131,30 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Amazon Brand - Inkast Denim Co.</t>
+          <t>SWADESI STUFF</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Regular Polo Shirt</t>
+          <t>Dry Fit Track Pant for Men | Slim Fit Running Gym Stretchable Jogger</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/91Vq-HLPJrL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61B56ZjWatL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0NzM5MzEyMTY3MTQzNDEyOjE2ODIwOTQ4MTg6c3BfYnRmOjIwMTAzOTYzNDI2OTk4OjowOjo&amp;url=%2FAmazon-Brand-Inkast-Regular-P-PE-D5-A_Provincial%2Fdp%2FB098NVNBWD%2Fref%3Dsr_1_57_sspa%3Fkeywords%3Dpants%26qid%3D1682094818%26sr%3D8-57-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/SWADESI-STUFF-Running-Stretchable-Jogger/dp/B0BDWN5LDK/ref=sr_1_32?keywords=pants&amp;qid=1682096762&amp;sr=8-32</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -1164,30 +1164,30 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Shasmi</t>
+          <t>KOTTY</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Women's Dress Pants Stretchy Work Slacks Business Casual Office Bootcut Leg Elastic Waist Regular Fit Plazzo Trouser Pant (Pant 65)</t>
+          <t>Women Regular Fit Pink Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51ylFhZJI2L._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/l5bd5zk0/trouser/d/i/d/26-kttwomenspant174-kotty-original-imaggyhncztfsbst.jpeg?q=70</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Shasmi-Fit-Plazzo-Trouser-Pant/dp/B0BPT47WX8/ref=sr_1_30?keywords=pants&amp;qid=1682094818&amp;sr=8-30</t>
+          <t>https://www.flipkart.com/kotty-regular-fit-women-pink-trousers/p/itm26ebc424e1985?pid=TROGGYHN4ZGPTXTW&amp;lid=LSTTROGGYHN4ZGPTXTWEJXO1Y&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_39&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROGGYHN4ZGPTXTW.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -1197,30 +1197,30 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ENDEAVOUR WEAR</t>
+          <t>KOTTY</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Men's Regular Fit Trackpants</t>
+          <t>Women Regular Fit Brown Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/5137SFdCROL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/3/k/e/28-kottywomenspant204-kotty-original-imaggjhvxzwcfggh.jpeg?q=70</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/ENDEAVOUR-WEAR-Regular-Track-EWTS_CTNBLACKTRACK_M_Black_M/dp/B09B3YC8XM/ref=sr_1_31?keywords=pants&amp;qid=1682094818&amp;sr=8-31</t>
+          <t>https://www.flipkart.com/kotty-regular-fit-women-brown-trousers/p/itmefde201429474?pid=TROGGJHWF7N35UT4&amp;lid=LSTTROGGJHWF7N35UT4VPCAFC&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_16&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROGGJHWF7N35UT4.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -1230,30 +1230,30 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Chromozome</t>
+          <t>JUGULAR</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Men's Regular Shorts</t>
+          <t>Men's Slim Fit Cotton Track Pant</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71TNBRetNwL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61SJTcmtp-L._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0NzM5MzEyMTY3MTQzNDEyOjE2ODIwOTQ4MTg6c3BfbXRmOjIwMTA4NDMyMjkwNjk4OjowOjo&amp;url=%2FChromozome-Track-N-170-Gym-Shorts_Charcoal_Medium%2Fdp%2FB07NBYYZWD%2Fref%3Dsr_1_24_sspa%3Fkeywords%3Dpants%26qid%3D1682094818%26sr%3D8-24-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/JUGULAR-Cotton-Style-Joggers-Medium/dp/B091YJ78JK/ref=sr_1_28?keywords=pants&amp;qid=1682096762&amp;sr=8-28</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -1263,30 +1263,30 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>JPM brothers</t>
+          <t>Amazon Brand - Inkast Denim Co.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Men's Lycra Pant</t>
+          <t>Men's Regular Fit Polo Shirt</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71dZDoqZEfL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/91Vq-HLPJrL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/JPM-brothers-Polyester-BUTTON-LIGHTGREY-XL_Light-Grey_XL/dp/B0BGXZJC6S/ref=sr_1_20?keywords=pants&amp;qid=1682094818&amp;sr=8-20</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTc4MDk5NjIzNzQ0OTU2OjE2ODIwOTY3NjI6c3BfYnRmOjIwMTAzOTYzNDI2OTk4OjowOjo&amp;url=%2FAmazon-Brand-Inkast-Regular-P-PE-D5-A_Provincial%2Fdp%2FB098NVNBWD%2Fref%3Dsr_1_57_sspa%3Fkeywords%3Dpants%26qid%3D1682096762%26sr%3D8-57-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -1296,30 +1296,30 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>ENDEAVOUR WEAR</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Regular Track Pants</t>
+          <t>Men's Regular Fit Trackpants</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>439</v>
+        <v>399</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61fu5vVqNwL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/5137SFdCROL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Symbol-Lounge-KTRK-02_Navy_Medium/dp/B079VT539Q/ref=sr_1_45?keywords=pants&amp;qid=1682094818&amp;sr=8-45</t>
+          <t>https://www.amazon.com/ENDEAVOUR-WEAR-Regular-Track-EWTS_CTNBLACKTRACK_M_Black_M/dp/B09B3YC8XM/ref=sr_1_31?keywords=pants&amp;qid=1682096762&amp;sr=8-31</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -1329,30 +1329,30 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Laabha</t>
+          <t>Shasmi</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Solid Track Pants</t>
+          <t>Women's Dress Pants Stretchy Work Slacks Business Casual Office Bootcut Leg Elastic Waist Regular Fit Plazzo Trouser Pant (Pant 65)</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>447</v>
+        <v>399</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/51ylFhZJI2L._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/laabha/laabha-solid-track-pants/21975656/buy</t>
+          <t>https://www.amazon.com/Shasmi-Fit-Plazzo-Trouser-Pant/dp/B0BPT47WX8/ref=sr_1_30?keywords=pants&amp;qid=1682096762&amp;sr=8-30</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -1362,30 +1362,30 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AVOLT</t>
+          <t>Chromozome</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>I Slim Fit Track Pant</t>
+          <t>Men's Regular Shorts</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61iSZEH6PJL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71TNBRetNwL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/AVOLT-Track-Athleisure-Running-Stretchable/dp/B09VPK6WZC/ref=sr_1_33?keywords=pants&amp;qid=1682094818&amp;sr=8-33</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTc4MDk5NjIzNzQ0OTU2OjE2ODIwOTY3NjI6c3BfbXRmOjIwMTA4NDMyMjkwNjk4OjowOjo&amp;url=%2FChromozome-Track-N-170-Gym-Shorts_Charcoal_Medium%2Fdp%2FB07NBYYZWD%2Fref%3Dsr_1_24_sspa%3Fkeywords%3Dpants%26qid%3D1682096762%26sr%3D8-24-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -1395,30 +1395,30 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>LEE TEX</t>
+          <t>JPM brothers</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Pack of 2 Women Regular Fit Purple, Blue Cotton Blend Trousers</t>
+          <t>Mens Regular Fit Lycra Pant</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/p/c/v/34-bell-bottom-trouser-lee-tex-original-imagkhahbnchn2wn.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/71dZDoqZEfL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/lee-tex-regular-fit-women-purple-blue-trousers/p/itm23060ade90f6a?pid=TROGKHAMFPGPHKQ6&amp;lid=LSTTROGKHAMFPGPHKQ6BGSUBZ&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_2&amp;otracker=search&amp;iid=en_bdhPJXo3RcktD3Cx9%2BQTE4WCFYCniBOjAtt4CRNGXwOwTDzr%2FnFEiNN%2FUJ3%2FBQXvQNkv5g48%2BeyJxxqQmbIAQg%3D%3D&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/JPM-brothers-Polyester-BUTTON-LIGHTGREY-XL_Light-Grey_XL/dp/B0BGXZJC6S/ref=sr_1_20?keywords=pants&amp;qid=1682096762&amp;sr=8-20</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -1428,30 +1428,30 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Shasmi</t>
+          <t>Amazon Brand - Symbol</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Women's Yoga Dress Pants Stretchy Work Slacks Business Casual Office Flare Bell-Bottom/Boot-Cut Elastic Waist Regular Fit Trouser Pant (Pant 57)</t>
+          <t>Men's Regular Track Pants</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61nCTPDIp7L._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61fu5vVqNwL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Shasmi-Boot-Cut-Fit-Trouser-Pant/dp/B0BGTFH7X4/ref=sr_1_41?keywords=pants&amp;qid=1682094818&amp;sr=8-41</t>
+          <t>https://www.amazon.com/Amazon-Brand-Symbol-Lounge-KTRK-02_Navy_Medium/dp/B079VT539Q/ref=sr_1_45?keywords=pants&amp;qid=1682096762&amp;sr=8-45</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -1461,30 +1461,30 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>JUGULAR</t>
+          <t>Laabha</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Men's Cotton Track Pants</t>
+          <t>Solid Track Pants</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51e3d6L6EDL._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/JUGULAR-Cotton-Track-Joggers-X-Large/dp/B09W9X6LG6/ref=sr_1_38?keywords=pants&amp;qid=1682094818&amp;sr=8-38</t>
+          <t>https://www.myntra.com/track-pants/laabha/laabha-solid-track-pants/21975656/buy</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -1494,30 +1494,30 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Aahwan</t>
+          <t>AVOLT</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Women's &amp; Girls' Solid Split Hem Flare Leg Pants Trouser</t>
+          <t>Dry Fit Track Pants Combo I Slim Fit Sports Track Pants</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51tzz6Ib+PL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61iSZEH6PJL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Aahwan-Solid-Trouser-Womens-212-Black-S/dp/B0BTDCLR6D/ref=sr_1_6?keywords=pants&amp;qid=1682094818&amp;sr=8-6</t>
+          <t>https://www.amazon.com/AVOLT-Track-Athleisure-Running-Stretchable/dp/B09VPK6WZC/ref=sr_1_33?keywords=pants&amp;qid=1682096762&amp;sr=8-33</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -1527,30 +1527,30 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BLUE STAR SHARK</t>
+          <t>LEE TEX</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Men's Cargo Style Jogger</t>
+          <t>Pack of 2 Women Regular Fit Purple, Blue Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>475</v>
+        <v>449</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51d74502ZVL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/p/c/v/34-bell-bottom-trouser-lee-tex-original-imagkhahbnchn2wn.jpeg?q=70</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/BLUE-STAR-SHARK-Stretchable-Regular/dp/B0BJBHNQHQ/ref=sr_1_55?keywords=pants&amp;qid=1682094818&amp;sr=8-55</t>
+          <t>https://www.flipkart.com/lee-tex-regular-fit-women-purple-blue-trousers/p/itm23060ade90f6a?pid=TROGKHAMFPGPHKQ6&amp;lid=LSTTROGKHAMFPGPHKQ6BGSUBZ&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_12&amp;otracker=search&amp;iid=en_6V8fkS15lz92LDFMwstCZPqw3Xym6iC27gDJNqyq%2FRebBJyQ1B9XwQ2hydrcQeeYgPLEUhc5ZxpEXvjYrvx%2BUw%3D%3D&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -1565,25 +1565,25 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Slim Fit Track Pants</t>
+          <t>Men's Regular Fit Cotton Pant And Joggers</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71r3RWbLWAL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51e3d6L6EDL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/JUGULAR-Solid-Regular-Cargo-X-Large/dp/B0855KB2HM/ref=sr_1_7?keywords=pants&amp;qid=1682094818&amp;sr=8-7</t>
+          <t>https://www.amazon.com/JUGULAR-Cotton-Track-Joggers-X-Large/dp/B09W9X6LG6/ref=sr_1_38?keywords=pants&amp;qid=1682096762&amp;sr=8-38</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -1593,30 +1593,30 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Amazon Brand - Inkast Denim Co.</t>
+          <t>Shasmi</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Men Polo</t>
+          <t>Women's Yoga Dress Pants Stretchy Work Slacks Business Casual Office Flare Bell-Bottom/Boot-Cut Elastic Waist Regular Fit Trouser Pant (Pant 57)</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/91xNPItUNNL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61nCTPDIp7L._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0NzM5MzEyMTY3MTQzNDEyOjE2ODIwOTQ4MTg6c3BfbXRmOjIwMTAzOTI5ODEwMTk4OjowOjo&amp;url=%2FAmazon-Brand-Inkast-Regular-16_Black%2Fdp%2FB08FS4T5NL%2Fref%3Dsr_1_23_sspa%3Fkeywords%3Dpants%26qid%3D1682094818%26sr%3D8-23-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/Shasmi-Boot-Cut-Fit-Trouser-Pant/dp/B0BGTFH7X4/ref=sr_1_41?keywords=pants&amp;qid=1682096762&amp;sr=8-41</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -1626,30 +1626,30 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Laabha</t>
+          <t>Aahwan</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Solid Track Pants</t>
+          <t>Women's &amp; Girls' Solid Split Hem Flare Leg Pants Trouser</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/51tzz6Ib+PL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/laabha/laabha-solid-track-pants/21975652/buy</t>
+          <t>https://www.amazon.com/Aahwan-Solid-Trouser-Womens-212-Black-S/dp/B0BTDCLR6D/ref=sr_1_6?keywords=pants&amp;qid=1682096762&amp;sr=8-6</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -1659,30 +1659,30 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Hubberholme</t>
+          <t>BLUE STAR SHARK</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Men Track Pants</t>
+          <t>Men's Lycra Stretchable Regular Fit Joggers Navy Track Pant Lower</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/51d74502ZVL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/hubberholme/hubberholme-navy-track-pants/1189633/buy</t>
+          <t>https://www.amazon.com/BLUE-STAR-SHARK-Stretchable-Regular/dp/B0BJBHNQHQ/ref=sr_1_55?keywords=pants&amp;qid=1682096762&amp;sr=8-55</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -1692,30 +1692,30 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Hubberholme</t>
+          <t>Duve Fashion</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Men Track Pants</t>
+          <t>Pack of 2 Women Regular Fit Black, Blue Lycra Blend Trousers</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/1088888/2016/5/11/11462961543084-Hubberholme-Navy-Tailored-Fit-Track-Pants-921462961542776-1.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/kn7sdjk0/trouser/a/v/k/26-regular-fit-women-stretchable-fabric-jogger-trousers-combo-original-imagfy4zrkfuzr2g.jpeg?q=70</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/hubberholme/hubberholme-navy-track-pants/1088888/buy</t>
+          <t>https://www.flipkart.com/duve-fashion-regular-fit-women-black-blue-trousers/p/itmdf447d458e9b1?pid=TROGFY4ZH77GGGZS&amp;lid=LSTTROGFY4ZH77GGGZSC6EL3R&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_22&amp;otracker=search&amp;iid=en_6V8fkS15lz92LDFMwstCZPqw3Xym6iC27gDJNqyq%2FReGfwJmWoJgfQGev5m3UmyvOHQHiKKKr04EMYZrM8UVCA%3D%3D&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -1725,30 +1725,30 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Majestic Man</t>
+          <t>JUGULAR</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Men Slim Fit Light Blue Cotton Blend Trousers</t>
+          <t>Men's Slim Fit Track pants</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/l1pc3gw0/trouser/7/5/5/32-trsd401bk-majestic-man-original-imagd7pgghbjjaue.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/71r3RWbLWAL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/majestic-man-slim-fit-men-light-blue-trousers/p/itm5111ee2191d74?pid=TROGD7PMJUX6GEKT&amp;lid=LSTTROGD7PMJUX6GEKTNHUZUO&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_9&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROGD7PMJUX6GEKT.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/JUGULAR-Solid-Regular-Cargo-X-Large/dp/B0855KB2HM/ref=sr_1_7?keywords=pants&amp;qid=1682096762&amp;sr=8-7</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -1758,30 +1758,30 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Majestic Man</t>
+          <t>Amazon Brand - Inkast Denim Co.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Slim Fit Formal Trousers</t>
+          <t>Men's Regular Fit Polo Shirt</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61cncOh6ZbL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/91xNPItUNNL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Majestic-Man-Slim-Formal-Trousers/dp/B0B1LNCQRN/ref=sr_1_46?keywords=pants&amp;qid=1682094818&amp;sr=8-46</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTc4MDk5NjIzNzQ0OTU2OjE2ODIwOTY3NjI6c3BfbXRmOjIwMTAzOTI5ODEwMTk4OjowOjo&amp;url=%2FAmazon-Brand-Inkast-Regular-16_Black%2Fdp%2FB08FS4T5NL%2Fref%3Dsr_1_23_sspa%3Fkeywords%3Dpants%26qid%3D1682096762%26sr%3D8-23-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -1791,30 +1791,30 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ENDEAVOUR WEAR</t>
+          <t>Laabha</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Men's Regular Fit Trackpants</t>
+          <t>Solid Track Pants</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61R11o1DC+S._AC_UL400_.jpg</t>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21975652/2023/2/21/65fb8b94-d83d-4354-bca2-395279f286041676959772591-Laabha-Women-Track-Pants-6261676959771524-1.jpg</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/ENDEAVOUR-WEAR-Stretchable-Regular-Joggers/dp/B08Z3LWZ8K/ref=sr_1_13?keywords=pants&amp;qid=1682094818&amp;sr=8-13</t>
+          <t>https://www.myntra.com/track-pants/laabha/laabha-solid-track-pants/21975652/buy</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -1824,30 +1824,30 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Chromozome</t>
+          <t>Hubberholme</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Men's Regular Fit Cotton Track Pants</t>
+          <t>Men Track Pants</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61HwCsXHbzL._AC_UL400_.jpg</t>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/1088888/2016/5/11/11462961543084-Hubberholme-Navy-Tailored-Fit-Track-Pants-921462961542776-1.jpg</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Chromozome-Cotton-Track-Pants-8902733390194_S8925-Black_Large/dp/B0741CVJL8/ref=sr_1_53?keywords=pants&amp;qid=1682094818&amp;sr=8-53</t>
+          <t>https://www.myntra.com/track-pants/hubberholme/hubberholme-navy-track-pants/1088888/buy</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -1857,30 +1857,30 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Urbano Juniors</t>
+          <t>Hubberholme</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Boy's Slim Fit Jeans</t>
+          <t>Men Track Pants</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51rRhR1yzaL._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0NzM5MzEyMTY3MTQzNDEyOjE2ODIwOTQ4MTg6c3BfYXRmOjIwMDc2OTE2ODI5OTk4OjowOjo&amp;url=%2FUrbano-Juniors-Black-Stretch-junepsboy-black-9-10%2Fdp%2FB085R9FXF4%2Fref%3Dsr_1_1_sspa%3Fkeywords%3Dpants%26qid%3D1682094818%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1%26smid%3DA3FAUFPGLEWDFF</t>
+          <t>https://www.myntra.com/track-pants/hubberholme/hubberholme-navy-track-pants/1189633/buy</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -1890,30 +1890,30 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>Majestic Man</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Slim Casual Trousers</t>
+          <t>Men Slim Fit Light Blue Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>537</v>
+        <v>498</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71eeiY8CF4L._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/l1pc3gw0/trouser/7/5/5/32-trsd401bk-majestic-man-original-imagd7pgghbjjaue.jpeg?q=70</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Stretchable-AW19TRS-ESS-4_Light-Grey_32/dp/B07SK1X4H9/ref=sr_1_15?keywords=pants&amp;qid=1682094818&amp;sr=8-15</t>
+          <t>https://www.flipkart.com/majestic-man-slim-fit-men-light-blue-trousers/p/itm5111ee2191d74?pid=TROGD7PMJUX6GEKT&amp;lid=LSTTROGD7PMJUX6GEKTNHUZUO&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_23&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROGD7PMJUX6GEKT.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -1923,30 +1923,30 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FUBAR</t>
+          <t>Majestic Man</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Men Slim Fit Cream Cotton Blend Trousers</t>
+          <t>Slim Fit Formal Trousers for Men</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>549</v>
+        <v>498</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/a/f/z/32-kctr-2121-crm-fubar-original-imafzy38ewvc3zzw-bb.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/61cncOh6ZbL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/fubar-slim-fit-men-cream-trousers/p/itm1c780fa978946?pid=TROFZYPZEZHNZFAT&amp;lid=LSTTROFZYPZEZHNZFATGWUU5R&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_30&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROFZYPZEZHNZFAT.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/Majestic-Man-Slim-Formal-Trousers/dp/B0B1LNCQRN/ref=sr_1_46?keywords=pants&amp;qid=1682096762&amp;sr=8-46</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -1956,30 +1956,30 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SASSAFRAS</t>
+          <t>Q-Rious</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Women Relaxed Light Green Cotton Blend Trousers</t>
+          <t>Women Regular Fit Pink Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>554</v>
+        <v>499</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/g/f/n/m-sfpant5301-sassafras-original-imafvb5hmwn4ghkz-bb.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/i/6/f/36-jg-b2-brick-q-rious-original-imafw7g9ftfp6xtc-bb.jpeg?q=70</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/sassafras-relaxed-women-light-green-trousers/p/itm3ac7f52e9f2ad?pid=TROFVB5HQVARSG7G&amp;lid=LSTTROFVB5HQVARSG7GBIBDBS&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_34&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROFVB5HQVARSG7G.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/q-rious-regular-fit-women-pink-trousers/p/itma3a3d91fd847e?pid=TROFW7G9J9ZHCC7E&amp;lid=LSTTROFW7G9J9ZHCC7ENQCEAZ&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_34&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROFW7G9J9ZHCC7E.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -1989,30 +1989,30 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SASSAFRAS</t>
+          <t>Urbano Juniors</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Women Relaxed Pink Cotton Blend Trousers</t>
+          <t>Boy's Slim Fit Jeans</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>554</v>
+        <v>499</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/l/n/7/xxl-sfpant5302-sassafras-original-imafvb5h3ufh9hry-bb.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/51rRhR1yzaL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/sassafras-relaxed-women-pink-trousers/p/itm50ef3bd840444?pid=TROFVB5HCZZRSEA6&amp;lid=LSTTROFVB5HCZZRSEA6IYSABY&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_14&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROFVB5HCZZRSEA6.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTc4MDk5NjIzNzQ0OTU2OjE2ODIwOTY3NjI6c3BfYXRmOjIwMDc2OTE2ODI5OTk4OjowOjo&amp;url=%2FUrbano-Juniors-Black-Stretch-junepsboy-black-9-10%2Fdp%2FB085R9FXF4%2Fref%3Dsr_1_1_sspa%3Fkeywords%3Dpants%26qid%3D1682096762%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1%26smid%3DA3FAUFPGLEWDFF</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -2022,30 +2022,30 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Technosport</t>
+          <t>Chromozome</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Men Track Pants</t>
+          <t>Men's Regular Fit Cotton Track Pants</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>570</v>
+        <v>499</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/61HwCsXHbzL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/technosport/-technosport-men-track-pants-/21753700/buy</t>
+          <t>https://www.amazon.com/Chromozome-Cotton-Track-Pants-8902733390194_S8925-Black_Large/dp/B0741CVJL8/ref=sr_1_53?keywords=pants&amp;qid=1682096762&amp;sr=8-53</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -2055,30 +2055,30 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Technosport</t>
+          <t>ENDEAVOUR WEAR</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Men Track Pants</t>
+          <t>Men's Regular Fit Trackpants</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>570</v>
+        <v>499</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21753698/2023/1/30/b884fb52-56d9-4a71-af85-4762246f78671675070215773TechnosportDenimMenTrackPant1.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61R11o1DC+S._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/technosport/-technosport-men-track-pants/21753698/buy</t>
+          <t>https://www.amazon.com/ENDEAVOUR-WEAR-Stretchable-Regular-Joggers/dp/B08Z3LWZ8K/ref=sr_1_13?keywords=pants&amp;qid=1682096762&amp;sr=8-13</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -2088,30 +2088,30 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Alan Jones Clothing</t>
+          <t>Amazon Brand - Symbol</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Men's Slim Fit Track Pants</t>
+          <t>Men's Slim Casual Trousers</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>579</v>
+        <v>537</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81t3XS8UciL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71eeiY8CF4L._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Alan-Jones-Solid-Joggers-JOG18-D95-MIL-L_Large_Melange/dp/B07C9T8LL1/ref=sr_1_17?keywords=pants&amp;qid=1682094818&amp;sr=8-17</t>
+          <t>https://www.amazon.com/Amazon-Brand-Stretchable-AW19TRS-ESS-4_Light-Grey_32/dp/B07SK1X4H9/ref=sr_1_15?keywords=pants&amp;qid=1682096762&amp;sr=8-15</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -2121,30 +2121,30 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>FUBAR</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Men Dress Pants</t>
+          <t>Men Slim Fit Cream Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>582</v>
+        <v>549</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/717-WaIUi9L._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/a/f/z/32-kctr-2121-crm-fubar-original-imafzy38ewvc3zzw-bb.jpeg?q=70</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Stretchable-Trousers-SY-AW19-MFT-049_Light/dp/B07YT1PVNJ/ref=sr_1_8?keywords=pants&amp;qid=1682094818&amp;sr=8-8</t>
+          <t>https://www.flipkart.com/fubar-slim-fit-men-cream-trousers/p/itm1c780fa978946?pid=TROFZYPZEZHNZFAT&amp;lid=LSTTROFZYPZEZHNZFATGWUU5R&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_29&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROFZYPZEZHNZFAT.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -2154,30 +2154,30 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Okane</t>
+          <t>SASSAFRAS</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Men Lounge Pants</t>
+          <t>Women Relaxed Light Green Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>584</v>
+        <v>554</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/g/f/n/m-sfpant5301-sassafras-original-imafvb5hmwn4ghkz-bb.jpeg?q=70</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/okane/-okane-men-lounge-pants/22144694/buy</t>
+          <t>https://www.flipkart.com/sassafras-relaxed-women-light-green-trousers/p/itm3ac7f52e9f2ad?pid=TROFVB5HQVARSG7G&amp;lid=LSTTROFVB5HQVARSG7GBIBDBS&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_36&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROFVB5HQVARSG7G.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -2187,30 +2187,30 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Okane</t>
+          <t>SASSAFRAS</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Men Lounge Pants</t>
+          <t>Women Relaxed Pink Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>584</v>
+        <v>554</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/l/n/7/xxl-sfpant5302-sassafras-original-imafvb5h3ufh9hry-bb.jpeg?q=70</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/okane/-okane-men-lounge-pants/22281166/buy</t>
+          <t>https://www.flipkart.com/sassafras-relaxed-women-pink-trousers/p/itm50ef3bd840444?pid=TROFVB5HCZZRSEA6&amp;lid=LSTTROFVB5HCZZRSEA6IYSABY&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_13&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROFVB5HCZZRSEA6.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -2220,30 +2220,30 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>plusS</t>
+          <t>Alan Jones Clothing</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Women Track Pants</t>
+          <t>Men's Slim Fit Track pants</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/81t3XS8UciL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/pluss/pluss-orange-track-pants/1873525/buy</t>
+          <t>https://www.amazon.com/Alan-Jones-Solid-Joggers-JOG18-D95-MIL-L_Large_Melange/dp/B07C9T8LL1/ref=sr_1_17?keywords=pants&amp;qid=1682096762&amp;sr=8-17</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -2253,30 +2253,30 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>plusS</t>
+          <t>Amazon Brand - Symbol</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Women Track Pants</t>
+          <t>Men Dress Pants</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/717-WaIUi9L._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/pluss/pluss-navy-track-pants/1875899/buy</t>
+          <t>https://www.amazon.com/Amazon-Brand-Stretchable-Trousers-SY-AW19-MFT-049_Light/dp/B07YT1PVNJ/ref=sr_1_8?keywords=pants&amp;qid=1682096762&amp;sr=8-8</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -2286,30 +2286,30 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Peppyzone</t>
+          <t>Okane</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Camouflage Track Pant</t>
+          <t>Men Lounge Pants</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/610BjJqZ67L._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/LionRoar-Camouflage-Track-Pants-Large/dp/B079WM2V1H/ref=sr_1_27?keywords=pants&amp;qid=1682094818&amp;sr=8-27</t>
+          <t>https://www.myntra.com/lounge-pants/okane/-okane-men-lounge-pants/22281166/buy</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -2319,30 +2319,30 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>VIMAL JONNEY</t>
+          <t>Okane</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Pack Of 2 Track Pants</t>
+          <t>Men Lounge Pants</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71MwNdwIc1L._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/VIMAL-Cotton-Trackpants-Multicolour-D10ND10A-S/dp/B01BJZ2N8G/ref=sr_1_26?keywords=pants&amp;qid=1682094818&amp;sr=8-26</t>
+          <t>https://www.myntra.com/lounge-pants/okane/-okane-men-lounge-pants/22144694/buy</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -2352,30 +2352,30 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Generic</t>
+          <t>plusS</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>RR Fashion Men's Regular Formal Trouser</t>
+          <t>Women Track Pants</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51TaUVGTOxL._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Fashion-Regular-Formal-Trouser-Black/dp/B0BRZT69HF/ref=sr_1_29?keywords=pants&amp;qid=1682094818&amp;sr=8-29</t>
+          <t>https://www.myntra.com/track-pants/pluss/pluss-navy-track-pants/1875899/buy</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -2385,30 +2385,30 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SASSAFRAS</t>
+          <t>plusS</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Women Relaxed Black Cotton Blend Trousers</t>
+          <t>Women Track Pants</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/n/w/j/l-sfpant5303-sassafras-original-imafvb5hhcmesthk-bb.jpeg?q=70</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/sassafras-relaxed-women-black-trousers/p/itmdf31fe89be36d?pid=TROFVB5HTZP7B2DP&amp;lid=LSTTROFVB5HTZP7B2DPPLTLFQ&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_35&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROFVB5HTZP7B2DP.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.myntra.com/track-pants/pluss/pluss-orange-track-pants/1873525/buy</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -2418,12 +2418,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Chromozome</t>
+          <t>SASSAFRAS</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Slim Fit Cotton Track Pant</t>
+          <t>Women Relaxed Black Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -2431,17 +2431,17 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71WygQ83NVL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/n/w/j/l-sfpant5303-sassafras-original-imafvb5hhcmesthk-bb.jpeg?q=70</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0NzM5MzEyMTY3MTQzNDEyOjE2ODIwOTQ4MTg6c3BfYXRmOjIwMDQ1NDk4NDgyOTk4OjowOjo&amp;url=%2FChromozome-Cotton-Track-Pants-8902733355223_S6762-Black-M%2Fdp%2FB06WD5BYWV%2Fref%3Dsr_1_4_sspa%3Fkeywords%3Dpants%26qid%3D1682094818%26sr%3D8-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.flipkart.com/sassafras-relaxed-women-black-trousers/p/itmdf31fe89be36d?pid=TROFVB5HTZP7B2DP&amp;lid=LSTTROFVB5HTZP7B2DPPLTLFQ&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_19&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROFVB5HTZP7B2DP.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -2451,30 +2451,30 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Smarty Pants</t>
+          <t>Chromozome</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Women Floral Printed Lounge Pants</t>
+          <t>Men Slim Fit Polyester, Cotton Track Pant</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>636</v>
+        <v>599</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/71WygQ83NVL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/smarty-pants/smarty-pants-women-blue--white-floral-printed-lounge-pants/18034886/buy</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTc4MDk5NjIzNzQ0OTU2OjE2ODIwOTY3NjI6c3BfYXRmOjIwMDQ1NDk4NDgyOTk4OjowOjo&amp;url=%2FChromozome-Cotton-Track-Pants-8902733355223_S6762-Black-M%2Fdp%2FB06WD5BYWV%2Fref%3Dsr_1_4_sspa%3Fkeywords%3Dpants%26qid%3D1682096762%26sr%3D8-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -2484,30 +2484,30 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>T2F</t>
+          <t>Generic</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Pack Of 5 Printed Track Pants</t>
+          <t>RR Fashion Men's Regular Formal Trouser</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>646</v>
+        <v>599</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71qEbCkqtRL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51TaUVGTOxL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0NzM5MzEyMTY3MTQzNDEyOjE2ODIwOTQ4MTg6c3BfbXRmOjIwMDUwMjUwNzU2MzA1OjowOjo&amp;url=%2FT2F-Track-Black-Violet-Yellow%2Fdp%2FB01NCORE74%2Fref%3Dsr_1_21_sspa%3Fkeywords%3Dpants%26qid%3D1682094818%26sr%3D8-21-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/Fashion-Regular-Formal-Trouser-Black/dp/B0BRZT69HF/ref=sr_1_29?keywords=pants&amp;qid=1682096762&amp;sr=8-29</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -2517,30 +2517,30 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Smarty Pants</t>
+          <t>Peppyzone</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Women Cotton Lounge Pants</t>
+          <t>Men's Camouflage Regular Fit Track Pant</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>649</v>
+        <v>599</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21450340/2023/1/6/f7b41e5a-6a82-4a68-9c92-e1ce64857e901673020847261SmartyPantswomenscottonrosepinkcoloraztecprintloungewearpaja1.jpg</t>
+          <t>https://m.media-amazon.com/images/I/610BjJqZ67L._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/smarty-pants/smarty-pants-women-printed-cotton-lounge-pants/21450340/buy</t>
+          <t>https://www.amazon.com/LionRoar-Camouflage-Track-Pants-Large/dp/B079WM2V1H/ref=sr_1_27?keywords=pants&amp;qid=1682096762&amp;sr=8-27</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -2550,30 +2550,30 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Smarty Pants</t>
+          <t>VIMAL JONNEY</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Women Cotton Lounge Pants</t>
+          <t>Men's Regular Fit Track pants(Pack of 2)</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>649</v>
+        <v>599</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/71MwNdwIc1L._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/smarty-pants/smarty-pants-women-printed-cotton-lounge-pants/21450338/buy</t>
+          <t>https://www.amazon.com/VIMAL-Cotton-Trackpants-Multicolour-D10ND10A-S/dp/B01BJZ2N8G/ref=sr_1_26?keywords=pants&amp;qid=1682096762&amp;sr=8-26</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -2583,16 +2583,16 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Okane</t>
+          <t>Smarty Pants</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Men Lounge Pants</t>
+          <t>Women Floral Printed Lounge Pants</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2601,12 +2601,12 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/okane/-okane-men-lounge-pants/22144700/buy</t>
+          <t>https://www.myntra.com/lounge-pants/smarty-pants/smarty-pants-women-blue--white-floral-printed-lounge-pants/18034886/buy</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -2616,30 +2616,30 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Zivame</t>
+          <t>T2F</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Lounge Pants</t>
+          <t>Boys Printed Track Pants (Pack of 5)</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>669</v>
+        <v>646</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/71qEbCkqtRL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/zivame/zivame-green-lounge-pants-/18706378/buy</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTc4MDk5NjIzNzQ0OTU2OjE2ODIwOTY3NjI6c3BfbXRmOjIwMDUwMjUwNzU2MzA1OjowOjo&amp;url=%2FT2F-Track-Black-Violet-Yellow%2Fdp%2FB01NCORE74%2Fref%3Dsr_1_22_sspa%3Fkeywords%3Dpants%26qid%3D1682096762%26sr%3D8-22-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -2649,30 +2649,30 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Neostreak</t>
+          <t>Smarty Pants</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Men's Slim Fit Jeans</t>
+          <t>Women Cotton Lounge Pants</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>669</v>
+        <v>649</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71hDf7v4fzL._AC_UL400_.jpg</t>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21450340/2023/1/6/f7b41e5a-6a82-4a68-9c92-e1ce64857e901673020847261SmartyPantswomenscottonrosepinkcoloraztecprintloungewearpaja1.jpg</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0NzM5MzEyMTY3MTQzNDEyOjE2ODIwOTQ4MTg6c3BfYnRmOjIwMDQxMDI1NDg2NzA0OjowOjo&amp;url=%2FNeostreak-Mens-Jeans-neoepsjean-bla-Black_38%2Fdp%2FB07L6YRFYT%2Fref%3Dsr_1_58_sspa%3Fkeywords%3Dpants%26qid%3D1682094818%26sr%3D8-58-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.myntra.com/lounge-pants/smarty-pants/smarty-pants-women-printed-cotton-lounge-pants/21450340/buy</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -2682,30 +2682,30 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Amazon Brand - Inkast Denim Co.</t>
+          <t>Smarty Pants</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Men's Regular Casual Trousers</t>
+          <t>Women Cotton Lounge Pants</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>680</v>
+        <v>649</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71o4-mxo2bL._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Straight-INKCT-001_Lt/dp/B08FJNZDW3/ref=sr_1_43?keywords=pants&amp;qid=1682094818&amp;sr=8-43</t>
+          <t>https://www.myntra.com/lounge-pants/smarty-pants/smarty-pants-women-printed-cotton-lounge-pants/21450338/buy</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -2715,30 +2715,30 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Neostreak</t>
+          <t>Okane</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Men's Slim Fit Jeans</t>
+          <t>Men Lounge Pants</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>689</v>
+        <v>656</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81RuOi+8grL._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Neostreak-Jeans-neoepsjean-lgrey-Light-Grey_38/dp/B07L6YWLQX/ref=sr_1_44?keywords=pants&amp;qid=1682094818&amp;sr=8-44</t>
+          <t>https://www.myntra.com/lounge-pants/okane/-okane-men-lounge-pants/22144700/buy</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -2748,30 +2748,30 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>Neostreak</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Slim Casual Pants</t>
+          <t>Men's Slim Fit Stretchable Jeans</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>689</v>
+        <v>669</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71woFPwao4L._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71hDf7v4fzL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Symbol-AW17TRS-02-12_Black-Coffee_28/dp/B0B3PLK922/ref=sr_1_40?keywords=pants&amp;qid=1682094818&amp;sr=8-40</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTc4MDk5NjIzNzQ0OTU2OjE2ODIwOTY3NjI6c3BfYnRmOjIwMDQxMDI1NDg2NzA0OjowOjo&amp;url=%2FNeostreak-Mens-Jeans-neoepsjean-bla-Black_38%2Fdp%2FB07L6YRFYT%2Fref%3Dsr_1_58_sspa%3Fkeywords%3Dpants%26qid%3D1682096762%26sr%3D8-58-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -2781,30 +2781,30 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>Amazon Brand - Inkast Denim Co.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Women Track Pants</t>
+          <t>Men's Regular Casual Trousers</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>699</v>
+        <v>680</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21366480/2022/12/31/d310c9d4-84ce-4584-9f74-4b9b5898eb921672470031607WomenPrintedJoggers1.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71o4-mxo2bL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/max/max-women-track-pants/21366480/buy</t>
+          <t>https://www.amazon.com/Amazon-Brand-Straight-INKCT-001_Lt/dp/B08FJNZDW3/ref=sr_1_43?keywords=pants&amp;qid=1682096762&amp;sr=8-43</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -2814,30 +2814,30 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>CUPID</t>
+          <t>Amazon Brand - Symbol</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Plus Size Cotton Night Wear</t>
+          <t>Men's Slim Casual Pants</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51BADzjD4nL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71woFPwao4L._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/CUPID-Regular-Womens-Track-Pants/dp/B01CA941PS/ref=sr_1_42?keywords=pants&amp;qid=1682094818&amp;sr=8-42</t>
+          <t>https://www.amazon.com/Amazon-Brand-Symbol-AW17TRS-02-12_Black-Coffee_28/dp/B0B3PLK922/ref=sr_1_40?keywords=pants&amp;qid=1682096762&amp;sr=8-40</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -2847,30 +2847,30 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>Neostreak</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Men's Regular Casual Pants</t>
+          <t>Men's Slim Fit Jeans</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>719</v>
+        <v>689</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61xJvbhaq6L._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81RuOi+8grL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Symbol-Regular-AW17TRS-01-12_Blue/dp/B0B3PT87NL/ref=sr_1_37?keywords=pants&amp;qid=1682094818&amp;sr=8-37</t>
+          <t>https://www.amazon.com/Neostreak-Jeans-neoepsjean-lgrey-Light-Grey_38/dp/B07L6YWLQX/ref=sr_1_44?keywords=pants&amp;qid=1682096762&amp;sr=8-44</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -2880,30 +2880,30 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>CUPID</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Men Dress Pants</t>
+          <t>Women Regular Fit Cotton Blend Plain Comfortable Night Track Pant, Lower, Sports Trouser, Joggers, Lounge Wear and Daily Gym Wear for Ladies, M to 7XL</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>722</v>
+        <v>699</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61e0ta9X9zL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51BADzjD4nL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Stretchable-Trousers-SY-AW19-MFT-050_Black_34W/dp/B07YT1GKKH/ref=sr_1_11?keywords=pants&amp;qid=1682094818&amp;sr=8-11</t>
+          <t>https://www.amazon.com/CUPID-Regular-Womens-Track-Pants/dp/B01CA941PS/ref=sr_1_42?keywords=pants&amp;qid=1682096762&amp;sr=8-42</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -2913,30 +2913,30 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>HIGHLANDER</t>
+          <t>max</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Men Slim Fit Beige Cotton Blend Trousers</t>
+          <t>Women Track Pants</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>743</v>
+        <v>699</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/4/k/l/34-hltr003916-highlander-original-imafw2jvpnjx4a6g-bb.jpeg?q=70</t>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21366480/2022/12/31/d310c9d4-84ce-4584-9f74-4b9b5898eb921672470031607WomenPrintedJoggers1.jpg</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/highlander-slim-fit-men-beige-trousers/p/itmfd7m67xkgxdwz?pid=TROF34N4YVEDG8DV&amp;lid=LSTTROF34N4YVEDG8DVKECPT6&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_24&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROF34N4YVEDG8DV.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.myntra.com/track-pants/max/max-women-track-pants/21366480/buy</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -2946,30 +2946,30 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>Smarty Pants</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Men's Regular Casual Trousers</t>
+          <t>Women Solid Track Pants</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>749</v>
+        <v>704</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61YHtYYabpL._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Straight-AW-SY-MCT-1151_Lt-Grey_32W/dp/B07TMNTV31/ref=sr_1_35?keywords=pants&amp;qid=1682094818&amp;sr=8-35</t>
+          <t>https://www.myntra.com/track-pants/smarty-pants/smarty-pants-women-rose-solid-track-pants/17165186/buy</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -2979,30 +2979,30 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BEING HUMAN</t>
+          <t>Amazon Brand - Symbol</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Men Slim Fit Blue Pure Cotton Trousers</t>
+          <t>Men's Regular Casual Pants</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>749</v>
+        <v>719</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/w/c/c/36-bhndclv22501-lt-blue-being-human-original-imagn5hpkgv6ny3s.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/61xJvbhaq6L._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/being-human-slim-fit-men-blue-trousers/p/itmc564b6d0268e2?pid=TROGN5HPUWYMUVPC&amp;lid=LSTTROGN5HPUWYMUVPC5CAC7Y&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_11&amp;otracker=search&amp;iid=en_bdhPJXo3RcktD3Cx9%2BQTE4WCFYCniBOjAtt4CRNGXwNdcoFQ28Euq4M7ZWs3iPCUZCXea%2B97PX75IEV%2FfDnvKg%3D%3D&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/Amazon-Brand-Symbol-Regular-AW17TRS-01-12_Blue/dp/B0B3PT87NL/ref=sr_1_37?keywords=pants&amp;qid=1682096762&amp;sr=8-37</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -3017,25 +3017,25 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Men Casual Trousers</t>
+          <t>Men Dress Pants</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>749</v>
+        <v>722</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/718kU7VISWL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61e0ta9X9zL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Symbol-Chinos-AW-SY-MCT-1145_Grey_32W/dp/B07CYVB7L8/ref=sr_1_9?keywords=pants&amp;qid=1682094818&amp;sr=8-9</t>
+          <t>https://www.amazon.com/Amazon-Brand-Stretchable-Trousers-SY-AW19-MFT-050_Black_34W/dp/B07YT1GKKH/ref=sr_1_11?keywords=pants&amp;qid=1682096762&amp;sr=8-11</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -3045,30 +3045,30 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>GO COLORS</t>
+          <t>HIGHLANDER</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Women Casual Pants</t>
+          <t>Men Slim Fit Beige Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51AGIfah5+L._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/4/k/l/34-hltr003916-highlander-original-imafw2jvpnjx4a6g-bb.jpeg?q=70</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/GO-COLORS-Women-Viscose-Casual/dp/B098FNJZP7/ref=sr_1_18?keywords=pants&amp;qid=1682094818&amp;sr=8-18</t>
+          <t>https://www.flipkart.com/highlander-slim-fit-men-beige-trousers/p/itmfd7m67xkgxdwz?pid=TROF34N4YVEDG8DV&amp;lid=LSTTROF34N4YVEDG8DVKECPT6&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_26&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROF34N4YVEDG8DV.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -3078,30 +3078,30 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Van Heusen</t>
+          <t>GO COLORS</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Lounge Pants</t>
+          <t>Women's Regular Fit Pant</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/41n5ru9w0yL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51AGIfah5+L._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Van-Heusen-Stretch-Pockets-55303_BLACK_L/dp/B07J5924ZT/ref=sr_1_48?keywords=pants&amp;qid=1682094818&amp;sr=8-48</t>
+          <t>https://www.amazon.com/GO-COLORS-Women-Viscose-Casual/dp/B098FNJZP7/ref=sr_1_18?keywords=pants&amp;qid=1682096762&amp;sr=8-18</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -3111,30 +3111,30 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Smarty Pants</t>
+          <t>Amazon Brand - Symbol</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Women 2-Pcs Printed Night suit</t>
+          <t>Men's Regular Casual Trousers</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>783</v>
+        <v>749</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/61YHtYYabpL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/night-suits/smarty-pants/smarty-pants-women-2-pieces-printed-shirt-with-lounge-pants/21615980/buy</t>
+          <t>https://www.amazon.com/Amazon-Brand-Straight-AW-SY-MCT-1151_Lt-Grey_32W/dp/B07TMNTV31/ref=sr_1_34?keywords=pants&amp;qid=1682096762&amp;sr=8-34</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -3144,30 +3144,30 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Smarty Pants</t>
+          <t>Amazon Brand - Symbol</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Women 2-Pcs Printed Night suit</t>
+          <t>Men's Straight Casual Trousers</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>783</v>
+        <v>749</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21615984/2023/1/19/7c9861ac-b1ef-4fb4-afba-4b1c3b5036b31674124520928SmartyPantswomenssilksatinlilaccolorbabyelephantprintnightsu1.jpg</t>
+          <t>https://m.media-amazon.com/images/I/718kU7VISWL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/night-suits/smarty-pants/smarty-pants-women-2-pieces-printed-shirt-with-lounge-pants/21615984/buy</t>
+          <t>https://www.amazon.com/Amazon-Brand-Symbol-Chinos-AW-SY-MCT-1145_Grey_32W/dp/B07CYVB7L8/ref=sr_1_9?keywords=pants&amp;qid=1682096762&amp;sr=8-9</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -3177,30 +3177,30 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MAYSIXTY</t>
+          <t>BEWAKOOF</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Printed Lounge Pants</t>
+          <t>Women Regular Fit Black Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>799</v>
+        <v>749</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/kp78e4w0/trouser/z/e/l/s-293073-bewakoof-original-imag3hprh7zgxbyf.jpeg?q=70</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/maysixty/maysixty-printed-lounge-pants/21895116/buy</t>
+          <t>https://www.flipkart.com/bewakoof-regular-fit-women-black-trousers/p/itm0011ead590ac3?pid=TROG3HPRZTQYFGZN&amp;lid=LSTTROG3HPRZTQYFGZND3BVCN&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_37&amp;otracker=search&amp;iid=en_6V8fkS15lz92LDFMwstCZPqw3Xym6iC27gDJNqyq%2FRcCPlRlpuC%2F34%2FztmcktGTnMFqchYFk0btzfEX6lYzSUA%3D%3D&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -3210,30 +3210,30 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Whitewhale</t>
+          <t>Van Heusen</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Cotton Printed Harem Pants</t>
+          <t>Athleisure Stretch Lounge Pants With Pockets</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>799</v>
+        <v>759</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71liwRRHS5L._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/41n5ru9w0yL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Whitewhale-Cotton-Printed-Pockets-Trousers/dp/B08LVWFK2J/ref=sr_1_16?keywords=pants&amp;qid=1682094818&amp;sr=8-16</t>
+          <t>https://www.amazon.com/Van-Heusen-Stretch-Pockets-55303_BLACK_L/dp/B07J5924ZT/ref=sr_1_48?keywords=pants&amp;qid=1682096762&amp;sr=8-48</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -3243,16 +3243,16 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MAYSIXTY</t>
+          <t>9rasa</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Printed Lounge Pants</t>
+          <t>Dhoti Pants</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>799</v>
+        <v>779</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3261,12 +3261,12 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/maysixty/maysixty-printed-lounge-pants/21894996/buy</t>
+          <t>https://www.myntra.com/dhotis/9rasa/9rasa-maroon-dhoti-pants/2049821/buy</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -3276,30 +3276,30 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MAYSIXTY</t>
+          <t>Smarty Pants</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Printed Lounge Pants</t>
+          <t>Women 2-Pcs Printed Night suit</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21615984/2023/1/19/7c9861ac-b1ef-4fb4-afba-4b1c3b5036b31674124520928SmartyPantswomenssilksatinlilaccolorbabyelephantprintnightsu1.jpg</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/maysixty/maysixty-printed-lounge-pants/21895118/buy</t>
+          <t>https://www.myntra.com/night-suits/smarty-pants/smarty-pants-women-2-pieces-printed-shirt-with-lounge-pants/21615984/buy</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -3309,16 +3309,16 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MAYSIXTY</t>
+          <t>Smarty Pants</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Printed Lounge Pants</t>
+          <t>Women 2-Pcs Printed Night suit</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3327,12 +3327,12 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/maysixty/maysixty-printed-lounge-pants/21894988/buy</t>
+          <t>https://www.myntra.com/night-suits/smarty-pants/smarty-pants-women-2-pieces-printed-shirt-with-lounge-pants/21615980/buy</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -3342,12 +3342,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>MAYSIXTY</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Men Stretch Casual Trouser</t>
+          <t>Printed Lounge Pants</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -3355,17 +3355,17 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/610VwfVfxeL._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Symbol-Trousers-AW-SY-MCT-1171_White_34/dp/B07XF752FV/ref=sr_1_50?keywords=pants&amp;qid=1682094818&amp;sr=8-50</t>
+          <t>https://www.myntra.com/lounge-pants/maysixty/maysixty-printed-lounge-pants/21895118/buy</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -3375,12 +3375,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>9rasa</t>
+          <t>MAYSIXTY</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Cotton Dhoti Pants</t>
+          <t>Printed Lounge Pants</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -3393,12 +3393,12 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/dhotis/9rasa/9rasa-cotton-dhoti-pants/22442836/buy</t>
+          <t>https://www.myntra.com/lounge-pants/maysixty/maysixty-printed-lounge-pants/21894996/buy</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -3408,12 +3408,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TriPole</t>
+          <t>Amazon Brand - Symbol</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Men's Trekking And Hiking Pants</t>
+          <t>Men Stretch Casual Trouser</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -3421,17 +3421,17 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71E0860E-mL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/610VwfVfxeL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Tripole-Trekking-Hiking-Pants-Trousers/dp/B09YHZHV8K/ref=sr_1_34?keywords=pants&amp;qid=1682094818&amp;sr=8-34</t>
+          <t>https://www.amazon.com/Amazon-Brand-Symbol-Trousers-AW-SY-MCT-1171_White_34/dp/B07XF752FV/ref=sr_1_50?keywords=pants&amp;qid=1682096762&amp;sr=8-50</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -3441,16 +3441,16 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>plusS</t>
+          <t>MAYSIXTY</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Women Track Pants</t>
+          <t>Printed Lounge Pants</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>841</v>
+        <v>799</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3459,12 +3459,12 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/pluss/pluss-black-track-pants/1875898/buy</t>
+          <t>https://www.myntra.com/lounge-pants/maysixty/maysixty-printed-lounge-pants/21894988/buy</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -3474,30 +3474,30 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>BEWAKOOF</t>
+          <t>TriPole</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Men Regular Fit Blue Pure Cotton Trousers</t>
+          <t>Men's Regular Fit Polyester Trekking And Hiking Pants And Trousers</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>849</v>
+        <v>799</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/i/b/2/30-330846-bewakoof-original-imaghdykfmpathjf.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/71E0860E-mL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/bewakoof-regular-fit-men-blue-trousers/p/itm1d9b0b29a7ba0?pid=TROG6P9FZBGUTZNG&amp;lid=LSTTROG6P9FZBGUTZNGK87B3C&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_32&amp;otracker=search&amp;iid=en_bdhPJXo3RcktD3Cx9%2BQTE4WCFYCniBOjAtt4CRNGXwNmuohdAElBQov1jaN%2Bt92GXj8%2FobtTWn3nhtc%2Fkj0TOg%3D%3D&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/Tripole-Trekking-Hiking-Pants-Trousers/dp/B09YHZHV8K/ref=sr_1_35?keywords=pants&amp;qid=1682096762&amp;sr=8-35</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -3507,16 +3507,16 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Hancock</t>
+          <t>MAYSIXTY</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Checked Lounge Pants</t>
+          <t>Printed Lounge Pants</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>892</v>
+        <v>799</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3525,12 +3525,12 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/hancock/hancock-checked-lounge-pants/21584532/buy</t>
+          <t>https://www.myntra.com/lounge-pants/maysixty/maysixty-printed-lounge-pants/21895116/buy</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -3540,30 +3540,30 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Hancock</t>
+          <t>Whitewhale</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Checked Lounge Pants</t>
+          <t>Men's Loose Fit Cotton Trousers</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>892</v>
+        <v>799</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21584536/2023/2/6/7e0da1c6-e837-44ef-b3a1-30fd862a8a761675676567177-Hancock-Men-Lounge-Pants-4561675676566549-1.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71liwRRHS5L._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/hancock/hancock-checked-lounge-pants/21584536/buy</t>
+          <t>https://www.amazon.com/Whitewhale-Cotton-Printed-Pockets-Trousers/dp/B08LVWFK2J/ref=sr_1_16?keywords=pants&amp;qid=1682096762&amp;sr=8-16</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -3573,30 +3573,30 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Hancock</t>
+          <t>plusS</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Checked Lounge Pants</t>
+          <t>Women Track Pants</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>892</v>
+        <v>841</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21584534/2023/3/6/6bcc7ad0-0a9b-43f0-a23d-32896f47e3881678080124295-Hancock-Checked-Lounge-Pants-2751678080123561-1.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/hancock/hancock-checked-lounge-pants/21584534/buy</t>
+          <t>https://www.myntra.com/track-pants/pluss/pluss-black-track-pants/1875898/buy</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -3606,30 +3606,30 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Hancock</t>
+          <t>BEWAKOOF</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Checked Lounge Pants</t>
+          <t>Men Regular Fit Blue Pure Cotton Trousers</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>892</v>
+        <v>849</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/i/b/2/30-330846-bewakoof-original-imaghdykfmpathjf.jpeg?q=70</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/hancock/hancock-checked-lounge-pants/21584538/buy</t>
+          <t>https://www.flipkart.com/bewakoof-regular-fit-men-blue-trousers/p/itm1d9b0b29a7ba0?pid=TROG6P9FZBGUTZNG&amp;lid=LSTTROG6P9FZBGUTZNGK87B3C&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_38&amp;otracker=search&amp;iid=en_6V8fkS15lz92LDFMwstCZPqw3Xym6iC27gDJNqyq%2FReLmHT5JO88GdloIkOIxrV8Xj8%2FobtTWn3nhtc%2Fkj0TOg%3D%3D&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -3639,30 +3639,30 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>GO COLORS</t>
+          <t>Hancock</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Women Mid-rise Pants</t>
+          <t>Checked Lounge Pants</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51OT-1KFrAS._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/GO-COLORS-LT09-YG-FUXIA29-2X_Young-Fuchsia_2XL/dp/B08DLQJCFH/ref=sr_1_56?keywords=pants&amp;qid=1682094818&amp;sr=8-56</t>
+          <t>https://www.myntra.com/lounge-pants/hancock/hancock-checked-lounge-pants/21584532/buy</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -3672,30 +3672,30 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>PETER ENGLAND</t>
+          <t>Hancock</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Men Slim Fit Dark Blue Cotton Blend Trousers</t>
+          <t>Checked Lounge Pants</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/o/m/i/32-petfonspe63157-peter-england-original-imagha3kzdgh28u2.jpeg?q=70</t>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21584538/2023/2/6/e8de67e2-32ec-4821-bd50-35071900333a1675675939314-Hancock-Men-Lounge-Pants-3981675675938619-1.jpg</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/peter-england-slim-fit-men-dark-blue-trousers/p/itmc373c2ee198c1?pid=TROGDTN2DKHUXGYZ&amp;lid=LSTTROGDTN2DKHUXGYZZLIKFJ&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_29&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROGDTN2DKHUXGYZ.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.myntra.com/lounge-pants/hancock/hancock-checked-lounge-pants/21584538/buy</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -3705,30 +3705,30 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Van Heusen</t>
+          <t>Hancock</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Men's Track Pants</t>
+          <t>Checked Lounge Pants</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81eQleWjVoL._AC_UL400_.jpg</t>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21584534/2023/3/6/6bcc7ad0-0a9b-43f0-a23d-32896f47e3881678080124295-Hancock-Checked-Lounge-Pants-2751678080123561-1.jpg</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Van-Heusen-Track-50056_Grey-Melange_L/dp/B083C2SWKL/ref=sr_1_54?keywords=pants&amp;qid=1682094818&amp;sr=8-54</t>
+          <t>https://www.myntra.com/lounge-pants/hancock/hancock-checked-lounge-pants/21584534/buy</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -3738,30 +3738,30 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Gallus</t>
+          <t>Hancock</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Men Track Pants</t>
+          <t>Checked Lounge Pants</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21584536/2023/2/6/7e0da1c6-e837-44ef-b3a1-30fd862a8a761675676567177-Hancock-Men-Lounge-Pants-4561675676566549-1.jpg</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/gallus/gallus-men-track-pants/21370424/buy</t>
+          <t>https://www.myntra.com/lounge-pants/hancock/hancock-checked-lounge-pants/21584536/buy</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -3771,30 +3771,30 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>SIAPA</t>
+          <t>Van Heusen</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Men Track Pants</t>
+          <t>Men's Track Pants</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>959</v>
+        <v>899</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/81eQleWjVoL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/siapa/siapa-men-track-pants/21168126/buy</t>
+          <t>https://www.amazon.com/Van-Heusen-Track-50056_Grey-Melange_L/dp/B083C2SWKL/ref=sr_1_54?keywords=pants&amp;qid=1682096762&amp;sr=8-54</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -3804,30 +3804,30 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>SOJANYA</t>
+          <t>GO COLORS</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Men Dhoti Pants</t>
+          <t>Women's Regular Bottom</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>965</v>
+        <v>899</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/51OT-1KFrAS._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/dhotis/sojanya/sojanya-orange-dhoti-pants/1780205/buy</t>
+          <t>https://www.amazon.com/GO-COLORS-LT09-YG-FUXIA29-2X_Young-Fuchsia_2XL/dp/B08DLQJCFH/ref=sr_1_56?keywords=pants&amp;qid=1682096762&amp;sr=8-56</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -3837,16 +3837,16 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>SOJANYA</t>
+          <t>Gallus</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Men Dhoti Pants</t>
+          <t>Men Track Pants</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>965</v>
+        <v>899</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -3855,12 +3855,12 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/dhotis/sojanya/sojanya-black-dhoti-pants/1846812/buy</t>
+          <t>https://www.myntra.com/track-pants/gallus/gallus-men-track-pants/21370424/buy</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -3870,30 +3870,30 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>SOJANYA</t>
+          <t>Roadster</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Men Dhoti Pants</t>
+          <t>Men Slim Fit Grey Pure Cotton Trousers</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>965</v>
+        <v>910</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/k1v1h8w0/trouser/g/7/j/34-10217179-roadster-original-imafh942znndgfyg.jpeg?q=70</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/dhotis/sojanya/sojanya-yellow-dhoti-pants/2034912/buy</t>
+          <t>https://www.flipkart.com/roadster-slim-fit-men-grey-trousers/p/itm9844b633d8288?pid=TROG9XUXZGM2WVYJ&amp;lid=LSTTROG9XUXZGM2WVYJ46XVJC&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_3&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROG9XUXZGM2WVYJ.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -3903,30 +3903,30 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>SOJANYA</t>
+          <t>SIAPA</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Men Dhoti Pants</t>
+          <t>Men Track Pants</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/1846813/2017/4/11/11491902048835-SOJANYA-Men-Dhotis-2321491902048618-1.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/dhotis/sojanya/sojanya-yellow-dhoti-pants/1846813/buy</t>
+          <t>https://www.myntra.com/track-pants/siapa/siapa-men-track-pants/21168126/buy</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -3949,17 +3949,17 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/1846813/2017/4/11/11491902048835-SOJANYA-Men-Dhotis-2321491902048618-1.jpg</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/dhotis/sojanya/sojanya-maroon-dhoti-pants/2034928/buy</t>
+          <t>https://www.myntra.com/dhotis/sojanya/sojanya-yellow-dhoti-pants/1846813/buy</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -4002,30 +4002,30 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Amazon Brand - Inkast Denim Co.</t>
+          <t>SOJANYA</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Men's Slim Casual Pants</t>
+          <t>Men Dhoti Pants</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>999</v>
+        <v>965</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61nk1PgrstL._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Inkast-Casual-TR-Ink-RDP-D3_Blue_32/dp/B0991WQYB7/ref=sr_1_25?keywords=pants&amp;qid=1682094818&amp;sr=8-25</t>
+          <t>https://www.myntra.com/dhotis/sojanya/sojanya-orange-dhoti-pants/1780205/buy</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -4035,30 +4035,30 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Amazon Brand - Inkast Denim Co.</t>
+          <t>SOJANYA</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Men's Slim Casual Pants</t>
+          <t>Men Dhoti Pants</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>999</v>
+        <v>965</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61nk1PgrstL._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0NzM5MzEyMTY3MTQzNDEyOjE2ODIwOTQ4MTg6c3BfYnRmOjIwMTAwNzg1NTYzNDk4OjowOjo&amp;url=%2FAmazon-Brand-Inkast-Casual-TR-Ink-RDP-D3_Blue_36%2Fdp%2FB0991SQC1T%2Fref%3Dsr_1_60_sspa%3Fkeywords%3Dpants%26qid%3D1682094818%26sr%3D8-60-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.myntra.com/dhotis/sojanya/sojanya-maroon-dhoti-pants/2034928/buy</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -4068,30 +4068,30 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>SOJANYA</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Men's Flexi Waist Slim Casual Pants</t>
+          <t>Men Dhoti Pants</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>999</v>
+        <v>965</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61oRzu8XRtL._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Symbol-Casual-A22-SYM-SL-CT-101_Black_32/dp/B0B3989Q12/ref=sr_1_14?keywords=pants&amp;qid=1682094818&amp;sr=8-14</t>
+          <t>https://www.myntra.com/dhotis/sojanya/sojanya-yellow-dhoti-pants/2034912/buy</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -4101,30 +4101,30 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>McHenry</t>
+          <t>SOJANYA</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Men's Regular Fit Trousers</t>
+          <t>Men Dhoti Pants</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>999</v>
+        <v>965</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81wqp2ohC9L._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/McHenry-Regular-PolyViscose-Trousers-Cream4006-40_Cream_Size/dp/B01LCXH98Y/ref=sr_1_12?keywords=pants&amp;qid=1682094818&amp;sr=8-12</t>
+          <t>https://www.myntra.com/dhotis/sojanya/sojanya-black-dhoti-pants/1846812/buy</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -4134,12 +4134,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Jockey</t>
+          <t>McHenry</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Men Casual Trousers</t>
+          <t>Men's Solid Formal Regular Fit Wrinkle Free PolyViscose Trousers</t>
         </is>
       </c>
       <c r="D113" t="n">
@@ -4147,17 +4147,17 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61qoz5T51VL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81wqp2ohC9L._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Jockey-Cotton-Track-9500-0103-NAVY-Navy/dp/B00W05MDC6/ref=sr_1_19?keywords=pants&amp;qid=1682094818&amp;sr=8-19</t>
+          <t>https://www.amazon.com/McHenry-Regular-PolyViscose-Trousers-Cream4006-40_Cream_Size/dp/B01LCXH98Y/ref=sr_1_12?keywords=pants&amp;qid=1682096762&amp;sr=8-12</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -4167,30 +4167,30 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>PARK AVENUE</t>
+          <t>toothless</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Men Regular Fit Maroon Viscose Rayon Trousers</t>
+          <t>Solid Pure Cotton Track Pant</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1034</v>
+        <v>999</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/ktlu9ow0/trouser/o/6/0/32-pmtx06573-m7-park-avenue-original-imag6wyfggjffzuk.jpeg?q=70</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/park-avenue-regular-fit-men-maroon-trousers/p/itm49098f544224a?pid=TROG4QFPWHZHXE9U&amp;lid=LSTTROG4QFPWHZHXE9UBULMHU&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_3&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROG4QFPWHZHXE9U.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.myntra.com/track-pants/toothless/toothless-girls-pink-pants/20403982/buy</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -4200,30 +4200,30 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Zivame</t>
+          <t>Amazon Brand - Symbol</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Women Lounge Pants</t>
+          <t>Men's Flexi Waist Slim Casual Pants</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1042</v>
+        <v>999</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/61oRzu8XRtL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/zivame/zivame-women-lounge-pants/21240904/buy</t>
+          <t>https://www.amazon.com/Amazon-Brand-Symbol-Casual-A22-SYM-SL-CT-101_Black_32/dp/B0B3989Q12/ref=sr_1_14?keywords=pants&amp;qid=1682096762&amp;sr=8-14</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -4233,30 +4233,30 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Van Heusen</t>
+          <t>Amazon Brand - Inkast Denim Co.</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Men Pants</t>
+          <t>Men's Slim Fit Casual Pants</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1129</v>
+        <v>999</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61GfyqlINnL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61nk1PgrstL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Van-Heusen-Pants-VHTFFSLBE07068_Light-Grey_36/dp/B0B4K7ZJHG/ref=sr_1_49?keywords=pants&amp;qid=1682094818&amp;sr=8-49</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTc4MDk5NjIzNzQ0OTU2OjE2ODIwOTY3NjI6c3BfYnRmOjIwMTAwNzg1NTYzNDk4OjowOjo&amp;url=%2FAmazon-Brand-Inkast-Casual-TR-Ink-RDP-D3_Blue_36%2Fdp%2FB0991SQC1T%2Fref%3Dsr_1_60_sspa%3Fkeywords%3Dpants%26qid%3D1682096762%26sr%3D8-60-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -4266,30 +4266,30 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Wearilio</t>
+          <t>Amazon Brand - Inkast Denim Co.</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Track Pants Joggers</t>
+          <t>Men's Slim Fit Casual Pants</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1163</v>
+        <v>999</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51lFBxiK8qL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61nk1PgrstL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0NzM5MzEyMTY3MTQzNDEyOjE2ODIwOTQ4MTg6c3BfbXRmOjIwMDQzNDMyMTU2NTk4OjowOjo&amp;url=%2FWearilio-Regular-Trackpants-910_911_912-Joggers_Grey_5XL%2Fdp%2FB09VLKGC94%2Fref%3Dsr_1_22_sspa%3Fkeywords%3Dpants%26qid%3D1682094818%26sr%3D8-22-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/Amazon-Brand-Inkast-Casual-TR-Ink-RDP-D3_Blue_32/dp/B0991WQYB7/ref=sr_1_25?keywords=pants&amp;qid=1682096762&amp;sr=8-25</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -4299,30 +4299,30 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MARKS &amp; SPENCER</t>
+          <t>Jockey</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Men Slim Fit Brown Cotton Blend Trousers</t>
+          <t>Men's Cotton Track Pants</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1190</v>
+        <v>999</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/3/o/v/36-t176601sdark-khaki-marks-spencer-original-imaghdscmtzxunkq.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/61qoz5T51VL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/marks-spencer-slim-fit-men-brown-trousers/p/itm530bee5c7a5e5?pid=TROGHDSDDEWV6SBZ&amp;lid=LSTTROGHDSDDEWV6SBZRXSKWI&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_37&amp;otracker=search&amp;iid=en_bdhPJXo3RcktD3Cx9%2BQTE4WCFYCniBOjAtt4CRNGXwPD9mByhd3vrIQN1c%2B6n%2B4C5Imov4EEYWbLlAisBkfZ2A%3D%3D&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/Jockey-Cotton-Track-9500-0103-NAVY-Navy/dp/B00W05MDC6/ref=sr_1_19?keywords=pants&amp;qid=1682096762&amp;sr=8-19</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -4332,30 +4332,30 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>PETER ENGLAND</t>
+          <t>PARK AVENUE</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Men Slim Fit Black Viscose Rayon Trousers</t>
+          <t>Men Regular Fit Maroon Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1245</v>
+        <v>1034</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/kyrlifk0/trouser/o/n/c/34-petfoslbs43658-peter-england-original-imagax8aqm7hfdnh.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/ktlu9ow0/trouser/o/6/0/32-pmtx06573-m7-park-avenue-original-imag6wyfggjffzuk.jpeg?q=70</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/peter-england-slim-fit-men-black-trousers/p/itmaaedd9c824027?pid=TROG9MVKWQ8TEZFF&amp;lid=LSTTROG9MVKWQ8TEZFFKKUC7R&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_23&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROG9MVKWQ8TEZFF.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/park-avenue-regular-fit-men-maroon-trousers/p/itm49098f544224a?pid=TROG4QFPWHZHXE9U&amp;lid=LSTTROG4QFPWHZHXE9UBULMHU&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_6&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROG4QFPWHZHXE9U.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -4365,30 +4365,30 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ARROW</t>
+          <t>Van Heusen</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Smart Flex Men Regular Fit Blue Viscose Rayon Trousers</t>
+          <t>Men Pants</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1253</v>
+        <v>1129</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/t/s/j/-original-imagm9z22r5gmzcm.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/61GfyqlINnL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/arrow-smart-flex-regular-fit-men-blue-trousers/p/itmc21e483c5d003?pid=TROGHRC62BYNMC4M&amp;lid=LSTTROGHRC62BYNMC4MCAC0BA&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_7&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROGHRC62BYNMC4M.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/Van-Heusen-Pants-VHTFFSLBE07068_Light-Grey_36/dp/B0B4K7ZJHG/ref=sr_1_49?keywords=pants&amp;qid=1682096762&amp;sr=8-49</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -4398,30 +4398,30 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ARROW</t>
+          <t>U.S. POLO ASSN.</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Men Regular Fit Grey Viscose Rayon Trousers</t>
+          <t>Men Athleisure</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1253</v>
+        <v>1149</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/5/u/v/-original-imagm6mf7f4gpc6r.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/31B3ViMPGeL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/arrow-regular-fit-men-grey-trousers/p/itm91cd7d2fe2cf6?pid=TROGHRC6WQMFGCJK&amp;lid=LSTTROGHRC6WQMFGCJKDJQ4UA&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_25&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROGHRC6WQMFGCJK.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTc4MDk5NjIzNzQ0OTU2OjE2ODIwOTY3NjI6c3BfbXRmOjIwMTIxODk5NDYzNTk4OjowOjo&amp;url=%2FUS-Polo-Association-Lounge-Bottom%2Fdp%2FB08XVW2V8V%2Fref%3Dsr_1_21_sspa%3Fkeywords%3Dpants%26qid%3D1682096762%26sr%3D8-21-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -4431,30 +4431,30 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>PETER ENGLAND</t>
+          <t>hummel</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Men Slim Fit Brown Pure Cotton Trousers</t>
+          <t>Men Track Pants</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1259</v>
+        <v>1159</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/k/t/y/-original-imagh3jmnzm3farb.jpeg?q=70</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/peter-england-slim-fit-men-brown-trousers/p/itm27bcbe13c4be4?pid=TROG9JGU4AV3ZAZM&amp;lid=LSTTROG9JGU4AV3ZAZMZQPWLN&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_6&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROG9JGU4AV3ZAZM.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.myntra.com/track-pants/hummel/hummel-men-track-pants/21064880/buy</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -4464,30 +4464,30 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MARKS &amp; SPENCER</t>
+          <t>nexus</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Men Regular Fit Brown Cotton Blend Trousers</t>
+          <t>Printed Lounge Pants</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1290</v>
+        <v>1189</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/n/b/2/34-t281590mdark-khaki-marks-spencer-original-imaghds48wnxhsyx.jpeg?q=70</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/marks-spencer-regular-fit-men-brown-trousers/p/itm07c561fdd47e9?pid=TROGHDSCEED5M66E&amp;lid=LSTTROGHDSCEED5M66EQUMCI0&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_12&amp;otracker=search&amp;iid=en_bdhPJXo3RcktD3Cx9%2BQTE4WCFYCniBOjAtt4CRNGXwNXu5PAVDtPJybx7dbkUWE9SaA5TtJgRLz1oseANAqljg%3D%3D&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.myntra.com/lounge-pants/nexus/nexus-printed-lounge-pants/22370554/buy</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -4497,30 +4497,30 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>VAN HEUSEN SPORT</t>
+          <t>PETER ENGLAND</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Men Tapered Black Cotton Blend Trousers</t>
+          <t>Men Slim Fit Black Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1299</v>
+        <v>1245</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/g/b/h/-original-imaggg3zhzdcxzxx.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/kyrlifk0/trouser/o/n/c/34-petfoslbs43658-peter-england-original-imagax8aqm7hfdnh.jpeg?q=70</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/van-heusen-sport-tapered-men-black-trousers/p/itmee1df969c5045?pid=TROGF5GSZDMFZFVM&amp;lid=LSTTROGF5GSZDMFZFVM6ZNO5X&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_5&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROGF5GSZDMFZFVM.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/peter-england-slim-fit-men-black-trousers/p/itmaaedd9c824027?pid=TROG9MVKWQ8TEZFF&amp;lid=LSTTROG9MVKWQ8TEZFFKKUC7R&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_24&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROG9MVKWQ8TEZFF.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -4530,30 +4530,30 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>CULTSPORT</t>
+          <t>ARROW</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Performance Tights</t>
+          <t>Men Regular Fit Grey Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1315</v>
+        <v>1253</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51oOqDsi5jL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/5/u/v/-original-imagm6mf7f4gpc6r.jpeg?q=70</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0NzM5MzEyMTY3MTQzNDEyOjE2ODIwOTQ4MTg6c3BfYXRmOjIwMTMyMDA5NDY0OTk4OjowOjo&amp;url=%2FCultsport-Polyester-Leggings-Abstract-CS600720S%2Fdp%2FB08SLZ26BX%2Fref%3Dsr_1_3_sspa%3Fkeywords%3Dpants%26qid%3D1682094818%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.flipkart.com/arrow-regular-fit-men-grey-trousers/p/itm91cd7d2fe2cf6?pid=TROGHRC6WQMFGCJK&amp;lid=LSTTROGHRC6WQMFGCJKDJQ4UA&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_30&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROGHRC6WQMFGCJK.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -4563,30 +4563,30 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>SAPPER</t>
+          <t>ARROW</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Solid Cargo Pants</t>
+          <t>Smart Flex Men Regular Fit Blue Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1396</v>
+        <v>1253</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61ZqLjxdCjL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/t/s/j/-original-imagm9z22r5gmzcm.jpeg?q=70</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/SAPPER-Olive-Cotton-Solid-MLW205DARKOLIVEXXXL/dp/B09NBPBQH3/ref=sr_1_47?keywords=pants&amp;qid=1682094818&amp;sr=8-47</t>
+          <t>https://www.flipkart.com/arrow-smart-flex-regular-fit-men-blue-trousers/p/itmc21e483c5d003?pid=TROGHRC62BYNMC4M&amp;lid=LSTTROGHRC62BYNMC4MCAC0BA&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_9&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROGHRC62BYNMC4M.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -4601,25 +4601,25 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Men Slim Fit Blue Viscose Rayon Trousers</t>
+          <t>Men Slim Fit Brown Pure Cotton Trousers</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1399</v>
+        <v>1259</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/l3khsi80/trouser/8/i/i/32-pitfonsf601387-peter-england-original-imagenvsszpaavwz.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/k/t/y/-original-imagh3jmnzm3farb.jpeg?q=70</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/peter-england-slim-fit-men-blue-trousers/p/itm2f86256faafcc?pid=TROGDHZ6S7AHJSWZ&amp;lid=LSTTROGDHZ6S7AHJSWZ4WVSUU&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_26&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROGDHZ6S7AHJSWZ.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/peter-england-slim-fit-men-brown-trousers/p/itm27bcbe13c4be4?pid=TROG9JGU4AV3ZAZM&amp;lid=LSTTROG9JGU4AV3ZAZMZQPWLN&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_7&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROG9JGU4AV3ZAZM.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -4629,30 +4629,30 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>PETER ENGLAND</t>
+          <t>AURELIA</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Men Regular Fit Blue Viscose Rayon Trousers</t>
+          <t>Women Dhoti Pants</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1399</v>
+        <v>1299</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/5/x/c/-original-imagzkd5tczyhc2n.jpeg?q=70</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/peter-england-regular-fit-men-blue-trousers/p/itmb68b6dc0fbb2b?pid=TROGHQ8ZPHURZHWB&amp;lid=LSTTROGHQ8ZPHURZHWBGXPSE6&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_4&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TROGHQ8ZPHURZHWB.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.myntra.com/dhotis/aurelia/aurelia-blue-dhoti-pants/2400050/buy</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -4662,30 +4662,30 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>rock.it</t>
+          <t>VAN HEUSEN SPORT</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Men Track Pants</t>
+          <t>Men Tapered Black Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1466</v>
+        <v>1299</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/g/b/h/-original-imaggg3zhzdcxzxx.jpeg?q=70</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/rockit/rockit-men-track-pants/21073786/buy</t>
+          <t>https://www.flipkart.com/van-heusen-sport-tapered-men-black-trousers/p/itmee1df969c5045?pid=TROGF5GSZDMFZFVM&amp;lid=LSTTROGF5GSZDMFZFVM6ZNO5X&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_4&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROGF5GSZDMFZFVM.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -4695,30 +4695,30 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>PUMA</t>
+          <t>CULTSPORT</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Women Solid Grey Track Pants</t>
+          <t>| AbsoluteFit Abstract Print Tights for Women</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1499</v>
+        <v>1315</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/track-pant/d/b/p/s-58684454-puma-original-imaghzqaw4yhg3gh.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/51oOqDsi5jL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/puma-solid-women-grey-track-pants/p/itm3cc53e69f904c?pid=TKPGG67GPSYZMJGC&amp;lid=LSTTKPGG67GPSYZMJGCRUYDP0&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_20&amp;otracker=search&amp;iid=4be8f181-5239-4ef4-b24c-f0112f9e92bc.TKPGG67GPSYZMJGC.SEARCH&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTc4MDk5NjIzNzQ0OTU2OjE2ODIwOTY3NjI6c3BfYXRmOjIwMTMyMDA5NDY0OTk4OjowOjo&amp;url=%2FCultsport-Polyester-Leggings-Abstract-CS600720S%2Fdp%2FB08SLZ26BX%2Fref%3Dsr_1_3_sspa%3Fkeywords%3Dpants%26qid%3D1682096762%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -4728,30 +4728,30 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Speedo</t>
+          <t>SAPPER</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Contrast Swim Pants</t>
+          <t>Men's Cotton Regular Fit Cargo Pants</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1499</v>
+        <v>1396</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/61ZqLjxdCjL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/swim-bottoms/speedo/speedo-contrast-swim-pants/22595686/buy</t>
+          <t>https://www.amazon.com/SAPPER-Olive-Cotton-Solid-MLW205DARKOLIVEXXXL/dp/B09NBPBQH3/ref=sr_1_47?keywords=pants&amp;qid=1682096762&amp;sr=8-47</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -4761,30 +4761,30 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>rock.it</t>
+          <t>PETER ENGLAND</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Men Track Pants</t>
+          <t>Men Regular Fit Blue Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1536</v>
+        <v>1399</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/5/x/c/-original-imagzkd5tczyhc2n.jpeg?q=70</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/rockit/rockit-men-track-pants/21073790/buy</t>
+          <t>https://www.flipkart.com/peter-england-regular-fit-men-blue-trousers/p/itmb68b6dc0fbb2b?pid=TROGHQ8ZPHURZHWB&amp;lid=LSTTROGHQ8ZPHURZHWBGXPSE6&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_5&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROGHQ8ZPHURZHWB.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -4794,30 +4794,30 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Cantabil</t>
+          <t>LOUIS PHILIPPE</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Men Track Pants</t>
+          <t>Men Slim Fit Blue Polycotton Trousers</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1539</v>
+        <v>1439</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/s/m/g/32-lptfmslft69658-louis-philippe-original-imaggb52sdwtzqhk.jpeg?q=70</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/cantabil/cantabil-men-track-pants/21159322/buy</t>
+          <t>https://www.flipkart.com/louis-philippe-slim-fit-men-blue-trousers/p/itm64c8776ffc52a?pid=TROGHG87NJFEAKCF&amp;lid=LSTTROGHG87NJFEAKCFQB0I1H&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_25&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROGHG87NJFEAKCF.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -4827,30 +4827,30 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ONLY</t>
+          <t>rock.it</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Women Track Pants</t>
+          <t>Men Track Pants</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1664</v>
+        <v>1466</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/20196582/2022/9/28/9be6644b-6329-4c02-88db-a7c0ca8c64a51664357173934ONLYWomenGreenTrackPants1.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/only/only-women-track-pants/20196582/buy</t>
+          <t>https://www.myntra.com/track-pants/rockit/rockit-men-track-pants/21073786/buy</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -4860,30 +4860,30 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>United Colors of Benetton</t>
+          <t>Speedo</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Men Slim Fit Light Blue Pure Cotton Trousers</t>
+          <t>Contrast Swim Pants</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1689</v>
+        <v>1499</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/c/u/c/-original-imafz4xzvsmubejz.jpeg?q=70</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/united-colors-benetton-slim-fit-men-light-blue-trousers/p/itmf73d4a822a43c?pid=TROFX7ZYRPVP4VDJ&amp;lid=LSTTROFX7ZYRPVP4VDJXOHDR0&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_8&amp;otracker=search&amp;iid=en_bdhPJXo3RcktD3Cx9%2BQTE4WCFYCniBOjAtt4CRNGXwMmJTfzYvFM6SGCmsQfOMtrotmG11VqR%2FC1kvYmgKKk5w%3D%3D&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.myntra.com/swim-bottoms/speedo/speedo-contrast-swim-pants/22595686/buy</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -4893,30 +4893,30 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>TREKMONK</t>
+          <t>rock.it</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Convertible Cargo Pants</t>
+          <t>Men Track Pants</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1699</v>
+        <v>1536</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61vJzbXr5iL._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Trekmonk-Convertible-Cargo-Charcoal-Medium/dp/B07RYF8GP8/ref=sr_1_36?keywords=pants&amp;qid=1682094818&amp;sr=8-36</t>
+          <t>https://www.myntra.com/track-pants/rockit/rockit-men-track-pants/21073790/buy</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -4926,16 +4926,16 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Puma</t>
+          <t>Cantabil</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Woven Men'S Training Pants</t>
+          <t>Men Track Pants</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1719</v>
+        <v>1539</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -4944,12 +4944,12 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/puma/puma-men-navy-blue-woven-training-pants-slip-on-solid-sports-pants/20673410/buy</t>
+          <t>https://www.myntra.com/track-pants/cantabil/cantabil-men-track-pants/21159322/buy</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -4959,30 +4959,30 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Jockey</t>
+          <t>ONLY</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Men Track Pants</t>
+          <t>Women Track Pants</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1749</v>
+        <v>1664</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/20196582/2022/9/28/9be6644b-6329-4c02-88db-a7c0ca8c64a51664357173934ONLYWomenGreenTrackPants1.jpg</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/jockey/jockey-men-track-pants/21081480/buy</t>
+          <t>https://www.myntra.com/track-pants/only/only-women-track-pants/20196582/buy</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -4992,30 +4992,30 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Jockey</t>
+          <t>TREKMONK</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Men Track Pants</t>
+          <t>Men's Loose Convertible Cargo Trekking Pants</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1769</v>
+        <v>1699</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/61vJzbXr5iL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/jockey/jockey-men-track-pants/21081482/buy</t>
+          <t>https://www.amazon.com/Trekmonk-Convertible-Cargo-Charcoal-Medium/dp/B07RYF8GP8/ref=sr_1_36?keywords=pants&amp;qid=1682096762&amp;sr=8-36</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -5025,30 +5025,30 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>CULTSPORT</t>
+          <t>Puma</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Women's Regular Fit Pants</t>
+          <t>Woven Men'S Training Pants</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1959</v>
+        <v>1719</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/314C5Bc1cgL._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0NzM5MzEyMTY3MTQzNDEyOjE2ODIwOTQ4MTg6c3BfYXRmOjIwMTMyMDA5NDY3MDk4OjowOjo&amp;url=%2FCultsport-Womens-Solid-Workout-Leggings%2Fdp%2FB08SLYVKGZ%2Fref%3Dsr_1_2_sspa%3Fkeywords%3Dpants%26qid%3D1682094818%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.myntra.com/track-pants/puma/puma-men-navy-blue-woven-training-pants-slip-on-solid-sports-pants/20673410/buy</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -5058,30 +5058,30 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>The Pant Project</t>
+          <t>Jockey</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Slim Fit Formal Trousers</t>
+          <t>Men Track Pants</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1990</v>
+        <v>1769</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/617Zg6QsgDL._AC_UL400_.jpg</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Pant-Project-Polyester-Formal-Pant_01-Olive-40_Black_34/dp/B0B46P1CN8/ref=sr_1_51?keywords=pants&amp;qid=1682094818&amp;sr=8-51</t>
+          <t>https://www.myntra.com/track-pants/jockey/jockey-men-track-pants/21081482/buy</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -5091,30 +5091,30 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>The Pant Project</t>
+          <t>CULTSPORT</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Luxury PV Stretchable Casual Pants for Men | Stylish Slim Fit Men's Wear Trousers for Office or Party | Mens Fashion Dress Trouser with Expandable Waist &amp; 4 Way Stretch</t>
+          <t>| AbsoluteFit Solid Performance Tights for Women</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1990</v>
+        <v>1959</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/817rJ9f5IxL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/314C5Bc1cgL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Pant-Project-Stretchable-Trousers-Expandable/dp/B0BSWP8PVQ/ref=sr_1_39?keywords=pants&amp;qid=1682094818&amp;sr=8-39</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTc4MDk5NjIzNzQ0OTU2OjE2ODIwOTY3NjI6c3BfYXRmOjIwMTMyMDA5NDY3MDk4OjowOjo&amp;url=%2FCultsport-Womens-Solid-Workout-Leggings%2Fdp%2FB08SLYVKGZ%2Fref%3Dsr_1_2_sspa%3Fkeywords%3Dpants%26qid%3D1682096762%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>amazon</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -5124,30 +5124,30 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>MARKS &amp; SPENCER</t>
+          <t>The Pant Project</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Men Slim Fit Blue Cotton Blend Trousers</t>
+          <t>Luxury PV Stretchable Casual Pants for Men | Stylish Slim Fit Men's Wear Trousers for Office or Party | Mens Fashion Dress Trouser with Expandable Waist &amp; 4 Way Stretch</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1999</v>
+        <v>1990</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/n/g/d/36-t176601slight-blue-marks-spencer-original-imagn42theewzzug.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/817rJ9f5IxL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/marks-spencer-slim-fit-men-blue-trousers/p/itmedc1ac5635a85?pid=TROGN42TKKZHPGR3&amp;lid=LSTTROGN42TKKZHPGR32HCWI5&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_27&amp;otracker=search&amp;iid=en_bdhPJXo3RcktD3Cx9%2BQTE4WCFYCniBOjAtt4CRNGXwPwSCMIbXRkrgL56npShLRH0b1lzFomPP18qsczx29BDQ%3D%3D&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/Pant-Project-Stretchable-Trousers-Expandable/dp/B0BSWP8PVQ/ref=sr_1_39?keywords=pants&amp;qid=1682096762&amp;sr=8-39</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -5157,30 +5157,30 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>LEVI'S</t>
+          <t>The Pant Project</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>501 Men Slim Fit Blue Cotton Blend Trousers</t>
+          <t>Luxury PV Lycra Stretchable Formal Pants for Men | Stylish Slim Fit Men's Wear Trousers for Office or Party | Mens Fashion Dress Trouser Pant</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1999</v>
+        <v>1990</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/l/i/e/-original-imag6hwkdjxszf6f.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/617Zg6QsgDL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/levi-s-501-slim-fit-men-blue-trousers/p/itm59615a95a026b?pid=JEAG3BFFNK6RTPF3&amp;lid=LSTJEAG3BFFNK6RTPF3UCC6OW&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_31&amp;otracker=search&amp;iid=en_bdhPJXo3RcktD3Cx9%2BQTE4WCFYCniBOjAtt4CRNGXwP6UFd9q0pBNzJBFS7AjWvLHGJSIkLVrgomDk6vNI2IfA%3D%3D&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/Pant-Project-Polyester-Formal-Pant_01-Olive-40_Black_34/dp/B0B46P1CN8/ref=sr_1_51?keywords=pants&amp;qid=1682096762&amp;sr=8-51</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -5190,30 +5190,30 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>boohooMAN</t>
+          <t>Moudlin</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Men Tapered Track Pants</t>
+          <t>Men Slim Mid Rise Multicolor Jeans</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>2249</v>
+        <v>2099</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/22167526/2023/3/22/94b0d693-9da9-45e7-8329-2edb2bcc386c1679463001145-boohooMAN-Tapered-Track-Pants-5621679463000878-1.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/jean/v/d/f/34-jenas-nsilky-moudlin-original-imafg7wgts7hatqn-bb.jpeg?q=70</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/boohooman/boohooman-tapered-track-pants/22167526/buy</t>
+          <t>https://www.flipkart.com/moudlin-slim-men-multicolor-jeans/p/itm6e17f3edd985c?pid=JEAFG832EKJG5XAR&amp;lid=LSTJEAFG832EKJG5XARXH1PEK&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_20&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.JEAFG832EKJG5XAR.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -5228,11 +5228,11 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Men Solid Track Pants</t>
+          <t>Men Tapered Track Pants</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>2586</v>
+        <v>2249</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -5241,12 +5241,12 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/boohooman/boohooman-solid-track-pants/22167484/buy</t>
+          <t>https://www.myntra.com/track-pants/boohooman/boohooman-tapered-track-pants/22167526/buy</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -5256,16 +5256,16 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Puma</t>
+          <t>boohooMAN</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Men Track Pants</t>
+          <t>Men Solid Track Pants</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>2624</v>
+        <v>2586</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -5274,12 +5274,12 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/puma/puma-men-track-pants/21532512/buy</t>
+          <t>https://www.myntra.com/track-pants/boohooman/boohooman-solid-track-pants/22167484/buy</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -5289,16 +5289,16 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>boohooMAN</t>
+          <t>Puma</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Men Textured Track Pants</t>
+          <t>Men Track Pants</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>2886</v>
+        <v>2624</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -5307,12 +5307,12 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/boohooman/boohooman-textured-track-pants/22167422/buy</t>
+          <t>https://www.myntra.com/track-pants/puma/puma-men-track-pants/21532512/buy</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -5322,30 +5322,30 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>MARKS &amp; SPENCER</t>
+          <t>boohooMAN</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Men Regular Fit Grey Viscose Rayon Trousers</t>
+          <t>Men Textured Track Pants</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>2999</v>
+        <v>2886</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/8/u/k/36-t704281ygrey-marks-spencer-original-imagmndvqjfrhezs.jpeg?q=70</t>
+          <t>not available</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/marks-spencer-regular-fit-men-grey-trousers/p/itm51e0b497e81ec?pid=TROGMNDWHGTKKGZX&amp;lid=LSTTROGMNDWHGTKKGZXL2IQED&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_38&amp;otracker=search&amp;iid=en_bdhPJXo3RcktD3Cx9%2BQTE4WCFYCniBOjAtt4CRNGXwOkUeJBOzyMWSuyYkw7WGyv6rTywnxET%2FQEByT5fOiGPg%3D%3D&amp;ssid=zzxgo08eyo0000001682094810565&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.myntra.com/track-pants/boohooman/boohooman-textured-track-pants/22167422/buy</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>flipkart</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -5378,7 +5378,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>

--- a/radon/data.xlsx
+++ b/radon/data.xlsx
@@ -480,16 +480,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>319</v>
+        <v>257</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71W+cEy3tGL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/712T89VCPwL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTc4MDk5NjIzNzQ0OTU2OjE2ODIwOTY3NjI6c3BfYnRmOjIwMTAzOTIyODg2ODk4OjowOjo&amp;url=%2FAmazon-Brand-Regular-T-Shirt-SS20INKTEE17_Terrain%2Fdp%2FB099ZY7NKC%2Fref%3Dsr_1_59_sspa%3Fkeywords%3Dpants%26qid%3D1682096762%26sr%3D8-59-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTM5MDM3ODA4ODk5MjI4OjE2ODIxNjIzNjc6c3BfbXRmOjIwMTAzOTEwMDY0MDk4OjowOjo&amp;url=%2FAmazon-Brand-Printed-Regular-Ink-T-CHG-D1_Bright%2Fdp%2FB097MNHZXK%2Fref%3Dsr_1_22_sspa%3Fkeywords%3Dpants%26qid%3D1682162367%26sr%3D8-22-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -517,12 +517,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51jXgsSM6SL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51jXgsSM6SL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/KOTTY-Womens-Solid-Polyester-Trousers/dp/B0B49SCGMY/ref=sr_1_5?keywords=pants&amp;qid=1682096762&amp;sr=8-5</t>
+          <t>https://www.amazon.com/KOTTY-Womens-Solid-Polyester-Trousers/dp/B0B49SCGMY/ref=sr_1_5?keywords=pants&amp;qid=1682162367&amp;sr=8-5</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -537,12 +537,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LEE TEX</t>
+          <t>AVOLT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Women Regular Fit Maroon Cotton Blend Trousers</t>
+          <t xml:space="preserve">Dry Fit Track </t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -550,17 +550,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/l/9/o/26-trouser-50-lee-tex-original-imaghkgdhxh6cdpz.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/61iSZEH6PJL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/lee-tex-regular-fit-women-maroon-trousers/p/itmce79e01587568?pid=TROGHKK5ZUTPZHYX&amp;lid=LSTTROGHKK5ZUTPZHYXVTTEDV&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_2&amp;otracker=search&amp;iid=en_6V8fkS15lz92LDFMwstCZPqw3Xym6iC27gDJNqyq%2FResATfkmq2QvQnYOLCqzE1p1UP0%2BKvGuHBfMaG4s4ngCA%3D%3D&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/AVOLT-Track-Athleisure-Running-Stretchable/dp/B09VPK6WZC/ref=sr_1_25?keywords=pants&amp;qid=1682162367&amp;sr=8-25</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>FLIPKART</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -583,12 +583,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/513AablIIfL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/513AablIIfL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/VIMAL-Mens-Track-Pants-D10NAVY-M_Navy/dp/B01AAWUYJO/ref=sr_1_52?keywords=pants&amp;qid=1682096762&amp;sr=8-52</t>
+          <t>https://www.amazon.com/VIMAL-Mens-Track-Pants-D10NAVY-M_Navy/dp/B01AAWUYJO/ref=sr_1_55?keywords=pants&amp;qid=1682162367&amp;sr=8-55</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Foxter</t>
+          <t>LEE TEX</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Women Regular Fit Black Cotton Blend Trousers</t>
+          <t>Women Regular Fit Maroon Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -616,12 +616,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/y/v/e/32-women-trouser-lupi-foxter-original-imagm99dzsz3fnqy.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/l/9/o/26-trouser-50-lee-tex-original-imaghkgdhxh6cdpz.jpeg?q=70</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/foxter-regular-fit-women-black-trousers/p/itmda18cb8e68aa7?pid=TROGM99D7HQYJYUR&amp;lid=LSTTROGM99D7HQYJYURGGTRIC&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;spotlightTagId=BestsellerId_clo%2Fvua&amp;srno=s_1_35&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROGM99D7HQYJYUR.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/lee-tex-regular-fit-women-maroon-trousers/p/itmce79e01587568?pid=TROGHKK5ZUTPZHYX&amp;lid=LSTTROGHKK5ZUTPZHYXVTTEDV&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_27&amp;otracker=search&amp;iid=en_QEVxNKXZqmnAg1IAO3gw0JO%2BRzSmT%2FnO7AP9fmq7cVjOeECnrsPkuOJuVKTmMvbK1UP0%2BKvGuHBfMaG4s4ngCA%3D%3D&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -636,25 +636,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>KOTTY</t>
+          <t>Foxter</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Women Regular Fit Orange Viscose Rayon Trousers</t>
+          <t>Women Regular Fit Black Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/d/y/g/26-kottywomenspant155-kotty-original-imagnp6wx35fn2fg.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/y/v/e/32-women-trouser-lupi-foxter-original-imagm99dzsz3fnqy.jpeg?q=70</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-regular-fit-women-orange-trousers/p/itm48a056a54a5d1?pid=TROGF3FNNPQMY4CJ&amp;lid=LSTTROGF3FNNPQMY4CJWEOPZZ&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_8&amp;otracker=search&amp;iid=en_6V8fkS15lz92LDFMwstCZPqw3Xym6iC27gDJNqyq%2FRdc%2FFYfeET12rn6i2W5d4ADQ%2BW0DzoAi5%2Fq6o9Majtw%2BA%3D%3D&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/foxter-regular-fit-women-black-trousers/p/itmda18cb8e68aa7?pid=TROGM99D7HQYJYUR&amp;lid=LSTTROGM99D7HQYJYURGGTRIC&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_30&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROGM99D7HQYJYUR.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -669,25 +669,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>KOTTY</t>
+          <t>ADDYVERO</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Women Regular Fit Black Viscose Rayon Trousers</t>
+          <t>Women Flared Maroon Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>352</v>
+        <v>375</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/8/n/5/28-kttwomenspant261-kotty-original-imagnrr9xcy9zgru.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/kfoapow0-0/trouser/x/p/l/34-cl-wm-l0737-addyvero-original-imafw2jwudmcrfbq.jpeg?q=70</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-regular-fit-women-black-trousers/p/itm126ac29fac269?pid=TROGHF9CQCPGXPXM&amp;lid=LSTTROGHF9CQCPGXPXMGBCIM6&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;spotlightTagId=BestsellerId_clo%2Fvua&amp;srno=s_1_10&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROGHF9CQCPGXPXM.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/addyvero-flared-women-maroon-trousers/p/itm9dfc4c9f2f73d?pid=TROFPWPZZHG5CNH7&amp;lid=LSTTROFPWPZZHG5CNH7BWH7WX&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_36&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROFPWPZZHG5CNH7.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -702,30 +702,30 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>KOTTY</t>
+          <t>ADDYVERO</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Women Regular Fit Orange Viscose Rayon Trousers</t>
+          <t>Women's Slim Fit Casual Trousers</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/v/q/6/30-kttwomenspant299-kotty-original-imagkhzhn7dfemxp.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/61r+ZK+jPtL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-regular-fit-women-orange-trousers/p/itm7c6107a7fd45b?pid=TROGKGYBXV3BHZHV&amp;lid=LSTTROGKGYBXV3BHZHV4WN53Q&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_11&amp;otracker=search&amp;iid=en_6V8fkS15lz92LDFMwstCZPqw3Xym6iC27gDJNqyq%2FRc8z%2BE437WveH4vXI8z8Hmp3QAmmtAy9Zq%2FKaHdoSmRdw%3D%3D&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/ADDYVERO-Flared-Ankle-Length-Trousers/dp/B085MCKV8F/ref=sr_1_10?keywords=pants&amp;qid=1682162367&amp;sr=8-10</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>FLIPKART</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -735,25 +735,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>KOTTY</t>
+          <t>Tokyo Talkies</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Women Regular Fit Dark Green Viscose Rayon Trousers</t>
+          <t>Women Tapered Dark Blue Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/l47cu4w0/trouser/i/k/v/30-kottywomenspant154-kotty-original-imagf5nctpcjxabc.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/l09w8sw0/trouser/8/p/y/32-ttp0001195-tokyo-talkies-original-imagc3zu6htgbg7m.jpeg?q=70</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-regular-fit-women-dark-green-trousers/p/itmc5df26954a566?pid=TROGF5NDQ8VDF4HH&amp;lid=LSTTROGF5NDQ8VDF4HHRHBTWQ&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_14&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROGF5NDQ8VDF4HH.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/tokyo-talkies-tapered-women-dark-blue-trousers/p/itm18c06ca2d71b1?pid=TROGC3ZZKEEMG4RP&amp;lid=LSTTROGC3ZZKEEMG4RP1QT7JL&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_12&amp;otracker=search&amp;iid=en_QEVxNKXZqmnAg1IAO3gw0JO%2BRzSmT%2FnO7AP9fmq7cVj%2F2Pojlc4EpLTdbKHqEVCZdwdw2i7Y32rxqr4ixktVwg%3D%3D&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -768,25 +768,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>KOTTY</t>
+          <t>Tokyo Talkies</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Women Regular Fit Green Viscose Rayon Trousers</t>
+          <t>Women Regular Fit Multicolor Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/o/h/s/28-kottywomenspant151-kotty-original-imagnz56ubjgwuzu.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/7/d/8/34-ttp0000464-tokyo-talkies-original-imafw2jydcshgp86-bb.jpeg?q=70</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-regular-fit-women-green-trousers/p/itmf8cd900a09a26?pid=TROGF3FZZN4JCHYY&amp;lid=LSTTROGF3FZZN4JCHYY8JJ4BV&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_15&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROGF3FZZN4JCHYY.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/tokyo-talkies-regular-fit-women-multicolor-trousers/p/itmb9c8bbfee1221?pid=TROFTNYDKFT6FYHT&amp;lid=LSTTROFTNYDKFT6FYHTTAJRVA&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_8&amp;otracker=search&amp;iid=en_QEVxNKXZqmnAg1IAO3gw0JO%2BRzSmT%2FnO7AP9fmq7cVj3BWulEURyDJ63cU7WVq85UKNDnN10xrxWKleOQL4%2Fsw%3D%3D&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -801,30 +801,30 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>KOTTY</t>
+          <t>SWADESI STUFF</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Women Regular Fit Black Viscose Rayon Trousers</t>
+          <t>Dry Fit Track Pant for Men | Slim Fit Running Gym Stretchable Jogger</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/f/q/p/28-kottywomenspant261-kotty-original-imaghe3gmpq6yrty.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/61B56ZjWatL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-regular-fit-women-black-trousers/p/itm52402672f82b6?pid=TROGHE3MDHTYWFHJ&amp;lid=LSTTROGHE3MDHTYWFHJ26HHKC&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_33&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROGHE3MDHTYWFHJ.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/SWADESI-STUFF-Running-Stretchable-Jogger/dp/B0BDWN5LDK/ref=sr_1_33?keywords=pants&amp;qid=1682162367&amp;sr=8-33</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>FLIPKART</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -839,20 +839,20 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Women Regular Fit Purple Viscose Rayon Trousers</t>
+          <t>Women Regular Fit Black Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>352</v>
+        <v>382</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/h/1/r/28-kttwomenspant307-kotty-original-imagnyeghk4hqvzr.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/f/q/p/28-kottywomenspant261-kotty-original-imaghe3gmpq6yrty.jpeg?q=70</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-regular-fit-women-purple-trousers/p/itm2faf429628e53?pid=TROGKGTZHGYMHQCF&amp;lid=LSTTROGKGTZHGYMHQCFX8L2IO&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_17&amp;otracker=search&amp;iid=en_6V8fkS15lz92LDFMwstCZPqw3Xym6iC27gDJNqyq%2FResKOlC8v5Jn9uYTfCxjaZN6OfcRu0jPL7PuLsCrMwJwQ%3D%3D&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/kotty-regular-fit-women-black-trousers/p/itm52402672f82b6?pid=TROGHE3MDHTYWFHJ&amp;lid=LSTTROGHE3MDHTYWFHJ26HHKC&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_19&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROGHE3MDHTYWFHJ.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -872,20 +872,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Women Regular Fit Light Green Viscose Rayon Trousers</t>
+          <t>Women Regular Fit Green Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>352</v>
+        <v>382</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/8/f/4/26-kttwomenspant269-kotty-original-imaghehccgqvn9bs.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/o/h/s/28-kottywomenspant151-kotty-original-imagnz56ubjgwuzu.jpeg?q=70</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-regular-fit-women-light-green-trousers/p/itm707810be90f02?pid=TROGHEHDCPEAMEGC&amp;lid=LSTTROGHEHDCPEAMEGCVSDI2B&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_18&amp;otracker=search&amp;iid=en_6V8fkS15lz92LDFMwstCZPqw3Xym6iC27gDJNqyq%2FRczftvi0%2FNPym3dn%2FZRLRypHGnP38XHxnzH6hhYJPgg3g%3D%3D&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/kotty-regular-fit-women-green-trousers/p/itmf8cd900a09a26?pid=TROGF3FZZN4JCHYY&amp;lid=LSTTROGF3FZZN4JCHYY8JJ4BV&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_16&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROGF3FZZN4JCHYY.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -905,20 +905,20 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Women Regular Fit Multicolor Polycotton Trousers</t>
+          <t>Women Regular Fit Brown Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>352</v>
+        <v>382</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/7/j/i/34-kttwomenspant291-kotty-original-imagge5fh9tgy9sr.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/3/k/e/28-kottywomenspant204-kotty-original-imaggjhvxzwcfggh.jpeg?q=70</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-regular-fit-women-multicolor-trousers/p/itm7cecd134d1f25?pid=TROGGE5KZXWQHFRK&amp;lid=LSTTROGGE5KZXWQHFRKYOXANV&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_21&amp;otracker=search&amp;iid=en_6V8fkS15lz92LDFMwstCZPqw3Xym6iC27gDJNqyq%2FRdjYD2KieQwC%2BuhNJqFyG5vQuYOqIZCjylEvXSUtGgjxA%3D%3D&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/kotty-regular-fit-women-brown-trousers/p/itmefde201429474?pid=TROGGJHWF7N35UT4&amp;lid=LSTTROGGJHWF7N35UT4VPCAFC&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_15&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROGGJHWF7N35UT4.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -933,25 +933,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GLEAMRUSH</t>
+          <t>KOTTY</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Women Regular Fit Green Viscose Rayon Trousers</t>
+          <t>Women Regular Fit Dark Green Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/y/5/l/m-trousers-for-women-bridon-original-imaghcwyryjpxzjx.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/l47cu4w0/trouser/i/k/v/30-kottywomenspant154-kotty-original-imagf5nctpcjxabc.jpeg?q=70</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/gleamrush-regular-fit-women-green-trousers/p/itma7411a997e63d?pid=TROGZZKSDG2YWVMH&amp;lid=LSTTROGZZKSDG2YWVMHMG7UQX&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_31&amp;otracker=search&amp;iid=en_6V8fkS15lz92LDFMwstCZPqw3Xym6iC27gDJNqyq%2FRfwzx7tfi9aXePI9E054MQPj5PQkTUulkuRbR66cfi5wA%3D%3D&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/kotty-regular-fit-women-dark-green-trousers/p/itmc5df26954a566?pid=TROGF5NDQ8VDF4HH&amp;lid=LSTTROGF5NDQ8VDF4HHRHBTWQ&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_14&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROGF5NDQ8VDF4HH.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -966,25 +966,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GLEAMRUSH</t>
+          <t>KOTTY</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Women Regular Fit Dark Blue Viscose Rayon Trousers</t>
+          <t>Women Regular Fit Black Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/c/c/w/32-33-223-we-agarwalenter-original-imagz84yxrahg889.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/8/n/5/28-kttwomenspant261-kotty-original-imagnrr9xcy9zgru.jpeg?q=70</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/gleamrush-regular-fit-women-dark-blue-trousers/p/itm975444023c32c?pid=TROGZZZZNZHYG8K2&amp;lid=LSTTROGZZZZNZHYG8K23UHCLG&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_28&amp;otracker=search&amp;iid=en_6V8fkS15lz92LDFMwstCZPqw3Xym6iC27gDJNqyq%2FRc7GqhrMF3AbMfWUE%2BpjPc8sX4po50gTzR6SFVIvsYZDA%3D%3D&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/kotty-regular-fit-women-black-trousers/p/itm126ac29fac269?pid=TROGHF9CQCPGXPXM&amp;lid=LSTTROGHF9CQCPGXPXMGBCIM6&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;spotlightTagId=BestsellerId_clo%2Fvua&amp;srno=s_1_10&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROGHF9CQCPGXPXM.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -999,30 +999,30 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GLEAMRUSH</t>
+          <t>JUGULAR</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Women Regular Fit Red Viscose Rayon Trousers</t>
+          <t>Men's Slim Fit Cotton Track Pant</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/4/d/3/xxl-trousers-for-women-bridon-original-imaghcwyzzsfyj3j.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/61SJTcmtp-L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/gleamrush-regular-fit-women-red-trousers/p/itm3d76b05a0fbb3?pid=TROGZZKSCGQMXGS5&amp;lid=LSTTROGZZKSCGQMXGS5PO65G0&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_32&amp;otracker=search&amp;iid=en_6V8fkS15lz92LDFMwstCZPqw3Xym6iC27gDJNqyq%2FRc%2Bq%2BKelXLPSbsFIzuJgrmvLWNLWp9sHXM4dUrJAIawXw%3D%3D&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/JUGULAR-Cotton-Style-Joggers-Medium/dp/B091YJ78JK/ref=sr_1_29?keywords=pants&amp;qid=1682162367&amp;sr=8-29</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>FLIPKART</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -1032,30 +1032,30 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GLEAMRUSH</t>
+          <t>Shasmi</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Women Regular Fit Maroon Viscose Rayon Trousers</t>
+          <t xml:space="preserve">Women's Dress </t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>369</v>
+        <v>399</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/l/e/q/xxl-trousers-for-women-bridon-original-imaghexrz9p94he3.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/51ylFhZJI2L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/gleamrush-regular-fit-women-maroon-trousers/p/itm0fd0ca35f8d56?pid=TROGZZKSHYGMGHYS&amp;lid=LSTTROGZZKSHYGMGHYSLL1UBH&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_27&amp;otracker=search&amp;iid=en_6V8fkS15lz92LDFMwstCZPqw3Xym6iC27gDJNqyq%2FRe531vwg06%2F9nm8JqnL3jFhlju9UywHEh6mpoR3F%2FIINQ%3D%3D&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/Shasmi-Fit-Plazzo-Trouser-Pant/dp/B0BPT47WX8/ref=sr_1_31?keywords=pants&amp;qid=1682162367&amp;sr=8-31</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>FLIPKART</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -1065,30 +1065,30 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ADDYVERO</t>
+          <t>ENDEAVOUR WEAR</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Women Flared Maroon Cotton Blend Trousers</t>
+          <t>Men's Regular Fit Trackpants</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/kfoapow0-0/trouser/x/p/l/34-cl-wm-l0737-addyvero-original-imafw2jwudmcrfbq.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/5137SFdCROL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/addyvero-flared-women-maroon-trousers/p/itm9dfc4c9f2f73d?pid=TROFPWPZZHG5CNH7&amp;lid=LSTTROFPWPZZHG5CNH7BWH7WX&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_40&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROFPWPZZHG5CNH7.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/ENDEAVOUR-WEAR-Regular-Track-EWTS_CTNBLACKTRACK_M_Black_M/dp/B09B3YC8XM/ref=sr_1_36?keywords=pants&amp;qid=1682162367&amp;sr=8-36</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>FLIPKART</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -1098,25 +1098,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ADDYVERO</t>
+          <t>MANCREW</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Women's Slim Fit Casual Trousers</t>
+          <t xml:space="preserve">Men's Regular Fit </t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61r+ZK+jPtL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61kR5YNmm9S._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/ADDYVERO-Flared-Ankle-Length-Trousers/dp/B085MCKV8F/ref=sr_1_10?keywords=pants&amp;qid=1682096762&amp;sr=8-10</t>
+          <t>https://www.amazon.com/MANCREW-Mens-Formal-Trouser-Black/dp/B09499VWGV/ref=sr_1_47?keywords=pants&amp;qid=1682162367&amp;sr=8-47</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1131,30 +1131,30 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SWADESI STUFF</t>
+          <t>CYPHUS</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Dry Fit Track Pant for Men | Slim Fit Running Gym Stretchable Jogger</t>
+          <t>Men Regular Fit Black Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>379</v>
+        <v>419</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61B56ZjWatL._AC_UL320_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/ksgehzk0/trouser/k/2/q/32-cyfor-a-cyphus-original-imag6yyyedypgvke.jpeg?q=70</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/SWADESI-STUFF-Running-Stretchable-Jogger/dp/B0BDWN5LDK/ref=sr_1_32?keywords=pants&amp;qid=1682096762&amp;sr=8-32</t>
+          <t>https://www.flipkart.com/cyphus-regular-fit-men-black-trousers/p/itmcc7fe4e00b2c2?pid=TROFZVRWWTM8VEWT&amp;lid=LSTTROFZVRWWTM8VEWTQBEJLA&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;spotlightTagId=BestsellerId_clo%2Fvua&amp;srno=s_1_7&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROFZVRWWTM8VEWT.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -1164,30 +1164,30 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>KOTTY</t>
+          <t>Chromozome</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Women Regular Fit Pink Viscose Rayon Trousers</t>
+          <t>Men's Regular Shorts</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/l5bd5zk0/trouser/d/i/d/26-kttwomenspant174-kotty-original-imaggyhncztfsbst.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/71TNBRetNwL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-regular-fit-women-pink-trousers/p/itm26ebc424e1985?pid=TROGGYHN4ZGPTXTW&amp;lid=LSTTROGGYHN4ZGPTXTWEJXO1Y&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_39&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROGGYHN4ZGPTXTW.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTM5MDM3ODA4ODk5MjI4OjE2ODIxNjIzNjc6c3BfYnRmOjIwMTA4NDMyMjkwNjk4OjowOjo&amp;url=%2FChromozome-Track-N-170-Gym-Shorts_Charcoal_Medium%2Fdp%2FB07NBYYZWD%2Fref%3Dsr_1_59_sspa%3Fkeywords%3Dpants%26qid%3D1682162367%26sr%3D8-59-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>FLIPKART</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -1197,30 +1197,30 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>KOTTY</t>
+          <t>JPM brothers</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Women Regular Fit Brown Cotton Blend Trousers</t>
+          <t>Mens Regular Fit Lycra Pant</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>382</v>
+        <v>429</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/3/k/e/28-kottywomenspant204-kotty-original-imaggjhvxzwcfggh.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/71dZDoqZEfL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-regular-fit-women-brown-trousers/p/itmefde201429474?pid=TROGGJHWF7N35UT4&amp;lid=LSTTROGGJHWF7N35UT4VPCAFC&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_16&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROGGJHWF7N35UT4.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/JPM-brothers-Polyester-BUTTON-LIGHTGREY-XL_Light-Grey_XL/dp/B0BGXZJC6S/ref=sr_1_18?keywords=pants&amp;qid=1682162367&amp;sr=8-18</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>FLIPKART</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -1230,30 +1230,30 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>JUGULAR</t>
+          <t>Laabha</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Men's Slim Fit Cotton Track Pant</t>
+          <t>Solid Track Pants</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>389</v>
+        <v>447</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61SJTcmtp-L._AC_UL320_.jpg</t>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/JUGULAR-Cotton-Style-Joggers-Medium/dp/B091YJ78JK/ref=sr_1_28?keywords=pants&amp;qid=1682096762&amp;sr=8-28</t>
+          <t>https://www.myntra.com/track-pants/laabha/laabha-solid-track-pants/21975656/buy</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -1263,25 +1263,25 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Amazon Brand - Inkast Denim Co.</t>
+          <t>VEGO</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Men's Regular Fit Polo Shirt</t>
+          <t>Mens Cotton Shorts, Bermuda,Trousers, Half Pant</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>395</v>
+        <v>449</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/91Vq-HLPJrL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71xLvsKT3bL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTc4MDk5NjIzNzQ0OTU2OjE2ODIwOTY3NjI6c3BfYnRmOjIwMTAzOTYzNDI2OTk4OjowOjo&amp;url=%2FAmazon-Brand-Inkast-Regular-P-PE-D5-A_Provincial%2Fdp%2FB098NVNBWD%2Fref%3Dsr_1_57_sspa%3Fkeywords%3Dpants%26qid%3D1682096762%26sr%3D8-57-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTM5MDM3ODA4ODk5MjI4OjE2ODIxNjIzNjc6c3BfYXRmOjIwMDg1MzM4NTQxNjk4OjowOjo&amp;url=%2FVEGO-COTTON-ZIPPER-SHORTS-HS-333-GREY-42%2Fdp%2FB079WDHVSZ%2Fref%3Dsr_1_4_sspa%3Fkeywords%3Dpants%26qid%3D1682162367%26sr%3D8-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1296,25 +1296,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ENDEAVOUR WEAR</t>
+          <t>KRG FASHION</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Men's Regular Fit Trackpants</t>
+          <t>Men's Reguler Fit Poly Cotton Trouser Pant's Relaxed</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>399</v>
+        <v>449</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/5137SFdCROL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61e6fZ9bJsL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/ENDEAVOUR-WEAR-Regular-Track-EWTS_CTNBLACKTRACK_M_Black_M/dp/B09B3YC8XM/ref=sr_1_31?keywords=pants&amp;qid=1682096762&amp;sr=8-31</t>
+          <t>https://www.amazon.com/KRG-Reguler-Cotton-Trouser-Pants/dp/B09Z95KRSN/ref=sr_1_48?keywords=pants&amp;qid=1682162367&amp;sr=8-48</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1329,25 +1329,25 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Shasmi</t>
+          <t>VEGO.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Women's Dress Pants Stretchy Work Slacks Business Casual Office Bootcut Leg Elastic Waist Regular Fit Plazzo Trouser Pant (Pant 65)</t>
+          <t>Mens Cotton Shorts, Trousers, Bermuda, Half Pant, Lower Black</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>399</v>
+        <v>449</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51ylFhZJI2L._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71NCw2PO1tL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Shasmi-Fit-Plazzo-Trouser-Pant/dp/B0BPT47WX8/ref=sr_1_30?keywords=pants&amp;qid=1682096762&amp;sr=8-30</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTM5MDM3ODA4ODk5MjI4OjE2ODIxNjIzNjc6c3BfYXRmOjIwMDg1MzM4NTQxMzk4OjowOjo&amp;url=%2FVEGO-Black-Cotton-Shorts-HB-111-BLACK-ROYAL-40%2Fdp%2FB01IXKUPGM%2Fref%3Dsr_1_3_sspa%3Fkeywords%3Dpants%26qid%3D1682162367%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1362,30 +1362,30 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Chromozome</t>
+          <t>Tokyo Talkies</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Men's Regular Shorts</t>
+          <t>Women Regular Fit Multicolor Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71TNBRetNwL._AC_UL320_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/kwl0akw0/trouser/0/i/4/32-ttp0001063-tokyo-talkies-original-imag987tqxcvqpm3.jpeg?q=70</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTc4MDk5NjIzNzQ0OTU2OjE2ODIwOTY3NjI6c3BfbXRmOjIwMTA4NDMyMjkwNjk4OjowOjo&amp;url=%2FChromozome-Track-N-170-Gym-Shorts_Charcoal_Medium%2Fdp%2FB07NBYYZWD%2Fref%3Dsr_1_24_sspa%3Fkeywords%3Dpants%26qid%3D1682096762%26sr%3D8-24-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.flipkart.com/tokyo-talkies-regular-fit-women-multicolor-trousers/p/itm713085926a550?pid=TROG987YZQ5KRDGK&amp;lid=LSTTROG987YZQ5KRDGKGYGSCJ&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_2&amp;otracker=search&amp;iid=en_QEVxNKXZqmnAg1IAO3gw0JO%2BRzSmT%2FnO7AP9fmq7cVhetpuLcv%2BFwv%2BsCIMVmkO1SaG7QyiQXXNttdYstKsQEw%3D%3D&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -1395,30 +1395,30 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>JPM brothers</t>
+          <t>Tokyo Talkies</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Mens Regular Fit Lycra Pant</t>
+          <t>Women Regular Fit Maroon Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71dZDoqZEfL._AC_UL320_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/kjhgzgw0-0/trouser/b/u/m/32-ttp0000528-tokyo-talkies-original-imafzfekgpvryft8.jpeg?q=70</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/JPM-brothers-Polyester-BUTTON-LIGHTGREY-XL_Light-Grey_XL/dp/B0BGXZJC6S/ref=sr_1_20?keywords=pants&amp;qid=1682096762&amp;sr=8-20</t>
+          <t>https://www.flipkart.com/tokyo-talkies-regular-fit-women-maroon-trousers/p/itm8a05a9cf9d352?pid=TROFZFEHKWWA9DGA&amp;lid=LSTTROFZFEHKWWA9DGAFFG8LW&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_11&amp;otracker=search&amp;iid=en_QEVxNKXZqmnAg1IAO3gw0JO%2BRzSmT%2FnO7AP9fmq7cVgeE7%2BN25QnT3OtKJGRLA1B3E3MHVnnBPmvHT2Alpb3RA%3D%3D&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -1428,30 +1428,30 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>Tokyo Talkies</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Men's Regular Track Pants</t>
+          <t>Women Regular Fit Blue Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61fu5vVqNwL._AC_UL320_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/kxtaxzk0/trouser/j/u/s/32-ttp0001089-tokyo-talkies-original-imaga6z3qmbrpgbx.jpeg?q=70</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Symbol-Lounge-KTRK-02_Navy_Medium/dp/B079VT539Q/ref=sr_1_45?keywords=pants&amp;qid=1682096762&amp;sr=8-45</t>
+          <t>https://www.flipkart.com/tokyo-talkies-regular-fit-women-blue-trousers/p/itm3da88f8dc701e?pid=TROGA6Z3YZKXQQUY&amp;lid=LSTTROGA6Z3YZKXQQUYWJAYIG&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_18&amp;otracker=search&amp;iid=en_QEVxNKXZqmnAg1IAO3gw0JO%2BRzSmT%2FnO7AP9fmq7cVjzDzB19cFxNEdRi%2FzLNmzlMtQgo%2BvCMB3R795hTw4tDA%3D%3D&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -1461,30 +1461,30 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Laabha</t>
+          <t>VEGO</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Solid Track Pants</t>
+          <t>Men's Sports Shorts, Nylon Shorts, Half Pant, Bermuda</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/81JZxUJOzhL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/laabha/laabha-solid-track-pants/21975656/buy</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTM5MDM3ODA4ODk5MjI4OjE2ODIxNjIzNjc6c3BfYXRmOjIwMDg1MzM4NTQzODk4OjowOjo&amp;url=%2FVEGO-Sports-Black-Shorts-SPS-BOOM-BLACK-34%2Fdp%2FB07DC8XTZB%2Fref%3Dsr_1_1_sspa%3Fkeywords%3Dpants%26qid%3D1682162367%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -1494,25 +1494,25 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AVOLT</t>
+          <t>Shasmi</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Dry Fit Track Pants Combo I Slim Fit Sports Track Pants</t>
+          <t xml:space="preserve">Women's Yoga Dress </t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61iSZEH6PJL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61nCTPDIp7L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/AVOLT-Track-Athleisure-Running-Stretchable/dp/B09VPK6WZC/ref=sr_1_33?keywords=pants&amp;qid=1682096762&amp;sr=8-33</t>
+          <t>https://www.amazon.com/Shasmi-Boot-Cut-Fit-Trouser-Pant/dp/B0BGTFH7X4/ref=sr_1_41?keywords=pants&amp;qid=1682162367&amp;sr=8-41</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1527,30 +1527,30 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>LEE TEX</t>
+          <t>JUGULAR</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Pack of 2 Women Regular Fit Purple, Blue Cotton Blend Trousers</t>
+          <t>Men's Regular Fit Cotton Pant And Joggers</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/p/c/v/34-bell-bottom-trouser-lee-tex-original-imagkhahbnchn2wn.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/51e3d6L6EDL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/lee-tex-regular-fit-women-purple-blue-trousers/p/itm23060ade90f6a?pid=TROGKHAMFPGPHKQ6&amp;lid=LSTTROGKHAMFPGPHKQ6BGSUBZ&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_12&amp;otracker=search&amp;iid=en_6V8fkS15lz92LDFMwstCZPqw3Xym6iC27gDJNqyq%2FRebBJyQ1B9XwQ2hydrcQeeYgPLEUhc5ZxpEXvjYrvx%2BUw%3D%3D&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/JUGULAR-Cotton-Track-Joggers-X-Large/dp/B09W9X6LG6/ref=sr_1_38?keywords=pants&amp;qid=1682162367&amp;sr=8-38</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>FLIPKART</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -1560,25 +1560,25 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>JUGULAR</t>
+          <t>Aahwan</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Men's Regular Fit Cotton Pant And Joggers</t>
+          <t xml:space="preserve">Women's &amp; Girls' Solid Split Hem Flare Leg </t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51e3d6L6EDL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51tzz6Ib+PL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/JUGULAR-Cotton-Track-Joggers-X-Large/dp/B09W9X6LG6/ref=sr_1_38?keywords=pants&amp;qid=1682096762&amp;sr=8-38</t>
+          <t>https://www.amazon.com/Aahwan-Solid-Trouser-Womens-212-Black-S/dp/B0BTDCLR6D/ref=sr_1_6?keywords=pants&amp;qid=1682162367&amp;sr=8-6</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1593,25 +1593,25 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Shasmi</t>
+          <t>BLUE STAR SHARK</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Women's Yoga Dress Pants Stretchy Work Slacks Business Casual Office Flare Bell-Bottom/Boot-Cut Elastic Waist Regular Fit Trouser Pant (Pant 57)</t>
+          <t>Men's Lycra Stretchable Regular Fit Joggers Navy Track Pant Lower</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61nCTPDIp7L._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51d74502ZVL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Shasmi-Boot-Cut-Fit-Trouser-Pant/dp/B0BGTFH7X4/ref=sr_1_41?keywords=pants&amp;qid=1682096762&amp;sr=8-41</t>
+          <t>https://www.amazon.com/BLUE-STAR-SHARK-Stretchable-Regular/dp/B0BJBHNQHQ/ref=sr_1_50?keywords=pants&amp;qid=1682162367&amp;sr=8-50</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1626,25 +1626,25 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Aahwan</t>
+          <t>Amazon Brand - Inkast Denim Co.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Women's &amp; Girls' Solid Split Hem Flare Leg Pants Trouser</t>
+          <t>Men's Regular Fit Polo Shirt</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51tzz6Ib+PL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/91xNPItUNNL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Aahwan-Solid-Trouser-Womens-212-Black-S/dp/B0BTDCLR6D/ref=sr_1_6?keywords=pants&amp;qid=1682096762&amp;sr=8-6</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTM5MDM3ODA4ODk5MjI4OjE2ODIxNjIzNjc6c3BfYnRmOjIwMTAzOTI5ODEwMTk4OjowOjo&amp;url=%2FAmazon-Brand-Inkast-Regular-16_Black%2Fdp%2FB08FS4T5NL%2Fref%3Dsr_1_60_sspa%3Fkeywords%3Dpants%26qid%3D1682162367%26sr%3D8-60-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1659,25 +1659,25 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BLUE STAR SHARK</t>
+          <t>JUGULAR</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Men's Lycra Stretchable Regular Fit Joggers Navy Track Pant Lower</t>
+          <t xml:space="preserve">Men's Slim Fit Track </t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51d74502ZVL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71r3RWbLWAL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/BLUE-STAR-SHARK-Stretchable-Regular/dp/B0BJBHNQHQ/ref=sr_1_55?keywords=pants&amp;qid=1682096762&amp;sr=8-55</t>
+          <t>https://www.amazon.com/JUGULAR-Solid-Regular-Cargo-X-Large/dp/B0855KB2HM/ref=sr_1_8?keywords=pants&amp;qid=1682162367&amp;sr=8-8</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1692,30 +1692,30 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Duve Fashion</t>
+          <t>Laabha</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Pack of 2 Women Regular Fit Black, Blue Lycra Blend Trousers</t>
+          <t>Solid Track Pants</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/kn7sdjk0/trouser/a/v/k/26-regular-fit-women-stretchable-fabric-jogger-trousers-combo-original-imagfy4zrkfuzr2g.jpeg?q=70</t>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21975652/2023/2/21/65fb8b94-d83d-4354-bca2-395279f286041676959772591-Laabha-Women-Track-Pants-6261676959771524-1.jpg</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/duve-fashion-regular-fit-women-black-blue-trousers/p/itmdf447d458e9b1?pid=TROGFY4ZH77GGGZS&amp;lid=LSTTROGFY4ZH77GGGZSC6EL3R&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_22&amp;otracker=search&amp;iid=en_6V8fkS15lz92LDFMwstCZPqw3Xym6iC27gDJNqyq%2FReGfwJmWoJgfQGev5m3UmyvOHQHiKKKr04EMYZrM8UVCA%3D%3D&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.myntra.com/track-pants/laabha/laabha-solid-track-pants/21975652/buy</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>FLIPKART</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -1725,30 +1725,30 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>JUGULAR</t>
+          <t>Hubberholme</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Men's Slim Fit Track pants</t>
+          <t>Men Track Pants</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71r3RWbLWAL._AC_UL320_.jpg</t>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/1088888/2016/5/11/11462961543084-Hubberholme-Navy-Tailored-Fit-Track-Pants-921462961542776-1.jpg</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/JUGULAR-Solid-Regular-Cargo-X-Large/dp/B0855KB2HM/ref=sr_1_7?keywords=pants&amp;qid=1682096762&amp;sr=8-7</t>
+          <t>https://www.myntra.com/track-pants/hubberholme/hubberholme-navy-track-pants/1088888/buy</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -1758,30 +1758,30 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Amazon Brand - Inkast Denim Co.</t>
+          <t>Hubberholme</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Men's Regular Fit Polo Shirt</t>
+          <t>Men Track Pants</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/91xNPItUNNL._AC_UL320_.jpg</t>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTc4MDk5NjIzNzQ0OTU2OjE2ODIwOTY3NjI6c3BfbXRmOjIwMTAzOTI5ODEwMTk4OjowOjo&amp;url=%2FAmazon-Brand-Inkast-Regular-16_Black%2Fdp%2FB08FS4T5NL%2Fref%3Dsr_1_23_sspa%3Fkeywords%3Dpants%26qid%3D1682096762%26sr%3D8-23-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.myntra.com/track-pants/hubberholme/hubberholme-navy-track-pants/1189633/buy</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -1791,30 +1791,30 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Laabha</t>
+          <t>king kong</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Solid Track Pants</t>
+          <t xml:space="preserve">Luxury PV Lycra Stretchable Formal </t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21975652/2023/2/21/65fb8b94-d83d-4354-bca2-395279f286041676959772591-Laabha-Women-Track-Pants-6261676959771524-1.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51PtZkm7ZWL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/laabha/laabha-solid-track-pants/21975652/buy</t>
+          <t>https://www.amazon.com/king-kong-Stretchable-Trouser-Pant/dp/B0BYJV2Q98/ref=sr_1_51?keywords=pants&amp;qid=1682162367&amp;sr=8-51</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -1824,30 +1824,30 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Hubberholme</t>
+          <t>Majestic Man</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Men Track Pants</t>
+          <t>Men Slim Fit Light Blue Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/1088888/2016/5/11/11462961543084-Hubberholme-Navy-Tailored-Fit-Track-Pants-921462961542776-1.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/l1pc3gw0/trouser/7/5/5/32-trsd401bk-majestic-man-original-imagd7pgghbjjaue.jpeg?q=70</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/hubberholme/hubberholme-navy-track-pants/1088888/buy</t>
+          <t>https://www.flipkart.com/majestic-man-slim-fit-men-light-blue-trousers/p/itm5111ee2191d74?pid=TROGD7PMJUX6GEKT&amp;lid=LSTTROGD7PMJUX6GEKTNHUZUO&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_26&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROGD7PMJUX6GEKT.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -1857,30 +1857,30 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Hubberholme</t>
+          <t>Majestic Man</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Men Track Pants</t>
+          <t>Slim Fit Formal Trousers for Men</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/61cncOh6ZbL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/hubberholme/hubberholme-navy-track-pants/1189633/buy</t>
+          <t>https://www.amazon.com/Majestic-Man-Slim-Formal-Trousers/dp/B0B1LNCQRN/ref=sr_1_53?keywords=pants&amp;qid=1682162367&amp;sr=8-53</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -1890,30 +1890,30 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Majestic Man</t>
+          <t>Chromozome</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Men Slim Fit Light Blue Cotton Blend Trousers</t>
+          <t>Men Slim Fit Polyester, Cotton Track Pant</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/l1pc3gw0/trouser/7/5/5/32-trsd401bk-majestic-man-original-imagd7pgghbjjaue.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/71zvD34MDgL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/majestic-man-slim-fit-men-light-blue-trousers/p/itm5111ee2191d74?pid=TROGD7PMJUX6GEKT&amp;lid=LSTTROGD7PMJUX6GEKTNHUZUO&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_23&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROGD7PMJUX6GEKT.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/Chromozome-Cotton-Track-Pants-8902733355278_S6762-Starnavy-L/dp/B06WD5BZWC/ref=sr_1_56?keywords=pants&amp;qid=1682162367&amp;sr=8-56</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>FLIPKART</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -1923,25 +1923,25 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Majestic Man</t>
+          <t>ENDEAVOUR WEAR</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Slim Fit Formal Trousers for Men</t>
+          <t>Men's Regular Fit Trackpants</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61cncOh6ZbL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51o-SBNPLUS._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Majestic-Man-Slim-Formal-Trousers/dp/B0B1LNCQRN/ref=sr_1_46?keywords=pants&amp;qid=1682096762&amp;sr=8-46</t>
+          <t>https://www.amazon.com/ENDEAVOUR-WEAR-Stretchable-Regular-Joggers/dp/B096KVR981/ref=sr_1_20?keywords=pants&amp;qid=1682162367&amp;sr=8-20</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/q-rious-regular-fit-women-pink-trousers/p/itma3a3d91fd847e?pid=TROFW7G9J9ZHCC7E&amp;lid=LSTTROFW7G9J9ZHCC7ENQCEAZ&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_34&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROFW7G9J9ZHCC7E.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/q-rious-regular-fit-women-pink-trousers/p/itma3a3d91fd847e?pid=TROFW7G9J9ZHCC7E&amp;lid=LSTTROFW7G9J9ZHCC7ENQCEAZ&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_33&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROFW7G9J9ZHCC7E.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -1989,25 +1989,25 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Urbano Juniors</t>
+          <t>Amazon Brand - Symbol</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Boy's Slim Fit Jeans</t>
+          <t>Men's Slim Casual Trousers</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>499</v>
+        <v>537</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51rRhR1yzaL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71eeiY8CF4L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTc4MDk5NjIzNzQ0OTU2OjE2ODIwOTY3NjI6c3BfYXRmOjIwMDc2OTE2ODI5OTk4OjowOjo&amp;url=%2FUrbano-Juniors-Black-Stretch-junepsboy-black-9-10%2Fdp%2FB085R9FXF4%2Fref%3Dsr_1_1_sspa%3Fkeywords%3Dpants%26qid%3D1682096762%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1%26smid%3DA3FAUFPGLEWDFF</t>
+          <t>https://www.amazon.com/Amazon-Brand-Stretchable-AW19TRS-ESS-4_Light-Grey_32/dp/B07SK1X4H9/ref=sr_1_17?keywords=pants&amp;qid=1682162367&amp;sr=8-17</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2022,30 +2022,30 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Chromozome</t>
+          <t>SASSAFRAS</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Men's Regular Fit Cotton Track Pants</t>
+          <t>Women Relaxed Pink Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>499</v>
+        <v>554</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61HwCsXHbzL._AC_UL320_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/l/n/7/xxl-sfpant5302-sassafras-original-imafvb5h3ufh9hry-bb.jpeg?q=70</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Chromozome-Cotton-Track-Pants-8902733390194_S8925-Black_Large/dp/B0741CVJL8/ref=sr_1_53?keywords=pants&amp;qid=1682096762&amp;sr=8-53</t>
+          <t>https://www.flipkart.com/sassafras-relaxed-women-pink-trousers/p/itm50ef3bd840444?pid=TROFVB5HCZZRSEA6&amp;lid=LSTTROFVB5HCZZRSEA6IYSABY&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_13&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROFVB5HCZZRSEA6.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -2055,30 +2055,30 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ENDEAVOUR WEAR</t>
+          <t>SASSAFRAS</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Men's Regular Fit Trackpants</t>
+          <t>Women Relaxed Light Green Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>499</v>
+        <v>554</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61R11o1DC+S._AC_UL320_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/g/f/n/m-sfpant5301-sassafras-original-imafvb5hmwn4ghkz-bb.jpeg?q=70</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/ENDEAVOUR-WEAR-Stretchable-Regular-Joggers/dp/B08Z3LWZ8K/ref=sr_1_13?keywords=pants&amp;qid=1682096762&amp;sr=8-13</t>
+          <t>https://www.flipkart.com/sassafras-relaxed-women-light-green-trousers/p/itm3ac7f52e9f2ad?pid=TROFVB5HQVARSG7G&amp;lid=LSTTROFVB5HQVARSG7GBIBDBS&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_39&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROFVB5HQVARSG7G.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -2088,25 +2088,25 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>Alan Jones Clothing</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Men's Slim Casual Trousers</t>
+          <t xml:space="preserve">Men's Slim Fit Track </t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>537</v>
+        <v>579</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71eeiY8CF4L._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81t3XS8UciL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Stretchable-AW19TRS-ESS-4_Light-Grey_32/dp/B07SK1X4H9/ref=sr_1_15?keywords=pants&amp;qid=1682096762&amp;sr=8-15</t>
+          <t>https://www.amazon.com/Alan-Jones-Solid-Joggers-JOG18-D95-MIL-L_Large_Melange/dp/B07C9T8LL1/ref=sr_1_14?keywords=pants&amp;qid=1682162367&amp;sr=8-14</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2121,30 +2121,30 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>FUBAR</t>
+          <t>Amazon Brand - Symbol</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Men Slim Fit Cream Cotton Blend Trousers</t>
+          <t xml:space="preserve">Men Dress </t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>549</v>
+        <v>582</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/a/f/z/32-kctr-2121-crm-fubar-original-imafzy38ewvc3zzw-bb.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/717-WaIUi9L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/fubar-slim-fit-men-cream-trousers/p/itm1c780fa978946?pid=TROFZYPZEZHNZFAT&amp;lid=LSTTROFZYPZEZHNZFATGWUU5R&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_29&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROFZYPZEZHNZFAT.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/Amazon-Brand-Stretchable-Trousers-SY-AW19-MFT-049_Light/dp/B07YT1PVNJ/ref=sr_1_9?keywords=pants&amp;qid=1682162367&amp;sr=8-9</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>FLIPKART</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -2154,30 +2154,30 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SASSAFRAS</t>
+          <t>Okane</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Women Relaxed Light Green Cotton Blend Trousers</t>
+          <t>Men Lounge Pants</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>554</v>
+        <v>584</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/g/f/n/m-sfpant5301-sassafras-original-imafvb5hmwn4ghkz-bb.jpeg?q=70</t>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/sassafras-relaxed-women-light-green-trousers/p/itm3ac7f52e9f2ad?pid=TROFVB5HQVARSG7G&amp;lid=LSTTROFVB5HQVARSG7GBIBDBS&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_36&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROFVB5HQVARSG7G.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.myntra.com/lounge-pants/okane/-okane-men-lounge-pants/22281166/buy</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>FLIPKART</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -2187,30 +2187,30 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SASSAFRAS</t>
+          <t>Okane</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Women Relaxed Pink Cotton Blend Trousers</t>
+          <t>Men Lounge Pants</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>554</v>
+        <v>584</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/l/n/7/xxl-sfpant5302-sassafras-original-imafvb5h3ufh9hry-bb.jpeg?q=70</t>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/sassafras-relaxed-women-pink-trousers/p/itm50ef3bd840444?pid=TROFVB5HCZZRSEA6&amp;lid=LSTTROFVB5HCZZRSEA6IYSABY&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_13&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROFVB5HCZZRSEA6.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.myntra.com/lounge-pants/okane/-okane-men-lounge-pants/22144694/buy</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>FLIPKART</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -2220,30 +2220,30 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Alan Jones Clothing</t>
+          <t>plusS</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Men's Slim Fit Track pants</t>
+          <t>Women Track Pants</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>579</v>
+        <v>595</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81t3XS8UciL._AC_UL320_.jpg</t>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Alan-Jones-Solid-Joggers-JOG18-D95-MIL-L_Large_Melange/dp/B07C9T8LL1/ref=sr_1_17?keywords=pants&amp;qid=1682096762&amp;sr=8-17</t>
+          <t>https://www.myntra.com/track-pants/pluss/pluss-navy-track-pants/1875899/buy</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -2253,30 +2253,30 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>plusS</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Men Dress Pants</t>
+          <t>Women Track Pants</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/717-WaIUi9L._AC_UL320_.jpg</t>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Stretchable-Trousers-SY-AW19-MFT-049_Light/dp/B07YT1PVNJ/ref=sr_1_8?keywords=pants&amp;qid=1682096762&amp;sr=8-8</t>
+          <t>https://www.myntra.com/track-pants/pluss/pluss-orange-track-pants/1873525/buy</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -2286,30 +2286,30 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Okane</t>
+          <t>Generic</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Men Lounge Pants</t>
+          <t>RR Fashion Men's Regular Formal Trouser</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>584</v>
+        <v>599</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/51TaUVGTOxL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/okane/-okane-men-lounge-pants/22281166/buy</t>
+          <t>https://www.amazon.com/Fashion-Regular-Formal-Trouser-Black/dp/B0BRZT69HF/ref=sr_1_30?keywords=pants&amp;qid=1682162367&amp;sr=8-30</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -2319,30 +2319,30 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Okane</t>
+          <t>VIMAL JONNEY</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Men Lounge Pants</t>
+          <t xml:space="preserve">Men's Regular Fit Track </t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>584</v>
+        <v>599</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/71MwNdwIc1L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/okane/-okane-men-lounge-pants/22144694/buy</t>
+          <t>https://www.amazon.com/VIMAL-Cotton-Trackpants-Multicolour-D10ND10A-S/dp/B01BJZ2N8G/ref=sr_1_26?keywords=pants&amp;qid=1682162367&amp;sr=8-26</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -2352,30 +2352,30 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>plusS</t>
+          <t>SASSAFRAS</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Women Track Pants</t>
+          <t>Women Relaxed Black Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/n/w/j/l-sfpant5303-sassafras-original-imafvb5hhcmesthk-bb.jpeg?q=70</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/pluss/pluss-navy-track-pants/1875899/buy</t>
+          <t>https://www.flipkart.com/sassafras-relaxed-women-black-trousers/p/itmdf31fe89be36d?pid=TROFVB5HTZP7B2DP&amp;lid=LSTTROFVB5HTZP7B2DPPLTLFQ&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_35&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROFVB5HTZP7B2DP.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -2385,30 +2385,30 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>plusS</t>
+          <t>Peppyzone</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Women Track Pants</t>
+          <t>Men's Camouflage Regular Fit Track Pant</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/610BjJqZ67L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/pluss/pluss-orange-track-pants/1873525/buy</t>
+          <t>https://www.amazon.com/LionRoar-Camouflage-Track-Pants-Large/dp/B079WM2V1H/ref=sr_1_28?keywords=pants&amp;qid=1682162367&amp;sr=8-28</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -2418,30 +2418,30 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>SASSAFRAS</t>
+          <t>max</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Women Relaxed Black Cotton Blend Trousers</t>
+          <t>Women Track Pants</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>599</v>
+        <v>629</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/n/w/j/l-sfpant5303-sassafras-original-imafvb5hhcmesthk-bb.jpeg?q=70</t>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21366480/2022/12/31/d310c9d4-84ce-4584-9f74-4b9b5898eb921672470031607WomenPrintedJoggers1.jpg</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/sassafras-relaxed-women-black-trousers/p/itmdf31fe89be36d?pid=TROFVB5HTZP7B2DP&amp;lid=LSTTROFVB5HTZP7B2DPPLTLFQ&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_19&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROFVB5HTZP7B2DP.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.myntra.com/track-pants/max/max-women-track-pants/21366480/buy</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>FLIPKART</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -2451,30 +2451,30 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Chromozome</t>
+          <t>Foxter</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Men Slim Fit Polyester, Cotton Track Pant</t>
+          <t>Pack of 2 Women Regular Fit Multicolor Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>599</v>
+        <v>629</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71WygQ83NVL._AC_UL320_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/g/o/3/28-women-trouser-lupi-foxter-original-imagmarn8zbdywga.jpeg?q=70</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTc4MDk5NjIzNzQ0OTU2OjE2ODIwOTY3NjI6c3BfYXRmOjIwMDQ1NDk4NDgyOTk4OjowOjo&amp;url=%2FChromozome-Cotton-Track-Pants-8902733355223_S6762-Black-M%2Fdp%2FB06WD5BYWV%2Fref%3Dsr_1_4_sspa%3Fkeywords%3Dpants%26qid%3D1682096762%26sr%3D8-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.flipkart.com/foxter-regular-fit-women-multicolor-trousers/p/itm5bd1f0e10d76f?pid=TROGMAT2R4TVZZHR&amp;lid=LSTTROGMAT2R4TVZZHRTNSGNY&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_34&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROGMAT2R4TVZZHR.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -2484,30 +2484,30 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Generic</t>
+          <t>Smarty Pants</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>RR Fashion Men's Regular Formal Trouser</t>
+          <t>Women Floral Printed Lounge Pants</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>599</v>
+        <v>636</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51TaUVGTOxL._AC_UL320_.jpg</t>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Fashion-Regular-Formal-Trouser-Black/dp/B0BRZT69HF/ref=sr_1_29?keywords=pants&amp;qid=1682096762&amp;sr=8-29</t>
+          <t>https://www.myntra.com/lounge-pants/smarty-pants/smarty-pants-women-blue--white-floral-printed-lounge-pants/18034886/buy</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -2517,25 +2517,25 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Peppyzone</t>
+          <t>T2F</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Men's Camouflage Regular Fit Track Pant</t>
+          <t xml:space="preserve">Boys Printed Track </t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>599</v>
+        <v>646</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/610BjJqZ67L._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71qEbCkqtRL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/LionRoar-Camouflage-Track-Pants-Large/dp/B079WM2V1H/ref=sr_1_27?keywords=pants&amp;qid=1682096762&amp;sr=8-27</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTM5MDM3ODA4ODk5MjI4OjE2ODIxNjIzNjc6c3BfbXRmOjIwMDUwMjUwNzU2MzA1OjowOjo&amp;url=%2FT2F-Track-Black-Violet-Yellow%2Fdp%2FB01NCORE74%2Fref%3Dsr_1_23_sspa%3Fkeywords%3Dpants%26qid%3D1682162367%26sr%3D8-23-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2550,30 +2550,30 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>VIMAL JONNEY</t>
+          <t>Smarty Pants</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Men's Regular Fit Track pants(Pack of 2)</t>
+          <t>Women Cotton Lounge Pants</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>599</v>
+        <v>649</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71MwNdwIc1L._AC_UL320_.jpg</t>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21450340/2023/1/6/f7b41e5a-6a82-4a68-9c92-e1ce64857e901673020847261SmartyPantswomenscottonrosepinkcoloraztecprintloungewearpaja1.jpg</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/VIMAL-Cotton-Trackpants-Multicolour-D10ND10A-S/dp/B01BJZ2N8G/ref=sr_1_26?keywords=pants&amp;qid=1682096762&amp;sr=8-26</t>
+          <t>https://www.myntra.com/lounge-pants/smarty-pants/smarty-pants-women-printed-cotton-lounge-pants/21450340/buy</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -2588,20 +2588,20 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Women Floral Printed Lounge Pants</t>
+          <t>Women Cotton Lounge Pants</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>636</v>
+        <v>649</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/smarty-pants/smarty-pants-women-blue--white-floral-printed-lounge-pants/18034886/buy</t>
+          <t>https://www.myntra.com/lounge-pants/smarty-pants/smarty-pants-women-printed-cotton-lounge-pants/21450338/buy</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -2616,25 +2616,25 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>T2F</t>
+          <t>Amazon Brand - Symbol</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Boys Printed Track Pants (Pack of 5)</t>
+          <t xml:space="preserve">Men's Slim Casual </t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71qEbCkqtRL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71woFPwao4L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTc4MDk5NjIzNzQ0OTU2OjE2ODIwOTY3NjI6c3BfbXRmOjIwMDUwMjUwNzU2MzA1OjowOjo&amp;url=%2FT2F-Track-Black-Violet-Yellow%2Fdp%2FB01NCORE74%2Fref%3Dsr_1_22_sspa%3Fkeywords%3Dpants%26qid%3D1682096762%26sr%3D8-22-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/Amazon-Brand-Symbol-AW17TRS-02-12_Black-Coffee_28/dp/B0B3PLK922/ref=sr_1_43?keywords=pants&amp;qid=1682162367&amp;sr=8-43</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2649,30 +2649,30 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Smarty Pants</t>
+          <t>Amazon Brand - Inkast Denim Co.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Women Cotton Lounge Pants</t>
+          <t>Men's Regular Casual Trousers</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>649</v>
+        <v>680</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21450340/2023/1/6/f7b41e5a-6a82-4a68-9c92-e1ce64857e901673020847261SmartyPantswomenscottonrosepinkcoloraztecprintloungewearpaja1.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71o4-mxo2bL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/smarty-pants/smarty-pants-women-printed-cotton-lounge-pants/21450340/buy</t>
+          <t>https://www.amazon.com/Amazon-Brand-Straight-INKCT-001_Lt/dp/B08FJNZDW3/ref=sr_1_40?keywords=pants&amp;qid=1682162367&amp;sr=8-40</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -2682,30 +2682,30 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Smarty Pants</t>
+          <t>Neostreak</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Women Cotton Lounge Pants</t>
+          <t>Men's Slim Fit Jeans</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>649</v>
+        <v>689</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/81RuOi+8grL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/smarty-pants/smarty-pants-women-printed-cotton-lounge-pants/21450338/buy</t>
+          <t>https://www.amazon.com/Neostreak-Jeans-neoepsjean-lgrey-Light-Grey_38/dp/B07L6YWLQX/ref=sr_1_42?keywords=pants&amp;qid=1682162367&amp;sr=8-42</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -2715,30 +2715,30 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Okane</t>
+          <t>CUPID</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Men Lounge Pants</t>
+          <t>Women Regular Fit Cotton Blend Plain Comfortable Night Track Pant, Lower, Sports Trouser, Joggers, Lounge Wear and Daily Gym Wear for Ladies, M to 7XL</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>656</v>
+        <v>699</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/51BADzjD4nL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/okane/-okane-men-lounge-pants/22144700/buy</t>
+          <t>https://www.amazon.com/CUPID-Regular-Womens-Track-Pants/dp/B01CA941PS/ref=sr_1_44?keywords=pants&amp;qid=1682162367&amp;sr=8-44</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -2748,30 +2748,30 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Neostreak</t>
+          <t>Smarty Pants</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Men's Slim Fit Stretchable Jeans</t>
+          <t>Women Solid Track Pants</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>669</v>
+        <v>704</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71hDf7v4fzL._AC_UL320_.jpg</t>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTc4MDk5NjIzNzQ0OTU2OjE2ODIwOTY3NjI6c3BfYnRmOjIwMDQxMDI1NDg2NzA0OjowOjo&amp;url=%2FNeostreak-Mens-Jeans-neoepsjean-bla-Black_38%2Fdp%2FB07L6YRFYT%2Fref%3Dsr_1_58_sspa%3Fkeywords%3Dpants%26qid%3D1682096762%26sr%3D8-58-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.myntra.com/track-pants/smarty-pants/smarty-pants-women-rose-solid-track-pants/17165186/buy</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -2781,25 +2781,25 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Amazon Brand - Inkast Denim Co.</t>
+          <t>Amazon Brand - Symbol</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Men's Regular Casual Trousers</t>
+          <t xml:space="preserve">Men's Regular Casual </t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>680</v>
+        <v>719</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71o4-mxo2bL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61xJvbhaq6L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Straight-INKCT-001_Lt/dp/B08FJNZDW3/ref=sr_1_43?keywords=pants&amp;qid=1682096762&amp;sr=8-43</t>
+          <t>https://www.amazon.com/Amazon-Brand-Symbol-Regular-AW17TRS-01-12_Blue/dp/B0B3PT87NL/ref=sr_1_37?keywords=pants&amp;qid=1682162367&amp;sr=8-37</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -2819,20 +2819,20 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Men's Slim Casual Pants</t>
+          <t xml:space="preserve">Men Dress </t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>689</v>
+        <v>722</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71woFPwao4L._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61e0ta9X9zL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Symbol-AW17TRS-02-12_Black-Coffee_28/dp/B0B3PLK922/ref=sr_1_40?keywords=pants&amp;qid=1682096762&amp;sr=8-40</t>
+          <t>https://www.amazon.com/Amazon-Brand-Stretchable-Trousers-SY-AW19-MFT-050_Black_34W/dp/B07YT1GKKH/ref=sr_1_12?keywords=pants&amp;qid=1682162367&amp;sr=8-12</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -2847,25 +2847,25 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Neostreak</t>
+          <t>Amazon Brand - Symbol</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Men's Slim Fit Jeans</t>
+          <t>Men's Regular Casual Trousers</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>689</v>
+        <v>749</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81RuOi+8grL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61YHtYYabpL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Neostreak-Jeans-neoepsjean-lgrey-Light-Grey_38/dp/B07L6YWLQX/ref=sr_1_44?keywords=pants&amp;qid=1682096762&amp;sr=8-44</t>
+          <t>https://www.amazon.com/Amazon-Brand-Straight-AW-SY-MCT-1151_Lt-Grey_32W/dp/B07TMNTV31/ref=sr_1_35?keywords=pants&amp;qid=1682162367&amp;sr=8-35</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -2880,25 +2880,25 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CUPID</t>
+          <t>Amazon Brand - Symbol</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Women Regular Fit Cotton Blend Plain Comfortable Night Track Pant, Lower, Sports Trouser, Joggers, Lounge Wear and Daily Gym Wear for Ladies, M to 7XL</t>
+          <t>Men's Straight Casual Trousers</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>699</v>
+        <v>749</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51BADzjD4nL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/718kU7VISWL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/CUPID-Regular-Womens-Track-Pants/dp/B01CA941PS/ref=sr_1_42?keywords=pants&amp;qid=1682096762&amp;sr=8-42</t>
+          <t>https://www.amazon.com/Amazon-Brand-Symbol-Chinos-AW-SY-MCT-1145_Grey_32W/dp/B07CYVB7L8/ref=sr_1_7?keywords=pants&amp;qid=1682162367&amp;sr=8-7</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -2913,30 +2913,30 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>GO COLORS</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Women Track Pants</t>
+          <t>Women's Regular Fit Pant</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>699</v>
+        <v>749</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21366480/2022/12/31/d310c9d4-84ce-4584-9f74-4b9b5898eb921672470031607WomenPrintedJoggers1.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51AGIfah5+L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/max/max-women-track-pants/21366480/buy</t>
+          <t>https://www.amazon.com/GO-COLORS-Women-Viscose-Casual/dp/B098FNJZP7/ref=sr_1_16?keywords=pants&amp;qid=1682162367&amp;sr=8-16</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -2946,30 +2946,30 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Smarty Pants</t>
+          <t>Van Heusen</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Women Solid Track Pants</t>
+          <t xml:space="preserve">Athleisure Stretch Lounge </t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>704</v>
+        <v>759</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/41n5ru9w0yL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/smarty-pants/smarty-pants-women-rose-solid-track-pants/17165186/buy</t>
+          <t>https://www.amazon.com/Van-Heusen-Stretch-Pockets-55303_BLACK_L/dp/B07J5924ZT/ref=sr_1_45?keywords=pants&amp;qid=1682162367&amp;sr=8-45</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -2979,30 +2979,30 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>9rasa</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Men's Regular Casual Pants</t>
+          <t>Dhoti Pants</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>719</v>
+        <v>779</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61xJvbhaq6L._AC_UL320_.jpg</t>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Symbol-Regular-AW17TRS-01-12_Blue/dp/B0B3PT87NL/ref=sr_1_37?keywords=pants&amp;qid=1682096762&amp;sr=8-37</t>
+          <t>https://www.myntra.com/dhotis/9rasa/9rasa-maroon-dhoti-pants/2049821/buy</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -3012,25 +3012,25 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>ADBUCKS</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Men Dress Pants</t>
+          <t xml:space="preserve">Men's Regular Fit Cargo Style Casual Trousers </t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>722</v>
+        <v>783</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61e0ta9X9zL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/41EUTEtrdcL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Stretchable-Trousers-SY-AW19-MFT-050_Black_34W/dp/B07YT1GKKH/ref=sr_1_11?keywords=pants&amp;qid=1682096762&amp;sr=8-11</t>
+          <t>https://www.amazon.com/ADBUCKS-Regular-Cargo-Casual-Trousers/dp/B09VPY9R8V/ref=sr_1_34?keywords=pants&amp;qid=1682162367&amp;sr=8-34</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3045,30 +3045,30 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>HIGHLANDER</t>
+          <t>Smarty Pants</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Men Slim Fit Beige Cotton Blend Trousers</t>
+          <t>Women 2-Pcs Printed Night suit</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>743</v>
+        <v>783</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/4/k/l/34-hltr003916-highlander-original-imafw2jvpnjx4a6g-bb.jpeg?q=70</t>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21615980/2023/1/19/1828f3af-f448-42b8-8a12-d326bc81053c1674124705304SmartyPantswomenssilksatinmarooncolorpowerpuffgirlcartoonpri1.jpg</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/highlander-slim-fit-men-beige-trousers/p/itmfd7m67xkgxdwz?pid=TROF34N4YVEDG8DV&amp;lid=LSTTROF34N4YVEDG8DVKECPT6&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_26&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROF34N4YVEDG8DV.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.myntra.com/night-suits/smarty-pants/smarty-pants-women-2-pieces-printed-shirt-with-lounge-pants/21615980/buy</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>FLIPKART</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -3078,30 +3078,30 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>GO COLORS</t>
+          <t>Smarty Pants</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Women's Regular Fit Pant</t>
+          <t>Women 2-Pcs Printed Night suit</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>749</v>
+        <v>783</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51AGIfah5+L._AC_UL320_.jpg</t>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21615984/2023/1/19/7c9861ac-b1ef-4fb4-afba-4b1c3b5036b31674124520928SmartyPantswomenssilksatinlilaccolorbabyelephantprintnightsu1.jpg</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/GO-COLORS-Women-Viscose-Casual/dp/B098FNJZP7/ref=sr_1_18?keywords=pants&amp;qid=1682096762&amp;sr=8-18</t>
+          <t>https://www.myntra.com/night-suits/smarty-pants/smarty-pants-women-2-pieces-printed-shirt-with-lounge-pants/21615984/buy</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -3116,20 +3116,20 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Men's Regular Casual Trousers</t>
+          <t>Men Stretch Casual Trouser</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>749</v>
+        <v>799</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61YHtYYabpL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/610VwfVfxeL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Straight-AW-SY-MCT-1151_Lt-Grey_32W/dp/B07TMNTV31/ref=sr_1_34?keywords=pants&amp;qid=1682096762&amp;sr=8-34</t>
+          <t>https://www.amazon.com/Amazon-Brand-Symbol-Trousers-AW-SY-MCT-1171_White_34/dp/B07XF752FV/ref=sr_1_52?keywords=pants&amp;qid=1682162367&amp;sr=8-52</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3144,30 +3144,30 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>MAYSIXTY</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Men's Straight Casual Trousers</t>
+          <t>Printed Lounge Pants</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>749</v>
+        <v>799</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/718kU7VISWL._AC_UL320_.jpg</t>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Symbol-Chinos-AW-SY-MCT-1145_Grey_32W/dp/B07CYVB7L8/ref=sr_1_9?keywords=pants&amp;qid=1682096762&amp;sr=8-9</t>
+          <t>https://www.myntra.com/lounge-pants/maysixty/maysixty-printed-lounge-pants/21894996/buy</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -3177,30 +3177,30 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BEWAKOOF</t>
+          <t>MAYSIXTY</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Women Regular Fit Black Cotton Blend Trousers</t>
+          <t>Printed Lounge Pants</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>749</v>
+        <v>799</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/kp78e4w0/trouser/z/e/l/s-293073-bewakoof-original-imag3hprh7zgxbyf.jpeg?q=70</t>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/bewakoof-regular-fit-women-black-trousers/p/itm0011ead590ac3?pid=TROG3HPRZTQYFGZN&amp;lid=LSTTROG3HPRZTQYFGZND3BVCN&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_37&amp;otracker=search&amp;iid=en_6V8fkS15lz92LDFMwstCZPqw3Xym6iC27gDJNqyq%2FRcCPlRlpuC%2F34%2FztmcktGTnMFqchYFk0btzfEX6lYzSUA%3D%3D&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.myntra.com/lounge-pants/maysixty/maysixty-printed-lounge-pants/21895118/buy</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>FLIPKART</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -3210,30 +3210,30 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Van Heusen</t>
+          <t>MAYSIXTY</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Athleisure Stretch Lounge Pants With Pockets</t>
+          <t>Printed Lounge Pants</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>759</v>
+        <v>799</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/41n5ru9w0yL._AC_UL320_.jpg</t>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Van-Heusen-Stretch-Pockets-55303_BLACK_L/dp/B07J5924ZT/ref=sr_1_48?keywords=pants&amp;qid=1682096762&amp;sr=8-48</t>
+          <t>https://www.myntra.com/lounge-pants/maysixty/maysixty-printed-lounge-pants/21894988/buy</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -3243,30 +3243,30 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>9rasa</t>
+          <t>TriPole</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Dhoti Pants</t>
+          <t xml:space="preserve">Men's Regular Fit Polyester Trekking And Hiking </t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>779</v>
+        <v>799</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/71E0860E-mL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/dhotis/9rasa/9rasa-maroon-dhoti-pants/2049821/buy</t>
+          <t>https://www.amazon.com/Tripole-Trekking-Hiking-Pants-Trousers/dp/B09YHZHV8K/ref=sr_1_32?keywords=pants&amp;qid=1682162367&amp;sr=8-32</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -3276,25 +3276,25 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Smarty Pants</t>
+          <t>MAYSIXTY</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Women 2-Pcs Printed Night suit</t>
+          <t>Printed Lounge Pants</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>783</v>
+        <v>799</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21615984/2023/1/19/7c9861ac-b1ef-4fb4-afba-4b1c3b5036b31674124520928SmartyPantswomenssilksatinlilaccolorbabyelephantprintnightsu1.jpg</t>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/night-suits/smarty-pants/smarty-pants-women-2-pieces-printed-shirt-with-lounge-pants/21615984/buy</t>
+          <t>https://www.myntra.com/lounge-pants/maysixty/maysixty-printed-lounge-pants/21895116/buy</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -3309,30 +3309,30 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Smarty Pants</t>
+          <t>Amazon Brand - Symbol</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Women 2-Pcs Printed Night suit</t>
+          <t>Men Stretch Casual Trouser</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>783</v>
+        <v>799</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/715sc3z554L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/night-suits/smarty-pants/smarty-pants-women-2-pieces-printed-shirt-with-lounge-pants/21615980/buy</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTM5MDM3ODA4ODk5MjI4OjE2ODIxNjIzNjc6c3BfYXRmOjIwMTAzOTUwODMyMDk4OjowOjo&amp;url=%2FAmazon-Brand-Trousers-AW-SY-MCT-1175_Light-Grey_32W%2Fdp%2FB07N6CPTGS%2Fref%3Dsr_1_2_sspa%3Fkeywords%3Dpants%26qid%3D1682162367%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -3342,12 +3342,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>MAYSIXTY</t>
+          <t>Whitewhale</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Printed Lounge Pants</t>
+          <t>Men's Loose Fit Cotton Trousers</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -3355,17 +3355,17 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/71liwRRHS5L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/maysixty/maysixty-printed-lounge-pants/21895118/buy</t>
+          <t>https://www.amazon.com/Whitewhale-Cotton-Printed-Pockets-Trousers/dp/B08LVWFK2J/ref=sr_1_15?keywords=pants&amp;qid=1682162367&amp;sr=8-15</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -3375,25 +3375,25 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>MAYSIXTY</t>
+          <t>plusS</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Printed Lounge Pants</t>
+          <t>Women Track Pants</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>799</v>
+        <v>841</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/maysixty/maysixty-printed-lounge-pants/21894996/buy</t>
+          <t>https://www.myntra.com/track-pants/pluss/pluss-black-track-pants/1875898/buy</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -3408,30 +3408,30 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>Hancock</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Men Stretch Casual Trouser</t>
+          <t>Checked Lounge Pants</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>799</v>
+        <v>892</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/610VwfVfxeL._AC_UL320_.jpg</t>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21584536/2023/2/6/7e0da1c6-e837-44ef-b3a1-30fd862a8a761675676567177-Hancock-Men-Lounge-Pants-4561675676566549-1.jpg</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Symbol-Trousers-AW-SY-MCT-1171_White_34/dp/B07XF752FV/ref=sr_1_50?keywords=pants&amp;qid=1682096762&amp;sr=8-50</t>
+          <t>https://www.myntra.com/lounge-pants/hancock/hancock-checked-lounge-pants/21584536/buy</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -3441,25 +3441,25 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>MAYSIXTY</t>
+          <t>Hancock</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Printed Lounge Pants</t>
+          <t>Checked Lounge Pants</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>799</v>
+        <v>892</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21584534/2023/3/6/6bcc7ad0-0a9b-43f0-a23d-32896f47e3881678080124295-Hancock-Checked-Lounge-Pants-2751678080123561-1.jpg</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/maysixty/maysixty-printed-lounge-pants/21894988/buy</t>
+          <t>https://www.myntra.com/lounge-pants/hancock/hancock-checked-lounge-pants/21584534/buy</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -3474,30 +3474,30 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TriPole</t>
+          <t>Hancock</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Men's Regular Fit Polyester Trekking And Hiking Pants And Trousers</t>
+          <t>Checked Lounge Pants</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>799</v>
+        <v>892</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71E0860E-mL._AC_UL320_.jpg</t>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Tripole-Trekking-Hiking-Pants-Trousers/dp/B09YHZHV8K/ref=sr_1_35?keywords=pants&amp;qid=1682096762&amp;sr=8-35</t>
+          <t>https://www.myntra.com/lounge-pants/hancock/hancock-checked-lounge-pants/21584532/buy</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -3507,25 +3507,25 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>MAYSIXTY</t>
+          <t>Hancock</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Printed Lounge Pants</t>
+          <t>Checked Lounge Pants</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>799</v>
+        <v>892</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/maysixty/maysixty-printed-lounge-pants/21895116/buy</t>
+          <t>https://www.myntra.com/lounge-pants/hancock/hancock-checked-lounge-pants/21584538/buy</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -3540,30 +3540,30 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Whitewhale</t>
+          <t>Gallus</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Men's Loose Fit Cotton Trousers</t>
+          <t>Men Track Pants</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>799</v>
+        <v>899</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71liwRRHS5L._AC_UL320_.jpg</t>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Whitewhale-Cotton-Printed-Pockets-Trousers/dp/B08LVWFK2J/ref=sr_1_16?keywords=pants&amp;qid=1682096762&amp;sr=8-16</t>
+          <t>https://www.myntra.com/track-pants/gallus/gallus-men-track-pants/21370424/buy</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -3573,30 +3573,30 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>plusS</t>
+          <t>Enamor</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Women Track Pants</t>
+          <t xml:space="preserve">Women </t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>841</v>
+        <v>899</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/71fGrIWjlmL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/pluss/pluss-black-track-pants/1875898/buy</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTM5MDM3ODA4ODk5MjI4OjE2ODIxNjIzNjc6c3BfbXRmOjIwMDg0MjQ5NzQyOTAxOjowOjo&amp;url=%2FEnamor-Womens-Pants-E060_MediumGrey-Melange_M%2Fdp%2FB07XCTXN7T%2Fref%3Dsr_1_24_sspa%3Fkeywords%3Dpants%26qid%3D1682162367%26sr%3D8-24-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -3606,30 +3606,30 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>BEWAKOOF</t>
+          <t>Van Heusen</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Men Regular Fit Blue Pure Cotton Trousers</t>
+          <t xml:space="preserve">Men's Track </t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/i/b/2/30-330846-bewakoof-original-imaghdykfmpathjf.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/81eQleWjVoL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/bewakoof-regular-fit-men-blue-trousers/p/itm1d9b0b29a7ba0?pid=TROG6P9FZBGUTZNG&amp;lid=LSTTROG6P9FZBGUTZNGK87B3C&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_38&amp;otracker=search&amp;iid=en_6V8fkS15lz92LDFMwstCZPqw3Xym6iC27gDJNqyq%2FReLmHT5JO88GdloIkOIxrV8Xj8%2FobtTWn3nhtc%2Fkj0TOg%3D%3D&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/Van-Heusen-Track-50056_Grey-Melange_L/dp/B083C2SWKL/ref=sr_1_49?keywords=pants&amp;qid=1682162367&amp;sr=8-49</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>FLIPKART</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -3639,25 +3639,25 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Hancock</t>
+          <t>PowerSutra</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Checked Lounge Pants</t>
+          <t>Women Lounge Pants</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>892</v>
+        <v>910</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/hancock/hancock-checked-lounge-pants/21584532/buy</t>
+          <t>https://www.myntra.com/lounge-pants/powersutra/powersutra-women-lounge-pants/21735830/buy</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -3672,30 +3672,30 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Hancock</t>
+          <t>Roadster</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Checked Lounge Pants</t>
+          <t>Men Slim Fit Grey Pure Cotton Trousers</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>892</v>
+        <v>910</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21584538/2023/2/6/e8de67e2-32ec-4821-bd50-35071900333a1675675939314-Hancock-Men-Lounge-Pants-3981675675938619-1.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/k1v1h8w0/trouser/g/7/j/34-10217179-roadster-original-imafh942znndgfyg.jpeg?q=70</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/hancock/hancock-checked-lounge-pants/21584538/buy</t>
+          <t>https://www.flipkart.com/roadster-slim-fit-men-grey-trousers/p/itm9844b633d8288?pid=TROG9XUXZGM2WVYJ&amp;lid=LSTTROG9XUXZGM2WVYJ46XVJC&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_4&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROG9XUXZGM2WVYJ.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -3705,25 +3705,25 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Hancock</t>
+          <t>SIAPA</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Checked Lounge Pants</t>
+          <t>Men Track Pants</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>892</v>
+        <v>959</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21584534/2023/3/6/6bcc7ad0-0a9b-43f0-a23d-32896f47e3881678080124295-Hancock-Checked-Lounge-Pants-2751678080123561-1.jpg</t>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/hancock/hancock-checked-lounge-pants/21584534/buy</t>
+          <t>https://www.myntra.com/track-pants/siapa/siapa-men-track-pants/21168126/buy</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -3738,25 +3738,25 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Hancock</t>
+          <t>SOJANYA</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Checked Lounge Pants</t>
+          <t>Men Dhoti Pants</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>892</v>
+        <v>965</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21584536/2023/2/6/7e0da1c6-e837-44ef-b3a1-30fd862a8a761675676567177-Hancock-Men-Lounge-Pants-4561675676566549-1.jpg</t>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/1846813/2017/4/11/11491902048835-SOJANYA-Men-Dhotis-2321491902048618-1.jpg</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/hancock/hancock-checked-lounge-pants/21584536/buy</t>
+          <t>https://www.myntra.com/dhotis/sojanya/sojanya-yellow-dhoti-pants/1846813/buy</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -3771,30 +3771,30 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Van Heusen</t>
+          <t>SOJANYA</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Men's Track Pants</t>
+          <t>Men Dhoti Pants</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>899</v>
+        <v>965</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81eQleWjVoL._AC_UL320_.jpg</t>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Van-Heusen-Track-50056_Grey-Melange_L/dp/B083C2SWKL/ref=sr_1_54?keywords=pants&amp;qid=1682096762&amp;sr=8-54</t>
+          <t>https://www.myntra.com/dhotis/sojanya/sojanya-black-dhoti-pants/1846812/buy</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -3804,30 +3804,30 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>GO COLORS</t>
+          <t>SOJANYA</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Women's Regular Bottom</t>
+          <t>Men Dhoti Pants</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>899</v>
+        <v>965</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51OT-1KFrAS._AC_UL320_.jpg</t>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/GO-COLORS-LT09-YG-FUXIA29-2X_Young-Fuchsia_2XL/dp/B08DLQJCFH/ref=sr_1_56?keywords=pants&amp;qid=1682096762&amp;sr=8-56</t>
+          <t>https://www.myntra.com/dhotis/sojanya/sojanya-orange-dhoti-pants/1780205/buy</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -3837,25 +3837,25 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Gallus</t>
+          <t>SOJANYA</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Men Track Pants</t>
+          <t>Men Dhoti Pants</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>899</v>
+        <v>965</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/gallus/gallus-men-track-pants/21370424/buy</t>
+          <t>https://www.myntra.com/dhotis/sojanya/sojanya-maroon-dhoti-pants/2034928/buy</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -3870,30 +3870,30 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Roadster</t>
+          <t>SOJANYA</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Men Slim Fit Grey Pure Cotton Trousers</t>
+          <t>Men Dhoti Pants</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>910</v>
+        <v>965</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/k1v1h8w0/trouser/g/7/j/34-10217179-roadster-original-imafh942znndgfyg.jpeg?q=70</t>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/roadster-slim-fit-men-grey-trousers/p/itm9844b633d8288?pid=TROG9XUXZGM2WVYJ&amp;lid=LSTTROG9XUXZGM2WVYJ46XVJC&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_3&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROG9XUXZGM2WVYJ.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.myntra.com/dhotis/sojanya/sojanya-yellow-dhoti-pants/2034912/buy</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>FLIPKART</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -3903,25 +3903,25 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>SIAPA</t>
+          <t>SOJANYA</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Men Track Pants</t>
+          <t>Men Dhoti Pants</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>959</v>
+        <v>965</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/siapa/siapa-men-track-pants/21168126/buy</t>
+          <t>https://www.myntra.com/dhotis/sojanya/sojanya-red-dhoti-pants/1846811/buy</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -3936,30 +3936,30 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>SOJANYA</t>
+          <t>McHenry</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Men Dhoti Pants</t>
+          <t>Men's Solid Formal Regular Fit Wrinkle Free PolyViscose Trousers</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>965</v>
+        <v>999</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/1846813/2017/4/11/11491902048835-SOJANYA-Men-Dhotis-2321491902048618-1.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81wqp2ohC9L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/dhotis/sojanya/sojanya-yellow-dhoti-pants/1846813/buy</t>
+          <t>https://www.amazon.com/McHenry-Regular-PolyViscose-Trousers-Cream4006-40_Cream_Size/dp/B01LCXH98Y/ref=sr_1_11?keywords=pants&amp;qid=1682162367&amp;sr=8-11</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -3969,30 +3969,30 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>SOJANYA</t>
+          <t>Jockey</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Men Dhoti Pants</t>
+          <t xml:space="preserve">Men's Cotton Track </t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>965</v>
+        <v>999</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/61qoz5T51VL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/dhotis/sojanya/sojanya-red-dhoti-pants/1846811/buy</t>
+          <t>https://www.amazon.com/Jockey-Cotton-Track-9500-0103-NAVY-Navy/dp/B00W05MDC6/ref=sr_1_19?keywords=pants&amp;qid=1682162367&amp;sr=8-19</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -4002,30 +4002,30 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>SOJANYA</t>
+          <t>Amazon Brand - Inkast Denim Co.</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Men Dhoti Pants</t>
+          <t xml:space="preserve">Men's Slim Fit Casual </t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>965</v>
+        <v>999</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/61nk1PgrstL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/dhotis/sojanya/sojanya-orange-dhoti-pants/1780205/buy</t>
+          <t>https://www.amazon.com/Amazon-Brand-Inkast-Casual-TR-Ink-RDP-D3_Blue_32/dp/B0991WQYB7/ref=sr_1_27?keywords=pants&amp;qid=1682162367&amp;sr=8-27</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -4035,25 +4035,25 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>SOJANYA</t>
+          <t>toothless</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Men Dhoti Pants</t>
+          <t>Solid Pure Cotton Track Pant</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>965</v>
+        <v>999</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/dhotis/sojanya/sojanya-maroon-dhoti-pants/2034928/buy</t>
+          <t>https://www.myntra.com/track-pants/toothless/toothless-girls-pink-pants/20403982/buy</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -4068,30 +4068,30 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>SOJANYA</t>
+          <t>Amazon Brand - Symbol</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Men Dhoti Pants</t>
+          <t xml:space="preserve">Men's Flexi Waist Slim Casual </t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>965</v>
+        <v>999</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/61oRzu8XRtL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/dhotis/sojanya/sojanya-yellow-dhoti-pants/2034912/buy</t>
+          <t>https://www.amazon.com/Amazon-Brand-Symbol-Casual-A22-SYM-SL-CT-101_Black_32/dp/B0B3989Q12/ref=sr_1_13?keywords=pants&amp;qid=1682162367&amp;sr=8-13</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -4101,30 +4101,30 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>SOJANYA</t>
+          <t>PARK AVENUE</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Men Dhoti Pants</t>
+          <t>Men Regular Fit Maroon Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>965</v>
+        <v>1034</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/ktlu9ow0/trouser/o/6/0/32-pmtx06573-m7-park-avenue-original-imag6wyfggjffzuk.jpeg?q=70</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/dhotis/sojanya/sojanya-black-dhoti-pants/1846812/buy</t>
+          <t>https://www.flipkart.com/park-avenue-regular-fit-men-maroon-trousers/p/itm49098f544224a?pid=TROG4QFPWHZHXE9U&amp;lid=LSTTROG4QFPWHZHXE9UBULMHU&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_5&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROG4QFPWHZHXE9U.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -4134,30 +4134,30 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>McHenry</t>
+          <t>Zivame</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Men's Solid Formal Regular Fit Wrinkle Free PolyViscose Trousers</t>
+          <t>Women Lounge Pants</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>999</v>
+        <v>1042</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81wqp2ohC9L._AC_UL320_.jpg</t>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/McHenry-Regular-PolyViscose-Trousers-Cream4006-40_Cream_Size/dp/B01LCXH98Y/ref=sr_1_12?keywords=pants&amp;qid=1682096762&amp;sr=8-12</t>
+          <t>https://www.myntra.com/lounge-pants/zivame/zivame-women-lounge-pants/21240904/buy</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -4167,30 +4167,30 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>toothless</t>
+          <t>Enamor</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Solid Pure Cotton Track Pant</t>
+          <t xml:space="preserve">Essentials E048 Women’s Relaxed Fit Printed Lounge </t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>999</v>
+        <v>1049</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/717i-4ofMvL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/toothless/toothless-girls-pink-pants/20403982/buy</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTM5MDM3ODA4ODk5MjI4OjE2ODIxNjIzNjc6c3BfYnRmOjIwMDg0MjQ5NzQ2MzAxOjowOjo&amp;url=%2FEnamor-Womens-Relaxed-Pants-E048_Navy_M%2Fdp%2FB07XFTR37P%2Fref%3Dsr_1_57_sspa%3Fkeywords%3Dpants%26qid%3D1682162367%26sr%3D8-57-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -4200,25 +4200,25 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>Enamor</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Men's Flexi Waist Slim Casual Pants</t>
+          <t xml:space="preserve">Essentials Women's Mid Rise 7/8th Relaxed Fit Soft &amp; Drapey 4 Way Stretch Viscose Spandex Lounge </t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>999</v>
+        <v>1099</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61oRzu8XRtL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81POsJPtNKL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Symbol-Casual-A22-SYM-SL-CT-101_Black_32/dp/B0B3989Q12/ref=sr_1_14?keywords=pants&amp;qid=1682096762&amp;sr=8-14</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTM5MDM3ODA4ODk5MjI4OjE2ODIxNjIzNjc6c3BfbXRmOjIwMDcxMjA4MTY5MTk4OjowOjo&amp;url=%2FEnamor-Essentials-Relaxed-Pockets-E048_Burgundy%2Fdp%2FB09T3KJLDZ%2Fref%3Dsr_1_21_sspa%3Fkeywords%3Dpants%26qid%3D1682162367%26sr%3D8-21-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -4233,25 +4233,25 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Amazon Brand - Inkast Denim Co.</t>
+          <t>Van Heusen</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Men's Slim Fit Casual Pants</t>
+          <t xml:space="preserve">Men </t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>999</v>
+        <v>1129</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61nk1PgrstL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61GfyqlINnL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTc4MDk5NjIzNzQ0OTU2OjE2ODIwOTY3NjI6c3BfYnRmOjIwMTAwNzg1NTYzNDk4OjowOjo&amp;url=%2FAmazon-Brand-Inkast-Casual-TR-Ink-RDP-D3_Blue_36%2Fdp%2FB0991SQC1T%2Fref%3Dsr_1_60_sspa%3Fkeywords%3Dpants%26qid%3D1682096762%26sr%3D8-60-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/Van-Heusen-Pants-VHTFFSLBE07068_Light-Grey_36/dp/B0B4K7ZJHG/ref=sr_1_54?keywords=pants&amp;qid=1682162367&amp;sr=8-54</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -4266,30 +4266,30 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Amazon Brand - Inkast Denim Co.</t>
+          <t>hummel</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Men's Slim Fit Casual Pants</t>
+          <t>Men Track Pants</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>999</v>
+        <v>1159</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61nk1PgrstL._AC_UL320_.jpg</t>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Inkast-Casual-TR-Ink-RDP-D3_Blue_32/dp/B0991WQYB7/ref=sr_1_25?keywords=pants&amp;qid=1682096762&amp;sr=8-25</t>
+          <t>https://www.myntra.com/track-pants/hummel/hummel-men-track-pants/21064880/buy</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -4299,30 +4299,30 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Jockey</t>
+          <t>MARKS &amp; SPENCER</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Men's Cotton Track Pants</t>
+          <t>Men Slim Fit Brown Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>999</v>
+        <v>1190</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61qoz5T51VL._AC_UL320_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/3/o/v/36-t176601sdark-khaki-marks-spencer-original-imaghdscmtzxunkq.jpeg?q=70</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Jockey-Cotton-Track-9500-0103-NAVY-Navy/dp/B00W05MDC6/ref=sr_1_19?keywords=pants&amp;qid=1682096762&amp;sr=8-19</t>
+          <t>https://www.flipkart.com/marks-spencer-slim-fit-men-brown-trousers/p/itm530bee5c7a5e5?pid=TROGHDSDDEWV6SBZ&amp;lid=LSTTROGHDSDDEWV6SBZRXSKWI&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_32&amp;otracker=search&amp;iid=en_QEVxNKXZqmnAg1IAO3gw0JO%2BRzSmT%2FnO7AP9fmq7cVgIQ6AcsJ09%2F4HTbeUVTkrX54rLV7sCcWoMle6pqNvw9Q%3D%3D&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -4332,25 +4332,25 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>PARK AVENUE</t>
+          <t>PETER ENGLAND</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Men Regular Fit Maroon Viscose Rayon Trousers</t>
+          <t>Men Slim Fit Black Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1034</v>
+        <v>1245</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/ktlu9ow0/trouser/o/6/0/32-pmtx06573-m7-park-avenue-original-imag6wyfggjffzuk.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/kyrlifk0/trouser/o/n/c/34-petfoslbs43658-peter-england-original-imagax8aqm7hfdnh.jpeg?q=70</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/park-avenue-regular-fit-men-maroon-trousers/p/itm49098f544224a?pid=TROG4QFPWHZHXE9U&amp;lid=LSTTROG4QFPWHZHXE9UBULMHU&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_6&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROG4QFPWHZHXE9U.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/peter-england-slim-fit-men-black-trousers/p/itmaaedd9c824027?pid=TROG9MVKWQ8TEZFF&amp;lid=LSTTROG9MVKWQ8TEZFFKKUC7R&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_25&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROG9MVKWQ8TEZFF.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -4365,30 +4365,30 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Van Heusen</t>
+          <t>ARROW</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Men Pants</t>
+          <t>Smart Flex Men Regular Fit Blue Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1129</v>
+        <v>1253</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61GfyqlINnL._AC_UL320_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/t/s/j/-original-imagm9z22r5gmzcm.jpeg?q=70</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Van-Heusen-Pants-VHTFFSLBE07068_Light-Grey_36/dp/B0B4K7ZJHG/ref=sr_1_49?keywords=pants&amp;qid=1682096762&amp;sr=8-49</t>
+          <t>https://www.flipkart.com/arrow-smart-flex-regular-fit-men-blue-trousers/p/itmc21e483c5d003?pid=TROGHRC6MEXA4XGJ&amp;lid=LSTTROGHRC6MEXA4XGJINZ6FT&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_9&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROGHRC6MEXA4XGJ.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -4398,30 +4398,30 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>U.S. POLO ASSN.</t>
+          <t>ARROW</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Men Athleisure</t>
+          <t>Men Regular Fit Grey Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1149</v>
+        <v>1253</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/31B3ViMPGeL._AC_UL320_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/5/u/v/-original-imagm6mf7f4gpc6r.jpeg?q=70</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTc4MDk5NjIzNzQ0OTU2OjE2ODIwOTY3NjI6c3BfbXRmOjIwMTIxODk5NDYzNTk4OjowOjo&amp;url=%2FUS-Polo-Association-Lounge-Bottom%2Fdp%2FB08XVW2V8V%2Fref%3Dsr_1_21_sspa%3Fkeywords%3Dpants%26qid%3D1682096762%26sr%3D8-21-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.flipkart.com/arrow-regular-fit-men-grey-trousers/p/itm91cd7d2fe2cf6?pid=TROGHRC6WQMFGCJK&amp;lid=LSTTROGHRC6WQMFGCJKDJQ4UA&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_29&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROGHRC6WQMFGCJK.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -4431,30 +4431,30 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>hummel</t>
+          <t>PETER ENGLAND</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Men Track Pants</t>
+          <t>Men Slim Fit Brown Pure Cotton Trousers</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1159</v>
+        <v>1259</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/k/t/y/-original-imagh3jmnzm3farb.jpeg?q=70</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/hummel/hummel-men-track-pants/21064880/buy</t>
+          <t>https://www.flipkart.com/peter-england-slim-fit-men-brown-trousers/p/itm27bcbe13c4be4?pid=TROGFX7W5Z3FJYNV&amp;lid=LSTTROGFX7W5Z3FJYNVJQFSQF&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_23&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROGFX7W5Z3FJYNV.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -4464,30 +4464,30 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>nexus</t>
+          <t>CANTABIL</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Printed Lounge Pants</t>
+          <t>Men Regular Fit Blue Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1189</v>
+        <v>1279</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/kz5vwy80/trouser/t/p/8/34-mtrc00032-blue-cantabil-original-imagb8fmqkyydbz6.jpeg?q=70</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/nexus/nexus-printed-lounge-pants/22370554/buy</t>
+          <t>https://www.flipkart.com/cantabil-regular-fit-men-blue-trousers/p/itm5d89e4ead8937?pid=TROGB8FMZ64UX4ZY&amp;lid=LSTTROGB8FMZ64UX4ZYQ5ZUWN&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_28&amp;otracker=search&amp;iid=en_QEVxNKXZqmnAg1IAO3gw0JO%2BRzSmT%2FnO7AP9fmq7cVgVl7HAsQrjkZrqDebPHWd%2FlBy01PU0WKWcALDcZ%2B8Igg%3D%3D&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -4497,25 +4497,25 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>PETER ENGLAND</t>
+          <t>MARKS &amp; SPENCER</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Men Slim Fit Black Viscose Rayon Trousers</t>
+          <t>Men Regular Fit Brown Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1245</v>
+        <v>1290</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/kyrlifk0/trouser/o/n/c/34-petfoslbs43658-peter-england-original-imagax8aqm7hfdnh.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/n/b/2/34-t281590mdark-khaki-marks-spencer-original-imaghds48wnxhsyx.jpeg?q=70</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/peter-england-slim-fit-men-black-trousers/p/itmaaedd9c824027?pid=TROG9MVKWQ8TEZFF&amp;lid=LSTTROG9MVKWQ8TEZFFKKUC7R&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_24&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROG9MVKWQ8TEZFF.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/marks-spencer-regular-fit-men-brown-trousers/p/itm07c561fdd47e9?pid=TROGHDSCEED5M66E&amp;lid=LSTTROGHDSCEED5M66EQUMCI0&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_21&amp;otracker=search&amp;iid=en_QEVxNKXZqmnAg1IAO3gw0JO%2BRzSmT%2FnO7AP9fmq7cVhLTplEi%2FKyK0pukuZSZ%2FaXSaA5TtJgRLz1oseANAqljg%3D%3D&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -4530,25 +4530,25 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ARROW</t>
+          <t>VAN HEUSEN SPORT</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Men Regular Fit Grey Viscose Rayon Trousers</t>
+          <t>Men Tapered Black Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1253</v>
+        <v>1299</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/5/u/v/-original-imagm6mf7f4gpc6r.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/g/b/h/-original-imaggg3zhzdcxzxx.jpeg?q=70</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/arrow-regular-fit-men-grey-trousers/p/itm91cd7d2fe2cf6?pid=TROGHRC6WQMFGCJK&amp;lid=LSTTROGHRC6WQMFGCJKDJQ4UA&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_30&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROGHRC6WQMFGCJK.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/van-heusen-sport-tapered-men-black-trousers/p/itmee1df969c5045?pid=TROGF5GSZDMFZFVM&amp;lid=LSTTROGF5GSZDMFZFVM6ZNO5X&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_3&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROGF5GSZDMFZFVM.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -4563,30 +4563,30 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ARROW</t>
+          <t>Enamor</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Smart Flex Men Regular Fit Blue Viscose Rayon Trousers</t>
+          <t>Essentials Women's Slim Fit Mid Rise Crop Length Soft &amp; Drapey Stretch Viscose Culottes with Smart Side Slits - EA64</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1253</v>
+        <v>1299</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/t/s/j/-original-imagm9z22r5gmzcm.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/81hkfP8SSwL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/arrow-smart-flex-regular-fit-men-blue-trousers/p/itmc21e483c5d003?pid=TROGHRC62BYNMC4M&amp;lid=LSTTROGHRC62BYNMC4MCAC0BA&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_9&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROGHRC62BYNMC4M.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTM5MDM3ODA4ODk5MjI4OjE2ODIxNjIzNjc6c3BfYnRmOjIwMDcxMjA4MTYxNDk4OjowOjo&amp;url=%2FEnamor-Essentials-Stretch-Viscose-Culottes%2Fdp%2FB09T3M4HPF%2Fref%3Dsr_1_58_sspa%3Fkeywords%3Dpants%26qid%3D1682162367%26sr%3D8-58-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>FLIPKART</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -4596,30 +4596,30 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>PETER ENGLAND</t>
+          <t>AURELIA</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Men Slim Fit Brown Pure Cotton Trousers</t>
+          <t>Women Dhoti Pants</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1259</v>
+        <v>1299</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/k/t/y/-original-imagh3jmnzm3farb.jpeg?q=70</t>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/peter-england-slim-fit-men-brown-trousers/p/itm27bcbe13c4be4?pid=TROG9JGU4AV3ZAZM&amp;lid=LSTTROG9JGU4AV3ZAZMZQPWLN&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_7&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROG9JGU4AV3ZAZM.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.myntra.com/dhotis/aurelia/aurelia-blue-dhoti-pants/2400050/buy</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>FLIPKART</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -4629,30 +4629,30 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>AURELIA</t>
+          <t>PETER ENGLAND</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Women Dhoti Pants</t>
+          <t>Men Slim Fit Blue Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1299</v>
+        <v>1399</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/l3khsi80/trouser/8/i/i/32-pitfonsf601387-peter-england-original-imagenvsszpaavwz.jpeg?q=70</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/dhotis/aurelia/aurelia-blue-dhoti-pants/2400050/buy</t>
+          <t>https://www.flipkart.com/peter-england-slim-fit-men-blue-trousers/p/itm2f86256faafcc?pid=TROGDHZ6S7AHJSWZ&amp;lid=LSTTROGDHZ6S7AHJSWZ4WVSUU&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_24&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROGDHZ6S7AHJSWZ.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -4662,25 +4662,25 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>VAN HEUSEN SPORT</t>
+          <t>PETER ENGLAND</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Men Tapered Black Cotton Blend Trousers</t>
+          <t>Men Regular Fit Blue Viscose Rayon Trousers</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1299</v>
+        <v>1399</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/g/b/h/-original-imaggg3zhzdcxzxx.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/5/x/c/-original-imagzkd5tczyhc2n.jpeg?q=70</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/van-heusen-sport-tapered-men-black-trousers/p/itmee1df969c5045?pid=TROGF5GSZDMFZFVM&amp;lid=LSTTROGF5GSZDMFZFVM6ZNO5X&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_4&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROGF5GSZDMFZFVM.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/peter-england-regular-fit-men-blue-trousers/p/itmb68b6dc0fbb2b?pid=TROGHQ8ZPHURZHWB&amp;lid=LSTTROGHQ8ZPHURZHWBGXPSE6&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_6&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROGHQ8ZPHURZHWB.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -4695,30 +4695,30 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>CULTSPORT</t>
+          <t>rock.it</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>| AbsoluteFit Abstract Print Tights for Women</t>
+          <t>Men Track Pants</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1315</v>
+        <v>1466</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51oOqDsi5jL._AC_UL320_.jpg</t>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTc4MDk5NjIzNzQ0OTU2OjE2ODIwOTY3NjI6c3BfYXRmOjIwMTMyMDA5NDY0OTk4OjowOjo&amp;url=%2FCultsport-Polyester-Leggings-Abstract-CS600720S%2Fdp%2FB08SLZ26BX%2Fref%3Dsr_1_3_sspa%3Fkeywords%3Dpants%26qid%3D1682096762%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.myntra.com/track-pants/rockit/rockit-men-track-pants/21073786/buy</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -4728,30 +4728,30 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>SAPPER</t>
+          <t>Speedo</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Men's Cotton Regular Fit Cargo Pants</t>
+          <t>Contrast Swim Pants</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1396</v>
+        <v>1499</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61ZqLjxdCjL._AC_UL320_.jpg</t>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/SAPPER-Olive-Cotton-Solid-MLW205DARKOLIVEXXXL/dp/B09NBPBQH3/ref=sr_1_47?keywords=pants&amp;qid=1682096762&amp;sr=8-47</t>
+          <t>https://www.myntra.com/swim-bottoms/speedo/speedo-contrast-swim-pants/22595686/buy</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -4761,25 +4761,25 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PETER ENGLAND</t>
+          <t>PUMA</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Men Regular Fit Blue Viscose Rayon Trousers</t>
+          <t>Women Solid Grey Track Pants</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1399</v>
+        <v>1499</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/5/x/c/-original-imagzkd5tczyhc2n.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/track-pant/d/b/p/s-58684454-puma-original-imaghzqaw4yhg3gh.jpeg?q=70</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/peter-england-regular-fit-men-blue-trousers/p/itmb68b6dc0fbb2b?pid=TROGHQ8ZPHURZHWB&amp;lid=LSTTROGHQ8ZPHURZHWBGXPSE6&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_5&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROGHQ8ZPHURZHWB.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/puma-solid-women-grey-track-pants/p/itm3cc53e69f904c?pid=TKPGG67GPSYZMJGC&amp;lid=LSTTKPGG67GPSYZMJGCRUYDP0&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_40&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TKPGG67GPSYZMJGC.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -4794,30 +4794,30 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>LOUIS PHILIPPE</t>
+          <t>rock.it</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Men Slim Fit Blue Polycotton Trousers</t>
+          <t>Men Track Pants</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1439</v>
+        <v>1536</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/s/m/g/32-lptfmslft69658-louis-philippe-original-imaggb52sdwtzqhk.jpeg?q=70</t>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/louis-philippe-slim-fit-men-blue-trousers/p/itm64c8776ffc52a?pid=TROGHG87NJFEAKCF&amp;lid=LSTTROGHG87NJFEAKCFQB0I1H&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_25&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.TROGHG87NJFEAKCF.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.myntra.com/track-pants/rockit/rockit-men-track-pants/21073790/buy</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>FLIPKART</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -4827,7 +4827,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>rock.it</t>
+          <t>Cantabil</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1466</v>
+        <v>1539</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/rockit/rockit-men-track-pants/21073786/buy</t>
+          <t>https://www.myntra.com/track-pants/cantabil/cantabil-men-track-pants/21159322/buy</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -4860,25 +4860,25 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Speedo</t>
+          <t>ONLY</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Contrast Swim Pants</t>
+          <t>Women Track Pants</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1499</v>
+        <v>1664</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/20196582/2022/9/28/9be6644b-6329-4c02-88db-a7c0ca8c64a51664357173934ONLYWomenGreenTrackPants1.jpg</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/swim-bottoms/speedo/speedo-contrast-swim-pants/22595686/buy</t>
+          <t>https://www.myntra.com/track-pants/only/only-women-track-pants/20196582/buy</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -4893,30 +4893,30 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>rock.it</t>
+          <t>United Colors of Benetton</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Men Track Pants</t>
+          <t>Men Slim Fit Light Blue Pure Cotton Trousers</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1536</v>
+        <v>1689</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/c/u/c/-original-imafz4xzvsmubejz.jpeg?q=70</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/rockit/rockit-men-track-pants/21073790/buy</t>
+          <t>https://www.flipkart.com/united-colors-benetton-slim-fit-men-light-blue-trousers/p/itmf73d4a822a43c?pid=TROFX7ZYRPVP4VDJ&amp;lid=LSTTROFX7ZYRPVP4VDJXOHDR0&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_17&amp;otracker=search&amp;iid=en_QEVxNKXZqmnAg1IAO3gw0JO%2BRzSmT%2FnO7AP9fmq7cVjK2B9wNOzpRCVV13pdHtG3otmG11VqR%2FC1kvYmgKKk5w%3D%3D&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -4926,25 +4926,25 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Cantabil</t>
+          <t>Puma</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Men Track Pants</t>
+          <t>Woven Men'S Training Pants</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1539</v>
+        <v>1719</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/cantabil/cantabil-men-track-pants/21159322/buy</t>
+          <t>https://www.myntra.com/track-pants/puma/puma-men-navy-blue-woven-training-pants-slip-on-solid-sports-pants/20673410/buy</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -4959,25 +4959,25 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ONLY</t>
+          <t>Jockey</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Women Track Pants</t>
+          <t>Men Track Pants</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1664</v>
+        <v>1769</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/20196582/2022/9/28/9be6644b-6329-4c02-88db-a7c0ca8c64a51664357173934ONLYWomenGreenTrackPants1.jpg</t>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/only/only-women-track-pants/20196582/buy</t>
+          <t>https://www.myntra.com/track-pants/jockey/jockey-men-track-pants/21081482/buy</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -4992,25 +4992,25 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TREKMONK</t>
+          <t>The Pant Project</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Men's Loose Convertible Cargo Trekking Pants</t>
+          <t xml:space="preserve">Luxury PV Stretchable Casual </t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1699</v>
+        <v>1990</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61vJzbXr5iL._AC_UL320_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/817rJ9f5IxL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Trekmonk-Convertible-Cargo-Charcoal-Medium/dp/B07RYF8GP8/ref=sr_1_36?keywords=pants&amp;qid=1682096762&amp;sr=8-36</t>
+          <t>https://www.amazon.com/Pant-Project-Stretchable-Trousers-Expandable/dp/B0BSWP8PVQ/ref=sr_1_39?keywords=pants&amp;qid=1682162367&amp;sr=8-39</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -5025,30 +5025,30 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Puma</t>
+          <t>The Pant Project</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Woven Men'S Training Pants</t>
+          <t xml:space="preserve">Luxury PV Lycra Stretchable Formal </t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1719</v>
+        <v>1990</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://m.media-amazon.com/images/I/617Zg6QsgDL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/puma/puma-men-navy-blue-woven-training-pants-slip-on-solid-sports-pants/20673410/buy</t>
+          <t>https://www.amazon.com/Pant-Project-Polyester-Formal-Pant_01-Olive-40_Black_34/dp/B0B46P1CN8/ref=sr_1_46?keywords=pants&amp;qid=1682162367&amp;sr=8-46</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -5058,30 +5058,30 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Jockey</t>
+          <t>LEVI'S</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Men Track Pants</t>
+          <t>501 Men Slim Fit Blue Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1769</v>
+        <v>1999</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/l/i/e/-original-imag6hwkdjxszf6f.jpeg?q=70</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/jockey/jockey-men-track-pants/21081482/buy</t>
+          <t>https://www.flipkart.com/levi-s-501-slim-fit-men-blue-trousers/p/itm59615a95a026b?pid=JEAG3BFFNK6RTPF3&amp;lid=LSTJEAG3BFFNK6RTPF3UCC6OW&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_37&amp;otracker=search&amp;iid=en_QEVxNKXZqmnAg1IAO3gw0JO%2BRzSmT%2FnO7AP9fmq7cVgx4re95chqPCjIaJgAhVWnHGJSIkLVrgomDk6vNI2IfA%3D%3D&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -5091,30 +5091,30 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>CULTSPORT</t>
+          <t>MARKS &amp; SPENCER</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>| AbsoluteFit Solid Performance Tights for Women</t>
+          <t>Men Slim Fit Blue Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1959</v>
+        <v>1999</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/314C5Bc1cgL._AC_UL320_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/n/g/d/36-t176601slight-blue-marks-spencer-original-imagn42theewzzug.jpeg?q=70</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTc4MDk5NjIzNzQ0OTU2OjE2ODIwOTY3NjI6c3BfYXRmOjIwMTMyMDA5NDY3MDk4OjowOjo&amp;url=%2FCultsport-Womens-Solid-Workout-Leggings%2Fdp%2FB08SLYVKGZ%2Fref%3Dsr_1_2_sspa%3Fkeywords%3Dpants%26qid%3D1682096762%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.flipkart.com/marks-spencer-slim-fit-men-blue-trousers/p/itmedc1ac5635a85?pid=TROGN42TKKZHPGR3&amp;lid=LSTTROGN42TKKZHPGR32HCWI5&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_31&amp;otracker=search&amp;iid=en_QEVxNKXZqmnAg1IAO3gw0JO%2BRzSmT%2FnO7AP9fmq7cVhc3k7DU%2Fc6vN7xdCM5J88Y0b1lzFomPP18qsczx29BDQ%3D%3D&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -5124,30 +5124,30 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>The Pant Project</t>
+          <t>Moudlin</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Luxury PV Stretchable Casual Pants for Men | Stylish Slim Fit Men's Wear Trousers for Office or Party | Mens Fashion Dress Trouser with Expandable Waist &amp; 4 Way Stretch</t>
+          <t>Men Slim Mid Rise Multicolor Jeans</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1990</v>
+        <v>2099</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/817rJ9f5IxL._AC_UL320_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/jean/v/d/f/34-jenas-nsilky-moudlin-original-imafg7wgts7hatqn-bb.jpeg?q=70</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Pant-Project-Stretchable-Trousers-Expandable/dp/B0BSWP8PVQ/ref=sr_1_39?keywords=pants&amp;qid=1682096762&amp;sr=8-39</t>
+          <t>https://www.flipkart.com/moudlin-slim-men-multicolor-jeans/p/itm6e17f3edd985c?pid=JEAFG832EKJG5XAR&amp;lid=LSTJEAFG832EKJG5XARXH1PEK&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_20&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.JEAFG832EKJG5XAR.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -5157,30 +5157,30 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>The Pant Project</t>
+          <t>boohooMAN</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Luxury PV Lycra Stretchable Formal Pants for Men | Stylish Slim Fit Men's Wear Trousers for Office or Party | Mens Fashion Dress Trouser Pant</t>
+          <t>Men Tapered Track Pants</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1990</v>
+        <v>2249</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/617Zg6QsgDL._AC_UL320_.jpg</t>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Pant-Project-Polyester-Formal-Pant_01-Olive-40_Black_34/dp/B0B46P1CN8/ref=sr_1_51?keywords=pants&amp;qid=1682096762&amp;sr=8-51</t>
+          <t>https://www.myntra.com/track-pants/boohooman/boohooman-tapered-track-pants/22167526/buy</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -5190,25 +5190,25 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Moudlin</t>
+          <t>MARKS &amp; SPENCER</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Men Slim Mid Rise Multicolor Jeans</t>
+          <t>Men Regular Fit Grey Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>2099</v>
+        <v>2499</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/jean/v/d/f/34-jenas-nsilky-moudlin-original-imafg7wgts7hatqn-bb.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/5/u/j/34-t281590mgrey-marl-marks-spencer-original-imagn55faubehr5p.jpeg?q=70</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/moudlin-slim-men-multicolor-jeans/p/itm6e17f3edd985c?pid=JEAFG832EKJG5XAR&amp;lid=LSTJEAFG832EKJG5XARXH1PEK&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_20&amp;otracker=search&amp;iid=6256fe7c-f5a4-40c9-af09-493fa57ee815.JEAFG832EKJG5XAR.SEARCH&amp;ssid=mwqgbmehjk0000001682096757296&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/marks-spencer-regular-fit-men-grey-trousers/p/itm658c3f42a69f1?pid=TROGN55GAJTFPFRW&amp;lid=LSTTROGN55GAJTFPFRWHJYAFT&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_38&amp;otracker=search&amp;iid=en_QEVxNKXZqmnAg1IAO3gw0JO%2BRzSmT%2FnO7AP9fmq7cViHqYXLiQRO%2BCSB0%2BfPO1hNQ8HjoWCFrXiBLwktuJno8g%3D%3D&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -5228,20 +5228,20 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Men Tapered Track Pants</t>
+          <t>Men Solid Track Pants</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>2249</v>
+        <v>2586</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/boohooman/boohooman-tapered-track-pants/22167526/buy</t>
+          <t>https://www.myntra.com/track-pants/boohooman/boohooman-solid-track-pants/22167484/buy</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -5256,25 +5256,25 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>boohooMAN</t>
+          <t>Puma</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Men Solid Track Pants</t>
+          <t>Men Track Pants</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>2586</v>
+        <v>2624</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/boohooman/boohooman-solid-track-pants/22167484/buy</t>
+          <t>https://www.myntra.com/track-pants/puma/puma-men-track-pants/21532512/buy</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -5289,25 +5289,25 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Puma</t>
+          <t>boohooMAN</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Men Track Pants</t>
+          <t>Men Textured Track Pants</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>2624</v>
+        <v>2886</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/puma/puma-men-track-pants/21532512/buy</t>
+          <t>https://www.myntra.com/track-pants/boohooman/boohooman-textured-track-pants/22167422/buy</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -5322,25 +5322,25 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>boohooMAN</t>
+          <t>Puma</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Men Textured Track Pants</t>
+          <t>Men Track Pants</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>2886</v>
+        <v>3399</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>not available</t>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21532552/2023/3/23/38410e7a-53c4-4c2d-bf86-750fa70e70031679562484963PUMAPOWERMensPants1.jpg</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/boohooman/boohooman-textured-track-pants/22167422/buy</t>
+          <t>https://www.myntra.com/track-pants/puma/puma-power-men-pants/21532552/buy</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -5355,30 +5355,30 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Puma</t>
+          <t>MARKS &amp; SPENCER</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Men Track Pants</t>
+          <t>Men Regular Fit Blue Cotton Blend Trousers</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>3399</v>
+        <v>3999</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21532552/2023/3/23/38410e7a-53c4-4c2d-bf86-750fa70e70031679562484963PUMAPOWERMensPants1.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/o/2/m/32-t176171mmid-blue-marks-spencer-original-imagn42tx2vmzggn.jpeg?q=70</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/puma/puma-power-men-pants/21532552/buy</t>
+          <t>https://www.flipkart.com/marks-spencer-regular-fit-men-blue-trousers/p/itm3aaeaf609129c?pid=TROGN42THDKQ7FDV&amp;lid=LSTTROGN42THDKQ7FDVFMOPID&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_22&amp;otracker=search&amp;iid=en_QEVxNKXZqmnAg1IAO3gw0JO%2BRzSmT%2FnO7AP9fmq7cViQMkMPNZxn%2F50FZRtOYu9qfXDtSTScQaMfgMEyJ6octA%3D%3D&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>

--- a/radon/data.xlsx
+++ b/radon/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G150"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,25 +471,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amazon Brand - Inkast Denim Co.</t>
+          <t>BRUTON</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Men's Regular T-Shirt</t>
+          <t xml:space="preserve">Men's Sports </t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/712T89VCPwL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71A7mJgXCxL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTM5MDM3ODA4ODk5MjI4OjE2ODIxNjIzNjc6c3BfbXRmOjIwMTAzOTEwMDY0MDk4OjowOjo&amp;url=%2FAmazon-Brand-Printed-Regular-Ink-T-CHG-D1_Bright%2Fdp%2FB097MNHZXK%2Fref%3Dsr_1_22_sspa%3Fkeywords%3Dpants%26qid%3D1682162367%26sr%3D8-22-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/BRUTON-shoe-01-Running-Orange_Grey-Numeric_8/dp/B0BVLTQSBM/ref=sr_1_6?keywords=shoes&amp;qid=1682169683&amp;sr=8-6</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -504,30 +504,30 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>KOTTY</t>
+          <t>World Wear Footwear</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Women Polyester Blend Green Solid Trousers</t>
+          <t>Men 9325 Latest Collection Stylish Sports Sneakers Running Shoes Running Shoes For Men</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>348</v>
+        <v>229</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51jXgsSM6SL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/i/k/a/7-9325-7-world-wear-footwear-red-original-imaggbwyva8fdprh.jpeg?q=70</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/KOTTY-Womens-Solid-Polyester-Trousers/dp/B0B49SCGMY/ref=sr_1_5?keywords=pants&amp;qid=1682162367&amp;sr=8-5</t>
+          <t>https://www.flipkart.com/world-wear-footwear-men-9325-latest-collection-stylish-sports-sneakers-running-shoes/p/itmd8d6f0cbb70a2?pid=SHOFZKGHJUGVWHB6&amp;lid=LSTSHOFZKGHJUGVWHB6LOVDMS&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_8&amp;otracker=search&amp;iid=en_55NE740n3PBINQSfiT3LF8u7%2FUYda6CUqHj6lF%2BTnVAZkMpKvsbDzGb8ji21thJSSZeTOJMW0riObSHXb1q7Rg%3D%3D&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -537,30 +537,30 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AVOLT</t>
+          <t>World Wear Footwear</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dry Fit Track </t>
+          <t>Affordable Range of Stylish Casual Walking Comfortable Sports Running Shoes For Men</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>349</v>
+        <v>249</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61iSZEH6PJL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/f/p/l/8-9326-8-world-wear-footwear-yellow-original-imagmengqep9gbwu.jpeg?q=70</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/AVOLT-Track-Athleisure-Running-Stretchable/dp/B09VPK6WZC/ref=sr_1_25?keywords=pants&amp;qid=1682162367&amp;sr=8-25</t>
+          <t>https://www.flipkart.com/world-wear-footwear-affordable-range-stylish-casual-walking-comfortable-sports-running-shoes-men/p/itm782f788a1f88a?pid=SHOFZKGRGKBZP3SN&amp;lid=LSTSHOFZKGRGKBZP3SNSYEO9M&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_3&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOFZKGRGKBZP3SN.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -570,30 +570,30 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>VIMAL JONNEY</t>
+          <t>World Wear Footwear</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vimal Men's Trackpantss</t>
+          <t>Latest Exclusive Affordable Collection of Trendy &amp; Stylish White Casual Shoes Sneakers For Men</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>349</v>
+        <v>279</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/513AablIIfL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/t/6/w/9-vs-9500-9-world-wear-footwear-white-original-imagn6a5fqbncryj.jpeg?q=70</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/VIMAL-Mens-Track-Pants-D10NAVY-M_Navy/dp/B01AAWUYJO/ref=sr_1_55?keywords=pants&amp;qid=1682162367&amp;sr=8-55</t>
+          <t>https://www.flipkart.com/world-wear-footwear-latest-exclusive-affordable-collection-trendy-stylish-white-casual-shoes-sneakers-men/p/itm83ce9c55756be?pid=SHOGG255UC4BN2HC&amp;lid=LSTSHOGG255UC4BN2HC7PT108&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_23&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOGG255UC4BN2HC.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -603,25 +603,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LEE TEX</t>
+          <t>SFR</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Women Regular Fit Maroon Cotton Blend Trousers</t>
+          <t>Sneakers For Men</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>349</v>
+        <v>279</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/l/9/o/26-trouser-50-lee-tex-original-imaghkgdhxh6cdpz.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/q/o/g/-original-imagg4zmbgz2xcxz.jpeg?q=70</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/lee-tex-regular-fit-women-maroon-trousers/p/itmce79e01587568?pid=TROGHKK5ZUTPZHYX&amp;lid=LSTTROGHKK5ZUTPZHYXVTTEDV&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_27&amp;otracker=search&amp;iid=en_QEVxNKXZqmnAg1IAO3gw0JO%2BRzSmT%2FnO7AP9fmq7cVjOeECnrsPkuOJuVKTmMvbK1UP0%2BKvGuHBfMaG4s4ngCA%3D%3D&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/sfr-sneakers-men/p/itm0ae40ea4142eb?pid=SHOGFD3CZFTT4DQ2&amp;lid=LSTSHOGFD3CZFTT4DQ2SSBU0P&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_30&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOGFD3CZFTT4DQ2.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -636,25 +636,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Foxter</t>
+          <t>World Wear Footwear</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Women Regular Fit Black Cotton Blend Trousers</t>
+          <t>Exclusive Range of Stylish Comfortable Sports Sneakers Running Shoes Running Shoes For Men</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>349</v>
+        <v>289</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/y/v/e/32-women-trouser-lupi-foxter-original-imagm99dzsz3fnqy.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/ktizdzk0/shoe/y/b/x/7-ws-9310-tying-grey-original-imag6ut3hzm2zyqm.jpeg?q=70</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/foxter-regular-fit-women-black-trousers/p/itmda18cb8e68aa7?pid=TROGM99D7HQYJYUR&amp;lid=LSTTROGM99D7HQYJYURGGTRIC&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_30&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROGM99D7HQYJYUR.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/world-wear-footwear-exclusive-range-stylish-comfortable-sports-sneakers-running-shoes-men/p/itmb30666ea35211?pid=SHOFZ2QY5SF4KTHQ&amp;lid=LSTSHOFZ2QY5SF4KTHQ0XUFV5&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_26&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOFZ2QY5SF4KTHQ.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -669,25 +669,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ADDYVERO</t>
+          <t>BRUTON</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Women Flared Maroon Cotton Blend Trousers</t>
+          <t>Trendy Sports Running Running Shoes For Men</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>375</v>
+        <v>299</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/kfoapow0-0/trouser/x/p/l/34-cl-wm-l0737-addyvero-original-imafw2jwudmcrfbq.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/g/i/g/10-rng-2021-blu-orng-44-bruton-blue-orange-original-imagdzcpzhscxwhg-bb.jpeg?q=70</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/addyvero-flared-women-maroon-trousers/p/itm9dfc4c9f2f73d?pid=TROFPWPZZHG5CNH7&amp;lid=LSTTROFPWPZZHG5CNH7BWH7WX&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_36&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROFPWPZZHG5CNH7.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/bruton-trendy-sports-running-shoes-men/p/itmf2e3878bc1109?pid=SHOGDZCP676P2WFZ&amp;lid=LSTSHOGDZCP676P2WFZJOSDH9&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_7&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOGDZCP676P2WFZ.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -702,25 +702,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ADDYVERO</t>
+          <t>BRUTON</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Women's Slim Fit Casual Trousers</t>
+          <t xml:space="preserve"> for Trendy </t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>377</v>
+        <v>299</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61r+ZK+jPtL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/813RXO-z3yL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/ADDYVERO-Flared-Ankle-Length-Trousers/dp/B085MCKV8F/ref=sr_1_10?keywords=pants&amp;qid=1682162367&amp;sr=8-10</t>
+          <t>https://www.amazon.com/BRUTON-Trendy-Running-Exclusive-Numeric_10/dp/B0B5KSW65R/ref=sr_1_23?keywords=shoes&amp;qid=1682169683&amp;sr=8-23</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -735,25 +735,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tokyo Talkies</t>
+          <t>Kraasa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Women Tapered Dark Blue Viscose Rayon Trousers</t>
+          <t>Sneakers For Women</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>379</v>
+        <v>299</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/l09w8sw0/trouser/8/p/y/32-ttp0001195-tokyo-talkies-original-imagc3zu6htgbg7m.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/i/r/c/5-girlshoe1415-5-kraasa-white-original-imagfh86jr5wdetn-bb.jpeg?q=70</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/tokyo-talkies-tapered-women-dark-blue-trousers/p/itm18c06ca2d71b1?pid=TROGC3ZZKEEMG4RP&amp;lid=LSTTROGC3ZZKEEMG4RP1QT7JL&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_12&amp;otracker=search&amp;iid=en_QEVxNKXZqmnAg1IAO3gw0JO%2BRzSmT%2FnO7AP9fmq7cVj%2F2Pojlc4EpLTdbKHqEVCZdwdw2i7Y32rxqr4ixktVwg%3D%3D&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/kraasa-sneakers-women/p/itm414d255dba994?pid=SHOGEXNFUU3WFUTU&amp;lid=LSTSHOGEXNFUU3WFUTUX4VHZQ&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_29&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOGEXNFUU3WFUTU.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -768,25 +768,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tokyo Talkies</t>
+          <t>BIRDE</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Women Regular Fit Multicolor Viscose Rayon Trousers</t>
+          <t>Premium Style Comfortable Casual Shoes For Women Slip On Sneakers For Women</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>379</v>
+        <v>299</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/7/d/8/34-ttp0000464-tokyo-talkies-original-imafw2jydcshgp86-bb.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/l3vxbbk0/shoe/l/a/i/8-brd-752-8-birde-pink-original-imagewqx2fkajtgp.jpeg?q=70</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/tokyo-talkies-regular-fit-women-multicolor-trousers/p/itmb9c8bbfee1221?pid=TROFTNYDKFT6FYHT&amp;lid=LSTTROFTNYDKFT6FYHTTAJRVA&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_8&amp;otracker=search&amp;iid=en_QEVxNKXZqmnAg1IAO3gw0JO%2BRzSmT%2FnO7AP9fmq7cVj3BWulEURyDJ63cU7WVq85UKNDnN10xrxWKleOQL4%2Fsw%3D%3D&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/birde-premium-style-comfortable-casual-shoes-women-slip-sneakers/p/itm0831c912b0fe9?pid=SHOGEWQYCSV3GU8X&amp;lid=LSTSHOGEWQYCSV3GU8XBVGU1U&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_31&amp;otracker=search&amp;iid=en_55NE740n3PBINQSfiT3LF8u7%2FUYda6CUqHj6lF%2BTnVDCDHrvxTwb3gP2%2B%2BHdNU%2FPUjkwwCbGuDXC3DSl6KRooA%3D%3D&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -801,30 +801,30 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SWADESI STUFF</t>
+          <t>aadi</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Dry Fit Track Pant for Men | Slim Fit Running Gym Stretchable Jogger</t>
+          <t>Mesh |Lightweight|Comfort|Summer|Trendy|Walking|Outdoor|Daily Use For Men</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>379</v>
+        <v>299</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61B56ZjWatL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/v/g/1/bdr123w-8-baadri-white-original-imafvgudgbkpxhzr-bb.jpeg?q=70</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/SWADESI-STUFF-Running-Stretchable-Jogger/dp/B0BDWN5LDK/ref=sr_1_33?keywords=pants&amp;qid=1682162367&amp;sr=8-33</t>
+          <t>https://www.flipkart.com/aadi-mesh-lightweight-comfort-summer-trendy-walking-outdoor-daily-use-men/p/itmd112c87241dfd?pid=SHOFQU45NYGF4FJG&amp;lid=LSTSHOFQU45NYGF4FJG29I4Q4&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_39&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOFQU45NYGF4FJG.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -834,25 +834,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>KOTTY</t>
+          <t>BIRDE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Women Regular Fit Black Viscose Rayon Trousers</t>
+          <t>Stylish Comfortable Lightweight, Breathable Black Running shoes Walking Shoes For Men</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>382</v>
+        <v>299</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/f/q/p/28-kottywomenspant261-kotty-original-imaghe3gmpq6yrty.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/l0igvww0/shoe/j/x/z/7-brd-678-7-birde-blue-original-imagca7bcj6p99gw.jpeg?q=70</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-regular-fit-women-black-trousers/p/itm52402672f82b6?pid=TROGHE3MDHTYWFHJ&amp;lid=LSTTROGHE3MDHTYWFHJ26HHKC&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_19&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROGHE3MDHTYWFHJ.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/birde-stylish-comfortable-lightweight-breathable-black-running-shoes-walking-men/p/itm8cc2e7e50f824?pid=SHOGCA7CR2HZR3GN&amp;lid=LSTSHOGCA7CR2HZR3GNGPNJEJ&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_19&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOGCA7CR2HZR3GN.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -867,25 +867,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>KOTTY</t>
+          <t>Nobelite</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Women Regular Fit Green Viscose Rayon Trousers</t>
+          <t>Sports Running Shoes For Men</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>382</v>
+        <v>299</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/o/h/s/28-kottywomenspant151-kotty-original-imagnz56ubjgwuzu.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/n/p/h/7-advnchr-41-nobelite-t-blue-original-imagct54mz3wzpwx-bb.jpeg?q=70</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-regular-fit-women-green-trousers/p/itmf8cd900a09a26?pid=TROGF3FZZN4JCHYY&amp;lid=LSTTROGF3FZZN4JCHYY8JJ4BV&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_16&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROGF3FZZN4JCHYY.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/nobelite-sports-running-shoes-men/p/itm0d3682bc0c30b?pid=SHOGCEYQ2CVXHYFS&amp;lid=LSTSHOGCEYQ2CVXHYFSF3CU4T&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_35&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOGCEYQ2CVXHYFS.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -900,25 +900,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>KOTTY</t>
+          <t>BIRDE</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Women Regular Fit Brown Cotton Blend Trousers</t>
+          <t>Premium Style Comfortable Casual Shoes For Women Slip On Sneakers For Women</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>382</v>
+        <v>299</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/3/k/e/28-kottywomenspant204-kotty-original-imaggjhvxzwcfggh.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/l3vxbbk0/shoe/v/0/e/7-brd-753-7-birde-blue-original-imagewqwk6aqscgg.jpeg?q=70</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-regular-fit-women-brown-trousers/p/itmefde201429474?pid=TROGGJHWF7N35UT4&amp;lid=LSTTROGGJHWF7N35UT4VPCAFC&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_15&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROGGJHWF7N35UT4.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/birde-premium-style-comfortable-casual-shoes-women-slip-sneakers/p/itm9bb45d142476b?pid=SHOGEWQYYKQBGGPE&amp;lid=LSTSHOGEWQYYKQBGGPEKQ9RXD&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_36&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOGEWQYYKQBGGPE.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -933,25 +933,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>KOTTY</t>
+          <t>BRUTON</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Women Regular Fit Dark Green Viscose Rayon Trousers</t>
+          <t>Trendy Running Shoes Running Shoes For Men</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>382</v>
+        <v>299</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/l47cu4w0/trouser/i/k/v/30-kottywomenspant154-kotty-original-imagf5nctpcjxabc.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/s/i/l/10-2031-blu-wht-44-bruton-blue-original-imagfmdubtgj8ebj-bb.jpeg?q=70</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-regular-fit-women-dark-green-trousers/p/itmc5df26954a566?pid=TROGF5NDQ8VDF4HH&amp;lid=LSTTROGF5NDQ8VDF4HHRHBTWQ&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_14&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROGF5NDQ8VDF4HH.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/bruton-trendy-running-shoes-men/p/itmdd3c8052f3332?pid=SHOGFMHU3WAXGPE7&amp;lid=LSTSHOGFMHU3WAXGPE7R75VFS&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_9&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOGFMHU3WAXGPE7.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -966,25 +966,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>KOTTY</t>
+          <t>World Wear Footwear</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Women Regular Fit Black Viscose Rayon Trousers</t>
+          <t>Exclusive Affordable Collection of Trendy &amp; Stylish Sport Sneakers Running Shoes Running Shoes For Men</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>382</v>
+        <v>299</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/8/n/5/28-kttwomenspant261-kotty-original-imagnrr9xcy9zgru.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/o/h/g/-original-imaggdffzfvkfrvk.jpeg?q=70</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kotty-regular-fit-women-black-trousers/p/itm126ac29fac269?pid=TROGHF9CQCPGXPXM&amp;lid=LSTTROGHF9CQCPGXPXMGBCIM6&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;spotlightTagId=BestsellerId_clo%2Fvua&amp;srno=s_1_10&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROGHF9CQCPGXPXM.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/world-wear-footwear-exclusive-affordable-collection-trendy-stylish-sport-sneakers-running-shoes-men/p/itm6e208275c9243?pid=SHOGBH95YZ4HMFW2&amp;lid=LSTSHOGBH95YZ4HMFW2CGUPLJ&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_5&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOGBH95YZ4HMFW2.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -999,30 +999,30 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>JUGULAR</t>
+          <t>Nobelite</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Men's Slim Fit Cotton Track Pant</t>
+          <t>Sports Running Shoes For Men</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>389</v>
+        <v>299</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61SJTcmtp-L._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/t/v/9/8-advnchr-42-nobelite-grey-original-imagct5485hm2ckd-bb.jpeg?q=70</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/JUGULAR-Cotton-Style-Joggers-Medium/dp/B091YJ78JK/ref=sr_1_29?keywords=pants&amp;qid=1682162367&amp;sr=8-29</t>
+          <t>https://www.flipkart.com/nobelite-sports-running-shoes-men/p/itmefb3f13bf45c7?pid=SHOGCEYQAGZBDTMR&amp;lid=LSTSHOGCEYQAGZBDTMRHNG8QH&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_33&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOGCEYQAGZBDTMR.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -1032,25 +1032,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Shasmi</t>
+          <t>layasa</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Women's Dress </t>
+          <t>Men's Sneakers Walking Shoe</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>399</v>
+        <v>349</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51ylFhZJI2L._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/41k13ickL3L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Shasmi-Fit-Plazzo-Trouser-Pant/dp/B0BPT47WX8/ref=sr_1_31?keywords=pants&amp;qid=1682162367&amp;sr=8-31</t>
+          <t>https://www.amazon.com/layasa-Sneakers-Walking-White-Numeric_10/dp/B0BNYC96YY/ref=sr_1_42?keywords=shoes&amp;qid=1682169683&amp;sr=8-42</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1065,30 +1065,30 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ENDEAVOUR WEAR</t>
+          <t>BRUTON</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Men's Regular Fit Trackpants</t>
+          <t>Men Combo Pack of 2 Casual Shoes Canvas Shoes For Men</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/5137SFdCROL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/m/n/b/6-2-combo-201-blk-fitman-red-6-bruton-multicolor-original-imaggttxszftpw7a.jpeg?q=70</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/ENDEAVOUR-WEAR-Regular-Track-EWTS_CTNBLACKTRACK_M_Black_M/dp/B09B3YC8XM/ref=sr_1_36?keywords=pants&amp;qid=1682162367&amp;sr=8-36</t>
+          <t>https://www.flipkart.com/bruton-men-combo-pack-2-casual-shoes-canvas/p/itmfhtmuzadpb35f?pid=SHOFHTG95NZPPHZT&amp;lid=LSTSHOFHTG95NZPPHZTOOBWIX&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_28&amp;otracker=search&amp;iid=en_55NE740n3PBINQSfiT3LF8u7%2FUYda6CUqHj6lF%2BTnVAwVnfAtYq7mOTjMM5LXC6MFPtmRLg5YCIC8kbJap6g4Q%3D%3D&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -1098,30 +1098,30 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MANCREW</t>
+          <t>Labbin</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Men's Regular Fit </t>
+          <t>Sneakers For Men</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61kR5YNmm9S._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/c/d/i/7-95000215-41-roamra-white-original-imag4ahytjmqdzz8-bb.jpeg?q=70</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/MANCREW-Mens-Formal-Trouser-Black/dp/B09499VWGV/ref=sr_1_47?keywords=pants&amp;qid=1682162367&amp;sr=8-47</t>
+          <t>https://www.flipkart.com/labbin-sneakers-men/p/itm22551963c0809?pid=SHOG497GM6AVWCEU&amp;lid=LSTSHOG497GM6AVWCEUBBOTEM&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_34&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOG497GM6AVWCEU.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -1131,25 +1131,25 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CYPHUS</t>
+          <t>BIRDE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Men Regular Fit Black Cotton Blend Trousers</t>
+          <t>Trendy And Stylish New Design Sport Shoes For Men Pack Of 2 Running Shoes For Men</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/ksgehzk0/trouser/k/2/q/32-cyfor-a-cyphus-original-imag6yyyedypgvke.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/kyj0vbk0/shoe/e/b/3/6-brd-631-brd-343-6-birde-multicolor-original-imagaqsshqrx9gz5.jpeg?q=70</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/cyphus-regular-fit-men-black-trousers/p/itmcc7fe4e00b2c2?pid=TROFZVRWWTM8VEWT&amp;lid=LSTTROFZVRWWTM8VEWTQBEJLA&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;spotlightTagId=BestsellerId_clo%2Fvua&amp;srno=s_1_7&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROFZVRWWTM8VEWT.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/birde-trendy-stylish-new-design-sport-shoes-men-pack-2-running/p/itmd2aee2d5b886d?pid=SHOGAQSWH4HKVRCS&amp;lid=LSTSHOGAQSWH4HKVRCS0NLF18&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_15&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOGAQSWH4HKVRCS.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1164,30 +1164,30 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Chromozome</t>
+          <t>aadi</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Men's Regular Shorts</t>
+          <t>Synthetic Leather |Lightweight|Comfort|Summer|Trendy|Walking|Outdoor|Daily Use For Men</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71TNBRetNwL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/kzhbfrk0/shoe/y/m/k/9-mrj1851-9-aadi-tan-original-imagbgnfvgdhwwc4.jpeg?q=70</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTM5MDM3ODA4ODk5MjI4OjE2ODIxNjIzNjc6c3BfYnRmOjIwMTA4NDMyMjkwNjk4OjowOjo&amp;url=%2FChromozome-Track-N-170-Gym-Shorts_Charcoal_Medium%2Fdp%2FB07NBYYZWD%2Fref%3Dsr_1_59_sspa%3Fkeywords%3Dpants%26qid%3D1682162367%26sr%3D8-59-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.flipkart.com/aadi-synthetic-leather-lightweight-comfort-summer-trendy-walking-outdoor-daily-use-men/p/itm1e51bde652ee4?pid=SHOGBGNFKFCWNDCD&amp;lid=LSTSHOGBGNFKFCWNDCDEDTUMQ&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_24&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOGBGNFKFCWNDCD.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -1197,30 +1197,30 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>JPM brothers</t>
+          <t>World Wear Footwear</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Mens Regular Fit Lycra Pant</t>
+          <t>Trendy Stylish Comfortable &amp; Lightweight, Casual High Tops Sneakers Shoes Sneakers For Men</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>429</v>
+        <v>399</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71dZDoqZEfL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/l58iaa80/shopsy-shoe/e/d/x/10-spy-9463-world-wear-footwear-black-white-original-imagfymbbyphzdh8.jpeg?q=70</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/JPM-brothers-Polyester-BUTTON-LIGHTGREY-XL_Light-Grey_XL/dp/B0BGXZJC6S/ref=sr_1_18?keywords=pants&amp;qid=1682162367&amp;sr=8-18</t>
+          <t>https://www.flipkart.com/world-wear-footwear-trendy-stylish-comfortable-lightweight-casual-high-tops-sneakers-shoes-men/p/itm98336ff1bad6e?pid=SHOGFYMCTQ2JJBTZ&amp;lid=LSTSHOGFYMCTQ2JJBTZV2EKCQ&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_11&amp;otracker=search&amp;iid=en_55NE740n3PBINQSfiT3LF8u7%2FUYda6CUqHj6lF%2BTnVB9nxI2AQJ8mXa5fhk8uSxotONjz9cxKMvG5QayGOJovA%3D%3D&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -1230,30 +1230,30 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Laabha</t>
+          <t>WAAN</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Solid Track Pants</t>
+          <t>Light weighted Sport shoes, Running Shoes, Training shoes, Cycling shoes, Gyming Shoes, Training &amp; Gym Shoes For Men</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>447</v>
+        <v>419</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/ksqeky80/shoe/g/p/u/6-805-red-6-waan-black-red-original-imag68r7vvxrffgw.jpeg?q=70</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/laabha/laabha-solid-track-pants/21975656/buy</t>
+          <t>https://www.flipkart.com/waan-light-weighted-sport-shoes-running-training-cycling-gyming-gym-shoes-men/p/itmb14a31e79f8cf?pid=SHOG5VAJCHKH8BBV&amp;lid=LSTSHOG5VAJCHKH8BBVYGEYFG&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_25&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOG5VAJCHKH8BBV.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -1263,30 +1263,30 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>VEGO</t>
+          <t>WAAN</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Mens Cotton Shorts, Bermuda,Trousers, Half Pant</t>
+          <t>Walking Shoes For Men</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>449</v>
+        <v>419</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71xLvsKT3bL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/ks243gw0/shoe/q/o/w/8-8050-black-green-waan-black-green-original-imag5pt8cgcgw4zp.jpeg?q=70</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTM5MDM3ODA4ODk5MjI4OjE2ODIxNjIzNjc6c3BfYXRmOjIwMDg1MzM4NTQxNjk4OjowOjo&amp;url=%2FVEGO-COTTON-ZIPPER-SHORTS-HS-333-GREY-42%2Fdp%2FB079WDHVSZ%2Fref%3Dsr_1_4_sspa%3Fkeywords%3Dpants%26qid%3D1682162367%26sr%3D8-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.flipkart.com/waan-walking-shoes-men/p/itm6d62d071b641c?pid=SHOG5PT8NQP6ZRTD&amp;lid=LSTSHOG5PT8NQP6ZRTDPKX3IJ&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_10&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOG5PT8NQP6ZRTD.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -1296,30 +1296,30 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>KRG FASHION</t>
+          <t>WAAN</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Men's Reguler Fit Poly Cotton Trouser Pant's Relaxed</t>
+          <t>shoes Walking Shoes For Men</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>449</v>
+        <v>419</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61e6fZ9bJsL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/l/u/c/10-8050-black-red-waan-black-red-original-imag5psezyhhwwks-bb.jpeg?q=70</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/KRG-Reguler-Cotton-Trouser-Pants/dp/B09Z95KRSN/ref=sr_1_48?keywords=pants&amp;qid=1682162367&amp;sr=8-48</t>
+          <t>https://www.flipkart.com/waan-shoes-walking-men/p/itm1e87c9c44ef0d?pid=SHOG5PSEKMVHGGPY&amp;lid=LSTSHOG5PSEKMVHGGPYFVOREU&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_4&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOG5PSEKMVHGGPY.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -1329,30 +1329,30 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>VEGO.</t>
+          <t>aadi</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Mens Cotton Shorts, Trousers, Bermuda, Half Pant, Lower Black</t>
+          <t>Synthetic Leather For Men</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71NCw2PO1tL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/q/h/z/7-mrj1852-7-aadi-black-original-imagdwgudezandfs-bb.jpeg?q=70</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTM5MDM3ODA4ODk5MjI4OjE2ODIxNjIzNjc6c3BfYXRmOjIwMDg1MzM4NTQxMzk4OjowOjo&amp;url=%2FVEGO-Black-Cotton-Shorts-HB-111-BLACK-ROYAL-40%2Fdp%2FB01IXKUPGM%2Fref%3Dsr_1_3_sspa%3Fkeywords%3Dpants%26qid%3D1682162367%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.flipkart.com/aadi-synthetic-leather-men/p/itm36d147f79a9bb?pid=SHOGBGNFYFFYMX9E&amp;lid=LSTSHOGBGNFYFFYMX9EJS7MHU&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_6&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOGBGNFYFFYMX9E.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -1362,25 +1362,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Tokyo Talkies</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Women Regular Fit Multicolor Viscose Rayon Trousers</t>
+          <t>Running / Walking / Sport Shoes For Men Running Shoes For Men</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/kwl0akw0/trouser/0/i/4/32-ttp0001063-tokyo-talkies-original-imag987tqxcvqpm3.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/u/a/5/-original-imagg7em3fmnhsa4.jpeg?q=70</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/tokyo-talkies-regular-fit-women-multicolor-trousers/p/itm713085926a550?pid=TROG987YZQ5KRDGK&amp;lid=LSTTROG987YZQ5KRDGKGYGSCJ&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_2&amp;otracker=search&amp;iid=en_QEVxNKXZqmnAg1IAO3gw0JO%2BRzSmT%2FnO7AP9fmq7cVhetpuLcv%2BFwv%2BsCIMVmkO1SaG7QyiQXXNttdYstKsQEw%3D%3D&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/tr-running-walking-sport-shoes-men/p/itmd1525a370d519?pid=SHOG3Z9EWXZ8H57W&amp;lid=LSTSHOG3Z9EWXZ8H57WOIXXFI&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_2&amp;otracker=search&amp;iid=en_55NE740n3PBINQSfiT3LF8u7%2FUYda6CUqHj6lF%2BTnVCQ%2F%2FYLdKKw8vo6oTGfPKwk%2BMTd0LlirC%2BG7E1YC3A7Pw%3D%3D&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1395,12 +1395,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Tokyo Talkies</t>
+          <t>BRUTON</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Women Regular Fit Maroon Viscose Rayon Trousers</t>
+          <t>Combo Pack of 2 Sports Shoes Running Shoes For Men Running Shoes For Men</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1408,12 +1408,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/kjhgzgw0-0/trouser/b/u/m/32-ttp0000528-tokyo-talkies-original-imafzfekgpvryft8.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/m/4/g/7-2cmb-2021-512-black-41-bruton-blue-black-original-imagfgszh7tjza9y-bb.jpeg?q=70</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/tokyo-talkies-regular-fit-women-maroon-trousers/p/itm8a05a9cf9d352?pid=TROFZFEHKWWA9DGA&amp;lid=LSTTROFZFEHKWWA9DGAFFG8LW&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_11&amp;otracker=search&amp;iid=en_QEVxNKXZqmnAg1IAO3gw0JO%2BRzSmT%2FnO7AP9fmq7cVgeE7%2BN25QnT3OtKJGRLA1B3E3MHVnnBPmvHT2Alpb3RA%3D%3D&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/bruton-combo-pack-2-sports-shoes-running-men/p/itm2703e0e2ea38b?pid=SHOGFGT5TV27YQCQ&amp;lid=LSTSHOGFGT5TV27YQCQB3LWLB&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_21&amp;otracker=search&amp;iid=en_55NE740n3PBINQSfiT3LF8u7%2FUYda6CUqHj6lF%2BTnVBhLEbZq3YlY8SppOe8QJ1xat42VW7xyCv8ghuotynL7g%3D%3D&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1428,12 +1428,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Tokyo Talkies</t>
+          <t>BRUTON</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Women Regular Fit Blue Cotton Blend Trousers</t>
+          <t>omboPack of-2 | sports shoes for men |walking, gym, trekking shoes, Hiking &amp; Trekking Shoes For Men</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1441,12 +1441,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/kxtaxzk0/trouser/j/u/s/32-ttp0001089-tokyo-talkies-original-imaga6z3qmbrpgbx.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/f/h/e/7-rng-2cmb-2031-551-41-bruton-blue-white-original-imaggameyhax2hwu.jpeg?q=70</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/tokyo-talkies-regular-fit-women-blue-trousers/p/itm3da88f8dc701e?pid=TROGA6Z3YZKXQQUY&amp;lid=LSTTROGA6Z3YZKXQQUYWJAYIG&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_18&amp;otracker=search&amp;iid=en_QEVxNKXZqmnAg1IAO3gw0JO%2BRzSmT%2FnO7AP9fmq7cVjzDzB19cFxNEdRi%2FzLNmzlMtQgo%2BvCMB3R795hTw4tDA%3D%3D&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/bruton-ombopack-of-2-sports-shoes-men-walking-gym-trekking-shoes-hiking/p/itmbf74f6a0c686b?pid=SHOGGAMEC8C8T4T8&amp;lid=LSTSHOGGAMEC8C8T4T8IHE1TB&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_17&amp;otracker=search&amp;iid=en_55NE740n3PBINQSfiT3LF8u7%2FUYda6CUqHj6lF%2BTnVBrO%2F3Hok%2BV7y8abTijDdUuZyjlrdYQIuMbWaJUMYg91Q%3D%3D&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1461,30 +1461,30 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>VEGO</t>
+          <t>aadi</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Men's Sports Shorts, Nylon Shorts, Half Pant, Bermuda</t>
+          <t>Synthetic Leather |Lightweight|Comfort|Summer|Trendy|Walking|Outdoor|Daily Use For Men</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>449</v>
+        <v>479</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81JZxUJOzhL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/s/j/i/6-mrj1906-6-aadi-white-grey-original-imagdfyfmxk7thzb-bb.jpeg?q=70</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTM5MDM3ODA4ODk5MjI4OjE2ODIxNjIzNjc6c3BfYXRmOjIwMDg1MzM4NTQzODk4OjowOjo&amp;url=%2FVEGO-Sports-Black-Shorts-SPS-BOOM-BLACK-34%2Fdp%2FB07DC8XTZB%2Fref%3Dsr_1_1_sspa%3Fkeywords%3Dpants%26qid%3D1682162367%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.flipkart.com/aadi-synthetic-leather-lightweight-comfort-summer-trendy-walking-outdoor-daily-use-men/p/itm4328ff9836c98?pid=SHOGDFYGVDJHTT45&amp;lid=LSTSHOGDFYGVDJHTT45BU97AE&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_20&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOGDFYGVDJHTT45.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -1494,30 +1494,30 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Shasmi</t>
+          <t>Labbin</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Women's Yoga Dress </t>
+          <t>Casual Sneakers Black Outdoor Shoes For Boys And Men Sneakers For Men</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>469</v>
+        <v>494</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61nCTPDIp7L._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/l/t/r/9-874889-43-labbin-black-original-imagnytmyyqbzywf.jpeg?q=70</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Shasmi-Boot-Cut-Fit-Trouser-Pant/dp/B0BGTFH7X4/ref=sr_1_41?keywords=pants&amp;qid=1682162367&amp;sr=8-41</t>
+          <t>https://www.flipkart.com/labbin-casual-sneakers-black-outdoor-shoes-boys-men/p/itm5d79c7373c0b0?pid=SHOGMBC6XXNZUA8N&amp;lid=LSTSHOGMBC6XXNZUA8NQRW0OV&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_27&amp;otracker=search&amp;iid=en_55NE740n3PBINQSfiT3LF8u7%2FUYda6CUqHj6lF%2BTnVBGDqPas9EtW6KyN%2FBKp6yC3S1n1iOzUBW2ZO1fO1V5UA%3D%3D&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -1527,30 +1527,30 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>JUGULAR</t>
+          <t>BIRDE</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Men's Regular Fit Cotton Pant And Joggers</t>
+          <t>Combo Pack Of 2 Casual Shoes Sneakers For Men</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>469</v>
+        <v>499</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51e3d6L6EDL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/6/y/c/10-au-brd-797-brd-685-birde-white-black-original-imagmhgyzkuwa8ph.jpeg?q=70</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/JUGULAR-Cotton-Track-Joggers-X-Large/dp/B09W9X6LG6/ref=sr_1_38?keywords=pants&amp;qid=1682162367&amp;sr=8-38</t>
+          <t>https://www.flipkart.com/birde-combo-pack-2-casual-shoes-sneakers-men/p/itm9470c144c4484?pid=SHOGMHJZTNN4JEQP&amp;lid=LSTSHOGMHJZTNN4JEQPOS7XCQ&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_13&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOGMHJZTNN4JEQP.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -1560,30 +1560,30 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Aahwan</t>
+          <t>BIRDE</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Women's &amp; Girls' Solid Split Hem Flare Leg </t>
+          <t>Combo Pack of 2 Sports Shoes Running Shoes For Men</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>474</v>
+        <v>499</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51tzz6Ib+PL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/kqidx8w0/shoe/i/4/n/6-brd-406-300-blue-6-birde-blue-original-imag4g8cmfkfzkjg.jpeg?q=70</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Aahwan-Solid-Trouser-Womens-212-Black-S/dp/B0BTDCLR6D/ref=sr_1_6?keywords=pants&amp;qid=1682162367&amp;sr=8-6</t>
+          <t>https://www.flipkart.com/birde-combo-pack-2-sports-shoes-running-men/p/itma4b1034f357f3?pid=SHOG7YUYQTKYYJHM&amp;lid=LSTSHOG7YUYQTKYYJHMBRNXS9&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_14&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOG7YUYQTKYYJHM.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -1593,25 +1593,25 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BLUE STAR SHARK</t>
+          <t>Bourge</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Men's Lycra Stretchable Regular Fit Joggers Navy Track Pant Lower</t>
+          <t xml:space="preserve">Men's Loire-z126 Running </t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>475</v>
+        <v>499</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51d74502ZVL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71GYZvQqVLL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/BLUE-STAR-SHARK-Stretchable-Regular/dp/B0BJBHNQHQ/ref=sr_1_50?keywords=pants&amp;qid=1682162367&amp;sr=8-50</t>
+          <t>https://www.amazon.com/Bourge-Loire-Z126-Running-Shoes-11-Loire-61-11/dp/B08MBCFTRX/ref=sr_1_27?keywords=shoes&amp;qid=1682169683&amp;sr=8-27</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1626,30 +1626,30 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Amazon Brand - Inkast Denim Co.</t>
+          <t>aadi</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Men's Regular Fit Polo Shirt</t>
+          <t>Lightweight,Comfort,Summer,Trendy,Walking,Outdoor,Stylish,Training,Daily Use Walking Shoes For Men</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/91xNPItUNNL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/h/a/i/8-mrj2100-8-aadi-white-black-grey-original-imagn8yketvx3h8h.jpeg?q=70</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTM5MDM3ODA4ODk5MjI4OjE2ODIxNjIzNjc6c3BfYnRmOjIwMTAzOTI5ODEwMTk4OjowOjo&amp;url=%2FAmazon-Brand-Inkast-Regular-16_Black%2Fdp%2FB08FS4T5NL%2Fref%3Dsr_1_60_sspa%3Fkeywords%3Dpants%26qid%3D1682162367%26sr%3D8-60-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.flipkart.com/aadi-lightweight-comfort-summer-trendy-walking-outdoor-stylish-training-daily-use-walking-shoes-men/p/itm95abe81cacb0d?pid=SHOGNFAWPEKRC97G&amp;lid=LSTSHOGNFAWPEKRC97GNIFHTG&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_12&amp;otracker=search&amp;iid=en_55NE740n3PBINQSfiT3LF8u7%2FUYda6CUqHj6lF%2BTnVAZvtEjaqZk1%2FvVrwUhuUe%2B8NahkFixtoba1NCd3pqL%2Fg%3D%3D&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -1659,25 +1659,25 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>JUGULAR</t>
+          <t>Campus</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Men's Slim Fit Track </t>
+          <t>Men's OXYFIT (N) Walking Shoe</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>479</v>
+        <v>512</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71r3RWbLWAL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61lfgSuma9L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/JUGULAR-Solid-Regular-Cargo-X-Large/dp/B0855KB2HM/ref=sr_1_8?keywords=pants&amp;qid=1682162367&amp;sr=8-8</t>
+          <t>https://www.amazon.com/Campus-OXYFIT-BT-GRN-Walking-Shoes/dp/B09RPQH5N5/ref=sr_1_5?keywords=shoes&amp;qid=1682169683&amp;sr=8-5</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1692,30 +1692,30 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Laabha</t>
+          <t>Liberty</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Solid Track Pants</t>
+          <t>Boy SCHZONE-DV Black School Uniform Shoe</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>489</v>
+        <v>568</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21975652/2023/2/21/65fb8b94-d83d-4354-bca2-395279f286041676959772591-Laabha-Women-Track-Pants-6261676959771524-1.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71hiqqfRFkL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/laabha/laabha-solid-track-pants/21975652/buy</t>
+          <t>https://www.amazon.com/Force-10-Liberty-Unisex-School/dp/B01KTPNJLM/ref=sr_1_3?keywords=shoes&amp;qid=1682169683&amp;sr=8-3</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -1725,30 +1725,30 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Hubberholme</t>
+          <t>RapidBox</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Men Track Pants</t>
+          <t>Sneakers For Men</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>493</v>
+        <v>571</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/1088888/2016/5/11/11462961543084-Hubberholme-Navy-Tailored-Fit-Track-Pants-921462961542776-1.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/x/i/v/6-rpd134-rapidbox-white-original-imag7h6qj97vyryv-bb.jpeg?q=70</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/hubberholme/hubberholme-navy-track-pants/1088888/buy</t>
+          <t>https://www.flipkart.com/rapidbox-sneakers-men/p/itm13dd1209e585b?pid=SHOG7H6QGQWMTM4C&amp;lid=LSTSHOG7H6QGQWMTM4C78GSRD&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_32&amp;otracker=search&amp;iid=en_55NE740n3PBINQSfiT3LF8u7%2FUYda6CUqHj6lF%2BTnVBzWszyruO7k5DmTx6Gc00AY8cpU2RpxpjwW%2BD7jjK6Yg%3D%3D&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -1758,30 +1758,30 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Hubberholme</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Men Track Pants</t>
+          <t xml:space="preserve">Men's Running </t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>493</v>
+        <v>579</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+          <t>https://m.media-amazon.com/images/I/41fFK0sxSZL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/hubberholme/hubberholme-navy-track-pants/1189633/buy</t>
+          <t>https://www.amazon.com/ASIAN-Future-01-White-Running-Shoes/dp/B08K7P2FXN/ref=sr_1_45?keywords=shoes&amp;qid=1682169683&amp;sr=8-45</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -1791,25 +1791,25 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>king kong</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Luxury PV Lycra Stretchable Formal </t>
+          <t xml:space="preserve">Running </t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>497</v>
+        <v>579</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51PtZkm7ZWL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/617OyFdfJVL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/king-kong-Stretchable-Trouser-Pant/dp/B0BYJV2Q98/ref=sr_1_51?keywords=pants&amp;qid=1682162367&amp;sr=8-51</t>
+          <t>https://www.amazon.com/ASIAN-Wonder_11-Running-Training-Sports/dp/B09FJLB5FD/ref=sr_1_40?keywords=shoes&amp;qid=1682169683&amp;sr=8-40</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -1824,30 +1824,30 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Majestic Man</t>
+          <t>Campus</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Men Slim Fit Light Blue Cotton Blend Trousers</t>
+          <t xml:space="preserve">Men's Maxico Running </t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>498</v>
+        <v>584</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/l1pc3gw0/trouser/7/5/5/32-trsd401bk-majestic-man-original-imagd7pgghbjjaue.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/81Pk4RiSKqL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/majestic-man-slim-fit-men-light-blue-trousers/p/itm5111ee2191d74?pid=TROGD7PMJUX6GEKT&amp;lid=LSTTROGD7PMJUX6GEKTNHUZUO&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_26&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROGD7PMJUX6GEKT.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/Campus-Maxico-MODBLU-BLU-Running-Shoes/dp/B0855Z2H1N/ref=sr_1_1?keywords=shoes&amp;qid=1682169683&amp;sr=8-1</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>FLIPKART</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -1857,25 +1857,25 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Majestic Man</t>
+          <t>Bersache</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Slim Fit Formal Trousers for Men</t>
+          <t xml:space="preserve">Sports </t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>498</v>
+        <v>594</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61cncOh6ZbL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71vDZjvZG+L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Majestic-Man-Slim-Formal-Trousers/dp/B0B1LNCQRN/ref=sr_1_53?keywords=pants&amp;qid=1682162367&amp;sr=8-53</t>
+          <t>https://www.amazon.com/Bersache-Lightweight-Trekking-ORI-9010-Numeric_7/dp/B09ZD4F9XH/ref=sr_1_11?keywords=shoes&amp;qid=1682169683&amp;sr=8-11</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -1890,30 +1890,30 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Chromozome</t>
+          <t>BERSACHE</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Men Slim Fit Polyester, Cotton Track Pant</t>
+          <t>Bersache Sports Shoes For Men|Red For Running,Walking,gym and hiking Shoes Running Shoes For Men</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>499</v>
+        <v>599</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71zvD34MDgL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/m/z/l/6-ori-9010-6-bersache-red-original-imagn69etxggadch.jpeg?q=70</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Chromozome-Cotton-Track-Pants-8902733355278_S6762-Starnavy-L/dp/B06WD5BZWC/ref=sr_1_56?keywords=pants&amp;qid=1682162367&amp;sr=8-56</t>
+          <t>https://www.flipkart.com/bersache-sports-shoes-men-red-running-walking-gym-hiking-running-men/p/itmc3a5c2933ef80?pid=SHOGDZ7RRSEEUGEP&amp;lid=LSTSHOGDZ7RRSEEUGEPVY8KA4&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_37&amp;otracker=search&amp;iid=en_55NE740n3PBINQSfiT3LF8u7%2FUYda6CUqHj6lF%2BTnVAgQNzA8fY6MVgoTIX6a927kvfARc3IVib6kuF6RaQ0GQ%3D%3D&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -1923,30 +1923,30 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ENDEAVOUR WEAR</t>
+          <t>asian</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Men's Regular Fit Trackpants</t>
+          <t>Blade-13 Men's Sports Shoes,Running Shoes,Walking Shoes,Casual Sneaker Shoes Running Shoes For Men</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>499</v>
+        <v>599</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51o-SBNPLUS._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/l0vbukw0/shoe/n/w/f/7-blade-13cdgrylgry-asian-grey-original-imagck2xpjwdp9f9.jpeg?q=70</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/ENDEAVOUR-WEAR-Stretchable-Regular-Joggers/dp/B096KVR981/ref=sr_1_20?keywords=pants&amp;qid=1682162367&amp;sr=8-20</t>
+          <t>https://www.flipkart.com/asian-blade-13-men-s-sports-shoes-running-shoes-walking-shoes-casual-sneaker-shoes-running-men/p/itm32c24fccaccb9?pid=SHOGCK2XZCUMGN8W&amp;lid=LSTSHOGCK2XZCUMGN8WPXXMSM&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_40&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOGCK2XZCUMGN8W.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -1956,30 +1956,30 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Q-Rious</t>
+          <t>Avant</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Women Regular Fit Pink Cotton Blend Trousers</t>
+          <t xml:space="preserve">AVANT Men's Grey/Black Running </t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>499</v>
+        <v>609</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/i/6/f/36-jg-b2-brick-q-rious-original-imafw7g9ftfp6xtc-bb.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/61xJ6SfB-eL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/q-rious-regular-fit-women-pink-trousers/p/itma3a3d91fd847e?pid=TROFW7G9J9ZHCC7E&amp;lid=LSTTROFW7G9J9ZHCC7ENQCEAZ&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_33&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROFW7G9J9ZHCC7E.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/Avant-Ultra-Light-Running-Training/dp/B07Q8K1K34/ref=sr_1_30?keywords=shoes&amp;qid=1682169683&amp;sr=8-30</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>FLIPKART</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -1989,25 +1989,25 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>Bourge</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Men's Slim Casual Trousers</t>
+          <t xml:space="preserve">Mens Vega-m1 Running </t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>537</v>
+        <v>657</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71eeiY8CF4L._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71POb9z3DKL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Stretchable-AW19TRS-ESS-4_Light-Grey_32/dp/B07SK1X4H9/ref=sr_1_17?keywords=pants&amp;qid=1682162367&amp;sr=8-17</t>
+          <t>https://www.amazon.com/Bourge-Vega-1-Running-Shoes-9-Vega-1-Black-09/dp/B07H4RM9LJ/ref=sr_1_19?keywords=shoes&amp;qid=1682169683&amp;sr=8-19</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2022,30 +2022,30 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SASSAFRAS</t>
+          <t>Campus</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Women Relaxed Pink Cotton Blend Trousers</t>
+          <t xml:space="preserve">Men's Running </t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>554</v>
+        <v>658</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/l/n/7/xxl-sfpant5302-sassafras-original-imafvb5h3ufh9hry-bb.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/61axl882T+L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/sassafras-relaxed-women-pink-trousers/p/itm50ef3bd840444?pid=TROFVB5HCZZRSEA6&amp;lid=LSTTROFVB5HCZZRSEA6IYSABY&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_13&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROFVB5HCZZRSEA6.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/Campus-PRO-F-ORG-Running-Shoes/dp/B09RBGDG8Y/ref=sr_1_43?keywords=shoes&amp;qid=1682169683&amp;sr=8-43</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>FLIPKART</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -2055,30 +2055,30 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SASSAFRAS</t>
+          <t>LANCER</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Women Relaxed Light Green Cotton Blend Trousers</t>
+          <t>Men's Running Shoe</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>554</v>
+        <v>659</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/g/f/n/m-sfpant5301-sassafras-original-imafvb5hmwn4ghkz-bb.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/61RFlIUeaIL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/sassafras-relaxed-women-light-green-trousers/p/itm3ac7f52e9f2ad?pid=TROFVB5HQVARSG7G&amp;lid=LSTTROFVB5HQVARSG7GBIBDBS&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_39&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROFVB5HQVARSG7G.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.amazon.com/Lancer-White-Sports-Running-Indus-251/dp/B081LGL5QT/ref=sr_1_35?keywords=shoes&amp;qid=1682169683&amp;sr=8-35</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>FLIPKART</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -2088,25 +2088,25 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Alan Jones Clothing</t>
+          <t>Campus</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Men's Slim Fit Track </t>
+          <t xml:space="preserve">Men's Strom PRO Running </t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>579</v>
+        <v>674</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81t3XS8UciL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61-5EOuD0xL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Alan-Jones-Solid-Joggers-JOG18-D95-MIL-L_Large_Melange/dp/B07C9T8LL1/ref=sr_1_14?keywords=pants&amp;qid=1682162367&amp;sr=8-14</t>
+          <t>https://www.amazon.com/Campus-Mens-Strom-Running-Shoes/dp/B08R23JXHQ/ref=sr_1_16?keywords=shoes&amp;qid=1682169683&amp;sr=8-16</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2121,25 +2121,25 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>Bersache</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Men Dress </t>
+          <t xml:space="preserve">Lightweight White Color Changing Casual </t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>582</v>
+        <v>698</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/717-WaIUi9L._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51OwLvN0boL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Stretchable-Trousers-SY-AW19-MFT-049_Light/dp/B07YT1PVNJ/ref=sr_1_9?keywords=pants&amp;qid=1682162367&amp;sr=8-9</t>
+          <t>https://www.amazon.com/Bersache-Lightweight-Changing-Comfortable-Sneakers/dp/B0BV67G4NH/ref=sr_1_37?keywords=shoes&amp;qid=1682169683&amp;sr=8-37</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2154,30 +2154,30 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Okane</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Men Lounge Pants</t>
+          <t xml:space="preserve">Men's Cosko Sports Running,Walking,Gym,Training Sneaker Lace-Up </t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>584</v>
+        <v>767</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+          <t>https://m.media-amazon.com/images/I/61LctS6qp7L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/okane/-okane-men-lounge-pants/22281166/buy</t>
+          <t>https://www.amazon.com/ASIAN-Cosco-Sports-Running-Shoes/dp/B07P578X58/ref=sr_1_39?keywords=shoes&amp;qid=1682169683&amp;sr=8-39</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -2187,30 +2187,30 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Okane</t>
+          <t>Campus</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Men Lounge Pants</t>
+          <t xml:space="preserve">Men's Barley Running </t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>584</v>
+        <v>779</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+          <t>https://m.media-amazon.com/images/I/615XsPWsj7L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/okane/-okane-men-lounge-pants/22144694/buy</t>
+          <t>https://www.amazon.com/Campus-Barley-BLK-RED-Running-Shoes/dp/B08537BZGW/ref=sr_1_38?keywords=shoes&amp;qid=1682169683&amp;sr=8-38</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -2220,30 +2220,30 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>plusS</t>
+          <t>Campus</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Women Track Pants</t>
+          <t xml:space="preserve">Men's Crysta Running </t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>595</v>
+        <v>779</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+          <t>https://m.media-amazon.com/images/I/81s3mf0WmnL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/pluss/pluss-navy-track-pants/1875899/buy</t>
+          <t>https://www.amazon.com/Campus-Crysta-PRO-Running-Shoes/dp/B09RBGMXRJ/ref=sr_1_14?keywords=shoes&amp;qid=1682169683&amp;sr=8-14</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -2253,30 +2253,30 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>plusS</t>
+          <t>Centrino</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Women Track Pants</t>
+          <t xml:space="preserve">Mens Formal </t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>595</v>
+        <v>829</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+          <t>https://m.media-amazon.com/images/I/71me25nV8pL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/pluss/pluss-orange-track-pants/1873525/buy</t>
+          <t>https://www.amazon.com/Centrino-Brown-Formal-Shoes-8-3380-01/dp/B07QTSF3CD/ref=sr_1_28?keywords=shoes&amp;qid=1682169683&amp;sr=8-28</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -2286,25 +2286,25 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Generic</t>
+          <t>Bourge</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>RR Fashion Men's Regular Formal Trouser</t>
+          <t xml:space="preserve">Mens Loire-z1 Running </t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>599</v>
+        <v>829</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51TaUVGTOxL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81V-JBy8TNL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Fashion-Regular-Formal-Trouser-Black/dp/B0BRZT69HF/ref=sr_1_30?keywords=pants&amp;qid=1682162367&amp;sr=8-30</t>
+          <t>https://www.amazon.com/Bourge-Loire-201-Running-Shoes-10UK-Loire-201-10/dp/B07XTMYWC5/ref=sr_1_29?keywords=shoes&amp;qid=1682169683&amp;sr=8-29</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2319,25 +2319,25 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>VIMAL JONNEY</t>
+          <t>Campus</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Men's Regular Fit Track </t>
+          <t xml:space="preserve">Men's Harrow PRO Running </t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>599</v>
+        <v>909</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71MwNdwIc1L._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61tJ1fcA1OL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/VIMAL-Cotton-Trackpants-Multicolour-D10ND10A-S/dp/B01BJZ2N8G/ref=sr_1_26?keywords=pants&amp;qid=1682162367&amp;sr=8-26</t>
+          <t>https://www.amazon.com/Campus-Harrow-PRO-Running-Shoes/dp/B09WJ7QW4X/ref=sr_1_18?keywords=shoes&amp;qid=1682169683&amp;sr=8-18</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2352,25 +2352,25 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SASSAFRAS</t>
+          <t>Sparx</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Women Relaxed Black Cotton Blend Trousers</t>
+          <t>SM-671 Sneakers For Men</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>599</v>
+        <v>934</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/n/w/j/l-sfpant5303-sassafras-original-imafvb5hhcmesthk-bb.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/u/x/d/-original-imaggcay6d5jwkw9.jpeg?q=70</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/sassafras-relaxed-women-black-trousers/p/itmdf31fe89be36d?pid=TROFVB5HTZP7B2DP&amp;lid=LSTTROFVB5HTZP7B2DPPLTLFQ&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_35&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROFVB5HTZP7B2DP.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/sparx-sm-671-sneakers-men/p/itm38c53b126329a?pid=SHOGC2VZYFZ8TVEC&amp;lid=LSTSHOGC2VZYFZ8TVECRISREH&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_38&amp;otracker=search&amp;iid=en_55NE740n3PBINQSfiT3LF8u7%2FUYda6CUqHj6lF%2BTnVAthuXBxwkSybNJ5LNQjP0NC6fghRsG7p9by4tR7Qvk4w%3D%3D&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2385,25 +2385,25 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Peppyzone</t>
+          <t>Campus</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Men's Camouflage Regular Fit Track Pant</t>
+          <t xml:space="preserve">Men's Hurricane Running </t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>599</v>
+        <v>954</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/610BjJqZ67L._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61TURSCnSyL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/LionRoar-Camouflage-Track-Pants-Large/dp/B079WM2V1H/ref=sr_1_28?keywords=pants&amp;qid=1682162367&amp;sr=8-28</t>
+          <t>https://www.amazon.com/Campus-Hurricane-R-Slate-Running-Shoes8-UK/dp/B0B4KJKWC7/ref=sr_1_22?keywords=shoes&amp;qid=1682169683&amp;sr=8-22</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2418,30 +2418,30 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>CRUISER</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Women Track Pants</t>
+          <t>Mens 2505-3 Sneaker</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>629</v>
+        <v>999</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21366480/2022/12/31/d310c9d4-84ce-4584-9f74-4b9b5898eb921672470031607WomenPrintedJoggers1.jpg</t>
+          <t>https://m.media-amazon.com/images/I/616l2codB+L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/max/max-women-track-pants/21366480/buy</t>
+          <t>https://www.amazon.com/Cruiser-White-Casual-Shoe-2505-12/dp/B0BTDKGW7Y/ref=sr_1_26?keywords=shoes&amp;qid=1682169683&amp;sr=8-26</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -2451,25 +2451,25 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Foxter</t>
+          <t>CAMPUS</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Pack of 2 Women Regular Fit Multicolor Cotton Blend Trousers</t>
+          <t>MIKE (N) Running Shoes For Men</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>629</v>
+        <v>999</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/g/o/3/28-women-trouser-lupi-foxter-original-imagmarn8zbdywga.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/knt7zbk0/shoe/m/r/r/7-5g-845-campus-gry-d-gry-original-imag2eynkpzvz6tf.jpeg?q=70</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/foxter-regular-fit-women-multicolor-trousers/p/itm5bd1f0e10d76f?pid=TROGMAT2R4TVZZHR&amp;lid=LSTTROGMAT2R4TVZZHRTNSGNY&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_34&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROGMAT2R4TVZZHR.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
+          <t>https://www.flipkart.com/campus-mike-n-running-shoes-men/p/itmf8ff8f65cc63f?pid=SHOG2EYZH4KWYP3Y&amp;lid=LSTSHOG2EYZH4KWYP3YQV6YBO&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_16&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOG2EYZH4KWYP3Y.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2484,30 +2484,30 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Smarty Pants</t>
+          <t>Campus</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Women Floral Printed Lounge Pants</t>
+          <t xml:space="preserve">Men's Everest Running </t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>636</v>
+        <v>999</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+          <t>https://m.media-amazon.com/images/I/515R56LsmjL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/smarty-pants/smarty-pants-women-blue--white-floral-printed-lounge-pants/18034886/buy</t>
+          <t>https://www.amazon.com/Campus-Everest-Running-Shoes-India/dp/B08W58TSWH/ref=sr_1_9?keywords=shoes&amp;qid=1682169683&amp;sr=8-9</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -2517,25 +2517,25 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>T2F</t>
+          <t>Campus</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Boys Printed Track </t>
+          <t xml:space="preserve">Mike (N) Men's Running </t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>646</v>
+        <v>999</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71qEbCkqtRL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51nIsX9jAPL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTM5MDM3ODA4ODk5MjI4OjE2ODIxNjIzNjc6c3BfbXRmOjIwMDUwMjUwNzU2MzA1OjowOjo&amp;url=%2FT2F-Track-Black-Violet-Yellow%2Fdp%2FB01NCORE74%2Fref%3Dsr_1_23_sspa%3Fkeywords%3Dpants%26qid%3D1682162367%26sr%3D8-23-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/Campus-Mens-Mike-Running-Shoes/dp/B095T1WPY3/ref=sr_1_7?keywords=shoes&amp;qid=1682169683&amp;sr=8-7</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2550,30 +2550,30 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Smarty Pants</t>
+          <t>Adidas</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Women Cotton Lounge Pants</t>
+          <t xml:space="preserve">Mens Adiscend M </t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>649</v>
+        <v>1007</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21450340/2023/1/6/f7b41e5a-6a82-4a68-9c92-e1ce64857e901673020847261SmartyPantswomenscottonrosepinkcoloraztecprintloungewearpaja1.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81ukpFp8PBL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/smarty-pants/smarty-pants-women-printed-cotton-lounge-pants/21450340/buy</t>
+          <t>https://www.amazon.com/Adidas-Wonder-Yellow-Adiscend-Running/dp/B09N3PCMBG/ref=sr_1_2?keywords=shoes&amp;qid=1682169683&amp;sr=8-2</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -2583,30 +2583,30 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Smarty Pants</t>
+          <t>Red Tape</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Women Cotton Lounge Pants</t>
+          <t xml:space="preserve">Women's Walking </t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>649</v>
+        <v>1077</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+          <t>https://m.media-amazon.com/images/I/51rt86zDTGL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/smarty-pants/smarty-pants-women-printed-cotton-lounge-pants/21450338/buy</t>
+          <t>https://www.amazon.com/Red-Tape-Womens-Walking-Shoes-7/dp/B0B8VFRV9S/ref=sr_1_13?keywords=shoes&amp;qid=1682169683&amp;sr=8-13</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -2616,25 +2616,25 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>Campus</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Men's Slim Casual </t>
+          <t xml:space="preserve">Men's Artemis Running </t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>654</v>
+        <v>1158</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71woFPwao4L._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61zEZwdsnnL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Symbol-AW17TRS-02-12_Black-Coffee_28/dp/B0B3PLK922/ref=sr_1_43?keywords=pants&amp;qid=1682162367&amp;sr=8-43</t>
+          <t>https://www.amazon.com/Campus-Artemis-CH-Gry-Running-Shoes/dp/B09KNHQF3J/ref=sr_1_47?keywords=shoes&amp;qid=1682169683&amp;sr=8-47</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2649,25 +2649,25 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Amazon Brand - Inkast Denim Co.</t>
+          <t>Red Tape</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Men's Regular Casual Trousers</t>
+          <t xml:space="preserve">Men's Sports Walking </t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>680</v>
+        <v>1165</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71o4-mxo2bL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/711miD62dQL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Straight-INKCT-001_Lt/dp/B08FJNZDW3/ref=sr_1_40?keywords=pants&amp;qid=1682162367&amp;sr=8-40</t>
+          <t>https://www.amazon.com/Red-Tape-Sports-Walking-Ground/dp/B0BSN6LR39/ref=sr_1_36?keywords=shoes&amp;qid=1682169683&amp;sr=8-36</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -2682,25 +2682,25 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Neostreak</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Men's Slim Fit Jeans</t>
+          <t xml:space="preserve">Men's Everest-01 Sports Trekking &amp; Hiking,Walking </t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>689</v>
+        <v>1199</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81RuOi+8grL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71g9qoOqd8L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Neostreak-Jeans-neoepsjean-lgrey-Light-Grey_38/dp/B07L6YWLQX/ref=sr_1_42?keywords=pants&amp;qid=1682162367&amp;sr=8-42</t>
+          <t>https://www.amazon.com/ASIAN-Everest-01-Trekking-Walking-Outsole/dp/B0BSRS4RHG/ref=sr_1_46?keywords=shoes&amp;qid=1682169683&amp;sr=8-46</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -2715,25 +2715,25 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CUPID</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Women Regular Fit Cotton Blend Plain Comfortable Night Track Pant, Lower, Sports Trouser, Joggers, Lounge Wear and Daily Gym Wear for Ladies, M to 7XL</t>
+          <t xml:space="preserve">Men's Casual </t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>699</v>
+        <v>1199</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51BADzjD4nL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61rOuFqRG6L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/CUPID-Regular-Womens-Track-Pants/dp/B01CA941PS/ref=sr_1_44?keywords=pants&amp;qid=1682162367&amp;sr=8-44</t>
+          <t>https://www.amazon.com/ASIAN-Rider-01-Breathable-Lightweight-Orthopedic/dp/B09PG9TCQJ/ref=sr_1_48?keywords=shoes&amp;qid=1682169683&amp;sr=8-48</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -2748,30 +2748,30 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Smarty Pants</t>
+          <t>Red Tape</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Women Solid Track Pants</t>
+          <t>Men's Sneaker</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>704</v>
+        <v>1231</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+          <t>https://m.media-amazon.com/images/I/71EF0uE9EVL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/track-pants/smarty-pants/smarty-pants-women-rose-solid-track-pants/17165186/buy</t>
+          <t>https://www.amazon.com/Red-Tape-Sneaker-Comfortable-Resistant-8/dp/B0BVBL74CT/ref=sr_1_4?keywords=shoes&amp;qid=1682169683&amp;sr=8-4</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -2781,25 +2781,25 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>Sparx</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Men's Regular Casual </t>
+          <t xml:space="preserve">Men's Running </t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>719</v>
+        <v>1367</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61xJvbhaq6L._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81paxG9XinL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Symbol-Regular-AW17TRS-01-12_Blue/dp/B0B3PT87NL/ref=sr_1_37?keywords=pants&amp;qid=1682162367&amp;sr=8-37</t>
+          <t>https://www.amazon.com/Sparx-SX0241G-White-Running-Shoes/dp/B01AQPHKEC/ref=sr_1_34?keywords=shoes&amp;qid=1682169683&amp;sr=8-34</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -2814,30 +2814,30 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>ATOM</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Men Dress </t>
+          <t>Casuals For Men</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>722</v>
+        <v>1495</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61e0ta9X9zL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/t/4/n/8-rkt-19039-white-black-42-atom-white-original-imagzs3gr4gmrwqk.jpeg?q=70</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Stretchable-Trousers-SY-AW19-MFT-050_Black_34W/dp/B07YT1GKKH/ref=sr_1_12?keywords=pants&amp;qid=1682162367&amp;sr=8-12</t>
+          <t>https://www.flipkart.com/atom-casuals-men/p/itmadd9d9ed39e5c?pid=SHOGHYV87387KAEQ&amp;lid=LSTSHOGHYV87387KAEQQMD7ZH&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_22&amp;otracker=search&amp;iid=en_55NE740n3PBINQSfiT3LF8u7%2FUYda6CUqHj6lF%2BTnVDInH84%2FSxvcCKKsTivy4QjjDgX%2Bs5PePhsIKscRDw1jw%3D%3D&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -2847,25 +2847,25 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>Red Tape</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Men's Regular Casual Trousers</t>
+          <t xml:space="preserve">Men's Sports Walking </t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>749</v>
+        <v>1495</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61YHtYYabpL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61SY1q60MsL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Straight-AW-SY-MCT-1151_Lt-Grey_32W/dp/B07TMNTV31/ref=sr_1_35?keywords=pants&amp;qid=1682162367&amp;sr=8-35</t>
+          <t>https://www.amazon.com/Red-Tape-Sports-Walking-Ground/dp/B0BKZC7PT2/ref=sr_1_8?keywords=shoes&amp;qid=1682169683&amp;sr=8-8</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -2880,25 +2880,25 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>Red Tape</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Men's Straight Casual Trousers</t>
+          <t xml:space="preserve">Men Black Walking </t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>749</v>
+        <v>1517</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/718kU7VISWL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61tI95sR2iL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Symbol-Chinos-AW-SY-MCT-1145_Grey_32W/dp/B07CYVB7L8/ref=sr_1_7?keywords=pants&amp;qid=1682162367&amp;sr=8-7</t>
+          <t>https://www.amazon.com/Red-Tape-Beige-Walking-Shoes-9/dp/B0B9X1GRQT/ref=sr_1_12?keywords=shoes&amp;qid=1682169683&amp;sr=8-12</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -2913,25 +2913,25 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>GO COLORS</t>
+          <t>Reebok</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Women's Regular Fit Pant</t>
+          <t>Mens Sprinter M Running Shoe</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>749</v>
+        <v>1534</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51AGIfah5+L._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81WgVHzJXFL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/GO-COLORS-Women-Viscose-Casual/dp/B098FNJZP7/ref=sr_1_16?keywords=pants&amp;qid=1682162367&amp;sr=8-16</t>
+          <t>https://www.amazon.com/Reebok-Vector-White-Sprinter-Running/dp/B09N6PY6PR/ref=sr_1_33?keywords=shoes&amp;qid=1682169683&amp;sr=8-33</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -2946,25 +2946,25 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Van Heusen</t>
+          <t>Campus</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Athleisure Stretch Lounge </t>
+          <t>Mens 5g-820 Running Shoe</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>759</v>
+        <v>1599</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/41n5ru9w0yL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61HfQkk1CRL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Van-Heusen-Stretch-Pockets-55303_BLACK_L/dp/B07J5924ZT/ref=sr_1_45?keywords=pants&amp;qid=1682162367&amp;sr=8-45</t>
+          <t>https://www.amazon.com/Campus-Renegade-Beige-Running-Shoes/dp/B08KNHRJ5L/ref=sr_1_20?keywords=shoes&amp;qid=1682169683&amp;sr=8-20</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -2979,30 +2979,30 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>9rasa</t>
+          <t>U.S. POLO ASSN.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Dhoti Pants</t>
+          <t>Men's Panal Sneakers</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>779</v>
+        <v>1649</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+          <t>https://m.media-amazon.com/images/I/41ojjAehWRL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/dhotis/9rasa/9rasa-maroon-dhoti-pants/2049821/buy</t>
+          <t>https://www.amazon.com/US-Polo-Assn-Sneakers-9-2531918312/dp/B07VJN2VLN/ref=sr_1_21?keywords=shoes&amp;qid=1682169683&amp;sr=8-21</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -3012,25 +3012,25 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ADBUCKS</t>
+          <t>Puma</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Men's Regular Fit Cargo Style Casual Trousers </t>
+          <t>Unisex-Adult Duke Walking Shoe</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>783</v>
+        <v>1679</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/41EUTEtrdcL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71PBv7esqDL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/ADBUCKS-Regular-Cargo-Casual-Trousers/dp/B09VPY9R8V/ref=sr_1_34?keywords=pants&amp;qid=1682162367&amp;sr=8-34</t>
+          <t>https://www.amazon.com/Puma-White-Quarry-Running-Shoe-8UK-38889202/dp/B09RF865D4/ref=sr_1_10?keywords=shoes&amp;qid=1682169683&amp;sr=8-10</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3045,30 +3045,30 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Smarty Pants</t>
+          <t>RED TAPE</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Women 2-Pcs Printed Night suit</t>
+          <t>Sports Training &amp; Gym Shoes For Men</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>783</v>
+        <v>1699</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21615980/2023/1/19/1828f3af-f448-42b8-8a12-d326bc81053c1674124705304SmartyPantswomenssilksatinmarooncolorpowerpuffgirlcartoonpri1.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/c/r/t/6-rso202-6-red-tape-grey-original-imagm3qvyffmtvwx.jpeg?q=70</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/night-suits/smarty-pants/smarty-pants-women-2-pieces-printed-shirt-with-lounge-pants/21615980/buy</t>
+          <t>https://www.flipkart.com/red-tape-sports-training-gym-shoes-men/p/itm2f9a857271797?pid=SHOGJKBRZMWN2YZP&amp;lid=LSTSHOGJKBRZMWN2YZPNYZYY7&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_18&amp;otracker=search&amp;iid=en_55NE740n3PBINQSfiT3LF8u7%2FUYda6CUqHj6lF%2BTnVCCcwTOreqTml77KNYBykdxarpk0WgbnlOuiUg5YxHR%2FQ%3D%3D&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -3078,30 +3078,30 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Smarty Pants</t>
+          <t>U.S. POLO ASSN.</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Women 2-Pcs Printed Night suit</t>
+          <t>US Polo Men's Clarkin Sneakers</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>783</v>
+        <v>1799</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21615984/2023/1/19/7c9861ac-b1ef-4fb4-afba-4b1c3b5036b31674124520928SmartyPantswomenssilksatinlilaccolorbabyelephantprintnightsu1.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81mNaQwQM+L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/night-suits/smarty-pants/smarty-pants-women-2-pieces-printed-shirt-with-lounge-pants/21615984/buy</t>
+          <t>https://www.amazon.com/US-Polo-Association-Sneaker-8-2FD20337G/dp/B08PD7MRG7/ref=sr_1_17?keywords=shoes&amp;qid=1682169683&amp;sr=8-17</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -3111,25 +3111,25 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>Adidas</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Men Stretch Casual Trouser</t>
+          <t>Mens Restound M Running Shoe</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>799</v>
+        <v>1814</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/610VwfVfxeL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81fBv7tLMGL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Amazon-Brand-Symbol-Trousers-AW-SY-MCT-1171_White_34/dp/B07XF752FV/ref=sr_1_52?keywords=pants&amp;qid=1682162367&amp;sr=8-52</t>
+          <t>https://www.amazon.com/Adidas-Impact-Yellow-Restound-Running/dp/B09N3QHFLP/ref=sr_1_15?keywords=shoes&amp;qid=1682169683&amp;sr=8-15</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3144,30 +3144,30 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MAYSIXTY</t>
+          <t>Reebok</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Printed Lounge Pants</t>
+          <t>Mens Austin 2.0 M Running Shoe</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>799</v>
+        <v>2299</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+          <t>https://m.media-amazon.com/images/I/81XVXNccdTL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/maysixty/maysixty-printed-lounge-pants/21894996/buy</t>
+          <t>https://www.amazon.com/Reebok-Black-Vector-Austin-Running/dp/B09N6K8HNR/ref=sr_1_41?keywords=shoes&amp;qid=1682169683&amp;sr=8-41</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -3177,30 +3177,30 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MAYSIXTY</t>
+          <t>Adidas</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Printed Lounge Pants</t>
+          <t>Mens Run Stunner Ms Sneaker</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>799</v>
+        <v>2359</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+          <t>https://m.media-amazon.com/images/I/81nKustpo0L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/maysixty/maysixty-printed-lounge-pants/21895118/buy</t>
+          <t>https://www.amazon.com/Adidas-Synthetic-Stunner-Running-Shoes/dp/B0BJL3SM4N/ref=sr_1_44?keywords=shoes&amp;qid=1682169683&amp;sr=8-44</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -3210,30 +3210,30 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>MAYSIXTY</t>
+          <t>Nike</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Printed Lounge Pants</t>
+          <t>Mens Revolution 6 Nn Running Shoe</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>799</v>
+        <v>2402</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+          <t>https://m.media-amazon.com/images/I/71cti5zmv0L._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/maysixty/maysixty-printed-lounge-pants/21894988/buy</t>
+          <t>https://www.amazon.com/Nike-Revolution-University-Gold-Light-Silver-White/dp/B0BNJLDR7F/ref=sr_1_31?keywords=shoes&amp;qid=1682169683&amp;sr=8-31</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -3243,25 +3243,25 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TriPole</t>
+          <t>Puma</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Men's Regular Fit Polyester Trekking And Hiking </t>
+          <t>Men's Altas &amp; Radcliff Sports Running Shoe</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>799</v>
+        <v>2699</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71E0860E-mL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61GdZ6d0UCL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Tripole-Trekking-Hiking-Pants-Trousers/dp/B09YHZHV8K/ref=sr_1_32?keywords=pants&amp;qid=1682162367&amp;sr=8-32</t>
+          <t>https://www.amazon.com/Puma-Radcliff-Puma-Black-Running-India-7/dp/B0BG33PCW2/ref=sr_1_32?keywords=shoes&amp;qid=1682169683&amp;sr=8-32</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -3276,30 +3276,30 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MAYSIXTY</t>
+          <t>Adidas</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Printed Lounge Pants</t>
+          <t>Mens Solderrun M Sneaker</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>799</v>
+        <v>3419</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+          <t>https://m.media-amazon.com/images/I/81OTO-D1AJL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/lounge-pants/maysixty/maysixty-printed-lounge-pants/21895116/buy</t>
+          <t>https://www.amazon.com/Adidas-Synthetic-SolderRun-Running-Shoes/dp/B0BJL3W9Q6/ref=sr_1_24?keywords=shoes&amp;qid=1682169683&amp;sr=8-24</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>MYNTRA</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -3309,2076 +3309,30 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Amazon Brand - Symbol</t>
+          <t>ASICS</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Men Stretch Casual Trouser</t>
+          <t>Mens Gel-Nimbus 25 Running Shoe</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>799</v>
+        <v>15989</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/715sc3z554L._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61zRVAp2fPL._AC_UL400_.jpg</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTM5MDM3ODA4ODk5MjI4OjE2ODIxNjIzNjc6c3BfYXRmOjIwMTAzOTUwODMyMDk4OjowOjo&amp;url=%2FAmazon-Brand-Trousers-AW-SY-MCT-1175_Light-Grey_32W%2Fdp%2FB07N6CPTGS%2Fref%3Dsr_1_2_sspa%3Fkeywords%3Dpants%26qid%3D1682162367%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/ASICS-Gel-Nimbus-Blue-Running-Shoes/dp/B0BN29P5NM/ref=sr_1_25?keywords=shoes&amp;qid=1682169683&amp;sr=8-25</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
           <t>AMAZON</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Whitewhale</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Men's Loose Fit Cotton Trousers</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>799</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/71liwRRHS5L._AC_UL400_.jpg</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>https://www.amazon.com/Whitewhale-Cotton-Printed-Pockets-Trousers/dp/B08LVWFK2J/ref=sr_1_15?keywords=pants&amp;qid=1682162367&amp;sr=8-15</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>AMAZON</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>plusS</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Women Track Pants</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>841</v>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/track-pants/pluss/pluss-black-track-pants/1875898/buy</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>MYNTRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Hancock</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Checked Lounge Pants</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>892</v>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21584536/2023/2/6/7e0da1c6-e837-44ef-b3a1-30fd862a8a761675676567177-Hancock-Men-Lounge-Pants-4561675676566549-1.jpg</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/lounge-pants/hancock/hancock-checked-lounge-pants/21584536/buy</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>MYNTRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Hancock</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Checked Lounge Pants</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>892</v>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21584534/2023/3/6/6bcc7ad0-0a9b-43f0-a23d-32896f47e3881678080124295-Hancock-Checked-Lounge-Pants-2751678080123561-1.jpg</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/lounge-pants/hancock/hancock-checked-lounge-pants/21584534/buy</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>MYNTRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Hancock</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Checked Lounge Pants</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>892</v>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/lounge-pants/hancock/hancock-checked-lounge-pants/21584532/buy</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>MYNTRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Hancock</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Checked Lounge Pants</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>892</v>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/lounge-pants/hancock/hancock-checked-lounge-pants/21584538/buy</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>MYNTRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Gallus</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Men Track Pants</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>899</v>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/track-pants/gallus/gallus-men-track-pants/21370424/buy</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>MYNTRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Enamor</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Women </t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>899</v>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/71fGrIWjlmL._AC_UL400_.jpg</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTM5MDM3ODA4ODk5MjI4OjE2ODIxNjIzNjc6c3BfbXRmOjIwMDg0MjQ5NzQyOTAxOjowOjo&amp;url=%2FEnamor-Womens-Pants-E060_MediumGrey-Melange_M%2Fdp%2FB07XCTXN7T%2Fref%3Dsr_1_24_sspa%3Fkeywords%3Dpants%26qid%3D1682162367%26sr%3D8-24-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>AMAZON</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Van Heusen</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Men's Track </t>
-        </is>
-      </c>
-      <c r="D97" t="n">
-        <v>899</v>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/81eQleWjVoL._AC_UL400_.jpg</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>https://www.amazon.com/Van-Heusen-Track-50056_Grey-Melange_L/dp/B083C2SWKL/ref=sr_1_49?keywords=pants&amp;qid=1682162367&amp;sr=8-49</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>AMAZON</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>PowerSutra</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Women Lounge Pants</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
-        <v>910</v>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/lounge-pants/powersutra/powersutra-women-lounge-pants/21735830/buy</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>MYNTRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Roadster</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Men Slim Fit Grey Pure Cotton Trousers</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
-        <v>910</v>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/k1v1h8w0/trouser/g/7/j/34-10217179-roadster-original-imafh942znndgfyg.jpeg?q=70</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>https://www.flipkart.com/roadster-slim-fit-men-grey-trousers/p/itm9844b633d8288?pid=TROG9XUXZGM2WVYJ&amp;lid=LSTTROG9XUXZGM2WVYJ46XVJC&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_4&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROG9XUXZGM2WVYJ.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>FLIPKART</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>SIAPA</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Men Track Pants</t>
-        </is>
-      </c>
-      <c r="D100" t="n">
-        <v>959</v>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/track-pants/siapa/siapa-men-track-pants/21168126/buy</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>MYNTRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>SOJANYA</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Men Dhoti Pants</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
-        <v>965</v>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/1846813/2017/4/11/11491902048835-SOJANYA-Men-Dhotis-2321491902048618-1.jpg</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/dhotis/sojanya/sojanya-yellow-dhoti-pants/1846813/buy</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>MYNTRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>SOJANYA</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Men Dhoti Pants</t>
-        </is>
-      </c>
-      <c r="D102" t="n">
-        <v>965</v>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/dhotis/sojanya/sojanya-black-dhoti-pants/1846812/buy</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>MYNTRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>SOJANYA</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Men Dhoti Pants</t>
-        </is>
-      </c>
-      <c r="D103" t="n">
-        <v>965</v>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/dhotis/sojanya/sojanya-orange-dhoti-pants/1780205/buy</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>MYNTRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>SOJANYA</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Men Dhoti Pants</t>
-        </is>
-      </c>
-      <c r="D104" t="n">
-        <v>965</v>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/dhotis/sojanya/sojanya-maroon-dhoti-pants/2034928/buy</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>MYNTRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>SOJANYA</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Men Dhoti Pants</t>
-        </is>
-      </c>
-      <c r="D105" t="n">
-        <v>965</v>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/dhotis/sojanya/sojanya-yellow-dhoti-pants/2034912/buy</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>MYNTRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>SOJANYA</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Men Dhoti Pants</t>
-        </is>
-      </c>
-      <c r="D106" t="n">
-        <v>965</v>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/dhotis/sojanya/sojanya-red-dhoti-pants/1846811/buy</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>MYNTRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>McHenry</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Men's Solid Formal Regular Fit Wrinkle Free PolyViscose Trousers</t>
-        </is>
-      </c>
-      <c r="D107" t="n">
-        <v>999</v>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/81wqp2ohC9L._AC_UL400_.jpg</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>https://www.amazon.com/McHenry-Regular-PolyViscose-Trousers-Cream4006-40_Cream_Size/dp/B01LCXH98Y/ref=sr_1_11?keywords=pants&amp;qid=1682162367&amp;sr=8-11</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>AMAZON</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Jockey</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Men's Cotton Track </t>
-        </is>
-      </c>
-      <c r="D108" t="n">
-        <v>999</v>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/61qoz5T51VL._AC_UL400_.jpg</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>https://www.amazon.com/Jockey-Cotton-Track-9500-0103-NAVY-Navy/dp/B00W05MDC6/ref=sr_1_19?keywords=pants&amp;qid=1682162367&amp;sr=8-19</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>AMAZON</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Amazon Brand - Inkast Denim Co.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Men's Slim Fit Casual </t>
-        </is>
-      </c>
-      <c r="D109" t="n">
-        <v>999</v>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/61nk1PgrstL._AC_UL400_.jpg</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>https://www.amazon.com/Amazon-Brand-Inkast-Casual-TR-Ink-RDP-D3_Blue_32/dp/B0991WQYB7/ref=sr_1_27?keywords=pants&amp;qid=1682162367&amp;sr=8-27</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>AMAZON</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>toothless</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Solid Pure Cotton Track Pant</t>
-        </is>
-      </c>
-      <c r="D110" t="n">
-        <v>999</v>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/track-pants/toothless/toothless-girls-pink-pants/20403982/buy</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>MYNTRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Amazon Brand - Symbol</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Men's Flexi Waist Slim Casual </t>
-        </is>
-      </c>
-      <c r="D111" t="n">
-        <v>999</v>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/61oRzu8XRtL._AC_UL400_.jpg</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>https://www.amazon.com/Amazon-Brand-Symbol-Casual-A22-SYM-SL-CT-101_Black_32/dp/B0B3989Q12/ref=sr_1_13?keywords=pants&amp;qid=1682162367&amp;sr=8-13</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>AMAZON</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>PARK AVENUE</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Men Regular Fit Maroon Viscose Rayon Trousers</t>
-        </is>
-      </c>
-      <c r="D112" t="n">
-        <v>1034</v>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/ktlu9ow0/trouser/o/6/0/32-pmtx06573-m7-park-avenue-original-imag6wyfggjffzuk.jpeg?q=70</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>https://www.flipkart.com/park-avenue-regular-fit-men-maroon-trousers/p/itm49098f544224a?pid=TROG4QFPWHZHXE9U&amp;lid=LSTTROG4QFPWHZHXE9UBULMHU&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_5&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROG4QFPWHZHXE9U.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>FLIPKART</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Zivame</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Women Lounge Pants</t>
-        </is>
-      </c>
-      <c r="D113" t="n">
-        <v>1042</v>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/lounge-pants/zivame/zivame-women-lounge-pants/21240904/buy</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>MYNTRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Enamor</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Essentials E048 Women’s Relaxed Fit Printed Lounge </t>
-        </is>
-      </c>
-      <c r="D114" t="n">
-        <v>1049</v>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/717i-4ofMvL._AC_UL400_.jpg</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTM5MDM3ODA4ODk5MjI4OjE2ODIxNjIzNjc6c3BfYnRmOjIwMDg0MjQ5NzQ2MzAxOjowOjo&amp;url=%2FEnamor-Womens-Relaxed-Pants-E048_Navy_M%2Fdp%2FB07XFTR37P%2Fref%3Dsr_1_57_sspa%3Fkeywords%3Dpants%26qid%3D1682162367%26sr%3D8-57-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>AMAZON</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Enamor</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Essentials Women's Mid Rise 7/8th Relaxed Fit Soft &amp; Drapey 4 Way Stretch Viscose Spandex Lounge </t>
-        </is>
-      </c>
-      <c r="D115" t="n">
-        <v>1099</v>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/81POsJPtNKL._AC_UL400_.jpg</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTM5MDM3ODA4ODk5MjI4OjE2ODIxNjIzNjc6c3BfbXRmOjIwMDcxMjA4MTY5MTk4OjowOjo&amp;url=%2FEnamor-Essentials-Relaxed-Pockets-E048_Burgundy%2Fdp%2FB09T3KJLDZ%2Fref%3Dsr_1_21_sspa%3Fkeywords%3Dpants%26qid%3D1682162367%26sr%3D8-21-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>AMAZON</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Van Heusen</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Men </t>
-        </is>
-      </c>
-      <c r="D116" t="n">
-        <v>1129</v>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/61GfyqlINnL._AC_UL400_.jpg</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>https://www.amazon.com/Van-Heusen-Pants-VHTFFSLBE07068_Light-Grey_36/dp/B0B4K7ZJHG/ref=sr_1_54?keywords=pants&amp;qid=1682162367&amp;sr=8-54</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>AMAZON</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>hummel</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Men Track Pants</t>
-        </is>
-      </c>
-      <c r="D117" t="n">
-        <v>1159</v>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/track-pants/hummel/hummel-men-track-pants/21064880/buy</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>MYNTRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>MARKS &amp; SPENCER</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Men Slim Fit Brown Cotton Blend Trousers</t>
-        </is>
-      </c>
-      <c r="D118" t="n">
-        <v>1190</v>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/3/o/v/36-t176601sdark-khaki-marks-spencer-original-imaghdscmtzxunkq.jpeg?q=70</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>https://www.flipkart.com/marks-spencer-slim-fit-men-brown-trousers/p/itm530bee5c7a5e5?pid=TROGHDSDDEWV6SBZ&amp;lid=LSTTROGHDSDDEWV6SBZRXSKWI&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_32&amp;otracker=search&amp;iid=en_QEVxNKXZqmnAg1IAO3gw0JO%2BRzSmT%2FnO7AP9fmq7cVgIQ6AcsJ09%2F4HTbeUVTkrX54rLV7sCcWoMle6pqNvw9Q%3D%3D&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>FLIPKART</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>PETER ENGLAND</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Men Slim Fit Black Viscose Rayon Trousers</t>
-        </is>
-      </c>
-      <c r="D119" t="n">
-        <v>1245</v>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/kyrlifk0/trouser/o/n/c/34-petfoslbs43658-peter-england-original-imagax8aqm7hfdnh.jpeg?q=70</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>https://www.flipkart.com/peter-england-slim-fit-men-black-trousers/p/itmaaedd9c824027?pid=TROG9MVKWQ8TEZFF&amp;lid=LSTTROG9MVKWQ8TEZFFKKUC7R&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_25&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROG9MVKWQ8TEZFF.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>FLIPKART</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>ARROW</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Smart Flex Men Regular Fit Blue Viscose Rayon Trousers</t>
-        </is>
-      </c>
-      <c r="D120" t="n">
-        <v>1253</v>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/t/s/j/-original-imagm9z22r5gmzcm.jpeg?q=70</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>https://www.flipkart.com/arrow-smart-flex-regular-fit-men-blue-trousers/p/itmc21e483c5d003?pid=TROGHRC6MEXA4XGJ&amp;lid=LSTTROGHRC6MEXA4XGJINZ6FT&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_9&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROGHRC6MEXA4XGJ.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>FLIPKART</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>ARROW</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Men Regular Fit Grey Viscose Rayon Trousers</t>
-        </is>
-      </c>
-      <c r="D121" t="n">
-        <v>1253</v>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/5/u/v/-original-imagm6mf7f4gpc6r.jpeg?q=70</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>https://www.flipkart.com/arrow-regular-fit-men-grey-trousers/p/itm91cd7d2fe2cf6?pid=TROGHRC6WQMFGCJK&amp;lid=LSTTROGHRC6WQMFGCJKDJQ4UA&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_29&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROGHRC6WQMFGCJK.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>FLIPKART</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>PETER ENGLAND</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Men Slim Fit Brown Pure Cotton Trousers</t>
-        </is>
-      </c>
-      <c r="D122" t="n">
-        <v>1259</v>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/k/t/y/-original-imagh3jmnzm3farb.jpeg?q=70</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>https://www.flipkart.com/peter-england-slim-fit-men-brown-trousers/p/itm27bcbe13c4be4?pid=TROGFX7W5Z3FJYNV&amp;lid=LSTTROGFX7W5Z3FJYNVJQFSQF&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_23&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROGFX7W5Z3FJYNV.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>FLIPKART</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>CANTABIL</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Men Regular Fit Blue Cotton Blend Trousers</t>
-        </is>
-      </c>
-      <c r="D123" t="n">
-        <v>1279</v>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/kz5vwy80/trouser/t/p/8/34-mtrc00032-blue-cantabil-original-imagb8fmqkyydbz6.jpeg?q=70</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>https://www.flipkart.com/cantabil-regular-fit-men-blue-trousers/p/itm5d89e4ead8937?pid=TROGB8FMZ64UX4ZY&amp;lid=LSTTROGB8FMZ64UX4ZYQ5ZUWN&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_28&amp;otracker=search&amp;iid=en_QEVxNKXZqmnAg1IAO3gw0JO%2BRzSmT%2FnO7AP9fmq7cVgVl7HAsQrjkZrqDebPHWd%2FlBy01PU0WKWcALDcZ%2B8Igg%3D%3D&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>FLIPKART</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>MARKS &amp; SPENCER</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Men Regular Fit Brown Cotton Blend Trousers</t>
-        </is>
-      </c>
-      <c r="D124" t="n">
-        <v>1290</v>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/n/b/2/34-t281590mdark-khaki-marks-spencer-original-imaghds48wnxhsyx.jpeg?q=70</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>https://www.flipkart.com/marks-spencer-regular-fit-men-brown-trousers/p/itm07c561fdd47e9?pid=TROGHDSCEED5M66E&amp;lid=LSTTROGHDSCEED5M66EQUMCI0&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_21&amp;otracker=search&amp;iid=en_QEVxNKXZqmnAg1IAO3gw0JO%2BRzSmT%2FnO7AP9fmq7cVhLTplEi%2FKyK0pukuZSZ%2FaXSaA5TtJgRLz1oseANAqljg%3D%3D&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>FLIPKART</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>VAN HEUSEN SPORT</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Men Tapered Black Cotton Blend Trousers</t>
-        </is>
-      </c>
-      <c r="D125" t="n">
-        <v>1299</v>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/g/b/h/-original-imaggg3zhzdcxzxx.jpeg?q=70</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>https://www.flipkart.com/van-heusen-sport-tapered-men-black-trousers/p/itmee1df969c5045?pid=TROGF5GSZDMFZFVM&amp;lid=LSTTROGF5GSZDMFZFVM6ZNO5X&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_3&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROGF5GSZDMFZFVM.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>FLIPKART</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Enamor</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Essentials Women's Slim Fit Mid Rise Crop Length Soft &amp; Drapey Stretch Viscose Culottes with Smart Side Slits - EA64</t>
-        </is>
-      </c>
-      <c r="D126" t="n">
-        <v>1299</v>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/81hkfP8SSwL._AC_UL400_.jpg</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo0MTM5MDM3ODA4ODk5MjI4OjE2ODIxNjIzNjc6c3BfYnRmOjIwMDcxMjA4MTYxNDk4OjowOjo&amp;url=%2FEnamor-Essentials-Stretch-Viscose-Culottes%2Fdp%2FB09T3M4HPF%2Fref%3Dsr_1_58_sspa%3Fkeywords%3Dpants%26qid%3D1682162367%26sr%3D8-58-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>AMAZON</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>AURELIA</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Women Dhoti Pants</t>
-        </is>
-      </c>
-      <c r="D127" t="n">
-        <v>1299</v>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/dhotis/aurelia/aurelia-blue-dhoti-pants/2400050/buy</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>MYNTRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>PETER ENGLAND</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Men Slim Fit Blue Viscose Rayon Trousers</t>
-        </is>
-      </c>
-      <c r="D128" t="n">
-        <v>1399</v>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/l3khsi80/trouser/8/i/i/32-pitfonsf601387-peter-england-original-imagenvsszpaavwz.jpeg?q=70</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>https://www.flipkart.com/peter-england-slim-fit-men-blue-trousers/p/itm2f86256faafcc?pid=TROGDHZ6S7AHJSWZ&amp;lid=LSTTROGDHZ6S7AHJSWZ4WVSUU&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_24&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROGDHZ6S7AHJSWZ.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>FLIPKART</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>PETER ENGLAND</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Men Regular Fit Blue Viscose Rayon Trousers</t>
-        </is>
-      </c>
-      <c r="D129" t="n">
-        <v>1399</v>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/5/x/c/-original-imagzkd5tczyhc2n.jpeg?q=70</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>https://www.flipkart.com/peter-england-regular-fit-men-blue-trousers/p/itmb68b6dc0fbb2b?pid=TROGHQ8ZPHURZHWB&amp;lid=LSTTROGHQ8ZPHURZHWBGXPSE6&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_6&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TROGHQ8ZPHURZHWB.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>FLIPKART</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>rock.it</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Men Track Pants</t>
-        </is>
-      </c>
-      <c r="D130" t="n">
-        <v>1466</v>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/track-pants/rockit/rockit-men-track-pants/21073786/buy</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>MYNTRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Speedo</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Contrast Swim Pants</t>
-        </is>
-      </c>
-      <c r="D131" t="n">
-        <v>1499</v>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/swim-bottoms/speedo/speedo-contrast-swim-pants/22595686/buy</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>MYNTRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>PUMA</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Women Solid Grey Track Pants</t>
-        </is>
-      </c>
-      <c r="D132" t="n">
-        <v>1499</v>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/track-pant/d/b/p/s-58684454-puma-original-imaghzqaw4yhg3gh.jpeg?q=70</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>https://www.flipkart.com/puma-solid-women-grey-track-pants/p/itm3cc53e69f904c?pid=TKPGG67GPSYZMJGC&amp;lid=LSTTKPGG67GPSYZMJGCRUYDP0&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_40&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.TKPGG67GPSYZMJGC.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>FLIPKART</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>rock.it</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Men Track Pants</t>
-        </is>
-      </c>
-      <c r="D133" t="n">
-        <v>1536</v>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/track-pants/rockit/rockit-men-track-pants/21073790/buy</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>MYNTRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Cantabil</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Men Track Pants</t>
-        </is>
-      </c>
-      <c r="D134" t="n">
-        <v>1539</v>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/track-pants/cantabil/cantabil-men-track-pants/21159322/buy</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>MYNTRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>ONLY</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Women Track Pants</t>
-        </is>
-      </c>
-      <c r="D135" t="n">
-        <v>1664</v>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/20196582/2022/9/28/9be6644b-6329-4c02-88db-a7c0ca8c64a51664357173934ONLYWomenGreenTrackPants1.jpg</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/track-pants/only/only-women-track-pants/20196582/buy</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>MYNTRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>United Colors of Benetton</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Men Slim Fit Light Blue Pure Cotton Trousers</t>
-        </is>
-      </c>
-      <c r="D136" t="n">
-        <v>1689</v>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/c/u/c/-original-imafz4xzvsmubejz.jpeg?q=70</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>https://www.flipkart.com/united-colors-benetton-slim-fit-men-light-blue-trousers/p/itmf73d4a822a43c?pid=TROFX7ZYRPVP4VDJ&amp;lid=LSTTROFX7ZYRPVP4VDJXOHDR0&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_17&amp;otracker=search&amp;iid=en_QEVxNKXZqmnAg1IAO3gw0JO%2BRzSmT%2FnO7AP9fmq7cVjK2B9wNOzpRCVV13pdHtG3otmG11VqR%2FC1kvYmgKKk5w%3D%3D&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>FLIPKART</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Puma</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Woven Men'S Training Pants</t>
-        </is>
-      </c>
-      <c r="D137" t="n">
-        <v>1719</v>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/track-pants/puma/puma-men-navy-blue-woven-training-pants-slip-on-solid-sports-pants/20673410/buy</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>MYNTRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Jockey</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Men Track Pants</t>
-        </is>
-      </c>
-      <c r="D138" t="n">
-        <v>1769</v>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/track-pants/jockey/jockey-men-track-pants/21081482/buy</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>MYNTRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>The Pant Project</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Luxury PV Stretchable Casual </t>
-        </is>
-      </c>
-      <c r="D139" t="n">
-        <v>1990</v>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/817rJ9f5IxL._AC_UL400_.jpg</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>https://www.amazon.com/Pant-Project-Stretchable-Trousers-Expandable/dp/B0BSWP8PVQ/ref=sr_1_39?keywords=pants&amp;qid=1682162367&amp;sr=8-39</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>AMAZON</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>The Pant Project</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Luxury PV Lycra Stretchable Formal </t>
-        </is>
-      </c>
-      <c r="D140" t="n">
-        <v>1990</v>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/617Zg6QsgDL._AC_UL400_.jpg</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>https://www.amazon.com/Pant-Project-Polyester-Formal-Pant_01-Olive-40_Black_34/dp/B0B46P1CN8/ref=sr_1_46?keywords=pants&amp;qid=1682162367&amp;sr=8-46</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>AMAZON</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>LEVI'S</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>501 Men Slim Fit Blue Cotton Blend Trousers</t>
-        </is>
-      </c>
-      <c r="D141" t="n">
-        <v>1999</v>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/l/i/e/-original-imag6hwkdjxszf6f.jpeg?q=70</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>https://www.flipkart.com/levi-s-501-slim-fit-men-blue-trousers/p/itm59615a95a026b?pid=JEAG3BFFNK6RTPF3&amp;lid=LSTJEAG3BFFNK6RTPF3UCC6OW&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_37&amp;otracker=search&amp;iid=en_QEVxNKXZqmnAg1IAO3gw0JO%2BRzSmT%2FnO7AP9fmq7cVgx4re95chqPCjIaJgAhVWnHGJSIkLVrgomDk6vNI2IfA%3D%3D&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>FLIPKART</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>MARKS &amp; SPENCER</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Men Slim Fit Blue Cotton Blend Trousers</t>
-        </is>
-      </c>
-      <c r="D142" t="n">
-        <v>1999</v>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/n/g/d/36-t176601slight-blue-marks-spencer-original-imagn42theewzzug.jpeg?q=70</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>https://www.flipkart.com/marks-spencer-slim-fit-men-blue-trousers/p/itmedc1ac5635a85?pid=TROGN42TKKZHPGR3&amp;lid=LSTTROGN42TKKZHPGR32HCWI5&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_31&amp;otracker=search&amp;iid=en_QEVxNKXZqmnAg1IAO3gw0JO%2BRzSmT%2FnO7AP9fmq7cVhc3k7DU%2Fc6vN7xdCM5J88Y0b1lzFomPP18qsczx29BDQ%3D%3D&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>FLIPKART</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Moudlin</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Men Slim Mid Rise Multicolor Jeans</t>
-        </is>
-      </c>
-      <c r="D143" t="n">
-        <v>2099</v>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/jean/v/d/f/34-jenas-nsilky-moudlin-original-imafg7wgts7hatqn-bb.jpeg?q=70</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>https://www.flipkart.com/moudlin-slim-men-multicolor-jeans/p/itm6e17f3edd985c?pid=JEAFG832EKJG5XAR&amp;lid=LSTJEAFG832EKJG5XARXH1PEK&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_20&amp;otracker=search&amp;iid=5528ae5b-7393-4e27-8058-c7d7981d3f5d.JEAFG832EKJG5XAR.SEARCH&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>FLIPKART</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>boohooMAN</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>Men Tapered Track Pants</t>
-        </is>
-      </c>
-      <c r="D144" t="n">
-        <v>2249</v>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/track-pants/boohooman/boohooman-tapered-track-pants/22167526/buy</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>MYNTRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>MARKS &amp; SPENCER</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>Men Regular Fit Grey Cotton Blend Trousers</t>
-        </is>
-      </c>
-      <c r="D145" t="n">
-        <v>2499</v>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/5/u/j/34-t281590mgrey-marl-marks-spencer-original-imagn55faubehr5p.jpeg?q=70</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>https://www.flipkart.com/marks-spencer-regular-fit-men-grey-trousers/p/itm658c3f42a69f1?pid=TROGN55GAJTFPFRW&amp;lid=LSTTROGN55GAJTFPFRWHJYAFT&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_38&amp;otracker=search&amp;iid=en_QEVxNKXZqmnAg1IAO3gw0JO%2BRzSmT%2FnO7AP9fmq7cViHqYXLiQRO%2BCSB0%2BfPO1hNQ8HjoWCFrXiBLwktuJno8g%3D%3D&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>FLIPKART</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>boohooMAN</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Men Solid Track Pants</t>
-        </is>
-      </c>
-      <c r="D146" t="n">
-        <v>2586</v>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/track-pants/boohooman/boohooman-solid-track-pants/22167484/buy</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>MYNTRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Puma</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>Men Track Pants</t>
-        </is>
-      </c>
-      <c r="D147" t="n">
-        <v>2624</v>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/track-pants/puma/puma-men-track-pants/21532512/buy</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>MYNTRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>boohooMAN</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>Men Textured Track Pants</t>
-        </is>
-      </c>
-      <c r="D148" t="n">
-        <v>2886</v>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/track-pants/boohooman/boohooman-textured-track-pants/22167422/buy</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>MYNTRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Puma</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Men Track Pants</t>
-        </is>
-      </c>
-      <c r="D149" t="n">
-        <v>3399</v>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/21532552/2023/3/23/38410e7a-53c4-4c2d-bf86-750fa70e70031679562484963PUMAPOWERMensPants1.jpg</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>https://www.myntra.com/track-pants/puma/puma-power-men-pants/21532552/buy</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>MYNTRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>MARKS &amp; SPENCER</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Men Regular Fit Blue Cotton Blend Trousers</t>
-        </is>
-      </c>
-      <c r="D150" t="n">
-        <v>3999</v>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/trouser/o/2/m/32-t176171mmid-blue-marks-spencer-original-imagn42tx2vmzggn.jpeg?q=70</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>https://www.flipkart.com/marks-spencer-regular-fit-men-blue-trousers/p/itm3aaeaf609129c?pid=TROGN42THDKQ7FDV&amp;lid=LSTTROGN42THDKQ7FDVFMOPID&amp;marketplace=FLIPKART&amp;q=pants&amp;store=clo%2Fvua&amp;srno=s_1_22&amp;otracker=search&amp;iid=en_QEVxNKXZqmnAg1IAO3gw0JO%2BRzSmT%2FnO7AP9fmq7cViQMkMPNZxn%2F50FZRtOYu9qfXDtSTScQaMfgMEyJ6octA%3D%3D&amp;ssid=nu9z9dpgfk0000001682162380281&amp;qH=ca425b88f047ce8e</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>FLIPKART</t>
         </is>
       </c>
     </row>

--- a/radon/data.xlsx
+++ b/radon/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,30 +471,30 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRUTON</t>
+          <t>NuVew</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Men's Sports </t>
+          <t>UV Protection Wayfarer Sunglasses (57)</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>229</v>
+        <v>99</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71A7mJgXCxL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/k7c88sw0/sunglass/h/q/j/m-nw-82230-22-16045-nuvew-original-imafphyfqvb8uqcz.jpeg?q=70</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/BRUTON-shoe-01-Running-Orange_Grey-Numeric_8/dp/B0BVLTQSBM/ref=sr_1_6?keywords=shoes&amp;qid=1682169683&amp;sr=8-6</t>
+          <t>https://www.flipkart.com/nuvew-wayfarer-sunglasses/p/itmba0b7d1bc699d?pid=SGLFPKXSHCCGZHQJ&amp;lid=LSTSGLFPKXSHCCGZHQJ0V7IME&amp;marketplace=FLIPKART&amp;q=sunglasses&amp;store=26x&amp;srno=s_1_37&amp;otracker=search&amp;iid=baeb2631-3973-48cc-9b34-bcda19dab0b5.SGLFPKXSHCCGZHQJ.SEARCH&amp;ssid=kni2opbcy80000001682388062069&amp;qH=2cc465e3eef5bff0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -504,25 +504,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>World Wear Footwear</t>
+          <t>NuVew</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Men 9325 Latest Collection Stylish Sports Sneakers Running Shoes Running Shoes For Men</t>
+          <t>UV Protection, Mirrored Wayfarer Sunglasses (57)</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>229</v>
+        <v>99</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/i/k/a/7-9325-7-world-wear-footwear-red-original-imaggbwyva8fdprh.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/k7c88sw0/sunglass/n/x/x/m-nw-82230-22-16043-nuvew-original-imafphyfvdbfvzz4.jpeg?q=70</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/world-wear-footwear-men-9325-latest-collection-stylish-sports-sneakers-running-shoes/p/itmd8d6f0cbb70a2?pid=SHOFZKGHJUGVWHB6&amp;lid=LSTSHOFZKGHJUGVWHB6LOVDMS&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_8&amp;otracker=search&amp;iid=en_55NE740n3PBINQSfiT3LF8u7%2FUYda6CUqHj6lF%2BTnVAZkMpKvsbDzGb8ji21thJSSZeTOJMW0riObSHXb1q7Rg%3D%3D&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
+          <t>https://www.flipkart.com/nuvew-wayfarer-sunglasses/p/itmc879a075eb281?pid=SGLFPKXR8GV65NXX&amp;lid=LSTSGLFPKXR8GV65NXXZ1UEAN&amp;marketplace=FLIPKART&amp;q=sunglasses&amp;store=26x&amp;srno=s_1_15&amp;otracker=search&amp;iid=baeb2631-3973-48cc-9b34-bcda19dab0b5.SGLFPKXR8GV65NXX.SEARCH&amp;ssid=kni2opbcy80000001682388062069&amp;qH=2cc465e3eef5bff0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -537,25 +537,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>World Wear Footwear</t>
+          <t>Elligator</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Affordable Range of Stylish Casual Walking Comfortable Sports Running Shoes For Men</t>
+          <t>UV Protection Cat-eye, Retro Square, Oval, Round Sunglasses (54)</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>249</v>
+        <v>129</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/f/p/l/8-9326-8-world-wear-footwear-yellow-original-imagmengqep9gbwu.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/sunglass/w/x/t/candyh1-medium-elligator-original-imagzwtxfqq7t7wh.jpeg?q=70</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/world-wear-footwear-affordable-range-stylish-casual-walking-comfortable-sports-running-shoes-men/p/itm782f788a1f88a?pid=SHOFZKGRGKBZP3SN&amp;lid=LSTSHOFZKGRGKBZP3SNSYEO9M&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_3&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOFZKGRGKBZP3SN.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
+          <t>https://www.flipkart.com/elligator-cat-eye-retro-square-oval-round-sunglasses/p/itmc4ec56504c25d?pid=SGLGHBTW8H9SZFWE&amp;lid=LSTSGLGHBTW8H9SZFWECL7RUU&amp;marketplace=FLIPKART&amp;q=sunglasses&amp;store=26x&amp;srno=s_1_38&amp;otracker=search&amp;iid=baeb2631-3973-48cc-9b34-bcda19dab0b5.SGLGHBTW8H9SZFWE.SEARCH&amp;ssid=kni2opbcy80000001682388062069&amp;qH=2cc465e3eef5bff0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -570,25 +570,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>World Wear Footwear</t>
+          <t>NuVew</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Latest Exclusive Affordable Collection of Trendy &amp; Stylish White Casual Shoes Sneakers For Men</t>
+          <t>UV Protection Sports Sunglasses (65)</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>279</v>
+        <v>129</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/t/6/w/9-vs-9500-9-world-wear-footwear-white-original-imagn6a5fqbncryj.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/k0y6cnk0/sunglass/f/k/n/m-nw-sp-c5-51069-nuvew-original-imafkhgt4qeyvuzh.jpeg?q=70</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/world-wear-footwear-latest-exclusive-affordable-collection-trendy-stylish-white-casual-shoes-sneakers-men/p/itm83ce9c55756be?pid=SHOGG255UC4BN2HC&amp;lid=LSTSHOGG255UC4BN2HC7PT108&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_23&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOGG255UC4BN2HC.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
+          <t>https://www.flipkart.com/nuvew-sports-sunglasses/p/itm7bccdde72b083?pid=SGLFKGN24YMFKMTT&amp;lid=LSTSGLFKGN24YMFKMTTSY5ZGB&amp;marketplace=FLIPKART&amp;q=sunglasses&amp;store=26x&amp;srno=s_1_33&amp;otracker=search&amp;iid=baeb2631-3973-48cc-9b34-bcda19dab0b5.SGLFKGN24YMFKMTT.SEARCH&amp;ssid=kni2opbcy80000001682388062069&amp;qH=2cc465e3eef5bff0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -603,25 +603,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SFR</t>
+          <t>SRPM</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sneakers For Men</t>
+          <t>UV Protection Wayfarer Sunglasses (50)</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>279</v>
+        <v>149</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/q/o/g/-original-imagg4zmbgz2xcxz.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/k2gh30w0/sunglass/k/p/y/medium-waf2019-03-elligator-original-imafhry2uhysjbhd.jpeg?q=70</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/sfr-sneakers-men/p/itm0ae40ea4142eb?pid=SHOGFD3CZFTT4DQ2&amp;lid=LSTSHOGFD3CZFTT4DQ2SSBU0P&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_30&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOGFD3CZFTT4DQ2.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
+          <t>https://www.flipkart.com/srpm-wayfarer-sunglasses/p/itmaf19ae5820c06?pid=SGLFHQPHY2GZ4HFP&amp;lid=LSTSGLFHQPHY2GZ4HFP0AZWKY&amp;marketplace=FLIPKART&amp;q=sunglasses&amp;store=26x&amp;spotlightTagId=FkPickId_26x&amp;srno=s_1_3&amp;otracker=search&amp;fm=organic&amp;iid=baeb2631-3973-48cc-9b34-bcda19dab0b5.SGLFHQPHY2GZ4HFP.SEARCH&amp;ppt=sp&amp;ppn=sp&amp;ssid=kni2opbcy80000001682388062069&amp;qH=2cc465e3eef5bff0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -636,25 +636,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>World Wear Footwear</t>
+          <t>Elligator</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Exclusive Range of Stylish Comfortable Sports Sneakers Running Shoes Running Shoes For Men</t>
+          <t>UV Protection Cat-eye, Retro Square, Oval, Round Sunglasses (54)</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>289</v>
+        <v>149</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/ktizdzk0/shoe/y/b/x/7-ws-9310-tying-grey-original-imag6ut3hzm2zyqm.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/sunglass/r/n/z/medium-candyb1-elligator-original-imaggtvrnnrbdvkn.jpeg?q=70</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/world-wear-footwear-exclusive-range-stylish-comfortable-sports-sneakers-running-shoes-men/p/itmb30666ea35211?pid=SHOFZ2QY5SF4KTHQ&amp;lid=LSTSHOFZ2QY5SF4KTHQ0XUFV5&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_26&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOFZ2QY5SF4KTHQ.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
+          <t>https://www.flipkart.com/elligator-cat-eye-retro-square-oval-round-sunglasses/p/itm66596f152a3af?pid=SGLGGV2EVRWE9H9J&amp;lid=LSTSGLGGV2EVRWE9H9JPS3A7W&amp;marketplace=FLIPKART&amp;q=sunglasses&amp;store=26x&amp;spotlightTagId=BestsellerId_26x&amp;srno=s_1_4&amp;otracker=search&amp;fm=organic&amp;iid=baeb2631-3973-48cc-9b34-bcda19dab0b5.SGLGGV2EVRWE9H9J.SEARCH&amp;ppt=sp&amp;ppn=sp&amp;ssid=kni2opbcy80000001682388062069&amp;qH=2cc465e3eef5bff0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -669,25 +669,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BRUTON</t>
+          <t>Elligator</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Trendy Sports Running Running Shoes For Men</t>
+          <t>UV Protection Round Sunglasses (53)</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>299</v>
+        <v>149</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/g/i/g/10-rng-2021-blu-orng-44-bruton-blue-orange-original-imagdzcpzhscxwhg-bb.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/jw2f6vk0/sunglass/a/c/m/av034-free-size-elligator-original-imafgu572gmxcymq.jpeg?q=70</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/bruton-trendy-sports-running-shoes-men/p/itmf2e3878bc1109?pid=SHOGDZCP676P2WFZ&amp;lid=LSTSHOGDZCP676P2WFZJOSDH9&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_7&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOGDZCP676P2WFZ.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
+          <t>https://www.flipkart.com/elligator-round-sunglasses/p/itmfgu57xzab7wag?pid=SGLFGTWZYB34UACM&amp;lid=LSTSGLFGTWZYB34UACMJPZAHD&amp;marketplace=FLIPKART&amp;q=sunglasses&amp;store=26x&amp;srno=s_1_7&amp;otracker=search&amp;iid=baeb2631-3973-48cc-9b34-bcda19dab0b5.SGLFGTWZYB34UACM.SEARCH&amp;ssid=kni2opbcy80000001682388062069&amp;qH=2cc465e3eef5bff0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -702,30 +702,30 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BRUTON</t>
+          <t>Elligator</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> for Trendy </t>
+          <t>UV Protection Aviator, Wayfarer Sunglasses (54)</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>299</v>
+        <v>149</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/813RXO-z3yL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/l2ghgnk0/shopsy-sunglass/d/6/v/53-av102-srpm-original-imagdsuszf8wgssz.jpeg?q=70</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/BRUTON-Trendy-Running-Exclusive-Numeric_10/dp/B0B5KSW65R/ref=sr_1_23?keywords=shoes&amp;qid=1682169683&amp;sr=8-23</t>
+          <t>https://www.flipkart.com/elligator-aviator-wayfarer-sunglasses/p/itma41fafe9c4521?pid=SGLGEAKBZTSNM4AN&amp;lid=LSTSGLGEAKBZTSNM4ANKLWSE5&amp;marketplace=FLIPKART&amp;q=sunglasses&amp;store=26x&amp;spotlightTagId=BestsellerId_26x&amp;srno=s_1_23&amp;otracker=search&amp;iid=baeb2631-3973-48cc-9b34-bcda19dab0b5.SGLGEAKBZTSNM4AN.SEARCH&amp;ssid=kni2opbcy80000001682388062069&amp;qH=2cc465e3eef5bff0</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -735,25 +735,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Kraasa</t>
+          <t>Elligator</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sneakers For Women</t>
+          <t>UV Protection Round Sunglasses (53)</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>299</v>
+        <v>149</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/i/r/c/5-girlshoe1415-5-kraasa-white-original-imagfh86jr5wdetn-bb.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/jxapua80/sunglass/z/b/y/free-size-av201-elligator-original-imafhsbqze8eqg2e.jpeg?q=70</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/kraasa-sneakers-women/p/itm414d255dba994?pid=SHOGEXNFUU3WFUTU&amp;lid=LSTSHOGEXNFUU3WFUTUX4VHZQ&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_29&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOGEXNFUU3WFUTU.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
+          <t>https://www.flipkart.com/elligator-round-sunglasses/p/itmfhsbqywv36y54?pid=SGLFHRKF5GPR6ZBY&amp;lid=LSTSGLFHRKF5GPR6ZBY1Z1BRU&amp;marketplace=FLIPKART&amp;q=sunglasses&amp;store=26x&amp;srno=s_1_11&amp;otracker=search&amp;iid=baeb2631-3973-48cc-9b34-bcda19dab0b5.SGLFHRKF5GPR6ZBY.SEARCH&amp;ssid=kni2opbcy80000001682388062069&amp;qH=2cc465e3eef5bff0</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -768,25 +768,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIRDE</t>
+          <t>SRPM</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Premium Style Comfortable Casual Shoes For Women Slip On Sneakers For Women</t>
+          <t>UV Protection Wayfarer Sunglasses (50)</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>299</v>
+        <v>169</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/l3vxbbk0/shoe/l/a/i/8-brd-752-8-birde-pink-original-imagewqx2fkajtgp.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/sunglass/5/m/d/medium-sun-2022-s3-srpm-original-imagm3hcgbx5xu2e.jpeg?q=70</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/birde-premium-style-comfortable-casual-shoes-women-slip-sneakers/p/itm0831c912b0fe9?pid=SHOGEWQYCSV3GU8X&amp;lid=LSTSHOGEWQYCSV3GU8XBVGU1U&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_31&amp;otracker=search&amp;iid=en_55NE740n3PBINQSfiT3LF8u7%2FUYda6CUqHj6lF%2BTnVDCDHrvxTwb3gP2%2B%2BHdNU%2FPUjkwwCbGuDXC3DSl6KRooA%3D%3D&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
+          <t>https://www.flipkart.com/srpm-wayfarer-sunglasses/p/itmf7dffafeb6b90?pid=SGLGM3HCWHWZUHVA&amp;lid=LSTSGLGM3HCWHWZUHVAMYKW78&amp;marketplace=FLIPKART&amp;q=sunglasses&amp;store=26x&amp;srno=s_1_14&amp;otracker=search&amp;iid=baeb2631-3973-48cc-9b34-bcda19dab0b5.SGLGM3HCWHWZUHVA.SEARCH&amp;ssid=kni2opbcy80000001682388062069&amp;qH=2cc465e3eef5bff0</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -801,25 +801,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>aadi</t>
+          <t>Elligator</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mesh |Lightweight|Comfort|Summer|Trendy|Walking|Outdoor|Daily Use For Men</t>
+          <t>UV Protection, Mirrored Wayfarer Sunglasses (54)</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>299</v>
+        <v>179</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/v/g/1/bdr123w-8-baadri-white-original-imafvgudgbkpxhzr-bb.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/l29c9e80/shopsy-sunglass/n/p/b/54-newwyfr001-elligator-original-imagdnf9ahztc7ju.jpeg?q=70</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/aadi-mesh-lightweight-comfort-summer-trendy-walking-outdoor-daily-use-men/p/itmd112c87241dfd?pid=SHOFQU45NYGF4FJG&amp;lid=LSTSHOFQU45NYGF4FJG29I4Q4&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_39&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOFQU45NYGF4FJG.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
+          <t>https://www.flipkart.com/elligator-wayfarer-sunglasses/p/itm5007cea5e2a48?pid=SGLGEFTJDVDTZZBY&amp;lid=LSTSGLGEFTJDVDTZZBYY6ROKL&amp;marketplace=FLIPKART&amp;q=sunglasses&amp;store=26x&amp;srno=s_1_5&amp;otracker=search&amp;iid=baeb2631-3973-48cc-9b34-bcda19dab0b5.SGLGEFTJDVDTZZBY.SEARCH&amp;ssid=kni2opbcy80000001682388062069&amp;qH=2cc465e3eef5bff0</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -834,25 +834,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIRDE</t>
+          <t>PIRASO</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Stylish Comfortable Lightweight, Breathable Black Running shoes Walking Shoes For Men</t>
+          <t>UV Protection Rectangular Sunglasses (52)</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>299</v>
+        <v>182</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/l0igvww0/shoe/j/x/z/7-brd-678-7-birde-blue-original-imagca7bcj6p99gw.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/kxjav0w0/sunglass/4/g/s/95004-black-s-piraso-original-imag9yw8ws4qqdfc.jpeg?q=70</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/birde-stylish-comfortable-lightweight-breathable-black-running-shoes-walking-men/p/itm8cc2e7e50f824?pid=SHOGCA7CR2HZR3GN&amp;lid=LSTSHOGCA7CR2HZR3GNGPNJEJ&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_19&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOGCA7CR2HZR3GN.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
+          <t>https://www.flipkart.com/piraso-rectangular-sunglasses/p/itm3da7d3ccfb529?pid=SGLG9TZXQMY4QHWX&amp;lid=LSTSGLG9TZXQMY4QHWXXOC34E&amp;marketplace=FLIPKART&amp;q=sunglasses&amp;store=26x&amp;srno=s_1_31&amp;otracker=search&amp;iid=baeb2631-3973-48cc-9b34-bcda19dab0b5.SGLG9TZXQMY4QHWX.SEARCH&amp;ssid=kni2opbcy80000001682388062069&amp;qH=2cc465e3eef5bff0</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -867,25 +867,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Nobelite</t>
+          <t>Shaah Collection</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sports Running Shoes For Men</t>
+          <t>UV Protection, Polarized, Mirrored Rectangular Sunglasses (Free Size)</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>299</v>
+        <v>185</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/n/p/h/7-advnchr-41-nobelite-t-blue-original-imagct54mz3wzpwx-bb.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/ki0loy80-0/sunglass/t/7/i/medium-white01-like-future-original-imafxwg6dfrfae9n.jpeg?q=70</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/nobelite-sports-running-shoes-men/p/itm0d3682bc0c30b?pid=SHOGCEYQ2CVXHYFS&amp;lid=LSTSHOGCEYQ2CVXHYFSF3CU4T&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_35&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOGCEYQ2CVXHYFS.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
+          <t>https://www.flipkart.com/shaah-collection-rectangular-sunglasses/p/itm201340b1c3e13?pid=SGLFXWGV5TGFFSPX&amp;lid=LSTSGLFXWGV5TGFFSPXSORUG9&amp;marketplace=FLIPKART&amp;q=sunglasses&amp;store=26x&amp;srno=s_1_9&amp;otracker=search&amp;iid=baeb2631-3973-48cc-9b34-bcda19dab0b5.SGLFXWGV5TGFFSPX.SEARCH&amp;ssid=kni2opbcy80000001682388062069&amp;qH=2cc465e3eef5bff0</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -900,30 +900,30 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIRDE</t>
+          <t>Generic</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Premium Style Comfortable Casual Shoes For Women Slip On Sneakers For Women</t>
+          <t>Royal Hexagonal Design UV 400 Protected Stylish Black Sunglasses Inspired by SRK Goggles - Pathan Shah Rukh Khan</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>299</v>
+        <v>199</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/l3vxbbk0/shoe/v/0/e/7-brd-753-7-birde-blue-original-imagewqwk6aqscgg.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/31-aN+MDs2L._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/birde-premium-style-comfortable-casual-shoes-women-slip-sneakers/p/itm9bb45d142476b?pid=SHOGEWQYYKQBGGPE&amp;lid=LSTSHOGEWQYYKQBGGPEKQ9RXD&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_36&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOGEWQYYKQBGGPE.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
+          <t>https://www.amazon.com/Hexagonal-Protected-Stylish-Sunglasses-Inspired/dp/B0C1TSDF55/ref=sr_1_51?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-51</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>FLIPKART</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -933,30 +933,30 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BRUTON</t>
+          <t>pass pass</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Trendy Running Shoes Running Shoes For Men</t>
+          <t>Men &amp; Women Retro Driving Rectangular Sunglasses (Pack of 2)</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>299</v>
+        <v>199</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/s/i/l/10-2031-blu-wht-44-bruton-blue-original-imagfmdubtgj8ebj-bb.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/51FJdYwK1fL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/bruton-trendy-running-shoes-men/p/itmdd3c8052f3332?pid=SHOGFMHU3WAXGPE7&amp;lid=LSTSHOGFMHU3WAXGPE7R75VFS&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_9&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOGFMHU3WAXGPE7.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
+          <t>https://www.amazon.com/pass-Women-Driving-Rectangular-Sunglasses/dp/B0BBBG7GT1/ref=sr_1_5?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-5</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>FLIPKART</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -966,30 +966,30 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>World Wear Footwear</t>
+          <t>Syga</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Exclusive Affordable Collection of Trendy &amp; Stylish Sport Sneakers Running Shoes Running Shoes For Men</t>
+          <t>SYGA Kid's Eartie Sunglasses Yellow Frame Yellow Lens - Pack of 1</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>299</v>
+        <v>199</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/o/h/g/-original-imaggdffzfvkfrvk.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/31RXopPqtyL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/world-wear-footwear-exclusive-affordable-collection-trendy-stylish-sport-sneakers-running-shoes-men/p/itm6e208275c9243?pid=SHOGBH95YZ4HMFW2&amp;lid=LSTSHOGBH95YZ4HMFW2CGUPLJ&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_5&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOGBH95YZ4HMFW2.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
+          <t>https://www.amazon.com/SYGA-Goggles-Modern-Stylish-Eyewears/dp/B09DPG4C8N/ref=sr_1_45?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-45</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>FLIPKART</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -999,25 +999,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Nobelite</t>
+          <t>PIRASO</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Sports Running Shoes For Men</t>
+          <t>UV Protection Wayfarer Sunglasses (56)</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>299</v>
+        <v>211</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/t/v/9/8-advnchr-42-nobelite-grey-original-imagct5485hm2ckd-bb.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/kdakakw0/sunglass/9/a/y/m-39019-light-red-piraso-original-imafu87qa3qzpsaf.jpeg?q=70</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/nobelite-sports-running-shoes-men/p/itmefb3f13bf45c7?pid=SHOGCEYQAGZBDTMR&amp;lid=LSTSHOGCEYQAGZBDTMRHNG8QH&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_33&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOGCEYQAGZBDTMR.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
+          <t>https://www.flipkart.com/piraso-wayfarer-sunglasses/p/itm11d856300e817?pid=SGLFU88M7WKMJ5X6&amp;lid=LSTSGLFU88M7WKMJ5X6TKGKQL&amp;marketplace=FLIPKART&amp;q=sunglasses&amp;store=26x&amp;srno=s_1_19&amp;otracker=search&amp;iid=baeb2631-3973-48cc-9b34-bcda19dab0b5.SGLFU88M7WKMJ5X6.SEARCH&amp;ssid=kni2opbcy80000001682388062069&amp;qH=2cc465e3eef5bff0</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1032,30 +1032,30 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>layasa</t>
+          <t>PIRASO</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Men's Sneakers Walking Shoe</t>
+          <t>UV Protection Wayfarer Sunglasses (56)</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>349</v>
+        <v>214</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/41k13ickL3L._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/ktop5e80/sunglass/g/f/g/39019-black-m-piraso-original-imag6yvvhz8teqcg.jpeg?q=70</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/layasa-Sneakers-Walking-White-Numeric_10/dp/B0BNYC96YY/ref=sr_1_42?keywords=shoes&amp;qid=1682169683&amp;sr=8-42</t>
+          <t>https://www.flipkart.com/piraso-wayfarer-sunglasses/p/itmc2851eb40986a?pid=SGLG6YVVQAKHZ9GU&amp;lid=LSTSGLG6YVVQAKHZ9GULUCCEM&amp;marketplace=FLIPKART&amp;q=sunglasses&amp;store=26x&amp;srno=s_1_29&amp;otracker=search&amp;iid=baeb2631-3973-48cc-9b34-bcda19dab0b5.SGLG6YVVQAKHZ9GU.SEARCH&amp;ssid=kni2opbcy80000001682388062069&amp;qH=2cc465e3eef5bff0</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -1065,25 +1065,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BRUTON</t>
+          <t>OCHILA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Men Combo Pack of 2 Casual Shoes Canvas Shoes For Men</t>
+          <t>UV Protection Aviator Sunglasses (58)</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>379</v>
+        <v>215</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/m/n/b/6-2-combo-201-blk-fitman-red-6-bruton-multicolor-original-imaggttxszftpw7a.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/kirr24w0-0/sunglass/p/v/a/m-ocl-q5133-ochila-original-imafyheykp3qs5hr.jpeg?q=70</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/bruton-men-combo-pack-2-casual-shoes-canvas/p/itmfhtmuzadpb35f?pid=SHOFHTG95NZPPHZT&amp;lid=LSTSHOFHTG95NZPPHZTOOBWIX&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_28&amp;otracker=search&amp;iid=en_55NE740n3PBINQSfiT3LF8u7%2FUYda6CUqHj6lF%2BTnVAwVnfAtYq7mOTjMM5LXC6MFPtmRLg5YCIC8kbJap6g4Q%3D%3D&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
+          <t>https://www.flipkart.com/ochila-aviator-sunglasses/p/itm3dde1f965d352?pid=SGLFYHEZRHWWSYWZ&amp;lid=LSTSGLFYHEZRHWWSYWZBTL89O&amp;marketplace=FLIPKART&amp;q=sunglasses&amp;store=26x&amp;srno=s_1_20&amp;otracker=search&amp;iid=en_JcNyORuC0bfQzpyT979PQn2ZEfU5PRAVBgG5WxA2YUvwkN7LCxLG9skNV747tFMIxLS7QdhvPduS1hPPriLn2Q%3D%3D&amp;ssid=kni2opbcy80000001682388062069&amp;qH=2cc465e3eef5bff0</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1098,25 +1098,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Labbin</t>
+          <t>PIRASO</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Sneakers For Men</t>
+          <t>UV Protection Clubmaster Sunglasses (54)</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>389</v>
+        <v>224</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/c/d/i/7-95000215-41-roamra-white-original-imag4ahytjmqdzz8-bb.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/sunglass/7/m/m/m-6090-single-sheet-black-piraso-original-imagkfkfpezkgrhx.jpeg?q=70</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/labbin-sneakers-men/p/itm22551963c0809?pid=SHOG497GM6AVWCEU&amp;lid=LSTSHOG497GM6AVWCEUBBOTEM&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_34&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOG497GM6AVWCEU.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
+          <t>https://www.flipkart.com/piraso-clubmaster-sunglasses/p/itm205f3365d0f2d?pid=SGLGKFKFGJZFKGTQ&amp;lid=LSTSGLGKFKFGJZFKGTQ6H6TWT&amp;marketplace=FLIPKART&amp;q=sunglasses&amp;store=26x&amp;spotlightTagId=BestsellerId_26x&amp;srno=s_1_10&amp;otracker=search&amp;iid=baeb2631-3973-48cc-9b34-bcda19dab0b5.SGLGKFKFGJZFKGTQ.SEARCH&amp;ssid=kni2opbcy80000001682388062069&amp;qH=2cc465e3eef5bff0</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1131,25 +1131,25 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIRDE</t>
+          <t>Rich Club</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Trendy And Stylish New Design Sport Shoes For Men Pack Of 2 Running Shoes For Men</t>
+          <t>UV Protection Retro Square Sunglasses (54)</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>399</v>
+        <v>226</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/kyj0vbk0/shoe/e/b/3/6-brd-631-brd-343-6-birde-multicolor-original-imagaqsshqrx9gz5.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/sunglass/a/n/5/this-product-is-sold-as-small-by-the-brand-s11-black-red-monk-original-imagmjyyduayhe55.jpeg?q=70</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/birde-trendy-stylish-new-design-sport-shoes-men-pack-2-running/p/itmd2aee2d5b886d?pid=SHOGAQSWH4HKVRCS&amp;lid=LSTSHOGAQSWH4HKVRCS0NLF18&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_15&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOGAQSWH4HKVRCS.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
+          <t>https://www.flipkart.com/rich-club-retro-square-sunglasses/p/itm36b32b2852761?pid=SGLGDVVBXSTKDRUQ&amp;lid=LSTSGLGDVVBXSTKDRUQ2DLC9T&amp;marketplace=FLIPKART&amp;q=sunglasses&amp;store=26x&amp;srno=s_1_39&amp;otracker=search&amp;iid=baeb2631-3973-48cc-9b34-bcda19dab0b5.SGLGDVVBXSTKDRUQ.SEARCH&amp;ssid=kni2opbcy80000001682388062069&amp;qH=2cc465e3eef5bff0</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1164,25 +1164,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>aadi</t>
+          <t>Elligator</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Synthetic Leather |Lightweight|Comfort|Summer|Trendy|Walking|Outdoor|Daily Use For Men</t>
+          <t>UV Protection Round Sunglasses (50)</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>399</v>
+        <v>229</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/kzhbfrk0/shoe/y/m/k/9-mrj1851-9-aadi-tan-original-imagbgnfvgdhwwc4.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/jpu324w0/sunglass/t/m/v/free-size-mr-026-elligator-original-imafbtta6mp9hsuc.jpeg?q=70</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/aadi-synthetic-leather-lightweight-comfort-summer-trendy-walking-outdoor-daily-use-men/p/itm1e51bde652ee4?pid=SHOGBGNFKFCWNDCD&amp;lid=LSTSHOGBGNFKFCWNDCDEDTUMQ&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_24&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOGBGNFKFCWNDCD.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
+          <t>https://www.flipkart.com/elligator-round-sunglasses/p/itmfbbhpfxzvdhjf?pid=SGLFBB8BZZKGDTMV&amp;lid=LSTSGLFBB8BZZKGDTMVLSTL3V&amp;marketplace=FLIPKART&amp;q=sunglasses&amp;store=26x&amp;srno=s_1_35&amp;otracker=search&amp;iid=baeb2631-3973-48cc-9b34-bcda19dab0b5.SGLFBB8BZZKGDTMV.SEARCH&amp;ssid=kni2opbcy80000001682388062069&amp;qH=2cc465e3eef5bff0</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1197,30 +1197,30 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>World Wear Footwear</t>
+          <t>Generic</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Trendy Stylish Comfortable &amp; Lightweight, Casual High Tops Sneakers Shoes Sneakers For Men</t>
+          <t>Simtim Metal Frame, U V Protected Aviator Sunglasses for Men &amp; Women,Boys &amp; Girls</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>399</v>
+        <v>239</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/l58iaa80/shopsy-shoe/e/d/x/10-spy-9463-world-wear-footwear-black-white-original-imagfymbbyphzdh8.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/21bV-gaBrfL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/world-wear-footwear-trendy-stylish-comfortable-lightweight-casual-high-tops-sneakers-shoes-men/p/itm98336ff1bad6e?pid=SHOGFYMCTQ2JJBTZ&amp;lid=LSTSHOGFYMCTQ2JJBTZV2EKCQ&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_11&amp;otracker=search&amp;iid=en_55NE740n3PBINQSfiT3LF8u7%2FUYda6CUqHj6lF%2BTnVB9nxI2AQJ8mXa5fhk8uSxotONjz9cxKMvG5QayGOJovA%3D%3D&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4Mjc4NDE4NTYyMjYzNTI5OjE2ODIzODgwMzk6c3BfbXRmOjIwMTQ4MTI2NTQxMjk4OjowOjo&amp;url=%2FSimtim-Metal-Protected-Aviator-Sunglasses%2Fdp%2FB0BPY1VH4Q%2Fref%3Dsr_1_21_sspa%3Fkeywords%3Dsunglasses%26qid%3D1682388039%26sr%3D8-21-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>FLIPKART</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -1230,25 +1230,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>WAAN</t>
+          <t>ROYAL SON</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Light weighted Sport shoes, Running Shoes, Training shoes, Cycling shoes, Gyming Shoes, Training &amp; Gym Shoes For Men</t>
+          <t>Others Over-sized Sunglasses (60)</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>419</v>
+        <v>249</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/ksqeky80/shoe/g/p/u/6-805-red-6-waan-black-red-original-imag68r7vvxrffgw.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/sunglass/l/x/l/-original-imagmet9t3aryfez.jpeg?q=70</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/waan-light-weighted-sport-shoes-running-training-cycling-gyming-gym-shoes-men/p/itmb14a31e79f8cf?pid=SHOG5VAJCHKH8BBV&amp;lid=LSTSHOG5VAJCHKH8BBVYGEYFG&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_25&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOG5VAJCHKH8BBV.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
+          <t>https://www.flipkart.com/royal-son-over-sized-sunglasses/p/itm921eac5a6331d?pid=SGLGM92UJ6WSBGHB&amp;lid=LSTSGLGM92UJ6WSBGHB9LNZPP&amp;marketplace=FLIPKART&amp;q=sunglasses&amp;store=26x&amp;srno=s_1_32&amp;otracker=search&amp;iid=en_JcNyORuC0bfQzpyT979PQn2ZEfU5PRAVBgG5WxA2YUtvoP24CBYAp5NVt0320Vp9BMVopJ3Hmqj99BNJmSClcw%3D%3D&amp;ssid=kni2opbcy80000001682388062069&amp;qH=2cc465e3eef5bff0</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1263,25 +1263,25 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>WAAN</t>
+          <t>METRONAUT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Walking Shoes For Men</t>
+          <t>Riding Glasses, UV Protection Sunglass</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>419</v>
+        <v>249</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/ks243gw0/shoe/q/o/w/8-8050-black-green-waan-black-green-original-imag5pt8cgcgw4zp.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/l3929ow0/sunglass/j/f/k/m-mt2001-sil-blk-metronaut-original-imageernzcj5fvpp.jpeg?q=70</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/waan-walking-shoes-men/p/itm6d62d071b641c?pid=SHOG5PT8NQP6ZRTD&amp;lid=LSTSHOG5PT8NQP6ZRTDPKX3IJ&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_10&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOG5PT8NQP6ZRTD.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
+          <t>https://www.flipkart.com/metronaut-riding-glasses-uv-protection-sunglass/p/itm55a79fec3c250?pid=SGLGEERZCJKACGMA&amp;lid=LSTSGLGEERZCJKACGMAJXCG9S&amp;marketplace=FLIPKART&amp;q=sunglasses&amp;store=26x&amp;srno=s_1_27&amp;otracker=search&amp;iid=baeb2631-3973-48cc-9b34-bcda19dab0b5.SGLGEERZCJKACGMA.SEARCH&amp;ssid=kni2opbcy80000001682388062069&amp;qH=2cc465e3eef5bff0</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1296,25 +1296,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>WAAN</t>
+          <t>ROYAL SON</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>shoes Walking Shoes For Men</t>
+          <t>Others Retro Square Sunglasses (52)</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>419</v>
+        <v>249</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/l/u/c/10-8050-black-red-waan-black-red-original-imag5psezyhhwwks-bb.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/sunglass/t/l/j/52-dhi005-c3-royal-son-original-imagm92mtgfgrvhr.jpeg?q=70</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/waan-shoes-walking-men/p/itm1e87c9c44ef0d?pid=SHOG5PSEKMVHGGPY&amp;lid=LSTSHOG5PSEKMVHGGPYFVOREU&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_4&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOG5PSEKMVHGGPY.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
+          <t>https://www.flipkart.com/royal-son-retro-square-sunglasses/p/itm878896d485297?pid=SGLGM92MF2GZKJWF&amp;lid=LSTSGLGM92MF2GZKJWFXTJFNU&amp;marketplace=FLIPKART&amp;q=sunglasses&amp;store=26x&amp;srno=s_1_28&amp;otracker=search&amp;iid=en_JcNyORuC0bfQzpyT979PQn2ZEfU5PRAVBgG5WxA2YUvJrNAgs0OcXP5mXc2U3xY2rVIsZ5otbNdaUQyjJOy5og%3D%3D&amp;ssid=kni2opbcy80000001682388062069&amp;qH=2cc465e3eef5bff0</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1329,30 +1329,30 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>aadi</t>
+          <t>SATYAM KRAFT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Synthetic Leather For Men</t>
+          <t>Trendy Sunglasses for Men, Women | Round, Square, Latest and Stylish Frame Goggles Vintage fashion | Suitabel for Boys, Girls, Driving,Eye Protection | - (Pack of 1)</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>429</v>
+        <v>249</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/q/h/z/7-mrj1852-7-aadi-black-original-imagdwgudezandfs-bb.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/41sL1C-P5HL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/aadi-synthetic-leather-men/p/itm36d147f79a9bb?pid=SHOGBGNFYFFYMX9E&amp;lid=LSTSHOGBGNFYFFYMX9EJS7MHU&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_6&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOGBGNFYFFYMX9E.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
+          <t>https://www.amazon.com/SATYAM-KRAFT-Rectangular-Sunglasses-Travelling/dp/B0B8HC4339/ref=sr_1_26?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-26</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>FLIPKART</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -1362,25 +1362,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>Elligator</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Running / Walking / Sport Shoes For Men Running Shoes For Men</t>
+          <t>UV Protection Round Sunglasses (54)</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>429</v>
+        <v>249</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/u/a/5/-original-imagg7em3fmnhsa4.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/k7dnonk0/sunglass/c/d/b/medium-ro-dc001-elligator-original-imafpmy5rurzjutm.jpeg?q=70</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/tr-running-walking-sport-shoes-men/p/itmd1525a370d519?pid=SHOG3Z9EWXZ8H57W&amp;lid=LSTSHOG3Z9EWXZ8H57WOIXXFI&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_2&amp;otracker=search&amp;iid=en_55NE740n3PBINQSfiT3LF8u7%2FUYda6CUqHj6lF%2BTnVCQ%2F%2FYLdKKw8vo6oTGfPKwk%2BMTd0LlirC%2BG7E1YC3A7Pw%3D%3D&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
+          <t>https://www.flipkart.com/elligator-round-sunglasses/p/itm3c981fc444358?pid=SGLFPHP5BVBJTCDB&amp;lid=LSTSGLFPHP5BVBJTCDB7P4T6G&amp;marketplace=FLIPKART&amp;q=sunglasses&amp;store=26x&amp;srno=s_1_21&amp;otracker=search&amp;iid=baeb2631-3973-48cc-9b34-bcda19dab0b5.SGLFPHP5BVBJTCDB.SEARCH&amp;ssid=kni2opbcy80000001682388062069&amp;qH=2cc465e3eef5bff0</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1395,25 +1395,25 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BRUTON</t>
+          <t>Silver Kartz</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Combo Pack of 2 Sports Shoes Running Shoes For Men Running Shoes For Men</t>
+          <t>UV Protection Wayfarer, Aviator Sunglasses (88)</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>449</v>
+        <v>267</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/m/4/g/7-2cmb-2021-512-black-41-bruton-blue-black-original-imagfgszh7tjza9y-bb.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/sunglass/1/9/k/medium-cm200-silver-kartz-original-imagkgp9hhhkhjtd.jpeg?q=70</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/bruton-combo-pack-2-sports-shoes-running-men/p/itm2703e0e2ea38b?pid=SHOGFGT5TV27YQCQ&amp;lid=LSTSHOGFGT5TV27YQCQB3LWLB&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_21&amp;otracker=search&amp;iid=en_55NE740n3PBINQSfiT3LF8u7%2FUYda6CUqHj6lF%2BTnVBhLEbZq3YlY8SppOe8QJ1xat42VW7xyCv8ghuotynL7g%3D%3D&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
+          <t>https://www.flipkart.com/silver-kartz-wayfarer-aviator-sunglasses/p/itmf7g4pezzem77y?pid=SGLF7G35GZPDJRHE&amp;lid=LSTSGLF7G35GZPDJRHE8XJDYA&amp;marketplace=FLIPKART&amp;q=sunglasses&amp;store=26x&amp;srno=s_1_40&amp;otracker=search&amp;iid=en_JcNyORuC0bfQzpyT979PQn2ZEfU5PRAVBgG5WxA2YUuo%2BL88EJdsm%2BBvSMsBo6fpUHEvobQ1xb3d2LXrOuB8VQ%3D%3D&amp;ssid=kni2opbcy80000001682388062069&amp;qH=2cc465e3eef5bff0</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1428,25 +1428,25 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BRUTON</t>
+          <t>PIRASO</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>omboPack of-2 | sports shoes for men |walking, gym, trekking shoes, Hiking &amp; Trekking Shoes For Men</t>
+          <t>UV Protection Aviator Sunglasses (Free Size)</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>449</v>
+        <v>268</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/f/h/e/7-rng-2cmb-2031-551-41-bruton-blue-white-original-imaggameyhax2hwu.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/k5vcya80/sunglass/g/r/p/m-3026-gold-black-b-piraso-original-imafzggcnn5urwcw.jpeg?q=70</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/bruton-ombopack-of-2-sports-shoes-men-walking-gym-trekking-shoes-hiking/p/itmbf74f6a0c686b?pid=SHOGGAMEC8C8T4T8&amp;lid=LSTSHOGGAMEC8C8T4T8IHE1TB&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_17&amp;otracker=search&amp;iid=en_55NE740n3PBINQSfiT3LF8u7%2FUYda6CUqHj6lF%2BTnVBrO%2F3Hok%2BV7y8abTijDdUuZyjlrdYQIuMbWaJUMYg91Q%3D%3D&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
+          <t>https://www.flipkart.com/piraso-aviator-sunglasses/p/itme10cb1c3329df?pid=SGLFZGE6GMSXZGRP&amp;lid=LSTSGLFZGE6GMSXZGRPN2FYWJ&amp;marketplace=FLIPKART&amp;q=sunglasses&amp;store=26x&amp;srno=s_1_6&amp;otracker=search&amp;iid=baeb2631-3973-48cc-9b34-bcda19dab0b5.SGLFZGE6GMSXZGRP.SEARCH&amp;ssid=kni2opbcy80000001682388062069&amp;qH=2cc465e3eef5bff0</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1461,25 +1461,25 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>aadi</t>
+          <t>PIRASO</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Synthetic Leather |Lightweight|Comfort|Summer|Trendy|Walking|Outdoor|Daily Use For Men</t>
+          <t>UV Protection Aviator Sunglasses (58)</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>479</v>
+        <v>274</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/s/j/i/6-mrj1906-6-aadi-white-grey-original-imagdfyfmxk7thzb-bb.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/kbqu4cw0/sunglass/f/q/s/m-4494-black-gold-piraso-original-imaftyy5gngzhez4.jpeg?q=70</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/aadi-synthetic-leather-lightweight-comfort-summer-trendy-walking-outdoor-daily-use-men/p/itm4328ff9836c98?pid=SHOGDFYGVDJHTT45&amp;lid=LSTSHOGDFYGVDJHTT45BU97AE&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_20&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOGDFYGVDJHTT45.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
+          <t>https://www.flipkart.com/piraso-aviator-sunglasses/p/itm405062704fcc0?pid=SGLFTYY5NWNKSC64&amp;lid=LSTSGLFTYY5NWNKSC64YLGIVW&amp;marketplace=FLIPKART&amp;q=sunglasses&amp;store=26x&amp;srno=s_1_13&amp;otracker=search&amp;iid=baeb2631-3973-48cc-9b34-bcda19dab0b5.SGLFTYY5NWNKSC64.SEARCH&amp;ssid=kni2opbcy80000001682388062069&amp;qH=2cc465e3eef5bff0</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1494,30 +1494,30 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Labbin</t>
+          <t>Dervin</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Casual Sneakers Black Outdoor Shoes For Boys And Men Sneakers For Men</t>
+          <t>Unisex Adult Round Sunglasses (Pack of 2)</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>494</v>
+        <v>279</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/l/t/r/9-874889-43-labbin-black-original-imagnytmyyqbzywf.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/51jLSssKVkL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/labbin-casual-sneakers-black-outdoor-shoes-boys-men/p/itm5d79c7373c0b0?pid=SHOGMBC6XXNZUA8N&amp;lid=LSTSHOGMBC6XXNZUA8NQRW0OV&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_27&amp;otracker=search&amp;iid=en_55NE740n3PBINQSfiT3LF8u7%2FUYda6CUqHj6lF%2BTnVBGDqPas9EtW6KyN%2FBKp6yC3S1n1iOzUBW2ZO1fO1V5UA%3D%3D&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
+          <t>https://www.amazon.com/Dervin-Octagonal-Sunglasses-Frame-Women/dp/B08HKFCFQQ/ref=sr_1_28?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-28</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>FLIPKART</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -1527,30 +1527,30 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BIRDE</t>
+          <t>CREEK</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Combo Pack Of 2 Casual Shoes Sneakers For Men</t>
+          <t>Octagonal Sunglasses/Frame For Men &amp; Women-Combo of 2</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>499</v>
+        <v>285</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/6/y/c/10-au-brd-797-brd-685-birde-white-black-original-imagmhgyzkuwa8ph.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/61tIUAAdpDL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/birde-combo-pack-2-casual-shoes-sneakers-men/p/itm9470c144c4484?pid=SHOGMHJZTNN4JEQP&amp;lid=LSTSHOGMHJZTNN4JEQPOS7XCQ&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_13&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOGMHJZTNN4JEQP.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
+          <t>https://www.amazon.com/CREEK-Unisex-Adult-Sunglasses-Silver/dp/B08RP5Q2SN/ref=sr_1_54?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-54</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>FLIPKART</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -1560,30 +1560,30 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BIRDE</t>
+          <t>CREATURE</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Combo Pack of 2 Sports Shoes Running Shoes For Men</t>
+          <t>Unisex Adult Square Sunglasses Purple Frame, Purple Lens(M) - (Pack Of 1)</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>499</v>
+        <v>289</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/kqidx8w0/shoe/i/4/n/6-brd-406-300-blue-6-birde-blue-original-imag4g8cmfkfzkjg.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/712Dvez61SL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/birde-combo-pack-2-sports-shoes-running-men/p/itma4b1034f357f3?pid=SHOG7YUYQTKYYJHM&amp;lid=LSTSHOG7YUYQTKYYJHMBRNXS9&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_14&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOG7YUYQTKYYJHM.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
+          <t>https://www.amazon.com/CREATURE-Wayfarer-Protected-Sunglasses-Frame-Black/dp/B078RN2FG2/ref=sr_1_35?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-35</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>FLIPKART</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -1593,30 +1593,30 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Bourge</t>
+          <t>SUNBEE</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Men's Loire-z126 Running </t>
+          <t>UV Protection, Polarized Wayfarer Sunglasses (Free Size)</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>499</v>
+        <v>293</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71GYZvQqVLL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/kp4difk0/sunglass/w/u/i/medium-waycombosix-like-future-original-imag3fhwpzdrs8pp.jpeg?q=70</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Bourge-Loire-Z126-Running-Shoes-11-Loire-61-11/dp/B08MBCFTRX/ref=sr_1_27?keywords=shoes&amp;qid=1682169683&amp;sr=8-27</t>
+          <t>https://www.flipkart.com/sunbee-wayfarer-sunglasses/p/itm0ec82c2e7927f?pid=SGLG3FTNVJFX45YX&amp;lid=LSTSGLG3FTNVJFX45YX2YSY8S&amp;marketplace=FLIPKART&amp;q=sunglasses&amp;store=26x&amp;srno=s_1_26&amp;otracker=search&amp;iid=baeb2631-3973-48cc-9b34-bcda19dab0b5.SGLG3FTNVJFX45YX.SEARCH&amp;ssid=kni2opbcy80000001682388062069&amp;qH=2cc465e3eef5bff0</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -1626,30 +1626,30 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>aadi</t>
+          <t>CRIBA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Lightweight,Comfort,Summer,Trendy,Walking,Outdoor,Stylish,Training,Daily Use Walking Shoes For Men</t>
+          <t>Unisex Rectangle Sunglasses</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>499</v>
+        <v>299</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/h/a/i/8-mrj2100-8-aadi-white-black-grey-original-imagn8yketvx3h8h.jpeg?q=70</t>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/aadi-lightweight-comfort-summer-trendy-walking-outdoor-stylish-training-daily-use-walking-shoes-men/p/itm95abe81cacb0d?pid=SHOGNFAWPEKRC97G&amp;lid=LSTSHOGNFAWPEKRC97GNIFHTG&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_12&amp;otracker=search&amp;iid=en_55NE740n3PBINQSfiT3LF8u7%2FUYda6CUqHj6lF%2BTnVAZvtEjaqZk1%2FvVrwUhuUe%2B8NahkFixtoba1NCd3pqL%2Fg%3D%3D&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
+          <t>https://www.myntra.com/sunglasses/criba/criba-unisex-black-lens--black-rectangle-sunglasses-with-uv-protected-lens-crcandy-260/16566206/buy</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>FLIPKART</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -1659,30 +1659,30 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Campus</t>
+          <t>ALIGATORR</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Men's OXYFIT (N) Walking Shoe</t>
+          <t>Unisex Rectangle Sunglasses with UV Protected Lens</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>512</v>
+        <v>299</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61lfgSuma9L._AC_UL400_.jpg</t>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Campus-OXYFIT-BT-GRN-Walking-Shoes/dp/B09RPQH5N5/ref=sr_1_5?keywords=shoes&amp;qid=1682169683&amp;sr=8-5</t>
+          <t>https://www.myntra.com/sunglasses/aligatorr/aligatorr-unisex-black-lens--black-uv-protected-rectangle-sunglasses-agrcandy-260/16768312/buy</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -1692,25 +1692,25 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Liberty</t>
+          <t>Generic</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Boy SCHZONE-DV Black School Uniform Shoe</t>
+          <t>HUB CREATION Unisex Adult Full Rim Square Branded Latest and Stylish Sunglasses | 100% UV Protected Men &amp; Women Casual Sunglasses</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>568</v>
+        <v>299</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71hiqqfRFkL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/41YBUhe4O7L._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Force-10-Liberty-Unisex-School/dp/B01KTPNJLM/ref=sr_1_3?keywords=shoes&amp;qid=1682169683&amp;sr=8-3</t>
+          <t>https://www.amazon.com/CREATION-Branded-Stylish-Sunglasses-Protected/dp/B0BTYV3HQ4/ref=sr_1_44?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-44</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1725,30 +1725,30 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>RapidBox</t>
+          <t>ELEGANTE</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Sneakers For Men</t>
+          <t>Smooth Leg Covers Lightweight Square Kabir Singh Sunglasses for Men</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>571</v>
+        <v>321</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/x/i/v/6-rpd134-rapidbox-white-original-imag7h6qj97vyryv-bb.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/51UcYS7c9bL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/rapidbox-sneakers-men/p/itm13dd1209e585b?pid=SHOG7H6QGQWMTM4C&amp;lid=LSTSHOG7H6QGQWMTM4C78GSRD&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_32&amp;otracker=search&amp;iid=en_55NE740n3PBINQSfiT3LF8u7%2FUYda6CUqHj6lF%2BTnVBzWszyruO7k5DmTx6Gc00AY8cpU2RpxpjwW%2BD7jjK6Yg%3D%3D&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
+          <t>https://www.amazon.com/elegante-Branded-Lightweight-Sunglasses-Full-Black/dp/B089FQBB7L/ref=sr_1_31?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-31</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>FLIPKART</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -1758,25 +1758,25 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>CREATURE</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Men's Running </t>
+          <t>UV Protected Black Frame Unisex Sunglasses(SUN-069)</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>579</v>
+        <v>329</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/41fFK0sxSZL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51Z+82yuJgL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/ASIAN-Future-01-White-Running-Shoes/dp/B08K7P2FXN/ref=sr_1_45?keywords=shoes&amp;qid=1682169683&amp;sr=8-45</t>
+          <t>https://www.amazon.com/CREATURE-Protected-Black-Unisex-Sunglasses/dp/B09X6S5T9T/ref=sr_1_48?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-48</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1791,25 +1791,25 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>ELEGANTE</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Running </t>
+          <t>Rectanglular Sunglasses for Women Retro Driving Sunlgasses Vintage Fashion Narrow Square Frame UV400 Protection</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>579</v>
+        <v>355</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/617OyFdfJVL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/5193amnm+wL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/ASIAN-Wonder_11-Running-Training-Sports/dp/B09FJLB5FD/ref=sr_1_40?keywords=shoes&amp;qid=1682169683&amp;sr=8-40</t>
+          <t>https://www.amazon.com/elegante-Rectanglular-Sunglasses-Sunlgasses-Protection/dp/B08XP26HTW/ref=sr_1_11?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-11</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -1824,30 +1824,30 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Campus</t>
+          <t>CRIBA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Men's Maxico Running </t>
+          <t>Unisex Rectangle Sunglasses</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>584</v>
+        <v>359</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81Pk4RiSKqL._AC_UL400_.jpg</t>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Campus-Maxico-MODBLU-BLU-Running-Shoes/dp/B0855Z2H1N/ref=sr_1_1?keywords=shoes&amp;qid=1682169683&amp;sr=8-1</t>
+          <t>https://www.myntra.com/sunglasses/criba/criba-unisex-clear-lens--white-rectangle-sunglasses-with-uv-protected-lens-crtrsqrbc/19266006/buy</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
@@ -1857,25 +1857,25 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Bersache</t>
+          <t>VILEN RAY</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sports </t>
+          <t>Square Black Sunglasses For Men Women 100% UV Protection glass for men Outward Adventure Driving Glasses For Men Free Size Men Sunglasses</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>594</v>
+        <v>369</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71vDZjvZG+L._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/414bm6J2guL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Bersache-Lightweight-Trekking-ORI-9010-Numeric_7/dp/B09ZD4F9XH/ref=sr_1_11?keywords=shoes&amp;qid=1682169683&amp;sr=8-11</t>
+          <t>https://www.amazon.com/VILEN-RAY-Sunglasses-Protection-Adventure/dp/B0BVP7C4YX/ref=sr_1_20?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-20</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -1890,30 +1890,30 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BERSACHE</t>
+          <t>RBILZ</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Bersache Sports Shoes For Men|Red For Running,Walking,gym and hiking Shoes Running Shoes For Men</t>
+          <t>Oversized Sunglass Luxury Trendy Classic Style 100% UV Proteted. Flat Top Super Light And Solid Transparent</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>599</v>
+        <v>399</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/m/z/l/6-ori-9010-6-bersache-red-original-imagn69etxggadch.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/419i7RwtujL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/bersache-sports-shoes-men-red-running-walking-gym-hiking-running-men/p/itmc3a5c2933ef80?pid=SHOGDZ7RRSEEUGEP&amp;lid=LSTSHOGDZ7RRSEEUGEPVY8KA4&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_37&amp;otracker=search&amp;iid=en_55NE740n3PBINQSfiT3LF8u7%2FUYda6CUqHj6lF%2BTnVAgQNzA8fY6MVgoTIX6a927kvfARc3IVib6kuF6RaQ0GQ%3D%3D&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4Mjc4NDE4NTYyMjYzNTI5OjE2ODIzODgwMzk6c3BfbXRmOjIwMTM0MjkxNDMyOTk4OjowOjo&amp;url=%2FRBILZ-Oversized-Sunglass-Proteted-Transparent%2Fdp%2FB0BXF5BN7V%2Fref%3Dsr_1_24_sspa%3Fkeywords%3Dsunglasses%26qid%3D1682388039%26sr%3D8-24-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>FLIPKART</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -1923,30 +1923,30 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>asian</t>
+          <t>Dervin</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Blade-13 Men's Sports Shoes,Running Shoes,Walking Shoes,Casual Sneaker Shoes Running Shoes For Men</t>
+          <t>Men's &amp; Boy's Square Sunglasses</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>599</v>
+        <v>399</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/l0vbukw0/shoe/n/w/f/7-blade-13cdgrylgry-asian-grey-original-imagck2xpjwdp9f9.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/61NRp2AD27L._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/asian-blade-13-men-s-sports-shoes-running-shoes-walking-shoes-casual-sneaker-shoes-running-men/p/itm32c24fccaccb9?pid=SHOGCK2XZCUMGN8W&amp;lid=LSTSHOGCK2XZCUMGN8WPXXMSM&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_40&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOGCK2XZCUMGN8W.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
+          <t>https://www.amazon.com/Dervin-Avengers-Sunglasses-Spectacle-Silver-Blue/dp/B08C6BBJNP/ref=sr_1_40?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-40</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>FLIPKART</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -1956,25 +1956,25 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Avant</t>
+          <t>ELEGANTE</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">AVANT Men's Grey/Black Running </t>
+          <t>Tony Stark Steampunk Metal Round Sunglasses for Men</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>609</v>
+        <v>399</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61xJ6SfB-eL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51sbb1ZeycL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Avant-Ultra-Light-Running-Training/dp/B07Q8K1K34/ref=sr_1_30?keywords=shoes&amp;qid=1682169683&amp;sr=8-30</t>
+          <t>https://www.amazon.com/elegante-Branded-Steampunk-Sunglass-Gold-Black/dp/B08411V1WD/ref=sr_1_37?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-37</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -1989,25 +1989,25 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Bourge</t>
+          <t>CREATURE</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mens Vega-m1 Running </t>
+          <t>Black &amp; Green Sunglasses Combo For Men &amp; Women with UV Protection (Lens-Black &amp; Green||Frame-Black||SUN-001-003) - Pack of 2</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>657</v>
+        <v>399</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71POb9z3DKL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71CxtNKeTlL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Bourge-Vega-1-Running-Shoes-9-Vega-1-Black-09/dp/B07H4RM9LJ/ref=sr_1_19?keywords=shoes&amp;qid=1682169683&amp;sr=8-19</t>
+          <t>https://www.amazon.com/CREATURE-Wayfarer-Unisex-Sunglasses-Protection/dp/B079Z4FJD7/ref=sr_1_16?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-16</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2022,30 +2022,30 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Campus</t>
+          <t>hayden haiza</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Men's Running </t>
+          <t>Polarized, UV Protection Aviator Sunglasses (55)</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>658</v>
+        <v>419</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61axl882T+L._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/kmi2g7k0/sunglass/z/i/m/60-k35-hayden-hazia-original-imagfecnfkzqwqfp.jpeg?q=70</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Campus-PRO-F-ORG-Running-Shoes/dp/B09RBGDG8Y/ref=sr_1_43?keywords=shoes&amp;qid=1682169683&amp;sr=8-43</t>
+          <t>https://www.flipkart.com/hayden-haiza-aviator-sunglasses/p/itmc5fa59d885993?pid=SGLGFEF2Y9WHQSPZ&amp;lid=LSTSGLGFEF2Y9WHQSPZOBZPLX&amp;marketplace=FLIPKART&amp;q=sunglasses&amp;store=26x&amp;srno=s_1_2&amp;otracker=search&amp;iid=en_JcNyORuC0bfQzpyT979PQn2ZEfU5PRAVBgG5WxA2YUsx%2B1ep8xYi4yuUc0YsLxA07RGyCYqMweAOs9lj3SnWAQ%3D%3D&amp;ssid=kni2opbcy80000001682388062069&amp;qH=2cc465e3eef5bff0</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -2055,25 +2055,25 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>LANCER</t>
+          <t>ELEGANTE</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Men's Running Shoe</t>
+          <t>Unisex Round Sunglasses Inspired from Allu Arjun Sunglass for Men and Women</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>659</v>
+        <v>431</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61RFlIUeaIL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61E711SNiOL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Lancer-White-Sports-Running-Indus-251/dp/B081LGL5QT/ref=sr_1_35?keywords=shoes&amp;qid=1682169683&amp;sr=8-35</t>
+          <t>https://www.amazon.com/elegante-Unisex-Inspired-Sunglass-Gold-Dark/dp/B08CSXTKTV/ref=sr_1_46?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-46</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2088,30 +2088,30 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Campus</t>
+          <t>VINCENT CHASE</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Men's Strom PRO Running </t>
+          <t>UV Protection Wayfarer Sunglasses (59)</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>674</v>
+        <v>489</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61-5EOuD0xL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/l13whow0/sunglass/z/h/t/151516-59-vincent-chase-original-imagcryhrn7jdwrs.jpeg?q=70</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Campus-Mens-Strom-Running-Shoes/dp/B08R23JXHQ/ref=sr_1_16?keywords=shoes&amp;qid=1682169683&amp;sr=8-16</t>
+          <t>https://www.flipkart.com/vincent-chase-wayfarer-sunglasses/p/itm1737671d0bba7?pid=SGLGCRYGGAJXDT9F&amp;lid=LSTSGLGCRYGGAJXDT9FVYUN8R&amp;marketplace=FLIPKART&amp;q=sunglasses&amp;store=26x&amp;srno=s_1_18&amp;otracker=search&amp;iid=baeb2631-3973-48cc-9b34-bcda19dab0b5.SGLGCRYGGAJXDT9F.SEARCH&amp;ssid=kni2opbcy80000001682388062069&amp;qH=2cc465e3eef5bff0</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -2121,25 +2121,25 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Bersache</t>
+          <t>VINCENT CHASE EYEWEAR</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lightweight White Color Changing Casual </t>
+          <t>ATHLEISURE By Lenskart | Full Rim Square Branded Latest and Stylish Sunglasses | Polarized and 100% UV Protected | For Men &amp; Women | Large | VC S14525 Green - Pack of 1</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>698</v>
+        <v>489</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51OwLvN0boL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/41k5oycDr2L._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Bersache-Lightweight-Changing-Comfortable-Sneakers/dp/B0BV67G4NH/ref=sr_1_37?keywords=shoes&amp;qid=1682169683&amp;sr=8-37</t>
+          <t>https://www.amazon.com/ATHLEISURE-Sunglasses-Polarized-VC-S14525/dp/B09VTHQN1S/ref=sr_1_10?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-10</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2154,25 +2154,25 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>ELEGANTE</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Men's Cosko Sports Running,Walking,Gym,Training Sneaker Lace-Up </t>
+          <t>UV Protected Polarized Sports Sunglasses for Men Driving Cycling Fishing Cricket Sunglasses</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>767</v>
+        <v>499</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61LctS6qp7L._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51ZWr24J6nL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/ASIAN-Cosco-Sports-Running-Shoes/dp/B07P578X58/ref=sr_1_39?keywords=shoes&amp;qid=1682169683&amp;sr=8-39</t>
+          <t>https://www.amazon.com/elegante-Protected-Polarized-Sunglasses-Cricket/dp/B09MPQGXNR/ref=sr_1_49?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-49</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2187,25 +2187,25 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Campus</t>
+          <t>EFERMONE</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Men's Barley Running </t>
+          <t>10SVR Aviator Polarized Sunglasses for Men and Women for Advance 100% Dual UV Coated Sunlight Protection with Impact Resistant Lens (POLA-CLUB Edition)</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>779</v>
+        <v>499</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/615XsPWsj7L._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61GXjcXzc-L._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Campus-Barley-BLK-RED-Running-Shoes/dp/B08537BZGW/ref=sr_1_38?keywords=shoes&amp;qid=1682169683&amp;sr=8-38</t>
+          <t>https://www.amazon.com/EFERMONE-10SVR-Polarized-Sunglasses-Protection/dp/B0BSXM4RB4/ref=sr_1_17?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-17</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2220,25 +2220,25 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Campus</t>
+          <t>GAINX</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Men's Crysta Running </t>
+          <t>Retro Rectangular Aviator Sunglasses Premium Glass Lens Flat Metal Sun Glasses Men Women</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>779</v>
+        <v>499</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81s3mf0WmnL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61h7Gm0aA8S._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Campus-Crysta-PRO-Running-Shoes/dp/B09RBGMXRJ/ref=sr_1_14?keywords=shoes&amp;qid=1682169683&amp;sr=8-14</t>
+          <t>https://www.amazon.com/GAINX-Rectangular-Aviator-Sunglasses-Premium/dp/B091HQRZB8/ref=sr_1_30?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-30</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2253,25 +2253,25 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Centrino</t>
+          <t>EFERMONE</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mens Formal </t>
+          <t>Wayfarer Polarized Sunglasses 100% 400nm UV Protection For Men and Women Travelling Sports Bikes Cars Driving with TAC Impact Resistant Lens (Pola-Club Edition)</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>829</v>
+        <v>499</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71me25nV8pL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51M5TbdeT4L._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Centrino-Brown-Formal-Shoes-8-3380-01/dp/B07QTSF3CD/ref=sr_1_28?keywords=shoes&amp;qid=1682169683&amp;sr=8-28</t>
+          <t>https://www.amazon.com/EFERMONE%C2%AE-Polarized-Sunglasses-Protection-Travelling/dp/B0BTP3719K/ref=sr_1_9?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-9</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2286,25 +2286,25 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Bourge</t>
+          <t>ELEGANTE</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mens Loire-z1 Running </t>
+          <t>Retro Narrow Rimless Sunglasses UV Protection Coating Vintage Rectangle Sunglasses for Women Men</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>829</v>
+        <v>499</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81V-JBy8TNL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51a0oN9l4GL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Bourge-Loire-201-Running-Shoes-10UK-Loire-201-10/dp/B07XTMYWC5/ref=sr_1_29?keywords=shoes&amp;qid=1682169683&amp;sr=8-29</t>
+          <t>https://www.amazon.com/ELEGANTE-Rimless-Sunglasses-Protection-Rectangle/dp/B0BVRQG73Q/ref=sr_1_55?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-55</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2319,25 +2319,25 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Campus</t>
+          <t>ELEGANTE</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Men's Harrow PRO Running </t>
+          <t>Classic HD Polarized Aviator Sunglasses for Men &amp; Women, 100% UV Protected, Lightweight Copper Frame</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>909</v>
+        <v>499</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61tJ1fcA1OL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61qMg0djE8L._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Campus-Harrow-PRO-Running-Shoes/dp/B09WJ7QW4X/ref=sr_1_18?keywords=shoes&amp;qid=1682169683&amp;sr=8-18</t>
+          <t>https://www.amazon.com/ELEGANTE-Polarized-Aviator-Sunglasses-Lightweight/dp/B0B5NNQQWH/ref=sr_1_36?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-36</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2352,30 +2352,30 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Sparx</t>
+          <t>EFERMONE</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SM-671 Sneakers For Men</t>
+          <t>Wayfarer Polarized Sunglasses 100% 400nm UV Protection For Men and Women Travelling Sports Bikes Cars Driving with TAC Impact Resistant Lens (Pola-Club Edition)</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>934</v>
+        <v>499</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/u/x/d/-original-imaggcay6d5jwkw9.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/51M5TbdeT4L._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/sparx-sm-671-sneakers-men/p/itm38c53b126329a?pid=SHOGC2VZYFZ8TVEC&amp;lid=LSTSHOGC2VZYFZ8TVECRISREH&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_38&amp;otracker=search&amp;iid=en_55NE740n3PBINQSfiT3LF8u7%2FUYda6CUqHj6lF%2BTnVAthuXBxwkSybNJ5LNQjP0NC6fghRsG7p9by4tR7Qvk4w%3D%3D&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4Mjc4NDE4NTYyMjYzNTI5OjE2ODIzODgwMzk6c3BfYXRmOjIwMTE4MTcxODU2Njk4OjowOjo&amp;url=%2FEFERMONE%25C2%25AE-Polarized-Sunglasses-Protection-Travelling%2Fdp%2FB0BTP3719K%2Fref%3Dsr_1_1_sspa%3Fkeywords%3Dsunglasses%26qid%3D1682388039%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>FLIPKART</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -2385,25 +2385,25 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Campus</t>
+          <t>GAINX</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Men's Hurricane Running </t>
+          <t>Rectangular Branded Latest and Stylish Sunglasses | 100% UV Protected | Men &amp; Women | Medium</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>954</v>
+        <v>499</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61TURSCnSyL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61fyjzIZzVL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Campus-Hurricane-R-Slate-Running-Shoes8-UK/dp/B0B4KJKWC7/ref=sr_1_22?keywords=shoes&amp;qid=1682169683&amp;sr=8-22</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4Mjc4NDE4NTYyMjYzNTI5OjE2ODIzODgwMzk6c3BfYnRmOjIwMDg2OTkyNzgyMTk4OjowOjo&amp;url=%2FGAINX-Rectangular-Branded-Sunglasses-Protected%2Fdp%2FB0BJXY9BK5%2Fref%3Dsr_1_57_sspa%3Fkeywords%3Dsunglasses%26qid%3D1682388039%26sr%3D8-57-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2418,25 +2418,25 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CRUISER</t>
+          <t>ELEGANTE</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Mens 2505-3 Sneaker</t>
+          <t>Unbreakable and Flexible Kids Polarized Sports Sunglasses for Boys Age 3-10, 100% UV Protection</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>999</v>
+        <v>499</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/616l2codB+L._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/515jkxcRdnL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Cruiser-White-Casual-Shoe-2505-12/dp/B0BTDKGW7Y/ref=sr_1_26?keywords=shoes&amp;qid=1682169683&amp;sr=8-26</t>
+          <t>https://www.amazon.com/elegante-Unbreakable-Polarized-Sunglasses-Protection/dp/B09X4PHM6P/ref=sr_1_50?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-50</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2451,25 +2451,25 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CAMPUS</t>
+          <t>Fastrack</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>MIKE (N) Running Shoes For Men</t>
+          <t>Gradient, UV Protection Wayfarer Sunglasses (Free Size)</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>999</v>
+        <v>566</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/knt7zbk0/shoe/m/r/r/7-5g-845-campus-gry-d-gry-original-imag2eynkpzvz6tf.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/k0jvy4w0/sunglass/8/x/r/m-p448bk5t-fastrack-original-imafkbeztaqbggfz.jpeg?q=70</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/campus-mike-n-running-shoes-men/p/itmf8ff8f65cc63f?pid=SHOG2EYZH4KWYP3Y&amp;lid=LSTSHOG2EYZH4KWYP3YQV6YBO&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_16&amp;otracker=search&amp;iid=60840587-efd6-417e-9c2e-f7cfea9cac0b.SHOG2EYZH4KWYP3Y.SEARCH&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
+          <t>https://www.flipkart.com/fastrack-wayfarer-sunglasses/p/itm09b8a67de159a?pid=SGLFG94CXYTBH8XR&amp;lid=LSTSGLFG94CXYTBH8XRIFJZCU&amp;marketplace=FLIPKART&amp;q=sunglasses&amp;store=26x&amp;srno=s_1_17&amp;otracker=search&amp;iid=baeb2631-3973-48cc-9b34-bcda19dab0b5.SGLFG94CXYTBH8XR.SEARCH&amp;ssid=kni2opbcy80000001682388062069&amp;qH=2cc465e3eef5bff0</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2484,25 +2484,25 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Campus</t>
+          <t>Fastrack</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Men's Everest Running </t>
+          <t>Men's Square Sunglasses Brown Frame, Green Lens (57)-Pack of 1</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>999</v>
+        <v>575</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/515R56LsmjL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61GNHeq14jL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Campus-Everest-Running-Shoes-India/dp/B08W58TSWH/ref=sr_1_9?keywords=shoes&amp;qid=1682169683&amp;sr=8-9</t>
+          <t>https://www.amazon.com/Fastrack-Protected-Square-Mens-Sunglasses/dp/B071CDDQM6/ref=sr_1_42?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-42</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2517,30 +2517,30 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Campus</t>
+          <t>Fastrack</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mike (N) Men's Running </t>
+          <t>UV Protection Aviator Sunglasses (Free Size)</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>999</v>
+        <v>579</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51nIsX9jAPL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/kgtqhe80-0/sunglass/3/d/t/p430gr3-one-size-fits-all-fastrack-original-imafwyqy9gybnrgg.jpeg?q=70</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Campus-Mens-Mike-Running-Shoes/dp/B095T1WPY3/ref=sr_1_7?keywords=shoes&amp;qid=1682169683&amp;sr=8-7</t>
+          <t>https://www.flipkart.com/fastrack-aviator-sunglasses/p/itm1a685f3977a68?pid=SGLF79DQGP7E4G2P&amp;lid=LSTSGLF79DQGP7E4G2PTK7HYW&amp;marketplace=FLIPKART&amp;q=sunglasses&amp;store=26x&amp;srno=s_1_22&amp;otracker=search&amp;iid=baeb2631-3973-48cc-9b34-bcda19dab0b5.SGLF79DQGP7E4G2P.SEARCH&amp;ssid=kni2opbcy80000001682388062069&amp;qH=2cc465e3eef5bff0</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -2550,25 +2550,25 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Adidas</t>
+          <t>Peter Jones</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mens Adiscend M </t>
+          <t>Black Square Oversized Sunglasses for Girls/Women (RD008B)-Pack of 1</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1007</v>
+        <v>579</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81ukpFp8PBL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51EeepNB8ZL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Adidas-Wonder-Yellow-Adiscend-Running/dp/B09N3PCMBG/ref=sr_1_2?keywords=shoes&amp;qid=1682169683&amp;sr=8-2</t>
+          <t>https://www.amazon.com/Peter-Jones-Square-Oversized-Sunglasses/dp/B07H9T4XKV/ref=sr_1_53?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-53</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2583,30 +2583,30 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Red Tape</t>
+          <t>Roadster</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Women's Walking </t>
+          <t>UV Protection Oval Sunglasses (60)</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1077</v>
+        <v>582</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51rt86zDTGL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/kngd0nk0/sunglass/m/q/o/onesize-8366713-roadster-original-imag24gefu3gjyvn.jpeg?q=70</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Red-Tape-Womens-Walking-Shoes-7/dp/B0B8VFRV9S/ref=sr_1_13?keywords=shoes&amp;qid=1682169683&amp;sr=8-13</t>
+          <t>https://www.flipkart.com/roadster-oval-sunglasses/p/itmeb4af8b8d214b?pid=SGLG24GFDFNZSWG8&amp;lid=LSTSGLG24GFDFNZSWG8JDT057&amp;marketplace=FLIPKART&amp;q=sunglasses&amp;store=26x&amp;srno=s_1_8&amp;otracker=search&amp;iid=en_JcNyORuC0bfQzpyT979PQn2ZEfU5PRAVBgG5WxA2YUuRrBfP5fGWRrXUGOK5p5GSJ2rkig9fm%2FxGEe4Z3b4XeA%3D%3D&amp;ssid=kni2opbcy80000001682388062069&amp;qH=2cc465e3eef5bff0</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -2616,25 +2616,25 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Campus</t>
+          <t>VINCENT CHASE EYEWEAR</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Men's Artemis Running </t>
+          <t>By Lenskart | Full Rim WAYFARER Branded Latest and Stylish Sunglasses | Polarized and 100% UV Protected | Men &amp; Women | Large | VC S13982-Pack of 1</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1158</v>
+        <v>599</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61zEZwdsnnL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/41EfF577LQL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Campus-Artemis-CH-Gry-Running-Shoes/dp/B09KNHQF3J/ref=sr_1_47?keywords=shoes&amp;qid=1682169683&amp;sr=8-47</t>
+          <t>https://www.amazon.com/Sunglasses-Polarized-Protected-VC-S13982/dp/B0999RSJHC/ref=sr_1_32?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-32</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2649,25 +2649,25 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Red Tape</t>
+          <t>Generic</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Men's Sports Walking </t>
+          <t>U V Protected Sports Sunglasses/Cricket Sunglasses/Riding Sunglasses/Cycling Sunglasses Pack of 2</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1165</v>
+        <v>629</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/711miD62dQL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51VEKOZrihL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Red-Tape-Sports-Walking-Ground/dp/B0BSN6LR39/ref=sr_1_36?keywords=shoes&amp;qid=1682169683&amp;sr=8-36</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4Mjc4NDE4NTYyMjYzNTI5OjE2ODIzODgwMzk6c3BfYnRmOjIwMTQxMzQyMTI3MTk4OjowOjo&amp;url=%2FProtected-Sports-Sunglasses-Cricket-Cycling%2Fdp%2FB0B17ZHWF5%2Fref%3Dsr_1_59_sspa%3Fkeywords%3Dsunglasses%26qid%3D1682388039%26sr%3D8-59-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -2682,25 +2682,25 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>VINCENT CHASE EYEWEAR</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Men's Everest-01 Sports Trekking &amp; Hiking,Walking </t>
+          <t>By Lenskart | Full Rim Round Branded Latest and Stylish Sunglasses | Polarized and 100% UV Protected | Men &amp; Women | Large | VC S13972-Pack of 1</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1199</v>
+        <v>636</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71g9qoOqd8L._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51Lh+f1WNzS._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/ASIAN-Everest-01-Trekking-Walking-Outsole/dp/B0BSRS4RHG/ref=sr_1_46?keywords=shoes&amp;qid=1682169683&amp;sr=8-46</t>
+          <t>https://www.amazon.com/Polarized-Protected-Sunglasses-VC-S13972/dp/B0999QKNS5/ref=sr_1_8?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-8</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -2715,25 +2715,25 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>VINCENT CHASE EYEWEAR</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Men's Casual </t>
+          <t>By Lenskart | Full Rim Wayfarer Branded Latest and Stylish Sunglasses | Polarized and 100% UV Protected | Men &amp; Women | Large | VC S13973-Pack of 1</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1199</v>
+        <v>636</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61rOuFqRG6L._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/41Dr9I4x1EL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/ASIAN-Rider-01-Breathable-Lightweight-Orthopedic/dp/B09PG9TCQJ/ref=sr_1_48?keywords=shoes&amp;qid=1682169683&amp;sr=8-48</t>
+          <t>https://www.amazon.com/Polarized-Protected-Sunglasses-VC-S13973/dp/B0999SJPWC/ref=sr_1_6?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-6</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -2748,30 +2748,30 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Red Tape</t>
+          <t>Fastrack</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Men's Sneaker</t>
+          <t>UV Protection Wayfarer Sunglasses (Free Size)</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1231</v>
+        <v>639</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71EF0uE9EVL._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/jnkmykw0/sunglass/u/n/r/p429bk2-one-size-fits-all-fastrack-original-imaf9w79ahb7azqx.jpeg?q=70</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Red-Tape-Sneaker-Comfortable-Resistant-8/dp/B0BVBL74CT/ref=sr_1_4?keywords=shoes&amp;qid=1682169683&amp;sr=8-4</t>
+          <t>https://www.flipkart.com/fastrack-wayfarer-sunglasses/p/itme89404d9548ff?pid=SGLF79DQWCWEFUNR&amp;lid=LSTSGLF79DQWCWEFUNRINKNYY&amp;marketplace=FLIPKART&amp;q=sunglasses&amp;store=26x&amp;srno=s_1_34&amp;otracker=search&amp;iid=baeb2631-3973-48cc-9b34-bcda19dab0b5.SGLF79DQWCWEFUNR.SEARCH&amp;ssid=kni2opbcy80000001682388062069&amp;qH=2cc465e3eef5bff0</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -2781,25 +2781,25 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Sparx</t>
+          <t>VINCENT CHASE EYEWEAR</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Men's Running </t>
+          <t>By Lenskart | Full Rim Wayfarer Branded Latest and Stylish Sunglasses | Polarized and 100% UV Protected | Men &amp; Women | Large | VC S14525 (Color:-Black)-Pack of 1</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1367</v>
+        <v>647</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81paxG9XinL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/41yot0ULeJL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Sparx-SX0241G-White-Running-Shoes/dp/B01AQPHKEC/ref=sr_1_34?keywords=shoes&amp;qid=1682169683&amp;sr=8-34</t>
+          <t>https://www.amazon.com/Sunglasses-Polarized-Protected-VC-S14525/dp/B09VTJXXRL/ref=sr_1_25?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-25</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -2814,25 +2814,25 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ATOM</t>
+          <t>Fastrack</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Casuals For Men</t>
+          <t>UV Protection Wayfarer Sunglasses (Free Size)</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1495</v>
+        <v>649</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/t/4/n/8-rkt-19039-white-black-42-atom-white-original-imagzs3gr4gmrwqk.jpeg?q=70</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/jnkmykw0/sunglass/y/v/y/p429bu4-one-size-fits-all-fastrack-original-imafa8fgbc2ec6pd.jpeg?q=70</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/atom-casuals-men/p/itmadd9d9ed39e5c?pid=SHOGHYV87387KAEQ&amp;lid=LSTSHOGHYV87387KAEQQMD7ZH&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_22&amp;otracker=search&amp;iid=en_55NE740n3PBINQSfiT3LF8u7%2FUYda6CUqHj6lF%2BTnVDInH84%2FSxvcCKKsTivy4QjjDgX%2Bs5PePhsIKscRDw1jw%3D%3D&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
+          <t>https://www.flipkart.com/fastrack-wayfarer-sunglasses/p/itm4297d4c05fa6c?pid=SGLF79DQWYPMFYVY&amp;lid=LSTSGLF79DQWYPMFYVYXBJEXX&amp;marketplace=FLIPKART&amp;q=sunglasses&amp;store=26x&amp;srno=s_1_25&amp;otracker=search&amp;iid=baeb2631-3973-48cc-9b34-bcda19dab0b5.SGLF79DQWYPMFYVY.SEARCH&amp;ssid=kni2opbcy80000001682388062069&amp;qH=2cc465e3eef5bff0</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -2847,25 +2847,25 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Red Tape</t>
+          <t>ELEGANTE</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Men's Sports Walking </t>
+          <t>UV Protected Driving Vintage Pilot Gradient Metal Body Square Sunglasses for Men and Women</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1495</v>
+        <v>658</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61SY1q60MsL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/41dFq2Y3ScL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Red-Tape-Sports-Walking-Ground/dp/B0BKZC7PT2/ref=sr_1_8?keywords=shoes&amp;qid=1682169683&amp;sr=8-8</t>
+          <t>https://www.amazon.com/elegante-Protected-Driving-Gradient-Sunglasses/dp/B09NML9N9H/ref=sr_1_13?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-13</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -2880,25 +2880,25 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Red Tape</t>
+          <t>ELEGANTE</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Men Black Walking </t>
+          <t>UV Protected Driving Vintage Pilot Gradient Metal Body Aviator Sunglasses for Men and Women</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1517</v>
+        <v>658</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61tI95sR2iL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51Nyw4S9X8L._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Red-Tape-Beige-Walking-Shoes-9/dp/B0B9X1GRQT/ref=sr_1_12?keywords=shoes&amp;qid=1682169683&amp;sr=8-12</t>
+          <t>https://www.amazon.com/elegante-Protected-Driving-Gradient-Sunglasses/dp/B09NF4F2ZR/ref=sr_1_38?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-38</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -2913,25 +2913,25 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Reebok</t>
+          <t>ELEGANTE</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Mens Sprinter M Running Shoe</t>
+          <t>UV Protected Driving Vintage Pilot Gradient Metal Body Aviator Sunglasses for Men and Women</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1534</v>
+        <v>658</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81WgVHzJXFL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51Nyw4S9X8L._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Reebok-Vector-White-Sprinter-Running/dp/B09N6PY6PR/ref=sr_1_33?keywords=shoes&amp;qid=1682169683&amp;sr=8-33</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4Mjc4NDE4NTYyMjYzNTI5OjE2ODIzODgwMzk6c3BfYXRmOjIwMTQ5NDcyMDA2MDk4OjowOjo&amp;url=%2Felegante-Protected-Driving-Gradient-Sunglasses%2Fdp%2FB09NF4S9X9%2Fref%3Dsr_1_2_sspa%3Fkeywords%3Dsunglasses%26qid%3D1682388039%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -2946,25 +2946,25 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Campus</t>
+          <t>ELEGANTE</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Mens 5g-820 Running Shoe</t>
+          <t>Ponderable UV Protection Coating Round Sunglasses for Men and Women Classic Vintage Metal Sun Glasses</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1599</v>
+        <v>699</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61HfQkk1CRL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51TcDh8lUNL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Campus-Renegade-Beige-Running-Shoes/dp/B08KNHRJ5L/ref=sr_1_20?keywords=shoes&amp;qid=1682169683&amp;sr=8-20</t>
+          <t>https://www.amazon.com/ELEGANTE-Ponderable-Protection-Round-Sunglasses/dp/B0BVW83T38/ref=sr_1_19?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-19</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -2979,25 +2979,25 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>U.S. POLO ASSN.</t>
+          <t>ROYAL SON</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Men's Panal Sneakers</t>
+          <t>Mens Aviator Polarized Sunglasses</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1649</v>
+        <v>704</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/41ojjAehWRL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61wFcIclLxL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/US-Polo-Assn-Sneakers-9-2531918312/dp/B07VJN2VLN/ref=sr_1_21?keywords=shoes&amp;qid=1682169683&amp;sr=8-21</t>
+          <t>https://www.amazon.com/ROYAL-SON-Polarized-Sunglasses-Protection/dp/B084BTZ3XD/ref=sr_1_41?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-41</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3012,25 +3012,25 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Puma</t>
+          <t>Fastrack</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Unisex-Adult Duke Walking Shoe</t>
+          <t>Men Sporty Sunglasses , Green - Pack of 1</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1679</v>
+        <v>709</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71PBv7esqDL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61hJWVEq9dL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Puma-White-Quarry-Running-Shoe-8UK-38889202/dp/B09RF865D4/ref=sr_1_10?keywords=shoes&amp;qid=1682169683&amp;sr=8-10</t>
+          <t>https://www.amazon.com/Fastrack-Protected-Oval-Mens-Sunglasses/dp/B00UQD6B18/ref=sr_1_34?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-34</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3045,30 +3045,30 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>RED TAPE</t>
+          <t>VINCENT CHASE EYEWEAR</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Sports Training &amp; Gym Shoes For Men</t>
+          <t>By Lenskart | Full Rim Wayfarer Branded Latest and Stylish Sunglasses | Polarized and 100% UV Protected | Men &amp; Women | Large | VC S12644-Pack of 1</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1699</v>
+        <v>729</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/shoe/c/r/t/6-rso202-6-red-tape-grey-original-imagm3qvyffmtvwx.jpeg?q=70</t>
+          <t>https://m.media-amazon.com/images/I/41YSqRAqkrL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>https://www.flipkart.com/red-tape-sports-training-gym-shoes-men/p/itm2f9a857271797?pid=SHOGJKBRZMWN2YZP&amp;lid=LSTSHOGJKBRZMWN2YZPNYZYY7&amp;marketplace=FLIPKART&amp;q=shoes&amp;store=osp&amp;srno=s_1_18&amp;otracker=search&amp;iid=en_55NE740n3PBINQSfiT3LF8u7%2FUYda6CUqHj6lF%2BTnVCCcwTOreqTml77KNYBykdxarpk0WgbnlOuiUg5YxHR%2FQ%3D%3D&amp;ssid=4cp31rz59s0000001682169691553&amp;qH=b0a8b6f820479900</t>
+          <t>https://www.amazon.com/Sunglasses-Polarized-Protected-VC-S12644/dp/B08VHKL8BQ/ref=sr_1_18?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-18</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>FLIPKART</t>
+          <t>AMAZON</t>
         </is>
       </c>
     </row>
@@ -3078,25 +3078,25 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>U.S. POLO ASSN.</t>
+          <t>VINCENT CHASE EYEWEAR</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>US Polo Men's Clarkin Sneakers</t>
+          <t>By Lenskart | Full Rim Wayfarer Branded Latest and Stylish Sunglasses | Polarized and 100% UV Protected | Men &amp; Women | Large | LA S13159-Pack of 1</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1799</v>
+        <v>729</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81mNaQwQM+L._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/41qfWT3tVTL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/US-Polo-Association-Sneaker-8-2FD20337G/dp/B08PD7MRG7/ref=sr_1_17?keywords=shoes&amp;qid=1682169683&amp;sr=8-17</t>
+          <t>https://www.amazon.com/Lenskart-Sunglasses-Polarized-Protected-S13159/dp/B0999RCWB4/ref=sr_1_43?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-43</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3111,25 +3111,25 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Adidas</t>
+          <t>Fastrack</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Mens Restound M Running Shoe</t>
+          <t>Men Square Black Sunglasses-Pack of 1</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1814</v>
+        <v>749</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81fBv7tLMGL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61+THk53YIL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Adidas-Impact-Yellow-Restound-Running/dp/B09N3QHFLP/ref=sr_1_15?keywords=shoes&amp;qid=1682169683&amp;sr=8-15</t>
+          <t>https://www.amazon.com/Fastrack-protected-Sunglasses-P357BK1-millimeters/dp/B071CP6K43/ref=sr_1_7?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-7</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3144,25 +3144,25 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Reebok</t>
+          <t>VINCENT CHASE EYEWEAR</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Mens Austin 2.0 M Running Shoe</t>
+          <t>By Lenskart | Full Rim Square Branded Latest and Stylish Sunglasses | Polarized and 100% UV Protected | Men &amp; Women | Large | VC S12593/P-Pack of 1</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2299</v>
+        <v>749</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81XVXNccdTL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51zVpFSM18L._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Reebok-Black-Vector-Austin-Running/dp/B09N6K8HNR/ref=sr_1_41?keywords=shoes&amp;qid=1682169683&amp;sr=8-41</t>
+          <t>https://www.amazon.com/Sunglasses-Polarized-Protected-VC-S12593/dp/B08VGLQNFR/ref=sr_1_33?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-33</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3177,25 +3177,25 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Adidas</t>
+          <t>JM</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Mens Run Stunner Ms Sneaker</t>
+          <t>Retro Clip on Sunglasses Polarized Flip up Sun Glasses for Prescription Glasses Anti-Glare UV Protection Driving</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2359</v>
+        <v>799</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81nKustpo0L._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51alI9B742L._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Adidas-Synthetic-Stunner-Running-Shoes/dp/B0BJL3SM4N/ref=sr_1_44?keywords=shoes&amp;qid=1682169683&amp;sr=8-44</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4Mjc4NDE4NTYyMjYzNTI5OjE2ODIzODgwMzk6c3BfYnRmOjIwMDc0NjE5NzczNDk4OjowOjo&amp;url=%2FJM-Sunglasses-Prescription-Anti-Glare-Protection%2Fdp%2FB0B9MQ8K63%2Fref%3Dsr_1_58_sspa%3Fkeywords%3Dsunglasses%26qid%3D1682388039%26sr%3D8-58-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3210,30 +3210,30 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Nike</t>
+          <t>Rich Club</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Mens Revolution 6 Nn Running Shoe</t>
+          <t>UV Protection Retro Square Sunglasses (50)</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2402</v>
+        <v>799</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71cti5zmv0L._AC_UL400_.jpg</t>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/sunglass/s/b/u/medium-hq-silver-black-hexagun-rich-club-original-imaghrhfrbq6ueud.jpeg?q=70</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Nike-Revolution-University-Gold-Light-Silver-White/dp/B0BNJLDR7F/ref=sr_1_31?keywords=shoes&amp;qid=1682169683&amp;sr=8-31</t>
+          <t>https://www.flipkart.com/rich-club-retro-square-sunglasses/p/itm3bf97b54b6bea?pid=SGLGHRHFFH2RGTTD&amp;lid=LSTSGLGHRHFFH2RGTTDRN1IAW&amp;marketplace=FLIPKART&amp;q=sunglasses&amp;store=26x&amp;srno=s_1_30&amp;otracker=search&amp;iid=baeb2631-3973-48cc-9b34-bcda19dab0b5.SGLGHRHFFH2RGTTD.SEARCH&amp;ssid=kni2opbcy80000001682388062069&amp;qH=2cc465e3eef5bff0</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>AMAZON</t>
+          <t>FLIPKART</t>
         </is>
       </c>
     </row>
@@ -3243,25 +3243,25 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Puma</t>
+          <t>VINCENT CHASE EYEWEAR</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Men's Altas &amp; Radcliff Sports Running Shoe</t>
+          <t>By Lenskart | Full Rim Round Branded Latest and Stylish Sunglasses | Polarized and 100% UV Protected | Men &amp; Women | Large | VC S13119-Pack of 1</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2699</v>
+        <v>825</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61GdZ6d0UCL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51GPOBw8GIL._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Puma-Radcliff-Puma-Black-Running-India-7/dp/B0BG33PCW2/ref=sr_1_32?keywords=shoes&amp;qid=1682169683&amp;sr=8-32</t>
+          <t>https://www.amazon.com/Sunglasses-Polarized-Protected-VC-S13119/dp/B08VGHDG9G/ref=sr_1_29?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-29</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -3276,25 +3276,25 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Adidas</t>
+          <t>VINCENT CHASE EYEWEAR</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Mens Solderrun M Sneaker</t>
+          <t>By Lenskart | Full Rim Wayfarer Branded Latest and Stylish Sunglasses | Polarized and 100% UV Protected | Men &amp; Women | Large | VC S12643-Pack of 1</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3419</v>
+        <v>829</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81OTO-D1AJL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51cx2tw0YeS._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/Adidas-Synthetic-SolderRun-Running-Shoes/dp/B0BJL3W9Q6/ref=sr_1_24?keywords=shoes&amp;qid=1682169683&amp;sr=8-24</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4Mjc4NDE4NTYyMjYzNTI5OjE2ODIzODgwMzk6c3BfYnRmOjIwMDUzNjQ5MDg1MDk4OjowOjo&amp;url=%2FSunglasses-Polarized-Protected-VC-S12643%2Fdp%2FB099BHW7XQ%2Fref%3Dsr_1_60_sspa%3Fkeywords%3Dsunglasses%26qid%3D1682388039%26sr%3D8-60-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -3309,30 +3309,2076 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ASICS</t>
+          <t>VINCENT CHASE EYEWEAR</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Mens Gel-Nimbus 25 Running Shoe</t>
+          <t>By Lenskart | Full Rim Wayfarer Branded Latest and Stylish Sunglasses | Polarized and 100% UV Protected | Men &amp; Women | Large | VC S12643-Pack of 1</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>15989</v>
+        <v>829</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61zRVAp2fPL._AC_UL400_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/4111ORU9O8L._AC_UL320_.jpg</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/ASICS-Gel-Nimbus-Blue-Running-Shoes/dp/B0BN29P5NM/ref=sr_1_25?keywords=shoes&amp;qid=1682169683&amp;sr=8-25</t>
+          <t>https://www.amazon.com/Sunglasses-Polarized-Protected-VC-S12643/dp/B099BG54M5/ref=sr_1_52?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-52</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
           <t>AMAZON</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>VINCENT CHASE EYEWEAR</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>By Lenskart | Full Rim Wayfarer Branded Latest and Stylish Sunglasses | Polarized and 100% UV Protected | Men &amp; Women | Large | VC S13980-Pack of 1</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>829</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/411s0UWkwwL._AC_UL320_.jpg</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Sunglasses-Polarized-Protected-VC-S13980/dp/B0999R1SZY/ref=sr_1_14?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-14</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>VINCENT CHASE EYEWEAR</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>By Lenskart | Full Rim Aviator Branded Latest and Stylish Sunglasses | Polarized and 100% UV Protected | Men &amp; Women | Medium | VC 5158/P-Pack of 1</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>849</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41ZX47JRNML._AC_UL320_.jpg</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Sunglasses-Polarized-Protected-VC-5158/dp/B08VGMBLQW/ref=sr_1_12?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-12</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Gio Collection</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Aviator UV Protected Sunglass for Men &amp; Women</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>876</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/413d697NIvL._AC_UL320_.jpg</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4Mjc4NDE4NTYyMjYzNTI5OjE2ODIzODgwMzk6c3BfYXRmOjIwMTMxNjA2MzUxODk4OjowOjo&amp;url=%2FGio-Collection-Aviator-Protected-Sunglass%2Fdp%2FB093DQQBZN%2Fref%3Dsr_1_4_sspa%3Fkeywords%3Dsunglasses%26qid%3D1682388039%26sr%3D8-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>VINCENT CHASE EYEWEAR</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>By Lenskart | Full Rim Round Branded Latest and Stylish Sunglasses | Polarized and 100% UV Protected | Men &amp; Women | Medium | VC S13112-Pack of 1</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>879</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41KML+1HubL._AC_UL320_.jpg</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Vincent-Lenskart-Sunglasses-Polarized-Protected/dp/B09KV28F4P/ref=sr_1_15?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-15</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>VINCENT CHASE EYEWEAR</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Unisex Adult Sunglasses</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>899</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/5109wYL0YEL._AC_UL320_.jpg</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Sunglasses-Polarized-Protected-VC-S14459/dp/B0BLLKM52P/ref=sr_1_47?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-47</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>VINCENT CHASE EYEWEAR</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>| Full Rim Hexagonal Branded Latest and Stylish Sunglasses | 100% UV Protected | Men &amp; Women | Small | VC S13984 - Pack of 1</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>929</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/41-WAUcPCwL._AC_UL320_.jpg</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Hexagonal-Sunglasses-Protected-VC-S13984/dp/B099NNK8M1/ref=sr_1_39?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-39</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Fastrack</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>UV Protected Aviator Men's Sunglasses - (M242GR4T|58|Green Color Lens)</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>1049</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/512FZYKLB7L._AC_UL320_.jpg</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Fastrack-Protected-Aviator-Mens-Sunglasses/dp/B08BH95XFB/ref=sr_1_27?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-27</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>JIM HALO</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Polarized Sunglasses Sports Sun Glasses Mirror Wrap Around Driving Glasses Fishing Men Women</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>1199</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/717-4a8DgTL._AC_UL320_.jpg</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4Mjc4NDE4NTYyMjYzNTI5OjE2ODIzODgwMzk6c3BfbXRmOjIwMDMxMDAzNzE0OTk4OjowOjo&amp;url=%2FJIM-HALO-Polarized-Sunglasses-Driving%2Fdp%2FB07BGRVTPT%2Fref%3Dsr_1_23_sspa%3Fkeywords%3Dsunglasses%26qid%3D1682388039%26sr%3D8-23-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>HRX by Hrithik Roshan</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>UV Protection Aviator Sunglasses (57)</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>1234</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>https://rukminim1.flixcart.com/image/612/612/kfoapow0-0/sunglass/q/7/w/9038335-s-hrx-by-hrithik-roshan-original-imafw2gghdyd9uhy.jpeg?q=70</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>https://www.flipkart.com/hrx-hrithik-roshan-aviator-sunglasses/p/itm311ab15fc6121?pid=SGLFKYGHCUJ2MMHD&amp;lid=LSTSGLFKYGHCUJ2MMHDRLDWIU&amp;marketplace=FLIPKART&amp;q=sunglasses&amp;store=26x&amp;srno=s_1_36&amp;otracker=search&amp;iid=en_JcNyORuC0bfQzpyT979PQn2ZEfU5PRAVBgG5WxA2YUsLvuCCqYb0W9WFCja4ZWx7iKofk1NrRzLLlusonzdv0g%3D%3D&amp;ssid=kni2opbcy80000001682388062069&amp;qH=2cc465e3eef5bff0</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>FLIPKART</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Fastrack</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Men's Polarized Wayfarer Sunglasses (P418GR4P, Black Frame, Green Lens, 53mm)</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>1399</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61LO2qQ0z1L._AC_UL320_.jpg</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Fastrack-Polarized-Wayfarer-Mens-Sunglasses/dp/B07PLT8WNL/ref=sr_1_56?keywords=sunglasses&amp;qid=1682388039&amp;sr=8-56</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Roman Kings</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Magnus Aviator Sunglasses</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>1499</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61nfvbQ8hKL._AC_UL320_.jpg</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4Mjc4NDE4NTYyMjYzNTI5OjE2ODIzODgwMzk6c3BfYXRmOjIwMTQ4MTQ0NDkxMDk4OjowOjo&amp;url=%2FRoman-Kings-Magnus-Aviator-Sunglasses%2Fdp%2FB0BFLMRKRX%2Fref%3Dsr_1_3_sspa%3Fkeywords%3Dsunglasses%26qid%3D1682388039%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Karsaer</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Karsaer Polarized TR90 Sports Cycling Sunglasses BMX, Running Golf Baseball</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>1529</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61YHEvsUAQL._AC_UL320_.jpg</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MTo4Mjc4NDE4NTYyMjYzNTI5OjE2ODIzODgwMzk6c3BfbXRmOjIwMTQ0MTk2NDAwNjk4OjowOjo&amp;url=%2FKarsaer-Polarized-Sunglasses-Interchangeable-Baseball%2Fdp%2FB0816ZPNSS%2Fref%3Dsr_1_22_sspa%3Fkeywords%3Dsunglasses%26qid%3D1682388039%26sr%3D8-22-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>HRX by Hrithik Roshan</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Polarized, UV Protection Rectangular Sunglasses (Free Size)</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>1535</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>https://rukminim1.flixcart.com/image/612/612/jw6pifk0/sunglass/p/a/r/2311899-onesize-hrx-by-hrithik-roshan-original-imafgwsdhmwccapn.jpeg?q=70</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>https://www.flipkart.com/hrx-hrithik-roshan-rectangular-sunglasses/p/itmfgwschretzahw?pid=SGLFGWAMJKWTJPAR&amp;lid=LSTSGLFGWAMJKWTJPARSKGBSD&amp;marketplace=FLIPKART&amp;q=sunglasses&amp;store=26x&amp;srno=s_1_12&amp;otracker=search&amp;iid=en_JcNyORuC0bfQzpyT979PQn2ZEfU5PRAVBgG5WxA2YUuCNrnkGIk9k%2Bxsbdcx6hprVYPu10W%2FJNTVEQ%2BhIxNKdw%3D%3D&amp;ssid=kni2opbcy80000001682388062069&amp;qH=2cc465e3eef5bff0</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>FLIPKART</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Eyewearlabs</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Polarized, UV Protection Round Sunglasses (54)</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>1599</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>https://rukminim1.flixcart.com/image/612/612/kbwjvrk0/sunglass/5/3/v/medium-tony-stark-eyewearlabs-original-imaft5a6aajzrgux.jpeg?q=70</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>https://www.flipkart.com/eyewearlabs-round-sunglasses/p/itm29c1d4920ee91?pid=SGLFT7C77NWH5HUF&amp;lid=LSTSGLFT7C77NWH5HUF3SC0DS&amp;marketplace=FLIPKART&amp;q=sunglasses&amp;store=26x&amp;srno=s_1_16&amp;otracker=search&amp;iid=en_JcNyORuC0bfQzpyT979PQn2ZEfU5PRAVBgG5WxA2YUurlBaupsvttDFY6RgiDaIL7pr%2BJkJX7PC6zIqgjw%2BvOA%3D%3D&amp;ssid=kni2opbcy80000001682388062069&amp;qH=2cc465e3eef5bff0</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>FLIPKART</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Eyewearlabs</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Polarized, UV Protection Rectangular Sunglasses (62)</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>2199</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>https://rukminim1.flixcart.com/image/612/612/xif0q/sunglass/v/r/h/l-punisher-black-eyewearlabs-original-imagjh6crgbmm8ft.jpeg?q=70</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>https://www.flipkart.com/eyewearlabs-rectangular-sunglasses/p/itmf2cb1bb83d38b?pid=SGLGJH6CFYXUSKFW&amp;lid=LSTSGLGJH6CFYXUSKFWYLKXHF&amp;marketplace=FLIPKART&amp;q=sunglasses&amp;store=26x&amp;srno=s_1_24&amp;otracker=search&amp;iid=en_JcNyORuC0bfQzpyT979PQn2ZEfU5PRAVBgG5WxA2YUs43xlx8NIi%2BHoIqs6od%2F2749fZX1iAfcEPWCQsUtOzGQ%3D%3D&amp;ssid=kni2opbcy80000001682388062069&amp;qH=2cc465e3eef5bff0</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>FLIPKART</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Men Rectangle Sunglasses</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>7390</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-rectangle-sunglasses-with-uv-protected-lens-888392454911/22078956/buy</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Sunglasses-UV Protected Lens</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>7490</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-rectangle-sunglasses-with-uv-protected-lens-888392498465/22082768/buy</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Men Rectangle Sunglasses</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>8190</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-rectangle-sunglasses-with-uv-protected-lens-888392581174/22485826/buy</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Men Rectangle Sunglasses</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>8590</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-rectangle-sunglasses-0oo90969096j560/2350002/buy</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Men Rectangle Sunglasses</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>9190</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/2350263/2018/3/5/11520250419096-OAKLEY-Men-Sunglasses-4141520250419032-1.jpg</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-rectangle-sunglasses-0oo941794170359/2350263/buy</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Men Rectangle UV Sunglasses</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>9190</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-rectangle-sunglasses-with-uv-protected-lens-888392557650/22080820/buy</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Men Rectangle Sunglasses</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>9190</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-rectangle-sunglasses-with-uv-protected-lens-888392470652/22079950/buy</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Men Rectangle Sunglasses</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>9190</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/2009707/2017/11/22/11511342116486-OAKLEY-Men-Rectangle-Sunglasses-8491511342116383-1.jpg</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-polarised-rectangle-sunglasses-0oo91029102e255/2009707/buy</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Men Rectangle Sunglasses</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>9190</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-rectangle-sunglasses-with-uv-protected-lens-888392388124/22079956/buy</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Men Rectangle Sunglasses</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>9390</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/22485834/2023/3/23/5cebb91c-3124-491d-a399-b5c1948ce8361679594196449OAKLEYSUNGLASSES0OO940694064937BlackRectangleSunglasses1.jpg</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-rectangle-sunglasses-with-uv-protected-lens-888392546296/22485834/buy</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Sunglasses-UV Protected Lens</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>9390</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/22080800/2023/2/22/48fef75d-8878-4cae-9dd8-3fd9161be49a1677059326048OAKLEYMenGreyLensGreenRectangleSunglasseswithUVProtectedLens1.jpg</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-rectangle-sunglasses-with-uv-protected-lens-888392560193/22080800/buy</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Men Rectangle Sunglasses</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>9790</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/22075000/2023/2/21/de001b85-e267-405c-8df1-301c02f5cba91676990973238OAKLEY0OO940694060637WhiteRectangleSunglasses1.jpg</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-rectangle-sunglasses-with-uv-protected-lens-888392404800/22075000/buy</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Men Rectangle UV Sunglasses</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>9790</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/22078966/2023/2/22/ec0ad162-2260-42f5-8ec8-87c7ebb274d61677054139071OAKLEYMenRedLensBlackRectangleSunglasseswithUVProtectedLens1.jpg</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-rectangle-sunglasses-with-uv-protected-lens-888392404824/22078966/buy</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Men Rectangle Sunglasses with UV Protected Lens</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>9790</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-rectangle-sunglasses-with-uv-protected-lens-888392499776/22082734/buy</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Men Rectangle UV Sunglasses</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>9790</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-rectangle-sunglasses-with-uv-protected-lens-888392404794/22074986/buy</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Men Rectangle Sunglasses</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>9790</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-rectangle-sunglasses-with-polarised-lens-888392575791/22485862/buy</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Sunglasses-UV Protected Lens</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>9790</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-rectangle-sunglasses-with-uv-protected-lens-888392428332/22074978/buy</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Sunglasses-UV Protected Lens</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>9790</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-rectangle-sunglasses-with-uv-protected-lens-888392404770/22078926/buy</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Men Rectangle Sunglasses with UV Protected Lens</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>9790</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-rectangle-sunglasses-with-uv-protected-lens-888392489319/22082800/buy</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Rectangle Polarised Sunglasses</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>10190</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-rectangle-sunglasses-with-polarised-lens-888392454959/22078968/buy</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Rectangle Polarised Sunglasses</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>10290</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-women-rectangle-sunglasses-with-polarised-lens-888392489227/22080816/buy</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Men Rectangle Sunglasses with UV Protected Lens</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>10390</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-rectangle-sunglasses-with-uv-protected-lens-888392489166/22082812/buy</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Men Rectangle Sunglasses with UV Protected Lens</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>10390</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-rectangle-sunglasses-with-uv-protected-lens-888392489333/22082732/buy</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Sunglasses-UV Protected Lens</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>10390</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-rectangle-sunglasses-with-uv-protected-lens-888392558091/22082770/buy</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Sunglasses-UV Protected Lens</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>10390</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-rectangle-sunglasses-with-uv-protected-lens-888392489159/22080008/buy</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Men Rectangle Sunglasses</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>10690</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-rectangle-sunglasses-with-uv-protected-lens-888392560254/22485844/buy</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Men Rectangle Sunglasses</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>10790</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-rectangle-sunglasses-0oo412441240162/2009691/buy</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Men Rectangle Sunglasses with UV Protected Lens</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>10790</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-rectangle-sunglasses-with-uv-protected-lens-888392388186/22079986/buy</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Men Rectangle Sunglasses</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>11190</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-rectangle-sunglasses-with-uv-protected-lens-888392579836/22485900/buy</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Men Rectangle Sunglasses</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>11290</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-rectangle-sunglasses-0oo407540751360/2349943/buy</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Women Rectangle Sunglasses</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>11390</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-women-rectangle-sunglasses-with-polarised-lens-888392556035/22485884/buy</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Men Rectangle Sunglasses</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>11390</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-rectangle-sunglasses-0oo941794170559/2350265/buy</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Men Rectangle Sunglasses</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>11990</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-mirrored-rectangle-sunglasses-0oo938093800666-93800666/2350198/buy</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Men Rectangle Sunglasses with Polarised Lens</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>12090</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/22082786/2023/2/22/8149cb65-f565-4ab4-a5cd-cea9f9f91dc41677065010579OAKLEYMenBlueLensBlackRectangleSunglasseswithPolarisedLens1.jpg</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-rectangle-sunglasses-with-polarised-lens-888392555403/22082786/buy</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Men Rectangle Sunglasses</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>12490</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-rectangle-sunglasses-with-uv-protected-lens-888392554338/22485828/buy</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Sunglasses with Polarised Lens</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>12590</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-rectangle-sunglasses-with-polarised-lens-888392556004/22080804/buy</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Men Rectangle Sunglasses</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>12590</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-rectangle-sunglasses-with-polarised-lens-888392558138/22080868/buy</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Men Rectangle Sunglasses with Polarised Lens</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>12590</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/22082804/2023/2/22/f874cba3-c15c-416e-8e10-904e5fabfa871677065016566OAKLEYMenGreyLensBlackRectangleSunglasseswithPolarisedLens1.jpg</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-rectangle-sunglasses-with-polarised-lens-888392489173/22082804/buy</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Men Rectangle Sunglasses with Polarised Lens</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>12590</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-rectangle-sunglasses-with-polarised-lens-888392498410/22082806/buy</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Men Rectangle Sunglasses</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>12790</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-rectangle-sunglasses-with-polarised-lens-888392498359/22080898/buy</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Sunglasses with Polarised Lens</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>12790</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/22075048/2023/2/21/a0392d86-01c1-4050-a450-a09173a161bf1676989970022OAKLEY0OO407540751460BrownRectangleSunglasses1.jpg</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-rectangle-sunglasses-with-polarised-lens-888392411679/22075048/buy</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Men Rectangle Sunglasses with UV Protected Lens</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>13790</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-rectangle-sunglasses-with-uv-protected-lens-888392497659/22082746/buy</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Men Rectangle Sunglasses</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>13790</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-rectangle-sunglasses-with-uv-protected-lens-888392577122/22485842/buy</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Men Rectangle Sunglasses</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>14190</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/2009692/2017/9/12/11505221126646-OAKLEY-Men-Rectangle-Sunglasses-6421505221126510-1.jpg</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-rectangle-sunglasses-0oo412441240262/2009692/buy</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Men Rectangle Sunglasses with UV Protected Lens</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>14390</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-rectangle-sunglasses-with-uv-protected-lens-888392557575/22080852/buy</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Men Rectangle Sunglasses</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>15890</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>https://womens-southerngolfassociation.org/wp-content/uploads/2021/10/Image-Not-Available.png</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-rectangle-sunglasses-with-polarised-lens-888392497680/22485832/buy</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>OAKLEY</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Sunglasses with Polarised Lens</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>16590</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>https://assets.myntassets.com/dpr_2,q_60,w_210,c_limit,fl_progressive/assets/images/22080866/2023/2/22/73baf320-c32a-49cc-9bdc-edaebefef28f1677059444514OAKLEYMenBlueLensBlackRectangleSunglasseswithPolarisedLens1.jpg</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>https://www.myntra.com/sunglasses/oakley/oakley-men-rectangle-sunglasses-with-polarised-lens-888392497697/22080866/buy</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>MYNTRA</t>
         </is>
       </c>
     </row>
